--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-26.xlsx
@@ -670,10 +670,10 @@
         <v>1.96</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="H2" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I2" t="n">
         <v>3.85</v>
@@ -691,34 +691,34 @@
         <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="O2" t="n">
         <v>1.16</v>
       </c>
       <c r="P2" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="Q2" t="n">
         <v>1.48</v>
       </c>
       <c r="R2" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="S2" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="T2" t="n">
         <v>1.5</v>
       </c>
       <c r="U2" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="V2" t="n">
         <v>1.35</v>
       </c>
       <c r="W2" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="X2" t="n">
         <v>30</v>
@@ -760,7 +760,7 @@
         <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
@@ -808,10 +808,10 @@
         <v>6.2</v>
       </c>
       <c r="H3" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="I3" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="J3" t="n">
         <v>4.5</v>
@@ -1081,7 +1081,7 @@
         <v>2.18</v>
       </c>
       <c r="I5" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="J5" t="n">
         <v>3.1</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="G7" t="n">
         <v>2.2</v>
@@ -1375,7 +1375,7 @@
         <v>2.52</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1480,7 +1480,7 @@
         <v>2.26</v>
       </c>
       <c r="G8" t="n">
-        <v>2.58</v>
+        <v>2.74</v>
       </c>
       <c r="H8" t="n">
         <v>3.15</v>
@@ -1510,7 +1510,7 @@
         <v>1.72</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.08</v>
+        <v>1.95</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1618,10 +1618,10 @@
         <v>8.6</v>
       </c>
       <c r="H9" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="I9" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="J9" t="n">
         <v>4.5</v>
@@ -1645,7 +1645,7 @@
         <v>2.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>2.14</v>
       </c>
       <c r="G10" t="n">
-        <v>2.44</v>
+        <v>2.56</v>
       </c>
       <c r="H10" t="n">
         <v>3.2</v>
@@ -1780,7 +1780,7 @@
         <v>1.93</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>1.86</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.68</v>
+        <v>1.78</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>2.52</v>
       </c>
       <c r="G14" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H14" t="n">
         <v>2.78</v>
@@ -2317,7 +2317,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="Q14" t="n">
         <v>2.02</v>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="G15" t="n">
         <v>6.2</v>
@@ -2569,7 +2569,7 @@
         <v>1.92</v>
       </c>
       <c r="J16" t="n">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
       <c r="K16" t="n">
         <v>5.4</v>
@@ -2698,13 +2698,13 @@
         <v>6.2</v>
       </c>
       <c r="H17" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="I17" t="n">
         <v>1.85</v>
       </c>
       <c r="J17" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K17" t="n">
         <v>4.4</v>
@@ -2830,16 +2830,16 @@
         <v>1.22</v>
       </c>
       <c r="G18" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="H18" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="I18" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="J18" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="K18" t="n">
         <v>8.800000000000001</v>
@@ -2857,22 +2857,22 @@
         <v>1.1</v>
       </c>
       <c r="P18" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="Q18" t="n">
         <v>1.31</v>
       </c>
       <c r="R18" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="S18" t="n">
         <v>1.84</v>
       </c>
       <c r="T18" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="U18" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2890,7 +2890,7 @@
         <v>170</v>
       </c>
       <c r="AA18" t="n">
-        <v>530</v>
+        <v>640</v>
       </c>
       <c r="AB18" t="n">
         <v>18</v>
@@ -2902,7 +2902,7 @@
         <v>980</v>
       </c>
       <c r="AE18" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AF18" t="n">
         <v>12</v>
@@ -2911,13 +2911,13 @@
         <v>12.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AI18" t="n">
         <v>140</v>
       </c>
       <c r="AJ18" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="AK18" t="n">
         <v>13</v>
@@ -2929,10 +2929,10 @@
         <v>130</v>
       </c>
       <c r="AN18" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="AO18" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19">
@@ -3067,7 +3067,7 @@
         <v>17</v>
       </c>
       <c r="AO19" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-26.xlsx
@@ -682,7 +682,7 @@
         <v>4.2</v>
       </c>
       <c r="K2" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L2" t="n">
         <v>1.21</v>
@@ -691,13 +691,13 @@
         <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="O2" t="n">
         <v>1.16</v>
       </c>
       <c r="P2" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="Q2" t="n">
         <v>1.48</v>
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="G3" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="H3" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="I3" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="J3" t="n">
         <v>4.5</v>
       </c>
       <c r="K3" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>4</v>
       </c>
       <c r="H5" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="I5" t="n">
         <v>2.66</v>
@@ -1087,7 +1087,7 @@
         <v>3.1</v>
       </c>
       <c r="K5" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="Q5" t="n">
         <v>1.84</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="G7" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="H7" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="I7" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="J7" t="n">
-        <v>3.9</v>
+        <v>3.45</v>
       </c>
       <c r="K7" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.52</v>
+        <v>2.28</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="G8" t="n">
         <v>2.74</v>
@@ -1492,7 +1492,7 @@
         <v>3.15</v>
       </c>
       <c r="K8" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1612,40 +1612,40 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="G9" t="n">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H9" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="Q9" t="n">
         <v>1.49</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="J9" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K9" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.57</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1750,19 +1750,19 @@
         <v>2.14</v>
       </c>
       <c r="G10" t="n">
-        <v>2.56</v>
+        <v>2.26</v>
       </c>
       <c r="H10" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="I10" t="n">
-        <v>3.95</v>
+        <v>3.5</v>
       </c>
       <c r="J10" t="n">
-        <v>3.35</v>
+        <v>4.1</v>
       </c>
       <c r="K10" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>1.93</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -2155,16 +2155,16 @@
         <v>4.4</v>
       </c>
       <c r="G13" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="H13" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="I13" t="n">
         <v>1.81</v>
       </c>
       <c r="J13" t="n">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="K13" t="n">
         <v>4.5</v>
@@ -2287,19 +2287,19 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="G14" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="H14" t="n">
         <v>2.78</v>
       </c>
       <c r="I14" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="J14" t="n">
-        <v>3.15</v>
+        <v>2.96</v>
       </c>
       <c r="K14" t="n">
         <v>3.7</v>
@@ -2425,13 +2425,13 @@
         <v>5.2</v>
       </c>
       <c r="G15" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="H15" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="I15" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="J15" t="n">
         <v>4.4</v>
@@ -2587,10 +2587,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.08</v>
+        <v>1.16</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -2692,16 +2692,16 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="G17" t="n">
         <v>6.2</v>
       </c>
       <c r="H17" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="I17" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="J17" t="n">
         <v>3.7</v>
@@ -2827,22 +2827,22 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="G18" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="H18" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="I18" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="J18" t="n">
-        <v>7.4</v>
+        <v>6.6</v>
       </c>
       <c r="K18" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -2851,28 +2851,28 @@
         <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="O18" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="P18" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="R18" t="n">
-        <v>2.04</v>
+        <v>1.94</v>
       </c>
       <c r="S18" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="T18" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="U18" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2881,22 +2881,22 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="Y18" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="Z18" t="n">
         <v>170</v>
       </c>
       <c r="AA18" t="n">
-        <v>640</v>
+        <v>550</v>
       </c>
       <c r="AB18" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AC18" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AD18" t="n">
         <v>980</v>
@@ -2917,7 +2917,7 @@
         <v>140</v>
       </c>
       <c r="AJ18" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AK18" t="n">
         <v>13</v>
@@ -2929,7 +2929,7 @@
         <v>130</v>
       </c>
       <c r="AN18" t="n">
-        <v>3.15</v>
+        <v>3.55</v>
       </c>
       <c r="AO18" t="n">
         <v>170</v>
@@ -2968,10 +2968,10 @@
         <v>2.64</v>
       </c>
       <c r="H19" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="I19" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="J19" t="n">
         <v>3.75</v>
@@ -3001,7 +3001,7 @@
         <v>1.55</v>
       </c>
       <c r="S19" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="T19" t="n">
         <v>1.58</v>
@@ -3028,7 +3028,7 @@
         <v>46</v>
       </c>
       <c r="AB19" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC19" t="n">
         <v>8.4</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-26.xlsx
@@ -670,7 +670,7 @@
         <v>1.96</v>
       </c>
       <c r="G2" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="H2" t="n">
         <v>3.65</v>
@@ -685,19 +685,19 @@
         <v>4.6</v>
       </c>
       <c r="L2" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="O2" t="n">
         <v>1.16</v>
       </c>
       <c r="P2" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="Q2" t="n">
         <v>1.48</v>
@@ -718,7 +718,7 @@
         <v>1.35</v>
       </c>
       <c r="W2" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="X2" t="n">
         <v>30</v>
@@ -802,13 +802,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="G3" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="H3" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="I3" t="n">
         <v>1.66</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="O3" t="n">
         <v>1.16</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="G5" t="n">
         <v>4</v>
       </c>
       <c r="H5" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="I5" t="n">
         <v>2.66</v>
@@ -1087,7 +1087,7 @@
         <v>3.1</v>
       </c>
       <c r="K5" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="G7" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="H7" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="I7" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="J7" t="n">
-        <v>3.45</v>
+        <v>3.9</v>
       </c>
       <c r="K7" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.28</v>
+        <v>2.52</v>
       </c>
       <c r="Q7" t="n">
         <v>1.45</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="G8" t="n">
         <v>2.74</v>
@@ -1492,7 +1492,7 @@
         <v>3.15</v>
       </c>
       <c r="K8" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1612,19 +1612,19 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>5.5</v>
+        <v>6.2</v>
       </c>
       <c r="G9" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H9" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="I9" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="J9" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="K9" t="n">
         <v>5.5</v>
@@ -1642,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>2.18</v>
+        <v>2.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.49</v>
+        <v>1.57</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1750,16 +1750,16 @@
         <v>2.14</v>
       </c>
       <c r="G10" t="n">
-        <v>2.26</v>
+        <v>2.38</v>
       </c>
       <c r="H10" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="J10" t="n">
-        <v>4.1</v>
+        <v>3.55</v>
       </c>
       <c r="K10" t="n">
         <v>4.2</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="Q10" t="n">
         <v>1.85</v>
@@ -2152,19 +2152,19 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>4.4</v>
+        <v>5.2</v>
       </c>
       <c r="G13" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="H13" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="I13" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="J13" t="n">
-        <v>3.55</v>
+        <v>3.85</v>
       </c>
       <c r="K13" t="n">
         <v>4.5</v>
@@ -2287,19 +2287,19 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="G14" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H14" t="n">
         <v>2.78</v>
       </c>
       <c r="I14" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="J14" t="n">
-        <v>2.96</v>
+        <v>3.15</v>
       </c>
       <c r="K14" t="n">
         <v>3.7</v>
@@ -2425,13 +2425,13 @@
         <v>5.2</v>
       </c>
       <c r="G15" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="H15" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="I15" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="J15" t="n">
         <v>4.4</v>
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="G16" t="n">
         <v>5.8</v>
@@ -2566,7 +2566,7 @@
         <v>1.74</v>
       </c>
       <c r="I16" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
         <v>3.85</v>
@@ -2587,10 +2587,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.16</v>
+        <v>2.06</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.63</v>
+        <v>1.57</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -2698,7 +2698,7 @@
         <v>6.2</v>
       </c>
       <c r="H17" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="I17" t="n">
         <v>1.83</v>
@@ -2830,19 +2830,19 @@
         <v>1.23</v>
       </c>
       <c r="G18" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="H18" t="n">
         <v>11.5</v>
       </c>
       <c r="I18" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="J18" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="K18" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -2851,28 +2851,28 @@
         <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="O18" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="P18" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="R18" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="S18" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="T18" t="n">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="U18" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2881,58 +2881,58 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="Y18" t="n">
         <v>70</v>
       </c>
       <c r="Z18" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AA18" t="n">
-        <v>550</v>
+        <v>530</v>
       </c>
       <c r="AB18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AC18" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AD18" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AE18" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AF18" t="n">
         <v>12</v>
       </c>
       <c r="AG18" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH18" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI18" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AJ18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM18" t="n">
         <v>130</v>
       </c>
       <c r="AN18" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="AO18" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
@@ -3028,7 +3028,7 @@
         <v>46</v>
       </c>
       <c r="AB19" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC19" t="n">
         <v>8.4</v>
@@ -3037,7 +3037,7 @@
         <v>12.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AF19" t="n">
         <v>19.5</v>
@@ -3049,25 +3049,25 @@
         <v>14.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ19" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AK19" t="n">
         <v>25</v>
       </c>
       <c r="AL19" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AM19" t="n">
         <v>55</v>
       </c>
       <c r="AN19" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AO19" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO19"/>
+  <dimension ref="A1:AO22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="G2" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I2" t="n">
         <v>3.85</v>
       </c>
       <c r="J2" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K2" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L2" t="n">
         <v>1.25</v>
@@ -700,7 +700,7 @@
         <v>2.88</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="R2" t="n">
         <v>1.77</v>
@@ -709,7 +709,7 @@
         <v>2.16</v>
       </c>
       <c r="T2" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="U2" t="n">
         <v>2.74</v>
@@ -718,7 +718,7 @@
         <v>1.35</v>
       </c>
       <c r="W2" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="X2" t="n">
         <v>30</v>
@@ -736,7 +736,7 @@
         <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD2" t="n">
         <v>1000</v>
@@ -751,7 +751,7 @@
         <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
@@ -769,7 +769,7 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>10:05:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Al-Fateh (KSA)</t>
+          <t>Barry Town Utd</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Al Ahli</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5.2</v>
+        <v>1.01</v>
       </c>
       <c r="G3" t="n">
-        <v>6.2</v>
+        <v>1000</v>
       </c>
       <c r="H3" t="n">
-        <v>1.56</v>
+        <v>1.01</v>
       </c>
       <c r="I3" t="n">
-        <v>1.66</v>
+        <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>4.5</v>
+        <v>1.01</v>
       </c>
       <c r="K3" t="n">
-        <v>5.4</v>
+        <v>1000</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>5.9</v>
+        <v>1.25</v>
       </c>
       <c r="O3" t="n">
-        <v>1.16</v>
+        <v>1.24</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,36 +923,36 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>10:05:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>JS Saoura</t>
+          <t>Al-Fateh (KSA)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>MC El Bayadh</t>
+          <t>Al Ahli</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.04</v>
+        <v>5.2</v>
       </c>
       <c r="G4" t="n">
-        <v>1000</v>
+        <v>6.2</v>
       </c>
       <c r="H4" t="n">
-        <v>1.04</v>
+        <v>1.56</v>
       </c>
       <c r="I4" t="n">
-        <v>1000</v>
+        <v>1.66</v>
       </c>
       <c r="J4" t="n">
-        <v>1.01</v>
+        <v>4.5</v>
       </c>
       <c r="K4" t="n">
-        <v>950</v>
+        <v>5.4</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -961,16 +961,16 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="P4" t="n">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1048,7 +1048,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,36 +1058,36 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Al-Kholood Club</t>
+          <t>JS Saoura</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Al-Taawoun Buraidah</t>
+          <t>MC El Bayadh</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.2</v>
+        <v>1.04</v>
       </c>
       <c r="G5" t="n">
-        <v>4</v>
+        <v>1000</v>
       </c>
       <c r="H5" t="n">
-        <v>2.2</v>
+        <v>1.04</v>
       </c>
       <c r="I5" t="n">
-        <v>2.66</v>
+        <v>1000</v>
       </c>
       <c r="J5" t="n">
-        <v>3.1</v>
+        <v>1.01</v>
       </c>
       <c r="K5" t="n">
-        <v>3.9</v>
+        <v>950</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1.92</v>
+        <v>1.24</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.87</v>
+        <v>1.01</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,36 +1193,36 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>11:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Hartlepool</t>
+          <t>The New Saints</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Scunthorpe</t>
+          <t>Bala Town</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.2</v>
+        <v>1.01</v>
       </c>
       <c r="G6" t="n">
-        <v>2.5</v>
+        <v>1000</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>1.01</v>
       </c>
       <c r="I6" t="n">
-        <v>3.5</v>
+        <v>1000</v>
       </c>
       <c r="J6" t="n">
-        <v>3.55</v>
+        <v>1.01</v>
       </c>
       <c r="K6" t="n">
-        <v>4.1</v>
+        <v>1000</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>2.06</v>
+        <v>1.24</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.74</v>
+        <v>1.01</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1318,7 +1318,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,36 +1328,36 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>11:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Sutton Utd</t>
+          <t>Penybont FC</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Aldershot</t>
+          <t>Briton Ferry Llansawel</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.96</v>
+        <v>1.01</v>
       </c>
       <c r="G7" t="n">
-        <v>2.2</v>
+        <v>1000</v>
       </c>
       <c r="H7" t="n">
-        <v>3.3</v>
+        <v>1.01</v>
       </c>
       <c r="I7" t="n">
-        <v>4.1</v>
+        <v>1000</v>
       </c>
       <c r="J7" t="n">
-        <v>3.9</v>
+        <v>1.01</v>
       </c>
       <c r="K7" t="n">
-        <v>4.7</v>
+        <v>1000</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.52</v>
+        <v>1.24</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.45</v>
+        <v>1.01</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1453,7 +1453,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1468,31 +1468,31 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Truro City</t>
+          <t>Al-Kholood Club</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Yeovil</t>
+          <t>Al-Taawoun Buraidah</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.26</v>
+        <v>3.2</v>
       </c>
       <c r="G8" t="n">
-        <v>2.74</v>
+        <v>4</v>
       </c>
       <c r="H8" t="n">
-        <v>3.15</v>
+        <v>2.2</v>
       </c>
       <c r="I8" t="n">
-        <v>3.75</v>
+        <v>2.66</v>
       </c>
       <c r="J8" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K8" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1507,10 +1507,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.72</v>
+        <v>1.92</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1603,31 +1603,31 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Morecambe</t>
+          <t>Hartlepool</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Scunthorpe</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>6.2</v>
+        <v>2.2</v>
       </c>
       <c r="G9" t="n">
-        <v>8.800000000000001</v>
+        <v>2.5</v>
       </c>
       <c r="H9" t="n">
-        <v>1.48</v>
+        <v>3</v>
       </c>
       <c r="I9" t="n">
-        <v>1.58</v>
+        <v>3.5</v>
       </c>
       <c r="J9" t="n">
-        <v>4.5</v>
+        <v>3.55</v>
       </c>
       <c r="K9" t="n">
-        <v>5.5</v>
+        <v>4.1</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1642,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>2.4</v>
+        <v>2.06</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.57</v>
+        <v>1.74</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1738,31 +1738,31 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>FC Halifax Town</t>
+          <t>Sutton Utd</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Altrincham</t>
+          <t>Aldershot</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.14</v>
+        <v>1.96</v>
       </c>
       <c r="G10" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="I10" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="J10" t="n">
-        <v>3.55</v>
+        <v>3.9</v>
       </c>
       <c r="K10" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1.95</v>
+        <v>2.52</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.85</v>
+        <v>1.52</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1873,31 +1873,31 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Solihull Moors</t>
+          <t>Truro City</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Tamworth FC</t>
+          <t>Yeovil</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.97</v>
+        <v>2.26</v>
       </c>
       <c r="G11" t="n">
-        <v>2.22</v>
+        <v>2.74</v>
       </c>
       <c r="H11" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I11" t="n">
-        <v>4.4</v>
+        <v>3.75</v>
       </c>
       <c r="J11" t="n">
-        <v>3.55</v>
+        <v>3.15</v>
       </c>
       <c r="K11" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1912,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.86</v>
+        <v>1.72</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.78</v>
+        <v>1.95</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -2008,31 +2008,31 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>York City</t>
+          <t>Morecambe</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Boston Utd</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.29</v>
+        <v>6.2</v>
       </c>
       <c r="G12" t="n">
-        <v>1.36</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H12" t="n">
-        <v>1.04</v>
+        <v>1.48</v>
       </c>
       <c r="I12" t="n">
-        <v>13.5</v>
+        <v>1.58</v>
       </c>
       <c r="J12" t="n">
-        <v>1.09</v>
+        <v>4.5</v>
       </c>
       <c r="K12" t="n">
-        <v>8.6</v>
+        <v>5.5</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1.16</v>
+        <v>2.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.35</v>
+        <v>1.57</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2143,31 +2143,31 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Brackley Town</t>
+          <t>FC Halifax Town</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Forest Green</t>
+          <t>Altrincham</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>5.2</v>
+        <v>2.12</v>
       </c>
       <c r="G13" t="n">
-        <v>7</v>
+        <v>2.38</v>
       </c>
       <c r="H13" t="n">
-        <v>1.63</v>
+        <v>3.05</v>
       </c>
       <c r="I13" t="n">
-        <v>1.78</v>
+        <v>3.65</v>
       </c>
       <c r="J13" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="K13" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2182,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2278,31 +2278,31 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Eastleigh</t>
+          <t>York City</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>Boston Utd</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.52</v>
+        <v>1.29</v>
       </c>
       <c r="G14" t="n">
-        <v>2.9</v>
+        <v>1.36</v>
       </c>
       <c r="H14" t="n">
-        <v>2.78</v>
+        <v>1.04</v>
       </c>
       <c r="I14" t="n">
-        <v>3.4</v>
+        <v>13.5</v>
       </c>
       <c r="J14" t="n">
-        <v>3.15</v>
+        <v>1.09</v>
       </c>
       <c r="K14" t="n">
-        <v>3.7</v>
+        <v>8.6</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2317,10 +2317,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>1.78</v>
+        <v>1.16</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.02</v>
+        <v>1.35</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2413,31 +2413,31 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>Solihull Moors</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Tamworth FC</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>5.2</v>
+        <v>1.97</v>
       </c>
       <c r="G15" t="n">
-        <v>6.2</v>
+        <v>2.2</v>
       </c>
       <c r="H15" t="n">
-        <v>1.56</v>
+        <v>3.25</v>
       </c>
       <c r="I15" t="n">
-        <v>1.7</v>
+        <v>4.4</v>
       </c>
       <c r="J15" t="n">
-        <v>4.4</v>
+        <v>3.55</v>
       </c>
       <c r="K15" t="n">
-        <v>5.3</v>
+        <v>4.2</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2452,10 +2452,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>2.62</v>
+        <v>2.04</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.48</v>
+        <v>1.77</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2548,31 +2548,31 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>Brackley Town</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Boreham Wood</t>
+          <t>Forest Green</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.3</v>
+        <v>5.2</v>
       </c>
       <c r="G16" t="n">
-        <v>5.8</v>
+        <v>7</v>
       </c>
       <c r="H16" t="n">
-        <v>1.74</v>
+        <v>1.63</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="J16" t="n">
         <v>3.85</v>
       </c>
       <c r="K16" t="n">
-        <v>5.4</v>
+        <v>4.6</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -2587,10 +2587,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.06</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -2683,32 +2683,32 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Braintree</t>
+          <t>Eastleigh</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Southend</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>4.4</v>
+        <v>2.52</v>
       </c>
       <c r="G17" t="n">
-        <v>6.2</v>
+        <v>2.9</v>
       </c>
       <c r="H17" t="n">
-        <v>1.68</v>
+        <v>2.78</v>
       </c>
       <c r="I17" t="n">
-        <v>1.83</v>
+        <v>3.4</v>
       </c>
       <c r="J17" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K17" t="n">
         <v>3.7</v>
       </c>
-      <c r="K17" t="n">
-        <v>4.4</v>
-      </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
@@ -2722,10 +2722,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1.92</v>
+        <v>1.78</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.86</v>
+        <v>2.02</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -2803,7 +2803,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,66 +2813,66 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Al-Hilal</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Al-Khaleej Saihat</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.23</v>
+        <v>5.2</v>
       </c>
       <c r="G18" t="n">
-        <v>1.29</v>
+        <v>6.2</v>
       </c>
       <c r="H18" t="n">
-        <v>11.5</v>
+        <v>1.56</v>
       </c>
       <c r="I18" t="n">
-        <v>14.5</v>
+        <v>1.69</v>
       </c>
       <c r="J18" t="n">
-        <v>6.8</v>
+        <v>4.4</v>
       </c>
       <c r="K18" t="n">
-        <v>8.4</v>
+        <v>5.3</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>3.45</v>
+        <v>2.62</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.32</v>
+        <v>1.48</v>
       </c>
       <c r="R18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>2.18</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2881,192 +2881,597 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="Z18" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>530</v>
+        <v>0</v>
       </c>
       <c r="AB18" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AC18" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AD18" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AE18" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="AF18" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AG18" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AH18" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AI18" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="AJ18" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AK18" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AL18" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AM18" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="AN18" t="n">
-        <v>3.35</v>
+        <v>0</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>English National League</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Wealdstone</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Boreham Wood</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="G19" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K19" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>English National League</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Braintree</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Southend</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="G20" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K20" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Saudi Professional League</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>14:30:00</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Al-Hilal</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Al-Khaleej Saihat</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="H21" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="I21" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J21" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="K21" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N21" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="U21" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>55</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>70</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>180</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>530</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>46</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>180</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
           <t>English Premier League</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>2025-12-26</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>17:00:00</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>Man Utd</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>Newcastle</t>
         </is>
       </c>
-      <c r="F19" t="n">
+      <c r="F22" t="n">
         <v>2.62</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G22" t="n">
         <v>2.64</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H22" t="n">
         <v>2.8</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I22" t="n">
         <v>2.84</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J22" t="n">
         <v>3.75</v>
       </c>
-      <c r="K19" t="n">
+      <c r="K22" t="n">
         <v>3.8</v>
       </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
         <v>1.05</v>
       </c>
-      <c r="N19" t="n">
+      <c r="N22" t="n">
         <v>5</v>
       </c>
-      <c r="O19" t="n">
+      <c r="O22" t="n">
         <v>1.23</v>
       </c>
-      <c r="P19" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R19" t="n">
+      <c r="P22" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="R22" t="n">
         <v>1.55</v>
       </c>
-      <c r="S19" t="n">
+      <c r="S22" t="n">
         <v>2.74</v>
       </c>
-      <c r="T19" t="n">
+      <c r="T22" t="n">
         <v>1.58</v>
       </c>
-      <c r="U19" t="n">
+      <c r="U22" t="n">
         <v>2.64</v>
       </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
         <v>21</v>
       </c>
-      <c r="Y19" t="n">
+      <c r="Y22" t="n">
         <v>15</v>
       </c>
-      <c r="Z19" t="n">
+      <c r="Z22" t="n">
         <v>23</v>
       </c>
-      <c r="AA19" t="n">
+      <c r="AA22" t="n">
         <v>46</v>
       </c>
-      <c r="AB19" t="n">
+      <c r="AB22" t="n">
         <v>14</v>
       </c>
-      <c r="AC19" t="n">
+      <c r="AC22" t="n">
         <v>8.4</v>
       </c>
-      <c r="AD19" t="n">
+      <c r="AD22" t="n">
         <v>12.5</v>
       </c>
-      <c r="AE19" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF19" t="n">
+      <c r="AE22" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF22" t="n">
         <v>19.5</v>
       </c>
-      <c r="AG19" t="n">
+      <c r="AG22" t="n">
         <v>12</v>
       </c>
-      <c r="AH19" t="n">
+      <c r="AH22" t="n">
         <v>14.5</v>
       </c>
-      <c r="AI19" t="n">
+      <c r="AI22" t="n">
         <v>30</v>
       </c>
-      <c r="AJ19" t="n">
+      <c r="AJ22" t="n">
         <v>42</v>
       </c>
-      <c r="AK19" t="n">
+      <c r="AK22" t="n">
         <v>25</v>
       </c>
-      <c r="AL19" t="n">
-        <v>28</v>
-      </c>
-      <c r="AM19" t="n">
+      <c r="AL22" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM22" t="n">
         <v>55</v>
       </c>
-      <c r="AN19" t="n">
+      <c r="AN22" t="n">
         <v>17.5</v>
       </c>
-      <c r="AO19" t="n">
+      <c r="AO22" t="n">
         <v>19.5</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO22"/>
+  <dimension ref="A1:AO23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="H2" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I2" t="n">
         <v>3.85</v>
       </c>
       <c r="J2" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K2" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L2" t="n">
         <v>1.25</v>
@@ -718,7 +718,7 @@
         <v>1.35</v>
       </c>
       <c r="W2" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="X2" t="n">
         <v>30</v>
@@ -736,7 +736,7 @@
         <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
         <v>1000</v>
@@ -814,7 +814,7 @@
         <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K3" t="n">
         <v>1000</v>
@@ -826,13 +826,13 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="O3" t="n">
         <v>1.24</v>
       </c>
       <c r="P3" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="Q3" t="n">
         <v>1.24</v>
@@ -844,10 +844,10 @@
         <v>1.24</v>
       </c>
       <c r="T3" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U3" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V3" t="n">
         <v>1.01</v>
@@ -937,23 +937,23 @@
         </is>
       </c>
       <c r="F4" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K4" t="n">
         <v>5.2</v>
       </c>
-      <c r="G4" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K4" t="n">
-        <v>5.4</v>
-      </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="O4" t="n">
         <v>1.16</v>
@@ -1063,127 +1063,127 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>JS Saoura</t>
+          <t>USM Khenchela</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>MC El Bayadh</t>
+          <t>CS Constantine</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.04</v>
+        <v>1.92</v>
       </c>
       <c r="G5" t="n">
-        <v>1000</v>
+        <v>2.64</v>
       </c>
       <c r="H5" t="n">
-        <v>1.04</v>
+        <v>3.5</v>
       </c>
       <c r="I5" t="n">
-        <v>1000</v>
+        <v>6.2</v>
       </c>
       <c r="J5" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K5" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L5" t="n">
         <v>1.01</v>
       </c>
-      <c r="K5" t="n">
-        <v>950</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P5" t="n">
-        <v>1.24</v>
+        <v>1.34</v>
       </c>
       <c r="Q5" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="T5" t="n">
         <v>1.01</v>
       </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,36 +1193,36 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>11:30:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The New Saints</t>
+          <t>JS Saoura</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Bala Town</t>
+          <t>MC El Bayadh</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="G6" t="n">
-        <v>1000</v>
+        <v>1.85</v>
       </c>
       <c r="H6" t="n">
-        <v>1.01</v>
+        <v>2.18</v>
       </c>
       <c r="I6" t="n">
         <v>1000</v>
       </c>
       <c r="J6" t="n">
-        <v>1.01</v>
+        <v>3.1</v>
       </c>
       <c r="K6" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.24</v>
+        <v>1.49</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.01</v>
+        <v>2.1</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1333,12 +1333,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Penybont FC</t>
+          <t>The New Saints</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Briton Ferry Llansawel</t>
+          <t>Bala Town</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -1453,7 +1453,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,36 +1463,36 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>11:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Al-Kholood Club</t>
+          <t>Penybont FC</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Al-Taawoun Buraidah</t>
+          <t>Briton Ferry Llansawel</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.2</v>
+        <v>1.01</v>
       </c>
       <c r="G8" t="n">
-        <v>4</v>
+        <v>1000</v>
       </c>
       <c r="H8" t="n">
-        <v>2.2</v>
+        <v>1.01</v>
       </c>
       <c r="I8" t="n">
-        <v>2.66</v>
+        <v>1000</v>
       </c>
       <c r="J8" t="n">
-        <v>3.1</v>
+        <v>1.01</v>
       </c>
       <c r="K8" t="n">
-        <v>3.9</v>
+        <v>1000</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1507,10 +1507,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.92</v>
+        <v>1.24</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.87</v>
+        <v>1.01</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1588,7 +1588,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1603,31 +1603,31 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Hartlepool</t>
+          <t>Al-Kholood Club</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Scunthorpe</t>
+          <t>Al-Taawoun Buraidah</t>
         </is>
       </c>
       <c r="F9" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="G9" t="n">
+        <v>4</v>
+      </c>
+      <c r="H9" t="n">
         <v>2.2</v>
       </c>
-      <c r="G9" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
       <c r="I9" t="n">
-        <v>3.5</v>
+        <v>2.66</v>
       </c>
       <c r="J9" t="n">
-        <v>3.55</v>
+        <v>3.1</v>
       </c>
       <c r="K9" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1642,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>2.06</v>
+        <v>1.92</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.74</v>
+        <v>1.87</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1738,32 +1738,32 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Sutton Utd</t>
+          <t>Hartlepool</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Aldershot</t>
+          <t>Scunthorpe</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.96</v>
+        <v>2.2</v>
       </c>
       <c r="G10" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="H10" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="I10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K10" t="n">
         <v>4.1</v>
       </c>
-      <c r="J10" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K10" t="n">
-        <v>4.7</v>
-      </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.52</v>
+        <v>2.06</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.52</v>
+        <v>1.74</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1873,31 +1873,31 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Truro City</t>
+          <t>Sutton Utd</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Yeovil</t>
+          <t>Aldershot</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.26</v>
+        <v>1.96</v>
       </c>
       <c r="G11" t="n">
-        <v>2.74</v>
+        <v>2.2</v>
       </c>
       <c r="H11" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="I11" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="J11" t="n">
-        <v>3.15</v>
+        <v>3.9</v>
       </c>
       <c r="K11" t="n">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1912,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.72</v>
+        <v>2.52</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.95</v>
+        <v>1.52</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -2008,31 +2008,31 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Morecambe</t>
+          <t>Truro City</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Yeovil</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>6.2</v>
+        <v>2.26</v>
       </c>
       <c r="G12" t="n">
-        <v>8.800000000000001</v>
+        <v>2.74</v>
       </c>
       <c r="H12" t="n">
-        <v>1.48</v>
+        <v>3.15</v>
       </c>
       <c r="I12" t="n">
-        <v>1.58</v>
+        <v>3.75</v>
       </c>
       <c r="J12" t="n">
-        <v>4.5</v>
+        <v>3.15</v>
       </c>
       <c r="K12" t="n">
-        <v>5.5</v>
+        <v>4.1</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>2.4</v>
+        <v>1.72</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.57</v>
+        <v>1.95</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2143,31 +2143,31 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>FC Halifax Town</t>
+          <t>Morecambe</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Altrincham</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.12</v>
+        <v>6.2</v>
       </c>
       <c r="G13" t="n">
-        <v>2.38</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H13" t="n">
-        <v>3.05</v>
+        <v>1.48</v>
       </c>
       <c r="I13" t="n">
-        <v>3.65</v>
+        <v>1.58</v>
       </c>
       <c r="J13" t="n">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="K13" t="n">
-        <v>4.3</v>
+        <v>5.5</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2182,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.85</v>
+        <v>1.57</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2278,31 +2278,31 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>York City</t>
+          <t>FC Halifax Town</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Boston Utd</t>
+          <t>Altrincham</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.29</v>
+        <v>2.1</v>
       </c>
       <c r="G14" t="n">
-        <v>1.36</v>
+        <v>2.38</v>
       </c>
       <c r="H14" t="n">
-        <v>1.04</v>
+        <v>3.05</v>
       </c>
       <c r="I14" t="n">
-        <v>13.5</v>
+        <v>3.65</v>
       </c>
       <c r="J14" t="n">
-        <v>1.09</v>
+        <v>3.6</v>
       </c>
       <c r="K14" t="n">
-        <v>8.6</v>
+        <v>4.3</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2317,10 +2317,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>1.16</v>
+        <v>1.95</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.35</v>
+        <v>1.85</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2413,31 +2413,31 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Solihull Moors</t>
+          <t>Brackley Town</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Tamworth FC</t>
+          <t>Forest Green</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.97</v>
+        <v>5.2</v>
       </c>
       <c r="G15" t="n">
-        <v>2.2</v>
+        <v>7</v>
       </c>
       <c r="H15" t="n">
-        <v>3.25</v>
+        <v>1.63</v>
       </c>
       <c r="I15" t="n">
-        <v>4.4</v>
+        <v>1.78</v>
       </c>
       <c r="J15" t="n">
-        <v>3.55</v>
+        <v>3.85</v>
       </c>
       <c r="K15" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2452,10 +2452,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>2.04</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.77</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2548,31 +2548,31 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Brackley Town</t>
+          <t>Solihull Moors</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Forest Green</t>
+          <t>Tamworth FC</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>5.2</v>
+        <v>1.97</v>
       </c>
       <c r="G16" t="n">
-        <v>7</v>
+        <v>2.3</v>
       </c>
       <c r="H16" t="n">
-        <v>1.63</v>
+        <v>2.92</v>
       </c>
       <c r="I16" t="n">
-        <v>1.78</v>
+        <v>4.4</v>
       </c>
       <c r="J16" t="n">
-        <v>3.85</v>
+        <v>3.55</v>
       </c>
       <c r="K16" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -2587,10 +2587,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -2683,31 +2683,31 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Eastleigh</t>
+          <t>York City</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>Boston Utd</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.52</v>
+        <v>1.29</v>
       </c>
       <c r="G17" t="n">
-        <v>2.9</v>
+        <v>1.36</v>
       </c>
       <c r="H17" t="n">
-        <v>2.78</v>
+        <v>1.04</v>
       </c>
       <c r="I17" t="n">
-        <v>3.4</v>
+        <v>13.5</v>
       </c>
       <c r="J17" t="n">
-        <v>3.15</v>
+        <v>1.09</v>
       </c>
       <c r="K17" t="n">
-        <v>3.7</v>
+        <v>8.6</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -2722,10 +2722,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1.78</v>
+        <v>1.16</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.02</v>
+        <v>1.35</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -2818,31 +2818,31 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>Eastleigh</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>5.2</v>
+        <v>2.52</v>
       </c>
       <c r="G18" t="n">
-        <v>6.2</v>
+        <v>2.9</v>
       </c>
       <c r="H18" t="n">
-        <v>1.56</v>
+        <v>2.78</v>
       </c>
       <c r="I18" t="n">
-        <v>1.69</v>
+        <v>3.4</v>
       </c>
       <c r="J18" t="n">
-        <v>4.4</v>
+        <v>3.2</v>
       </c>
       <c r="K18" t="n">
-        <v>5.3</v>
+        <v>3.7</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>2.62</v>
+        <v>1.78</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.48</v>
+        <v>2.02</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -2953,31 +2953,31 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Boreham Wood</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.3</v>
+        <v>5.2</v>
       </c>
       <c r="G19" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="H19" t="n">
-        <v>1.74</v>
+        <v>1.56</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>1.68</v>
       </c>
       <c r="J19" t="n">
-        <v>3.85</v>
+        <v>4.4</v>
       </c>
       <c r="K19" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -2992,10 +2992,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.06</v>
+        <v>2.62</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.57</v>
+        <v>1.48</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -3088,31 +3088,31 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Braintree</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Southend</t>
+          <t>Boreham Wood</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>4.4</v>
+        <v>3.3</v>
       </c>
       <c r="G20" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="H20" t="n">
-        <v>1.68</v>
+        <v>1.74</v>
       </c>
       <c r="I20" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="K20" t="n">
-        <v>4.4</v>
+        <v>5.1</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -3127,10 +3127,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1.92</v>
+        <v>2.06</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.86</v>
+        <v>1.57</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -3208,7 +3208,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,66 +3218,66 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Al-Hilal</t>
+          <t>Braintree</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Al-Khaleej Saihat</t>
+          <t>Southend</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.23</v>
+        <v>4.4</v>
       </c>
       <c r="G21" t="n">
-        <v>1.29</v>
+        <v>6.2</v>
       </c>
       <c r="H21" t="n">
-        <v>11.5</v>
+        <v>1.68</v>
       </c>
       <c r="I21" t="n">
-        <v>14.5</v>
+        <v>1.83</v>
       </c>
       <c r="J21" t="n">
-        <v>6.8</v>
+        <v>3.7</v>
       </c>
       <c r="K21" t="n">
-        <v>8.4</v>
+        <v>4.4</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>3.45</v>
+        <v>1.92</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.32</v>
+        <v>1.86</v>
       </c>
       <c r="R21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>2.18</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -3286,64 +3286,64 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="Z21" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="AA21" t="n">
-        <v>530</v>
+        <v>0</v>
       </c>
       <c r="AB21" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AC21" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AE21" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="AF21" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AG21" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AH21" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AI21" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="AJ21" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AK21" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AL21" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AM21" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="AN21" t="n">
-        <v>3.35</v>
+        <v>0</v>
       </c>
       <c r="AO21" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,66 +3353,66 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>Al-Hilal</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Al-Khaleej Saihat</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.62</v>
+        <v>1.23</v>
       </c>
       <c r="G22" t="n">
-        <v>2.64</v>
+        <v>1.29</v>
       </c>
       <c r="H22" t="n">
-        <v>2.8</v>
+        <v>11.5</v>
       </c>
       <c r="I22" t="n">
-        <v>2.84</v>
+        <v>14.5</v>
       </c>
       <c r="J22" t="n">
-        <v>3.75</v>
+        <v>6.8</v>
       </c>
       <c r="K22" t="n">
-        <v>3.8</v>
+        <v>8.4</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>5</v>
+        <v>8.4</v>
       </c>
       <c r="O22" t="n">
-        <v>1.23</v>
+        <v>1.1</v>
       </c>
       <c r="P22" t="n">
-        <v>2.4</v>
+        <v>3.45</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.69</v>
+        <v>1.32</v>
       </c>
       <c r="R22" t="n">
-        <v>1.55</v>
+        <v>2</v>
       </c>
       <c r="S22" t="n">
-        <v>2.74</v>
+        <v>1.8</v>
       </c>
       <c r="T22" t="n">
-        <v>1.58</v>
+        <v>1.68</v>
       </c>
       <c r="U22" t="n">
-        <v>2.64</v>
+        <v>2.18</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -3421,57 +3421,192 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="Y22" t="n">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="Z22" t="n">
-        <v>23</v>
+        <v>180</v>
       </c>
       <c r="AA22" t="n">
+        <v>530</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD22" t="n">
         <v>46</v>
       </c>
-      <c r="AB22" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AE22" t="n">
-        <v>28</v>
+        <v>180</v>
       </c>
       <c r="AF22" t="n">
-        <v>19.5</v>
+        <v>12</v>
       </c>
       <c r="AG22" t="n">
         <v>12</v>
       </c>
       <c r="AH22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>English Premier League</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Man Utd</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K23" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N23" t="n">
+        <v>5</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="U23" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>48</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH23" t="n">
         <v>14.5</v>
       </c>
-      <c r="AI22" t="n">
+      <c r="AI23" t="n">
         <v>30</v>
       </c>
-      <c r="AJ22" t="n">
+      <c r="AJ23" t="n">
         <v>42</v>
       </c>
-      <c r="AK22" t="n">
+      <c r="AK23" t="n">
         <v>25</v>
       </c>
-      <c r="AL22" t="n">
+      <c r="AL23" t="n">
         <v>30</v>
       </c>
-      <c r="AM22" t="n">
+      <c r="AM23" t="n">
         <v>55</v>
       </c>
-      <c r="AN22" t="n">
+      <c r="AN23" t="n">
         <v>17.5</v>
       </c>
-      <c r="AO22" t="n">
+      <c r="AO23" t="n">
         <v>19.5</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO23"/>
+  <dimension ref="A1:AO24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="G2" t="n">
         <v>1.98</v>
@@ -682,7 +682,7 @@
         <v>4.4</v>
       </c>
       <c r="K2" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L2" t="n">
         <v>1.25</v>
@@ -706,7 +706,7 @@
         <v>1.77</v>
       </c>
       <c r="S2" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="T2" t="n">
         <v>1.51</v>
@@ -736,7 +736,7 @@
         <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AD2" t="n">
         <v>1000</v>
@@ -826,13 +826,13 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="O3" t="n">
         <v>1.24</v>
       </c>
       <c r="P3" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="Q3" t="n">
         <v>1.24</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="G5" t="n">
         <v>2.64</v>
       </c>
       <c r="H5" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I5" t="n">
         <v>6.2</v>
       </c>
       <c r="J5" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="K5" t="n">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1096,19 +1096,19 @@
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="O5" t="n">
         <v>1.01</v>
       </c>
       <c r="P5" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="Q5" t="n">
         <v>2.48</v>
       </c>
       <c r="R5" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="S5" t="n">
         <v>2.48</v>
@@ -1207,34 +1207,34 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="G6" t="n">
         <v>1.85</v>
       </c>
       <c r="H6" t="n">
-        <v>2.18</v>
+        <v>5.7</v>
       </c>
       <c r="I6" t="n">
         <v>1000</v>
       </c>
       <c r="J6" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K6" t="n">
-        <v>950</v>
+        <v>7</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P6" t="n">
         <v>1.49</v>
@@ -1243,76 +1243,76 @@
         <v>2.1</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
@@ -1342,112 +1342,112 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="G7" t="n">
-        <v>1000</v>
+        <v>1.14</v>
       </c>
       <c r="H7" t="n">
-        <v>1.01</v>
+        <v>20</v>
       </c>
       <c r="I7" t="n">
         <v>1000</v>
       </c>
       <c r="J7" t="n">
-        <v>1.01</v>
+        <v>11</v>
       </c>
       <c r="K7" t="n">
         <v>1000</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="P7" t="n">
-        <v>1.24</v>
+        <v>1.83</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
@@ -1477,112 +1477,112 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="G8" t="n">
-        <v>1000</v>
+        <v>1.68</v>
       </c>
       <c r="H8" t="n">
-        <v>1.01</v>
+        <v>5.5</v>
       </c>
       <c r="I8" t="n">
         <v>1000</v>
       </c>
       <c r="J8" t="n">
-        <v>1.01</v>
+        <v>4.2</v>
       </c>
       <c r="K8" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="P8" t="n">
-        <v>1.24</v>
+        <v>2.14</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="G9" t="n">
         <v>4</v>
@@ -1621,25 +1621,25 @@
         <v>2.2</v>
       </c>
       <c r="I9" t="n">
-        <v>2.66</v>
+        <v>2.56</v>
       </c>
       <c r="J9" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="K9" t="n">
         <v>3.9</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="P9" t="n">
         <v>1.92</v>
@@ -1648,76 +1648,76 @@
         <v>1.87</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
@@ -1747,34 +1747,34 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="G10" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I10" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="J10" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K10" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="P10" t="n">
         <v>2.06</v>
@@ -1783,76 +1783,76 @@
         <v>1.74</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="G11" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="H11" t="n">
         <v>3.3</v>
@@ -1900,16 +1900,16 @@
         <v>4.7</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="P11" t="n">
         <v>2.52</v>
@@ -1918,76 +1918,76 @@
         <v>1.52</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AM11" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
@@ -2020,109 +2020,109 @@
         <v>2.26</v>
       </c>
       <c r="G12" t="n">
-        <v>2.74</v>
+        <v>2.68</v>
       </c>
       <c r="H12" t="n">
         <v>3.15</v>
       </c>
       <c r="I12" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="J12" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="K12" t="n">
         <v>4.1</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P12" t="n">
         <v>1.72</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AK12" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
@@ -2170,94 +2170,94 @@
         <v>5.5</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="P13" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="Q13" t="n">
         <v>1.57</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
@@ -2287,13 +2287,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="G14" t="n">
         <v>2.38</v>
       </c>
       <c r="H14" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="I14" t="n">
         <v>3.65</v>
@@ -2305,94 +2305,94 @@
         <v>4.3</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="P14" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AK14" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AM14" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AN14" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AO14" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
     </row>
     <row r="15">
@@ -2413,121 +2413,121 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Brackley Town</t>
+          <t>York City</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Forest Green</t>
+          <t>Boston Utd</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>5.2</v>
+        <v>1.28</v>
       </c>
       <c r="G15" t="n">
-        <v>7</v>
+        <v>1.3</v>
       </c>
       <c r="H15" t="n">
-        <v>1.63</v>
+        <v>9.6</v>
       </c>
       <c r="I15" t="n">
-        <v>1.78</v>
+        <v>19.5</v>
       </c>
       <c r="J15" t="n">
-        <v>3.85</v>
+        <v>6</v>
       </c>
       <c r="K15" t="n">
-        <v>4.6</v>
+        <v>7.6</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK15" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AM15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
@@ -2557,112 +2557,112 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="G16" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="H16" t="n">
-        <v>2.92</v>
+        <v>3.55</v>
       </c>
       <c r="I16" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J16" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K16" t="n">
         <v>4.2</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="P16" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Z16" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AK16" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AL16" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AM16" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AN16" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AO16" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
     </row>
     <row r="17">
@@ -2683,31 +2683,31 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>York City</t>
+          <t>Brackley Town</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Boston Utd</t>
+          <t>Forest Green</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.29</v>
+        <v>5.2</v>
       </c>
       <c r="G17" t="n">
-        <v>1.36</v>
+        <v>6.6</v>
       </c>
       <c r="H17" t="n">
-        <v>1.04</v>
+        <v>1.63</v>
       </c>
       <c r="I17" t="n">
-        <v>13.5</v>
+        <v>1.78</v>
       </c>
       <c r="J17" t="n">
-        <v>1.09</v>
+        <v>3.85</v>
       </c>
       <c r="K17" t="n">
-        <v>8.6</v>
+        <v>4.6</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -2722,10 +2722,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1.16</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -2845,16 +2845,16 @@
         <v>3.7</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P18" t="n">
         <v>1.78</v>
@@ -2863,76 +2863,76 @@
         <v>2.02</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Z18" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AB18" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD18" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AE18" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AF18" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AG18" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AH18" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AK18" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AL18" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AM18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
@@ -2953,121 +2953,121 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Boreham Wood</t>
         </is>
       </c>
       <c r="F19" t="n">
+        <v>4</v>
+      </c>
+      <c r="G19" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K19" t="n">
         <v>5.2</v>
       </c>
-      <c r="G19" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="J19" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K19" t="n">
-        <v>5.3</v>
-      </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="P19" t="n">
-        <v>2.62</v>
+        <v>2.22</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.48</v>
+        <v>1.64</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Z19" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AA19" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AF19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG19" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AH19" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
@@ -3088,121 +3088,121 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Boreham Wood</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.3</v>
+        <v>5.2</v>
       </c>
       <c r="G20" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="H20" t="n">
-        <v>1.74</v>
+        <v>1.56</v>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>1.68</v>
       </c>
       <c r="J20" t="n">
-        <v>3.85</v>
+        <v>4.4</v>
       </c>
       <c r="K20" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="P20" t="n">
-        <v>2.06</v>
+        <v>2.62</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.57</v>
+        <v>1.43</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Z20" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AA20" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AB20" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AC20" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AD20" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AE20" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AF20" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AG20" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AH20" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AK20" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AL20" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AM20" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AN20" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AO20" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="21">
@@ -3232,34 +3232,34 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="G21" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="H21" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="I21" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="J21" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="K21" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="P21" t="n">
         <v>1.92</v>
@@ -3268,82 +3268,82 @@
         <v>1.86</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AA21" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AB21" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AG21" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AH21" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AK21" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AL21" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AM21" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AN21" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AO21" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,66 +3353,66 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>13:15:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Al-Hilal</t>
+          <t>Modena</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Al-Khaleej Saihat</t>
+          <t>AC Monza</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.23</v>
+        <v>2.44</v>
       </c>
       <c r="G22" t="n">
-        <v>1.29</v>
+        <v>2.58</v>
       </c>
       <c r="H22" t="n">
-        <v>11.5</v>
+        <v>3.45</v>
       </c>
       <c r="I22" t="n">
-        <v>14.5</v>
+        <v>3.75</v>
       </c>
       <c r="J22" t="n">
-        <v>6.8</v>
+        <v>3.1</v>
       </c>
       <c r="K22" t="n">
-        <v>8.4</v>
+        <v>3.15</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>3.45</v>
+        <v>1.58</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.32</v>
+        <v>2.46</v>
       </c>
       <c r="R22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>2.18</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -3421,64 +3421,64 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="Z22" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="AA22" t="n">
-        <v>530</v>
+        <v>0</v>
       </c>
       <c r="AB22" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AC22" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AE22" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="AF22" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AG22" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AH22" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AI22" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="AJ22" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AK22" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AL22" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AM22" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="AN22" t="n">
-        <v>3.35</v>
+        <v>0</v>
       </c>
       <c r="AO22" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,66 +3488,66 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Man Utd</t>
+          <t>Al-Hilal</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Al-Khaleej Saihat</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.64</v>
+        <v>1.23</v>
       </c>
       <c r="G23" t="n">
-        <v>2.66</v>
+        <v>1.28</v>
       </c>
       <c r="H23" t="n">
-        <v>2.78</v>
+        <v>12.5</v>
       </c>
       <c r="I23" t="n">
-        <v>2.8</v>
+        <v>15.5</v>
       </c>
       <c r="J23" t="n">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="K23" t="n">
-        <v>3.8</v>
+        <v>8.4</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N23" t="n">
-        <v>5</v>
+        <v>8.4</v>
       </c>
       <c r="O23" t="n">
-        <v>1.23</v>
+        <v>1.1</v>
       </c>
       <c r="P23" t="n">
-        <v>2.4</v>
+        <v>3.45</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.69</v>
+        <v>1.32</v>
       </c>
       <c r="R23" t="n">
-        <v>1.54</v>
+        <v>2</v>
       </c>
       <c r="S23" t="n">
-        <v>2.74</v>
+        <v>1.8</v>
       </c>
       <c r="T23" t="n">
-        <v>1.58</v>
+        <v>1.7</v>
       </c>
       <c r="U23" t="n">
-        <v>2.64</v>
+        <v>2.18</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -3556,57 +3556,192 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="Y23" t="n">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="Z23" t="n">
-        <v>22</v>
+        <v>180</v>
       </c>
       <c r="AA23" t="n">
-        <v>48</v>
+        <v>530</v>
       </c>
       <c r="AB23" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AC23" t="n">
-        <v>8.4</v>
+        <v>19</v>
       </c>
       <c r="AD23" t="n">
-        <v>12.5</v>
+        <v>46</v>
       </c>
       <c r="AE23" t="n">
-        <v>28</v>
+        <v>180</v>
       </c>
       <c r="AF23" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="AG23" t="n">
         <v>12</v>
       </c>
       <c r="AH23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>English Premier League</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Man Utd</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K24" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N24" t="n">
+        <v>5</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="U24" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>48</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH24" t="n">
         <v>14.5</v>
       </c>
-      <c r="AI23" t="n">
+      <c r="AI24" t="n">
         <v>30</v>
       </c>
-      <c r="AJ23" t="n">
-        <v>42</v>
-      </c>
-      <c r="AK23" t="n">
+      <c r="AJ24" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK24" t="n">
         <v>25</v>
       </c>
-      <c r="AL23" t="n">
+      <c r="AL24" t="n">
         <v>30</v>
       </c>
-      <c r="AM23" t="n">
+      <c r="AM24" t="n">
         <v>55</v>
       </c>
-      <c r="AN23" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AO23" t="n">
+      <c r="AN24" t="n">
+        <v>18</v>
+      </c>
+      <c r="AO24" t="n">
         <v>19.5</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO24"/>
+  <dimension ref="A1:AO25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -691,7 +691,7 @@
         <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="O2" t="n">
         <v>1.16</v>
@@ -748,7 +748,7 @@
         <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH2" t="n">
         <v>990</v>
@@ -1096,10 +1096,10 @@
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>1.35</v>
+        <v>2</v>
       </c>
       <c r="O5" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="P5" t="n">
         <v>1.35</v>
@@ -1114,10 +1114,10 @@
         <v>2.48</v>
       </c>
       <c r="T5" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U5" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V5" t="n">
         <v>1.19</v>
@@ -1210,19 +1210,19 @@
         <v>1.47</v>
       </c>
       <c r="G6" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="H6" t="n">
-        <v>5.7</v>
+        <v>6.4</v>
       </c>
       <c r="I6" t="n">
         <v>1000</v>
       </c>
       <c r="J6" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="K6" t="n">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
@@ -1231,34 +1231,34 @@
         <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>1.49</v>
+        <v>2.36</v>
       </c>
       <c r="O6" t="n">
         <v>1.01</v>
       </c>
       <c r="P6" t="n">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="Q6" t="n">
         <v>2.1</v>
       </c>
       <c r="R6" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="S6" t="n">
-        <v>2.1</v>
+        <v>3.05</v>
       </c>
       <c r="T6" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U6" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V6" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="W6" t="n">
-        <v>2.16</v>
+        <v>2.32</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="G7" t="n">
         <v>1.14</v>
@@ -1366,28 +1366,28 @@
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="O7" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="P7" t="n">
-        <v>1.83</v>
+        <v>2.82</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="R7" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="S7" t="n">
-        <v>1.69</v>
+        <v>1.56</v>
       </c>
       <c r="T7" t="n">
         <v>2.02</v>
       </c>
       <c r="U7" t="n">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="V7" t="n">
         <v>1.02</v>
@@ -1444,7 +1444,7 @@
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>2.96</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.36</v>
+        <v>1.23</v>
       </c>
       <c r="G8" t="n">
-        <v>1.68</v>
+        <v>1.48</v>
       </c>
       <c r="H8" t="n">
-        <v>5.5</v>
+        <v>7.6</v>
       </c>
       <c r="I8" t="n">
         <v>1000</v>
       </c>
       <c r="J8" t="n">
-        <v>4.2</v>
+        <v>5.1</v>
       </c>
       <c r="K8" t="n">
-        <v>12</v>
+        <v>16.5</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
@@ -1501,34 +1501,34 @@
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>2.14</v>
+        <v>1.1</v>
       </c>
       <c r="O8" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="P8" t="n">
-        <v>2.14</v>
+        <v>2.48</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.43</v>
+        <v>1.11</v>
       </c>
       <c r="R8" t="n">
-        <v>1.46</v>
+        <v>1.78</v>
       </c>
       <c r="S8" t="n">
-        <v>2.08</v>
+        <v>1.81</v>
       </c>
       <c r="T8" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V8" t="n">
         <v>1.01</v>
       </c>
-      <c r="U8" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.02</v>
-      </c>
       <c r="W8" t="n">
-        <v>2.46</v>
+        <v>3.05</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1636,7 +1636,7 @@
         <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>1.94</v>
+        <v>3</v>
       </c>
       <c r="O9" t="n">
         <v>1.29</v>
@@ -1654,10 +1654,10 @@
         <v>2.8</v>
       </c>
       <c r="T9" t="n">
-        <v>1.01</v>
+        <v>1.57</v>
       </c>
       <c r="U9" t="n">
-        <v>1.01</v>
+        <v>1.98</v>
       </c>
       <c r="V9" t="n">
         <v>1.64</v>
@@ -1669,7 +1669,7 @@
         <v>22</v>
       </c>
       <c r="Y9" t="n">
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="Z9" t="n">
         <v>980</v>
@@ -1678,13 +1678,13 @@
         <v>980</v>
       </c>
       <c r="AB9" t="n">
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="AC9" t="n">
         <v>11.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="AE9" t="n">
         <v>980</v>
@@ -1693,10 +1693,10 @@
         <v>980</v>
       </c>
       <c r="AG9" t="n">
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="AH9" t="n">
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="AI9" t="n">
         <v>55</v>
@@ -1714,10 +1714,10 @@
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="10">
@@ -1747,16 +1747,16 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="G10" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="H10" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="J10" t="n">
         <v>3.65</v>
@@ -1771,40 +1771,40 @@
         <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>2.06</v>
+        <v>2.22</v>
       </c>
       <c r="O10" t="n">
         <v>1.25</v>
       </c>
       <c r="P10" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q10" t="n">
         <v>1.74</v>
       </c>
       <c r="R10" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="S10" t="n">
-        <v>1.74</v>
+        <v>2.32</v>
       </c>
       <c r="T10" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U10" t="n">
-        <v>1.01</v>
+        <v>2.18</v>
       </c>
       <c r="V10" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="W10" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="X10" t="n">
         <v>26</v>
       </c>
       <c r="Y10" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="Z10" t="n">
         <v>1000</v>
@@ -1813,13 +1813,13 @@
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AC10" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AD10" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AE10" t="n">
         <v>1000</v>
@@ -1828,10 +1828,10 @@
         <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AH10" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AI10" t="n">
         <v>1000</v>
@@ -1891,7 +1891,7 @@
         <v>3.3</v>
       </c>
       <c r="I11" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="J11" t="n">
         <v>3.9</v>
@@ -1903,13 +1903,13 @@
         <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N11" t="n">
-        <v>2.52</v>
+        <v>5.4</v>
       </c>
       <c r="O11" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P11" t="n">
         <v>2.52</v>
@@ -1918,76 +1918,76 @@
         <v>1.52</v>
       </c>
       <c r="R11" t="n">
-        <v>1.25</v>
+        <v>1.62</v>
       </c>
       <c r="S11" t="n">
-        <v>1.53</v>
+        <v>2.28</v>
       </c>
       <c r="T11" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="U11" t="n">
-        <v>1.01</v>
+        <v>2.52</v>
       </c>
       <c r="V11" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="W11" t="n">
         <v>1.84</v>
       </c>
       <c r="X11" t="n">
-        <v>36</v>
+        <v>990</v>
       </c>
       <c r="Y11" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="Z11" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AA11" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="AB11" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AC11" t="n">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="AD11" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AF11" t="n">
-        <v>23</v>
+        <v>17.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>15.5</v>
+        <v>12</v>
       </c>
       <c r="AH11" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AI11" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AJ11" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AK11" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AL11" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AM11" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="12">
@@ -2041,7 +2041,7 @@
         <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>1.72</v>
+        <v>2.64</v>
       </c>
       <c r="O12" t="n">
         <v>1.01</v>
@@ -2059,10 +2059,10 @@
         <v>3.35</v>
       </c>
       <c r="T12" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U12" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V12" t="n">
         <v>1.4</v>
@@ -2074,7 +2074,7 @@
         <v>17.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="Z12" t="n">
         <v>980</v>
@@ -2083,13 +2083,13 @@
         <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="AC12" t="n">
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="AD12" t="n">
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="AE12" t="n">
         <v>1000</v>
@@ -2098,10 +2098,10 @@
         <v>980</v>
       </c>
       <c r="AG12" t="n">
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="AH12" t="n">
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="AI12" t="n">
         <v>1000</v>
@@ -2152,55 +2152,55 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="G13" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="H13" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="I13" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="J13" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="K13" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="L13" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="M13" t="n">
         <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>2.38</v>
+        <v>2.46</v>
       </c>
       <c r="O13" t="n">
         <v>1.19</v>
       </c>
       <c r="P13" t="n">
-        <v>2.38</v>
+        <v>2.46</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="R13" t="n">
-        <v>1.18</v>
+        <v>1.55</v>
       </c>
       <c r="S13" t="n">
-        <v>2.4</v>
+        <v>2.04</v>
       </c>
       <c r="T13" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U13" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="V13" t="n">
-        <v>2.68</v>
+        <v>2.86</v>
       </c>
       <c r="W13" t="n">
         <v>1.12</v>
@@ -2317,7 +2317,7 @@
         <v>1.29</v>
       </c>
       <c r="P14" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="Q14" t="n">
         <v>1.84</v>
@@ -2353,10 +2353,10 @@
         <v>65</v>
       </c>
       <c r="AB14" t="n">
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="AC14" t="n">
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="AD14" t="n">
         <v>17</v>
@@ -2371,7 +2371,7 @@
         <v>13.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="AI14" t="n">
         <v>980</v>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="G15" t="n">
         <v>1.3</v>
@@ -2431,10 +2431,10 @@
         <v>9.6</v>
       </c>
       <c r="I15" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="J15" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="K15" t="n">
         <v>7.6</v>
@@ -2446,40 +2446,40 @@
         <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O15" t="n">
         <v>1.12</v>
       </c>
       <c r="P15" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="Q15" t="n">
         <v>1.33</v>
       </c>
       <c r="R15" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="S15" t="n">
         <v>1.87</v>
       </c>
       <c r="T15" t="n">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="U15" t="n">
-        <v>1.76</v>
+        <v>1.04</v>
       </c>
       <c r="V15" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="W15" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="X15" t="n">
-        <v>55</v>
+        <v>990</v>
       </c>
       <c r="Y15" t="n">
-        <v>70</v>
+        <v>990</v>
       </c>
       <c r="Z15" t="n">
         <v>1000</v>
@@ -2488,31 +2488,31 @@
         <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>980</v>
+        <v>16.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="AD15" t="n">
-        <v>55</v>
+        <v>990</v>
       </c>
       <c r="AE15" t="n">
         <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AG15" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AI15" t="n">
         <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AK15" t="n">
         <v>980</v>
@@ -2524,7 +2524,7 @@
         <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>1000</v>
+        <v>4.7</v>
       </c>
       <c r="AO15" t="n">
         <v>1000</v>
@@ -2560,13 +2560,13 @@
         <v>1.96</v>
       </c>
       <c r="G16" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="H16" t="n">
         <v>3.55</v>
       </c>
       <c r="I16" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="J16" t="n">
         <v>3.6</v>
@@ -2575,7 +2575,7 @@
         <v>4.2</v>
       </c>
       <c r="L16" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="M16" t="n">
         <v>1.05</v>
@@ -2599,19 +2599,19 @@
         <v>2.88</v>
       </c>
       <c r="T16" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="U16" t="n">
         <v>2.06</v>
       </c>
       <c r="V16" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="W16" t="n">
         <v>1.83</v>
       </c>
       <c r="X16" t="n">
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="Y16" t="n">
         <v>980</v>
@@ -2659,7 +2659,7 @@
         <v>100</v>
       </c>
       <c r="AN16" t="n">
-        <v>16</v>
+        <v>980</v>
       </c>
       <c r="AO16" t="n">
         <v>980</v>
@@ -2695,7 +2695,7 @@
         <v>5.2</v>
       </c>
       <c r="G17" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="H17" t="n">
         <v>1.63</v>
@@ -2830,16 +2830,16 @@
         <v>2.52</v>
       </c>
       <c r="G18" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="H18" t="n">
         <v>2.78</v>
       </c>
       <c r="I18" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="J18" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K18" t="n">
         <v>3.7</v>
@@ -2848,91 +2848,91 @@
         <v>1.01</v>
       </c>
       <c r="M18" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>1.78</v>
+        <v>3.25</v>
       </c>
       <c r="O18" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="P18" t="n">
         <v>1.78</v>
       </c>
       <c r="Q18" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U18" t="n">
         <v>2.02</v>
       </c>
-      <c r="R18" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="S18" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.01</v>
-      </c>
       <c r="V18" t="n">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="W18" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="X18" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y18" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD18" t="n">
         <v>16</v>
       </c>
-      <c r="Z18" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>70</v>
-      </c>
-      <c r="AB18" t="n">
+      <c r="AE18" t="n">
+        <v>44</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG18" t="n">
         <v>15</v>
       </c>
-      <c r="AC18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE18" t="n">
+      <c r="AH18" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ18" t="n">
         <v>50</v>
       </c>
-      <c r="AF18" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>18</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>60</v>
-      </c>
       <c r="AK18" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AL18" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AM18" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN18" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19">
@@ -2986,7 +2986,7 @@
         <v>1.01</v>
       </c>
       <c r="N19" t="n">
-        <v>2.22</v>
+        <v>2.4</v>
       </c>
       <c r="O19" t="n">
         <v>1.21</v>
@@ -2995,7 +2995,7 @@
         <v>2.22</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="R19" t="n">
         <v>1.42</v>
@@ -3019,7 +3019,7 @@
         <v>30</v>
       </c>
       <c r="Y19" t="n">
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="Z19" t="n">
         <v>980</v>
@@ -3028,13 +3028,13 @@
         <v>980</v>
       </c>
       <c r="AB19" t="n">
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="AC19" t="n">
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="AD19" t="n">
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="AE19" t="n">
         <v>980</v>
@@ -3043,10 +3043,10 @@
         <v>1000</v>
       </c>
       <c r="AG19" t="n">
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="AH19" t="n">
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="AI19" t="n">
         <v>980</v>
@@ -3067,7 +3067,7 @@
         <v>1000</v>
       </c>
       <c r="AO19" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="20">
@@ -3097,64 +3097,64 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>5.2</v>
+        <v>5.7</v>
       </c>
       <c r="G20" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="H20" t="n">
-        <v>1.56</v>
+        <v>1.49</v>
       </c>
       <c r="I20" t="n">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="J20" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="K20" t="n">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="L20" t="n">
-        <v>1.01</v>
+        <v>1.17</v>
       </c>
       <c r="M20" t="n">
         <v>1.01</v>
       </c>
       <c r="N20" t="n">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="O20" t="n">
         <v>1.16</v>
       </c>
       <c r="P20" t="n">
-        <v>2.62</v>
+        <v>2.7</v>
       </c>
       <c r="Q20" t="n">
         <v>1.43</v>
       </c>
       <c r="R20" t="n">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="S20" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="T20" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="U20" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V20" t="n">
-        <v>2.44</v>
+        <v>2.62</v>
       </c>
       <c r="W20" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="X20" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="Y20" t="n">
-        <v>980</v>
+        <v>16.5</v>
       </c>
       <c r="Z20" t="n">
         <v>980</v>
@@ -3163,46 +3163,46 @@
         <v>980</v>
       </c>
       <c r="AB20" t="n">
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="AC20" t="n">
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="AD20" t="n">
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="AE20" t="n">
         <v>980</v>
       </c>
       <c r="AF20" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AG20" t="n">
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="AH20" t="n">
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="AI20" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AJ20" t="n">
         <v>150</v>
       </c>
       <c r="AK20" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="AL20" t="n">
         <v>65</v>
       </c>
       <c r="AM20" t="n">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AN20" t="n">
         <v>60</v>
       </c>
       <c r="AO20" t="n">
-        <v>6.4</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="21">
@@ -3265,7 +3265,7 @@
         <v>1.92</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="R21" t="n">
         <v>1.35</v>
@@ -3277,7 +3277,7 @@
         <v>1.83</v>
       </c>
       <c r="U21" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="V21" t="n">
         <v>2.22</v>
@@ -3292,7 +3292,7 @@
         <v>10.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AA21" t="n">
         <v>22</v>
@@ -3313,10 +3313,10 @@
         <v>55</v>
       </c>
       <c r="AG21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH21" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AI21" t="n">
         <v>44</v>
@@ -3337,7 +3337,7 @@
         <v>110</v>
       </c>
       <c r="AO21" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22">
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="G22" t="n">
         <v>2.58</v>
@@ -3478,7 +3478,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,123 +3488,123 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Al-Hilal</t>
+          <t>Sakaryaspor</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Al-Khaleej Saihat</t>
+          <t>Manisa FK</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.23</v>
+        <v>2.1</v>
       </c>
       <c r="G23" t="n">
-        <v>1.28</v>
+        <v>2.48</v>
       </c>
       <c r="H23" t="n">
-        <v>12.5</v>
+        <v>2.9</v>
       </c>
       <c r="I23" t="n">
-        <v>15.5</v>
+        <v>3.9</v>
       </c>
       <c r="J23" t="n">
-        <v>7</v>
+        <v>3.45</v>
       </c>
       <c r="K23" t="n">
-        <v>8.4</v>
+        <v>5.6</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M23" t="n">
         <v>1.01</v>
       </c>
       <c r="N23" t="n">
-        <v>8.4</v>
+        <v>2.22</v>
       </c>
       <c r="O23" t="n">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="P23" t="n">
-        <v>3.45</v>
+        <v>2.22</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.32</v>
+        <v>1.5</v>
       </c>
       <c r="R23" t="n">
-        <v>2</v>
+        <v>1.43</v>
       </c>
       <c r="S23" t="n">
-        <v>1.8</v>
+        <v>1.99</v>
       </c>
       <c r="T23" t="n">
-        <v>1.7</v>
+        <v>1.04</v>
       </c>
       <c r="U23" t="n">
-        <v>2.18</v>
+        <v>1.04</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="X23" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="Y23" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="Z23" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AA23" t="n">
-        <v>530</v>
+        <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AC23" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AD23" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AE23" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AF23" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AG23" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH23" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AI23" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AK23" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AL23" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AM23" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>3.3</v>
+        <v>1000</v>
       </c>
       <c r="AO23" t="n">
         <v>1000</v>
@@ -3613,136 +3613,271 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>Saudi Professional League</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>14:30:00</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Al-Hilal</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Al-Khaleej Saihat</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="H24" t="n">
+        <v>14</v>
+      </c>
+      <c r="I24" t="n">
+        <v>17</v>
+      </c>
+      <c r="J24" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="K24" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N24" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="U24" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="W24" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="X24" t="n">
+        <v>55</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>80</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>190</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>530</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>22</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>55</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>220</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
           <t>English Premier League</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t>2025-12-26</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>17:00:00</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>Man Utd</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>Newcastle</t>
         </is>
       </c>
-      <c r="F24" t="n">
+      <c r="F25" t="n">
         <v>2.64</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G25" t="n">
         <v>2.66</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H25" t="n">
         <v>2.8</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I25" t="n">
         <v>2.82</v>
       </c>
-      <c r="J24" t="n">
+      <c r="J25" t="n">
         <v>3.75</v>
       </c>
-      <c r="K24" t="n">
+      <c r="K25" t="n">
         <v>3.8</v>
       </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
         <v>1.05</v>
       </c>
-      <c r="N24" t="n">
+      <c r="N25" t="n">
         <v>5</v>
       </c>
-      <c r="O24" t="n">
+      <c r="O25" t="n">
         <v>1.23</v>
       </c>
-      <c r="P24" t="n">
+      <c r="P25" t="n">
         <v>2.4</v>
       </c>
-      <c r="Q24" t="n">
+      <c r="Q25" t="n">
         <v>1.69</v>
       </c>
-      <c r="R24" t="n">
+      <c r="R25" t="n">
         <v>1.55</v>
       </c>
-      <c r="S24" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="T24" t="n">
+      <c r="S25" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="T25" t="n">
         <v>1.58</v>
       </c>
-      <c r="U24" t="n">
+      <c r="U25" t="n">
         <v>2.64</v>
       </c>
-      <c r="V24" t="n">
-        <v>0</v>
-      </c>
-      <c r="W24" t="n">
-        <v>0</v>
-      </c>
-      <c r="X24" t="n">
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
         <v>21</v>
       </c>
-      <c r="Y24" t="n">
+      <c r="Y25" t="n">
         <v>15</v>
       </c>
-      <c r="Z24" t="n">
+      <c r="Z25" t="n">
         <v>22</v>
       </c>
-      <c r="AA24" t="n">
+      <c r="AA25" t="n">
         <v>48</v>
       </c>
-      <c r="AB24" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE24" t="n">
+      <c r="AB25" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE25" t="n">
         <v>28</v>
       </c>
-      <c r="AF24" t="n">
+      <c r="AF25" t="n">
         <v>20</v>
       </c>
-      <c r="AG24" t="n">
+      <c r="AG25" t="n">
         <v>12</v>
       </c>
-      <c r="AH24" t="n">
+      <c r="AH25" t="n">
         <v>14.5</v>
       </c>
-      <c r="AI24" t="n">
+      <c r="AI25" t="n">
         <v>30</v>
       </c>
-      <c r="AJ24" t="n">
+      <c r="AJ25" t="n">
         <v>36</v>
       </c>
-      <c r="AK24" t="n">
+      <c r="AK25" t="n">
         <v>25</v>
       </c>
-      <c r="AL24" t="n">
+      <c r="AL25" t="n">
         <v>30</v>
       </c>
-      <c r="AM24" t="n">
+      <c r="AM25" t="n">
         <v>55</v>
       </c>
-      <c r="AN24" t="n">
+      <c r="AN25" t="n">
         <v>18</v>
       </c>
-      <c r="AO24" t="n">
-        <v>19.5</v>
+      <c r="AO25" t="n">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-26.xlsx
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="G2" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="H2" t="n">
         <v>3.75</v>
@@ -679,7 +679,7 @@
         <v>3.85</v>
       </c>
       <c r="J2" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="K2" t="n">
         <v>4.5</v>
@@ -691,13 +691,13 @@
         <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="O2" t="n">
         <v>1.16</v>
       </c>
       <c r="P2" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="Q2" t="n">
         <v>1.5</v>
@@ -706,13 +706,13 @@
         <v>1.77</v>
       </c>
       <c r="S2" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="T2" t="n">
         <v>1.51</v>
       </c>
       <c r="U2" t="n">
-        <v>2.74</v>
+        <v>2.82</v>
       </c>
       <c r="V2" t="n">
         <v>1.35</v>
@@ -751,7 +751,7 @@
         <v>12</v>
       </c>
       <c r="AH2" t="n">
-        <v>990</v>
+        <v>18.5</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="G3" t="n">
         <v>1000</v>
@@ -814,7 +814,7 @@
         <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>1.02</v>
+        <v>1.09</v>
       </c>
       <c r="K3" t="n">
         <v>1000</v>
@@ -850,7 +850,7 @@
         <v>1.04</v>
       </c>
       <c r="V3" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="W3" t="n">
         <v>1.01</v>
@@ -1345,7 +1345,7 @@
         <v>1.09</v>
       </c>
       <c r="G7" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="H7" t="n">
         <v>20</v>
@@ -1372,22 +1372,22 @@
         <v>1.07</v>
       </c>
       <c r="P7" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="R7" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="S7" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="T7" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U7" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="V7" t="n">
         <v>1.02</v>
@@ -1444,7 +1444,7 @@
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>2.96</v>
+        <v>2.88</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1477,10 +1477,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.23</v>
+        <v>1.09</v>
       </c>
       <c r="G8" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="H8" t="n">
         <v>7.6</v>
@@ -1492,7 +1492,7 @@
         <v>5.1</v>
       </c>
       <c r="K8" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
@@ -1525,7 +1525,7 @@
         <v>1.04</v>
       </c>
       <c r="V8" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="W8" t="n">
         <v>3.05</v>
@@ -1615,7 +1615,7 @@
         <v>3.15</v>
       </c>
       <c r="G9" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="H9" t="n">
         <v>2.2</v>
@@ -1636,7 +1636,7 @@
         <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>3</v>
+        <v>2.08</v>
       </c>
       <c r="O9" t="n">
         <v>1.29</v>
@@ -1657,7 +1657,7 @@
         <v>1.57</v>
       </c>
       <c r="U9" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V9" t="n">
         <v>1.64</v>
@@ -1669,7 +1669,7 @@
         <v>22</v>
       </c>
       <c r="Y9" t="n">
-        <v>990</v>
+        <v>15.5</v>
       </c>
       <c r="Z9" t="n">
         <v>980</v>
@@ -1684,7 +1684,7 @@
         <v>11.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>990</v>
+        <v>17</v>
       </c>
       <c r="AE9" t="n">
         <v>980</v>
@@ -1747,13 +1747,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="G10" t="n">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="I10" t="n">
         <v>3.2</v>
@@ -1762,7 +1762,7 @@
         <v>3.65</v>
       </c>
       <c r="K10" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
@@ -1792,7 +1792,7 @@
         <v>1.04</v>
       </c>
       <c r="U10" t="n">
-        <v>2.18</v>
+        <v>1.04</v>
       </c>
       <c r="V10" t="n">
         <v>1.45</v>
@@ -2107,7 +2107,7 @@
         <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AK12" t="n">
         <v>980</v>
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="G14" t="n">
         <v>2.38</v>
@@ -2560,13 +2560,13 @@
         <v>1.96</v>
       </c>
       <c r="G16" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="H16" t="n">
         <v>3.55</v>
       </c>
       <c r="I16" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J16" t="n">
         <v>3.6</v>
@@ -2575,7 +2575,7 @@
         <v>4.2</v>
       </c>
       <c r="L16" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M16" t="n">
         <v>1.05</v>
@@ -2602,7 +2602,7 @@
         <v>1.56</v>
       </c>
       <c r="U16" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="V16" t="n">
         <v>1.31</v>
@@ -2650,7 +2650,7 @@
         <v>980</v>
       </c>
       <c r="AK16" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AL16" t="n">
         <v>980</v>
@@ -2854,7 +2854,7 @@
         <v>3.25</v>
       </c>
       <c r="O18" t="n">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="P18" t="n">
         <v>1.78</v>
@@ -2869,7 +2869,7 @@
         <v>3.65</v>
       </c>
       <c r="T18" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U18" t="n">
         <v>2.02</v>
@@ -2893,7 +2893,7 @@
         <v>60</v>
       </c>
       <c r="AB18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC18" t="n">
         <v>9.199999999999999</v>
@@ -2920,7 +2920,7 @@
         <v>50</v>
       </c>
       <c r="AK18" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AL18" t="n">
         <v>55</v>
@@ -3109,7 +3109,7 @@
         <v>1.61</v>
       </c>
       <c r="J20" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="K20" t="n">
         <v>5.7</v>
@@ -3127,16 +3127,16 @@
         <v>1.16</v>
       </c>
       <c r="P20" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="Q20" t="n">
         <v>1.43</v>
       </c>
       <c r="R20" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="S20" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="T20" t="n">
         <v>1.52</v>
@@ -3145,7 +3145,7 @@
         <v>2.16</v>
       </c>
       <c r="V20" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="W20" t="n">
         <v>1.17</v>
@@ -3292,7 +3292,7 @@
         <v>10.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AA21" t="n">
         <v>22</v>
@@ -3313,13 +3313,13 @@
         <v>55</v>
       </c>
       <c r="AG21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AH21" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AI21" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ21" t="n">
         <v>170</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="G22" t="n">
         <v>2.58</v>
@@ -3649,7 +3649,7 @@
         <v>17</v>
       </c>
       <c r="J24" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="K24" t="n">
         <v>9.6</v>
@@ -3688,16 +3688,16 @@
         <v>1.06</v>
       </c>
       <c r="W24" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="X24" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="Y24" t="n">
         <v>80</v>
       </c>
       <c r="Z24" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AA24" t="n">
         <v>530</v>
@@ -3712,25 +3712,25 @@
         <v>55</v>
       </c>
       <c r="AE24" t="n">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="AF24" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG24" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH24" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AI24" t="n">
         <v>130</v>
       </c>
       <c r="AJ24" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AK24" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AL24" t="n">
         <v>28</v>
@@ -3742,7 +3742,7 @@
         <v>3.05</v>
       </c>
       <c r="AO24" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="25">
@@ -3772,10 +3772,10 @@
         </is>
       </c>
       <c r="F25" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="G25" t="n">
         <v>2.64</v>
-      </c>
-      <c r="G25" t="n">
-        <v>2.66</v>
       </c>
       <c r="H25" t="n">
         <v>2.8</v>
@@ -3790,7 +3790,7 @@
         <v>3.8</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="M25" t="n">
         <v>1.05</v>
@@ -3802,13 +3802,13 @@
         <v>1.23</v>
       </c>
       <c r="P25" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="R25" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="S25" t="n">
         <v>2.74</v>
@@ -3820,25 +3820,25 @@
         <v>2.64</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="X25" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z25" t="n">
         <v>21</v>
       </c>
-      <c r="Y25" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>22</v>
-      </c>
       <c r="AA25" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AB25" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC25" t="n">
         <v>8.6</v>
@@ -3847,13 +3847,13 @@
         <v>12</v>
       </c>
       <c r="AE25" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AF25" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AG25" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH25" t="n">
         <v>14.5</v>
@@ -3862,10 +3862,10 @@
         <v>30</v>
       </c>
       <c r="AJ25" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AK25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL25" t="n">
         <v>30</v>
@@ -3874,10 +3874,10 @@
         <v>55</v>
       </c>
       <c r="AN25" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AO25" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-26.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="G2" t="n">
         <v>1.97</v>
@@ -694,10 +694,10 @@
         <v>6.6</v>
       </c>
       <c r="O2" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P2" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="Q2" t="n">
         <v>1.5</v>
@@ -709,10 +709,10 @@
         <v>2.22</v>
       </c>
       <c r="T2" t="n">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="U2" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="V2" t="n">
         <v>1.35</v>
@@ -736,10 +736,10 @@
         <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>990</v>
+        <v>13</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
@@ -748,10 +748,10 @@
         <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
@@ -760,7 +760,7 @@
         <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
@@ -769,7 +769,7 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>7.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="G3" t="n">
         <v>1000</v>
@@ -943,7 +943,7 @@
         <v>5.7</v>
       </c>
       <c r="H4" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="I4" t="n">
         <v>1.73</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="G5" t="n">
         <v>2.64</v>
       </c>
       <c r="H5" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I5" t="n">
         <v>6.2</v>
       </c>
       <c r="J5" t="n">
-        <v>2.56</v>
+        <v>1.09</v>
       </c>
       <c r="K5" t="n">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1096,22 +1096,22 @@
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="O5" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="P5" t="n">
         <v>1.35</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.48</v>
+        <v>2.6</v>
       </c>
       <c r="R5" t="n">
         <v>1.13</v>
       </c>
       <c r="S5" t="n">
-        <v>2.48</v>
+        <v>2.6</v>
       </c>
       <c r="T5" t="n">
         <v>1.04</v>
@@ -1120,7 +1120,7 @@
         <v>1.04</v>
       </c>
       <c r="V5" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="W5" t="n">
         <v>1.6</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.47</v>
+        <v>1.33</v>
       </c>
       <c r="G6" t="n">
-        <v>1.75</v>
+        <v>1.68</v>
       </c>
       <c r="H6" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="I6" t="n">
         <v>1000</v>
       </c>
       <c r="J6" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="K6" t="n">
-        <v>6.2</v>
+        <v>980</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
@@ -1231,19 +1231,19 @@
         <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>2.36</v>
+        <v>2.44</v>
       </c>
       <c r="O6" t="n">
         <v>1.01</v>
       </c>
       <c r="P6" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="Q6" t="n">
         <v>2.1</v>
       </c>
       <c r="R6" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="S6" t="n">
         <v>3.05</v>
@@ -1258,7 +1258,7 @@
         <v>1.08</v>
       </c>
       <c r="W6" t="n">
-        <v>2.32</v>
+        <v>2.46</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1348,7 +1348,7 @@
         <v>1.13</v>
       </c>
       <c r="H7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I7" t="n">
         <v>1000</v>
@@ -1372,7 +1372,7 @@
         <v>1.07</v>
       </c>
       <c r="P7" t="n">
-        <v>2.84</v>
+        <v>2.36</v>
       </c>
       <c r="Q7" t="n">
         <v>1.23</v>
@@ -1387,13 +1387,13 @@
         <v>2.04</v>
       </c>
       <c r="U7" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="V7" t="n">
         <v>1.02</v>
       </c>
       <c r="W7" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1444,7 +1444,7 @@
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>2.88</v>
+        <v>2.76</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1507,7 +1507,7 @@
         <v>1.11</v>
       </c>
       <c r="P8" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="Q8" t="n">
         <v>1.11</v>
@@ -1516,7 +1516,7 @@
         <v>1.78</v>
       </c>
       <c r="S8" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="T8" t="n">
         <v>1.04</v>
@@ -1636,7 +1636,7 @@
         <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>2.08</v>
+        <v>1.94</v>
       </c>
       <c r="O9" t="n">
         <v>1.29</v>
@@ -1654,10 +1654,10 @@
         <v>2.8</v>
       </c>
       <c r="T9" t="n">
-        <v>1.57</v>
+        <v>1.71</v>
       </c>
       <c r="U9" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="V9" t="n">
         <v>1.64</v>
@@ -1714,7 +1714,7 @@
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AO9" t="n">
         <v>980</v>
@@ -1747,13 +1747,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="G10" t="n">
         <v>2.44</v>
       </c>
       <c r="H10" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="I10" t="n">
         <v>3.2</v>
@@ -1762,7 +1762,7 @@
         <v>3.65</v>
       </c>
       <c r="K10" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
@@ -1780,7 +1780,7 @@
         <v>2.08</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="R10" t="n">
         <v>1.33</v>
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="G11" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="H11" t="n">
         <v>3.3</v>
@@ -1927,7 +1927,7 @@
         <v>1.52</v>
       </c>
       <c r="U11" t="n">
-        <v>2.52</v>
+        <v>2.66</v>
       </c>
       <c r="V11" t="n">
         <v>1.34</v>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="G12" t="n">
         <v>2.68</v>
@@ -2038,13 +2038,13 @@
         <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>2.64</v>
+        <v>2.82</v>
       </c>
       <c r="O12" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="P12" t="n">
         <v>1.72</v>
@@ -2056,7 +2056,7 @@
         <v>1.23</v>
       </c>
       <c r="S12" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="T12" t="n">
         <v>1.04</v>
@@ -2065,13 +2065,13 @@
         <v>1.04</v>
       </c>
       <c r="V12" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="W12" t="n">
         <v>1.59</v>
       </c>
       <c r="X12" t="n">
-        <v>17.5</v>
+        <v>990</v>
       </c>
       <c r="Y12" t="n">
         <v>990</v>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="G13" t="n">
         <v>8.800000000000001</v>
@@ -2161,28 +2161,28 @@
         <v>1.46</v>
       </c>
       <c r="I13" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="J13" t="n">
         <v>4.7</v>
       </c>
       <c r="K13" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="L13" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="M13" t="n">
         <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="O13" t="n">
         <v>1.19</v>
       </c>
       <c r="P13" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="Q13" t="n">
         <v>1.55</v>
@@ -2191,16 +2191,16 @@
         <v>1.55</v>
       </c>
       <c r="S13" t="n">
-        <v>2.04</v>
+        <v>1.97</v>
       </c>
       <c r="T13" t="n">
         <v>1.04</v>
       </c>
       <c r="U13" t="n">
-        <v>2.02</v>
+        <v>1.04</v>
       </c>
       <c r="V13" t="n">
-        <v>2.86</v>
+        <v>3</v>
       </c>
       <c r="W13" t="n">
         <v>1.12</v>
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="G14" t="n">
         <v>2.38</v>
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="G15" t="n">
         <v>1.3</v>
       </c>
       <c r="H15" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="I15" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="J15" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="K15" t="n">
         <v>9.6</v>
-      </c>
-      <c r="I15" t="n">
-        <v>23</v>
-      </c>
-      <c r="J15" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="K15" t="n">
-        <v>7.6</v>
       </c>
       <c r="L15" t="n">
         <v>1.01</v>
@@ -2458,7 +2458,7 @@
         <v>1.33</v>
       </c>
       <c r="R15" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="S15" t="n">
         <v>1.87</v>
@@ -2467,7 +2467,7 @@
         <v>1.64</v>
       </c>
       <c r="U15" t="n">
-        <v>1.04</v>
+        <v>1.74</v>
       </c>
       <c r="V15" t="n">
         <v>1.08</v>
@@ -2524,7 +2524,7 @@
         <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="AO15" t="n">
         <v>1000</v>
@@ -2560,13 +2560,13 @@
         <v>1.96</v>
       </c>
       <c r="G16" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="H16" t="n">
         <v>3.55</v>
       </c>
       <c r="I16" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="J16" t="n">
         <v>3.6</v>
@@ -2575,7 +2575,7 @@
         <v>4.2</v>
       </c>
       <c r="L16" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M16" t="n">
         <v>1.05</v>
@@ -2608,7 +2608,7 @@
         <v>1.31</v>
       </c>
       <c r="W16" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="X16" t="n">
         <v>990</v>
@@ -2650,7 +2650,7 @@
         <v>980</v>
       </c>
       <c r="AK16" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AL16" t="n">
         <v>980</v>
@@ -2701,7 +2701,7 @@
         <v>1.63</v>
       </c>
       <c r="I17" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="J17" t="n">
         <v>3.85</v>
@@ -2860,7 +2860,7 @@
         <v>1.78</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="R18" t="n">
         <v>1.29</v>
@@ -2869,7 +2869,7 @@
         <v>3.65</v>
       </c>
       <c r="T18" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="U18" t="n">
         <v>2.02</v>
@@ -2881,7 +2881,7 @@
         <v>1.55</v>
       </c>
       <c r="X18" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y18" t="n">
         <v>13.5</v>
@@ -2893,7 +2893,7 @@
         <v>60</v>
       </c>
       <c r="AB18" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AC18" t="n">
         <v>9.199999999999999</v>
@@ -2920,7 +2920,7 @@
         <v>50</v>
       </c>
       <c r="AK18" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AL18" t="n">
         <v>55</v>
@@ -2968,7 +2968,7 @@
         <v>5.8</v>
       </c>
       <c r="H19" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="I19" t="n">
         <v>2</v>
@@ -3115,7 +3115,7 @@
         <v>5.7</v>
       </c>
       <c r="L20" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="M20" t="n">
         <v>1.01</v>
@@ -3142,7 +3142,7 @@
         <v>1.52</v>
       </c>
       <c r="U20" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="V20" t="n">
         <v>2.64</v>
@@ -3265,7 +3265,7 @@
         <v>1.92</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="R21" t="n">
         <v>1.35</v>
@@ -3277,7 +3277,7 @@
         <v>1.83</v>
       </c>
       <c r="U21" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="V21" t="n">
         <v>2.22</v>
@@ -3292,7 +3292,7 @@
         <v>10.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AA21" t="n">
         <v>22</v>
@@ -3313,7 +3313,7 @@
         <v>55</v>
       </c>
       <c r="AG21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH21" t="n">
         <v>24</v>
@@ -3370,10 +3370,10 @@
         <v>2.42</v>
       </c>
       <c r="G22" t="n">
-        <v>2.58</v>
+        <v>2.46</v>
       </c>
       <c r="H22" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="I22" t="n">
         <v>3.75</v>
@@ -3649,13 +3649,13 @@
         <v>17</v>
       </c>
       <c r="J24" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="K24" t="n">
         <v>9.6</v>
       </c>
       <c r="L24" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="M24" t="n">
         <v>1.01</v>
@@ -3670,7 +3670,7 @@
         <v>3.6</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="R24" t="n">
         <v>2.06</v>
@@ -3679,10 +3679,10 @@
         <v>1.76</v>
       </c>
       <c r="T24" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="U24" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="V24" t="n">
         <v>1.06</v>
@@ -3700,7 +3700,7 @@
         <v>180</v>
       </c>
       <c r="AA24" t="n">
-        <v>530</v>
+        <v>1000</v>
       </c>
       <c r="AB24" t="n">
         <v>16</v>
@@ -3733,13 +3733,13 @@
         <v>13</v>
       </c>
       <c r="AL24" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AM24" t="n">
         <v>130</v>
       </c>
       <c r="AN24" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="AO24" t="n">
         <v>1000</v>
@@ -3772,16 +3772,16 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="G25" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="H25" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="I25" t="n">
         <v>2.8</v>
-      </c>
-      <c r="I25" t="n">
-        <v>2.82</v>
       </c>
       <c r="J25" t="n">
         <v>3.75</v>
@@ -3790,7 +3790,7 @@
         <v>3.8</v>
       </c>
       <c r="L25" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M25" t="n">
         <v>1.05</v>
@@ -3802,25 +3802,25 @@
         <v>1.23</v>
       </c>
       <c r="P25" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="R25" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="S25" t="n">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="T25" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="U25" t="n">
         <v>2.64</v>
       </c>
       <c r="V25" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="W25" t="n">
         <v>1.6</v>
@@ -3829,7 +3829,7 @@
         <v>20</v>
       </c>
       <c r="Y25" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Z25" t="n">
         <v>21</v>
@@ -3853,7 +3853,7 @@
         <v>19.5</v>
       </c>
       <c r="AG25" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH25" t="n">
         <v>14.5</v>
@@ -3877,7 +3877,7 @@
         <v>16</v>
       </c>
       <c r="AO25" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-26.xlsx
@@ -694,7 +694,7 @@
         <v>6.6</v>
       </c>
       <c r="O2" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P2" t="n">
         <v>2.88</v>
@@ -709,10 +709,10 @@
         <v>2.22</v>
       </c>
       <c r="T2" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="U2" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="V2" t="n">
         <v>1.35</v>
@@ -724,55 +724,55 @@
         <v>30</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AC2" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AN2" t="n">
-        <v>9.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3">
@@ -943,7 +943,7 @@
         <v>5.7</v>
       </c>
       <c r="H4" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="I4" t="n">
         <v>1.73</v>
@@ -1075,34 +1075,34 @@
         <v>2.04</v>
       </c>
       <c r="G5" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="H5" t="n">
         <v>3.7</v>
       </c>
       <c r="I5" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="J5" t="n">
-        <v>1.09</v>
+        <v>2.24</v>
       </c>
       <c r="K5" t="n">
         <v>4.2</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="M5" t="n">
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>2.04</v>
+        <v>1.97</v>
       </c>
       <c r="O5" t="n">
         <v>1.33</v>
       </c>
       <c r="P5" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="Q5" t="n">
         <v>2.6</v>
@@ -1123,7 +1123,7 @@
         <v>1.2</v>
       </c>
       <c r="W5" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1210,43 +1210,43 @@
         <v>1.33</v>
       </c>
       <c r="G6" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="I6" t="n">
         <v>1000</v>
       </c>
       <c r="J6" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K6" t="n">
         <v>980</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="M6" t="n">
         <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="O6" t="n">
         <v>1.01</v>
       </c>
       <c r="P6" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R6" t="n">
         <v>1.16</v>
       </c>
       <c r="S6" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="T6" t="n">
         <v>1.04</v>
@@ -1258,7 +1258,7 @@
         <v>1.08</v>
       </c>
       <c r="W6" t="n">
-        <v>2.46</v>
+        <v>2.4</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1345,7 +1345,7 @@
         <v>1.09</v>
       </c>
       <c r="G7" t="n">
-        <v>1.13</v>
+        <v>1000</v>
       </c>
       <c r="H7" t="n">
         <v>21</v>
@@ -1354,7 +1354,7 @@
         <v>1000</v>
       </c>
       <c r="J7" t="n">
-        <v>11</v>
+        <v>1.03</v>
       </c>
       <c r="K7" t="n">
         <v>1000</v>
@@ -1366,34 +1366,34 @@
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>1.1</v>
+        <v>1.24</v>
       </c>
       <c r="O7" t="n">
         <v>1.07</v>
       </c>
       <c r="P7" t="n">
-        <v>2.36</v>
+        <v>1.24</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.23</v>
+        <v>1.07</v>
       </c>
       <c r="R7" t="n">
-        <v>2.14</v>
+        <v>1.18</v>
       </c>
       <c r="S7" t="n">
-        <v>1.55</v>
+        <v>1.24</v>
       </c>
       <c r="T7" t="n">
-        <v>2.04</v>
+        <v>1.04</v>
       </c>
       <c r="U7" t="n">
-        <v>1.45</v>
+        <v>1.04</v>
       </c>
       <c r="V7" t="n">
         <v>1.02</v>
       </c>
       <c r="W7" t="n">
-        <v>7.2</v>
+        <v>1.01</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1444,7 +1444,7 @@
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>2.76</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H8" t="n">
         <v>1.09</v>
       </c>
-      <c r="G8" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="H8" t="n">
-        <v>7.6</v>
-      </c>
       <c r="I8" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="J8" t="n">
-        <v>5.1</v>
+        <v>4.2</v>
       </c>
       <c r="K8" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
@@ -1510,13 +1510,13 @@
         <v>2.52</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.11</v>
+        <v>1.36</v>
       </c>
       <c r="R8" t="n">
-        <v>1.78</v>
+        <v>1.63</v>
       </c>
       <c r="S8" t="n">
-        <v>1.82</v>
+        <v>1.94</v>
       </c>
       <c r="T8" t="n">
         <v>1.04</v>
@@ -1528,7 +1528,7 @@
         <v>1.02</v>
       </c>
       <c r="W8" t="n">
-        <v>3.05</v>
+        <v>2.1</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1615,13 +1615,13 @@
         <v>3.15</v>
       </c>
       <c r="G9" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="H9" t="n">
         <v>2.2</v>
       </c>
       <c r="I9" t="n">
-        <v>2.56</v>
+        <v>2.48</v>
       </c>
       <c r="J9" t="n">
         <v>3.4</v>
@@ -1633,13 +1633,13 @@
         <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>1.94</v>
+        <v>3.65</v>
       </c>
       <c r="O9" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P9" t="n">
         <v>1.92</v>
@@ -1648,10 +1648,10 @@
         <v>1.87</v>
       </c>
       <c r="R9" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="S9" t="n">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="T9" t="n">
         <v>1.71</v>
@@ -1660,16 +1660,16 @@
         <v>2.14</v>
       </c>
       <c r="V9" t="n">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="W9" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="X9" t="n">
-        <v>22</v>
+        <v>990</v>
       </c>
       <c r="Y9" t="n">
-        <v>15.5</v>
+        <v>990</v>
       </c>
       <c r="Z9" t="n">
         <v>980</v>
@@ -1681,10 +1681,10 @@
         <v>990</v>
       </c>
       <c r="AC9" t="n">
-        <v>11.5</v>
+        <v>990</v>
       </c>
       <c r="AD9" t="n">
-        <v>17</v>
+        <v>990</v>
       </c>
       <c r="AE9" t="n">
         <v>980</v>
@@ -1699,19 +1699,19 @@
         <v>990</v>
       </c>
       <c r="AI9" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AK9" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AL9" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN9" t="n">
         <v>980</v>
@@ -1753,7 +1753,7 @@
         <v>2.44</v>
       </c>
       <c r="H10" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="I10" t="n">
         <v>3.2</v>
@@ -1783,10 +1783,10 @@
         <v>1.73</v>
       </c>
       <c r="R10" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S10" t="n">
-        <v>2.32</v>
+        <v>2.56</v>
       </c>
       <c r="T10" t="n">
         <v>1.04</v>
@@ -1900,7 +1900,7 @@
         <v>4.7</v>
       </c>
       <c r="L11" t="n">
-        <v>1.01</v>
+        <v>1.19</v>
       </c>
       <c r="M11" t="n">
         <v>1.02</v>
@@ -1942,7 +1942,7 @@
         <v>22</v>
       </c>
       <c r="Z11" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AA11" t="n">
         <v>65</v>
@@ -2020,7 +2020,7 @@
         <v>2.28</v>
       </c>
       <c r="G12" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="H12" t="n">
         <v>3.15</v>
@@ -2029,7 +2029,7 @@
         <v>3.5</v>
       </c>
       <c r="J12" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K12" t="n">
         <v>4.1</v>
@@ -2068,7 +2068,7 @@
         <v>1.41</v>
       </c>
       <c r="W12" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="X12" t="n">
         <v>990</v>
@@ -2158,7 +2158,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="H13" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="I13" t="n">
         <v>1.5</v>
@@ -2176,19 +2176,19 @@
         <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>2.44</v>
+        <v>1.1</v>
       </c>
       <c r="O13" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P13" t="n">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="Q13" t="n">
         <v>1.55</v>
       </c>
       <c r="R13" t="n">
-        <v>1.55</v>
+        <v>1.46</v>
       </c>
       <c r="S13" t="n">
         <v>1.97</v>
@@ -2425,16 +2425,16 @@
         <v>1.25</v>
       </c>
       <c r="G15" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="H15" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="I15" t="n">
         <v>19.5</v>
       </c>
       <c r="J15" t="n">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="K15" t="n">
         <v>9.6</v>
@@ -2455,7 +2455,7 @@
         <v>3.1</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="R15" t="n">
         <v>1.75</v>
@@ -2473,7 +2473,7 @@
         <v>1.08</v>
       </c>
       <c r="W15" t="n">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="X15" t="n">
         <v>990</v>
@@ -2560,13 +2560,13 @@
         <v>1.96</v>
       </c>
       <c r="G16" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="H16" t="n">
         <v>3.55</v>
       </c>
       <c r="I16" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J16" t="n">
         <v>3.6</v>
@@ -2605,16 +2605,16 @@
         <v>2.1</v>
       </c>
       <c r="V16" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="W16" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="X16" t="n">
         <v>990</v>
       </c>
       <c r="Y16" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="Z16" t="n">
         <v>980</v>
@@ -2632,7 +2632,7 @@
         <v>19</v>
       </c>
       <c r="AE16" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AF16" t="n">
         <v>17.5</v>
@@ -2650,7 +2650,7 @@
         <v>980</v>
       </c>
       <c r="AK16" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AL16" t="n">
         <v>980</v>
@@ -2659,7 +2659,7 @@
         <v>100</v>
       </c>
       <c r="AN16" t="n">
-        <v>980</v>
+        <v>16</v>
       </c>
       <c r="AO16" t="n">
         <v>980</v>
@@ -2695,7 +2695,7 @@
         <v>5.2</v>
       </c>
       <c r="G17" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="H17" t="n">
         <v>1.63</v>
@@ -2704,7 +2704,7 @@
         <v>1.77</v>
       </c>
       <c r="J17" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K17" t="n">
         <v>4.6</v>
@@ -2833,13 +2833,13 @@
         <v>2.8</v>
       </c>
       <c r="H18" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="I18" t="n">
         <v>3.2</v>
       </c>
       <c r="J18" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="K18" t="n">
         <v>3.7</v>
@@ -2851,19 +2851,19 @@
         <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>3.25</v>
+        <v>2.94</v>
       </c>
       <c r="O18" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P18" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="Q18" t="n">
         <v>2.02</v>
       </c>
       <c r="R18" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="S18" t="n">
         <v>3.65</v>
@@ -2872,7 +2872,7 @@
         <v>1.78</v>
       </c>
       <c r="U18" t="n">
-        <v>2.02</v>
+        <v>1.04</v>
       </c>
       <c r="V18" t="n">
         <v>1.46</v>
@@ -2881,13 +2881,13 @@
         <v>1.55</v>
       </c>
       <c r="X18" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y18" t="n">
         <v>13.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AA18" t="n">
         <v>60</v>
@@ -2902,7 +2902,7 @@
         <v>16</v>
       </c>
       <c r="AE18" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AF18" t="n">
         <v>22</v>
@@ -2917,22 +2917,22 @@
         <v>60</v>
       </c>
       <c r="AJ18" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AK18" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AL18" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM18" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AN18" t="n">
         <v>36</v>
       </c>
       <c r="AO18" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19">
@@ -3130,7 +3130,7 @@
         <v>2.72</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="R20" t="n">
         <v>1.7</v>
@@ -3265,7 +3265,7 @@
         <v>1.92</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="R21" t="n">
         <v>1.35</v>
@@ -3292,7 +3292,7 @@
         <v>10.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AA21" t="n">
         <v>22</v>
@@ -3313,13 +3313,13 @@
         <v>55</v>
       </c>
       <c r="AG21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AH21" t="n">
         <v>24</v>
       </c>
       <c r="AI21" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AJ21" t="n">
         <v>170</v>
@@ -3337,7 +3337,7 @@
         <v>110</v>
       </c>
       <c r="AO21" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="22">
@@ -3676,7 +3676,7 @@
         <v>2.06</v>
       </c>
       <c r="S24" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="T24" t="n">
         <v>1.77</v>
@@ -3847,7 +3847,7 @@
         <v>12</v>
       </c>
       <c r="AE25" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF25" t="n">
         <v>19.5</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-26.xlsx
@@ -706,13 +706,13 @@
         <v>1.77</v>
       </c>
       <c r="S2" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="T2" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="U2" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="V2" t="n">
         <v>1.35</v>
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="G4" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="H4" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="I4" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="J4" t="n">
         <v>4.4</v>
@@ -1345,7 +1345,7 @@
         <v>1.09</v>
       </c>
       <c r="G7" t="n">
-        <v>1000</v>
+        <v>1.13</v>
       </c>
       <c r="H7" t="n">
         <v>21</v>
@@ -1354,7 +1354,7 @@
         <v>1000</v>
       </c>
       <c r="J7" t="n">
-        <v>1.03</v>
+        <v>1.09</v>
       </c>
       <c r="K7" t="n">
         <v>1000</v>
@@ -1366,28 +1366,28 @@
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>1.24</v>
+        <v>1.1</v>
       </c>
       <c r="O7" t="n">
         <v>1.07</v>
       </c>
       <c r="P7" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="Q7" t="n">
         <v>1.24</v>
       </c>
-      <c r="Q7" t="n">
-        <v>1.07</v>
-      </c>
       <c r="R7" t="n">
-        <v>1.18</v>
+        <v>2.04</v>
       </c>
       <c r="S7" t="n">
-        <v>1.24</v>
+        <v>1.51</v>
       </c>
       <c r="T7" t="n">
         <v>1.04</v>
       </c>
       <c r="U7" t="n">
-        <v>1.04</v>
+        <v>1.44</v>
       </c>
       <c r="V7" t="n">
         <v>1.02</v>
@@ -1444,7 +1444,7 @@
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>2.76</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="G8" t="n">
         <v>1.4</v>
       </c>
       <c r="H8" t="n">
-        <v>1.09</v>
+        <v>6</v>
       </c>
       <c r="I8" t="n">
         <v>13.5</v>
       </c>
       <c r="J8" t="n">
-        <v>4.2</v>
+        <v>1.09</v>
       </c>
       <c r="K8" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
@@ -1504,31 +1504,31 @@
         <v>1.1</v>
       </c>
       <c r="O8" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="P8" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="R8" t="n">
-        <v>1.63</v>
+        <v>1.74</v>
       </c>
       <c r="S8" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="T8" t="n">
-        <v>1.04</v>
+        <v>1.79</v>
       </c>
       <c r="U8" t="n">
-        <v>1.04</v>
+        <v>2</v>
       </c>
       <c r="V8" t="n">
-        <v>1.02</v>
+        <v>1.08</v>
       </c>
       <c r="W8" t="n">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1579,7 +1579,7 @@
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>4.2</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1615,19 +1615,19 @@
         <v>3.15</v>
       </c>
       <c r="G9" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="H9" t="n">
         <v>2.2</v>
       </c>
       <c r="I9" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="J9" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K9" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L9" t="n">
         <v>1.01</v>
@@ -1636,28 +1636,28 @@
         <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="O9" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P9" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="R9" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="S9" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="T9" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="U9" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="V9" t="n">
         <v>1.68</v>
@@ -1711,7 +1711,7 @@
         <v>65</v>
       </c>
       <c r="AM9" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN9" t="n">
         <v>980</v>
@@ -1777,16 +1777,16 @@
         <v>1.25</v>
       </c>
       <c r="P10" t="n">
-        <v>2.08</v>
+        <v>1.83</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.73</v>
+        <v>1.47</v>
       </c>
       <c r="R10" t="n">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="S10" t="n">
-        <v>2.56</v>
+        <v>2.66</v>
       </c>
       <c r="T10" t="n">
         <v>1.04</v>
@@ -1795,13 +1795,13 @@
         <v>1.04</v>
       </c>
       <c r="V10" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="W10" t="n">
         <v>1.69</v>
       </c>
       <c r="X10" t="n">
-        <v>26</v>
+        <v>990</v>
       </c>
       <c r="Y10" t="n">
         <v>990</v>
@@ -1885,16 +1885,16 @@
         <v>1.98</v>
       </c>
       <c r="G11" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="H11" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I11" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="J11" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="K11" t="n">
         <v>4.7</v>
@@ -1906,7 +1906,7 @@
         <v>1.02</v>
       </c>
       <c r="N11" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="O11" t="n">
         <v>1.17</v>
@@ -1921,7 +1921,7 @@
         <v>1.62</v>
       </c>
       <c r="S11" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="T11" t="n">
         <v>1.52</v>
@@ -1930,7 +1930,7 @@
         <v>2.66</v>
       </c>
       <c r="V11" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="W11" t="n">
         <v>1.84</v>
@@ -1948,7 +1948,7 @@
         <v>65</v>
       </c>
       <c r="AB11" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AC11" t="n">
         <v>11</v>
@@ -1984,7 +1984,7 @@
         <v>60</v>
       </c>
       <c r="AN11" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AO11" t="n">
         <v>980</v>
@@ -2020,7 +2020,7 @@
         <v>2.28</v>
       </c>
       <c r="G12" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="H12" t="n">
         <v>3.15</v>
@@ -2029,7 +2029,7 @@
         <v>3.5</v>
       </c>
       <c r="J12" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="K12" t="n">
         <v>4.1</v>
@@ -2047,16 +2047,16 @@
         <v>1.32</v>
       </c>
       <c r="P12" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.99</v>
+        <v>1.96</v>
       </c>
       <c r="R12" t="n">
         <v>1.23</v>
       </c>
       <c r="S12" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="T12" t="n">
         <v>1.04</v>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="G13" t="n">
         <v>8.800000000000001</v>
@@ -2170,25 +2170,25 @@
         <v>5.7</v>
       </c>
       <c r="L13" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="M13" t="n">
         <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>1.1</v>
+        <v>2.46</v>
       </c>
       <c r="O13" t="n">
         <v>1.18</v>
       </c>
       <c r="P13" t="n">
-        <v>2.2</v>
+        <v>2.46</v>
       </c>
       <c r="Q13" t="n">
         <v>1.55</v>
       </c>
       <c r="R13" t="n">
-        <v>1.46</v>
+        <v>1.55</v>
       </c>
       <c r="S13" t="n">
         <v>1.97</v>
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="G14" t="n">
         <v>2.38</v>
       </c>
       <c r="H14" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I14" t="n">
         <v>3.65</v>
       </c>
       <c r="J14" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K14" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L14" t="n">
         <v>1.01</v>
@@ -2320,16 +2320,16 @@
         <v>1.95</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="R14" t="n">
         <v>1.36</v>
       </c>
       <c r="S14" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T14" t="n">
-        <v>1.61</v>
+        <v>1.72</v>
       </c>
       <c r="U14" t="n">
         <v>2.12</v>
@@ -2338,16 +2338,16 @@
         <v>1.38</v>
       </c>
       <c r="W14" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="X14" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Z14" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AA14" t="n">
         <v>65</v>
@@ -2359,16 +2359,16 @@
         <v>990</v>
       </c>
       <c r="AD14" t="n">
-        <v>17</v>
+        <v>990</v>
       </c>
       <c r="AE14" t="n">
         <v>980</v>
       </c>
       <c r="AF14" t="n">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="AG14" t="n">
-        <v>13.5</v>
+        <v>990</v>
       </c>
       <c r="AH14" t="n">
         <v>990</v>
@@ -2386,10 +2386,10 @@
         <v>980</v>
       </c>
       <c r="AM14" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN14" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AO14" t="n">
         <v>980</v>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="G15" t="n">
         <v>1.26</v>
@@ -2431,13 +2431,13 @@
         <v>9.6</v>
       </c>
       <c r="I15" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="J15" t="n">
-        <v>7.4</v>
+        <v>6.4</v>
       </c>
       <c r="K15" t="n">
-        <v>9.6</v>
+        <v>950</v>
       </c>
       <c r="L15" t="n">
         <v>1.01</v>
@@ -2446,28 +2446,28 @@
         <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>3.1</v>
+        <v>2.68</v>
       </c>
       <c r="O15" t="n">
         <v>1.12</v>
       </c>
       <c r="P15" t="n">
-        <v>3.1</v>
+        <v>2.68</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="R15" t="n">
         <v>1.75</v>
       </c>
       <c r="S15" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="T15" t="n">
-        <v>1.64</v>
+        <v>1.04</v>
       </c>
       <c r="U15" t="n">
-        <v>1.74</v>
+        <v>1.04</v>
       </c>
       <c r="V15" t="n">
         <v>1.08</v>
@@ -2488,7 +2488,7 @@
         <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>16.5</v>
+        <v>990</v>
       </c>
       <c r="AC15" t="n">
         <v>990</v>
@@ -2500,10 +2500,10 @@
         <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AG15" t="n">
-        <v>15.5</v>
+        <v>990</v>
       </c>
       <c r="AH15" t="n">
         <v>990</v>
@@ -2512,19 +2512,19 @@
         <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AK15" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL15" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM15" t="n">
         <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>4.6</v>
+        <v>1000</v>
       </c>
       <c r="AO15" t="n">
         <v>1000</v>
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="G16" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="H16" t="n">
         <v>3.55</v>
       </c>
       <c r="I16" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="J16" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K16" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L16" t="n">
         <v>1.3</v>
@@ -2581,7 +2581,7 @@
         <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O16" t="n">
         <v>1.26</v>
@@ -2590,40 +2590,40 @@
         <v>2.06</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="R16" t="n">
         <v>1.42</v>
       </c>
       <c r="S16" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="T16" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="U16" t="n">
         <v>2.1</v>
       </c>
       <c r="V16" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W16" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="X16" t="n">
-        <v>990</v>
+        <v>22</v>
       </c>
       <c r="Y16" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="Z16" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AA16" t="n">
         <v>90</v>
       </c>
       <c r="AB16" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC16" t="n">
         <v>11</v>
@@ -2641,25 +2641,25 @@
         <v>13</v>
       </c>
       <c r="AH16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI16" t="n">
         <v>60</v>
       </c>
       <c r="AJ16" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AK16" t="n">
         <v>25</v>
       </c>
       <c r="AL16" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AM16" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AN16" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AO16" t="n">
         <v>980</v>
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="G17" t="n">
         <v>6.6</v>
@@ -2833,13 +2833,13 @@
         <v>2.8</v>
       </c>
       <c r="H18" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="I18" t="n">
         <v>3.2</v>
       </c>
       <c r="J18" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="K18" t="n">
         <v>3.7</v>
@@ -2851,28 +2851,28 @@
         <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>2.94</v>
+        <v>3.25</v>
       </c>
       <c r="O18" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="P18" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R18" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="S18" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="T18" t="n">
         <v>1.78</v>
       </c>
       <c r="U18" t="n">
-        <v>1.04</v>
+        <v>2.06</v>
       </c>
       <c r="V18" t="n">
         <v>1.46</v>
@@ -2881,16 +2881,16 @@
         <v>1.55</v>
       </c>
       <c r="X18" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y18" t="n">
         <v>13.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AA18" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AB18" t="n">
         <v>12.5</v>
@@ -2902,37 +2902,37 @@
         <v>16</v>
       </c>
       <c r="AE18" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AF18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG18" t="n">
         <v>15</v>
       </c>
       <c r="AH18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI18" t="n">
         <v>60</v>
       </c>
       <c r="AJ18" t="n">
+        <v>50</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL18" t="n">
         <v>55</v>
       </c>
-      <c r="AK18" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>60</v>
-      </c>
       <c r="AM18" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN18" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AO18" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
     </row>
     <row r="19">
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="G19" t="n">
         <v>5.8</v>
@@ -2971,13 +2971,13 @@
         <v>1.74</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="J19" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="K19" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="L19" t="n">
         <v>1.01</v>
@@ -2995,28 +2995,28 @@
         <v>2.22</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="R19" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="S19" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="T19" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="U19" t="n">
         <v>1.86</v>
       </c>
       <c r="V19" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="W19" t="n">
         <v>1.22</v>
       </c>
       <c r="X19" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y19" t="n">
         <v>990</v>
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="G20" t="n">
         <v>7</v>
@@ -3106,13 +3106,13 @@
         <v>1.49</v>
       </c>
       <c r="I20" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="J20" t="n">
         <v>4.7</v>
       </c>
       <c r="K20" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="L20" t="n">
         <v>1.18</v>
@@ -3130,7 +3130,7 @@
         <v>2.72</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="R20" t="n">
         <v>1.7</v>
@@ -3139,10 +3139,10 @@
         <v>2.16</v>
       </c>
       <c r="T20" t="n">
-        <v>1.52</v>
+        <v>1.63</v>
       </c>
       <c r="U20" t="n">
-        <v>2.14</v>
+        <v>2.28</v>
       </c>
       <c r="V20" t="n">
         <v>2.64</v>
@@ -3151,10 +3151,10 @@
         <v>1.17</v>
       </c>
       <c r="X20" t="n">
-        <v>38</v>
+        <v>990</v>
       </c>
       <c r="Y20" t="n">
-        <v>16.5</v>
+        <v>990</v>
       </c>
       <c r="Z20" t="n">
         <v>980</v>
@@ -3184,7 +3184,7 @@
         <v>990</v>
       </c>
       <c r="AI20" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AJ20" t="n">
         <v>150</v>
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="G21" t="n">
         <v>6</v>
@@ -3259,7 +3259,7 @@
         <v>3.65</v>
       </c>
       <c r="O21" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P21" t="n">
         <v>1.92</v>
@@ -3271,13 +3271,13 @@
         <v>1.35</v>
       </c>
       <c r="S21" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T21" t="n">
-        <v>1.83</v>
+        <v>1.04</v>
       </c>
       <c r="U21" t="n">
-        <v>1.96</v>
+        <v>1.04</v>
       </c>
       <c r="V21" t="n">
         <v>2.22</v>
@@ -3289,7 +3289,7 @@
         <v>19</v>
       </c>
       <c r="Y21" t="n">
-        <v>10.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z21" t="n">
         <v>13</v>
@@ -3316,13 +3316,13 @@
         <v>26</v>
       </c>
       <c r="AH21" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI21" t="n">
         <v>44</v>
       </c>
       <c r="AJ21" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AK21" t="n">
         <v>95</v>
@@ -3331,10 +3331,10 @@
         <v>95</v>
       </c>
       <c r="AM21" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AN21" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AO21" t="n">
         <v>13.5</v>
@@ -3376,7 +3376,7 @@
         <v>3.6</v>
       </c>
       <c r="I22" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J22" t="n">
         <v>3.1</v>
@@ -3397,7 +3397,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="Q22" t="n">
         <v>2.46</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="G23" t="n">
         <v>2.48</v>
@@ -3517,7 +3517,7 @@
         <v>3.45</v>
       </c>
       <c r="K23" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="L23" t="n">
         <v>1.01</v>
@@ -3538,10 +3538,10 @@
         <v>1.5</v>
       </c>
       <c r="R23" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="S23" t="n">
-        <v>1.99</v>
+        <v>2.38</v>
       </c>
       <c r="T23" t="n">
         <v>1.04</v>
@@ -3646,10 +3646,10 @@
         <v>14</v>
       </c>
       <c r="I24" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="J24" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K24" t="n">
         <v>9.6</v>
@@ -3667,46 +3667,46 @@
         <v>1.1</v>
       </c>
       <c r="P24" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="R24" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="S24" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="T24" t="n">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="U24" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="V24" t="n">
         <v>1.06</v>
       </c>
       <c r="W24" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="X24" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="Y24" t="n">
         <v>80</v>
       </c>
       <c r="Z24" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AA24" t="n">
-        <v>1000</v>
+        <v>820</v>
       </c>
       <c r="AB24" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AD24" t="n">
         <v>55</v>
@@ -3715,34 +3715,34 @@
         <v>190</v>
       </c>
       <c r="AF24" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AG24" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AI24" t="n">
         <v>130</v>
       </c>
       <c r="AJ24" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AK24" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AL24" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM24" t="n">
         <v>130</v>
       </c>
       <c r="AN24" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="AO24" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25">

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-26.xlsx
@@ -685,13 +685,13 @@
         <v>4.5</v>
       </c>
       <c r="L2" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="O2" t="n">
         <v>1.16</v>
@@ -706,13 +706,13 @@
         <v>1.77</v>
       </c>
       <c r="S2" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="T2" t="n">
         <v>1.51</v>
       </c>
       <c r="U2" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="V2" t="n">
         <v>1.35</v>
@@ -1072,58 +1072,58 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.04</v>
+        <v>2.16</v>
       </c>
       <c r="G5" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="H5" t="n">
         <v>3.7</v>
       </c>
       <c r="I5" t="n">
-        <v>5.9</v>
+        <v>5</v>
       </c>
       <c r="J5" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N5" t="n">
         <v>2.24</v>
       </c>
-      <c r="K5" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N5" t="n">
-        <v>1.97</v>
-      </c>
       <c r="O5" t="n">
-        <v>1.33</v>
+        <v>1.61</v>
       </c>
       <c r="P5" t="n">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="Q5" t="n">
         <v>2.6</v>
       </c>
       <c r="R5" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="S5" t="n">
-        <v>2.6</v>
+        <v>3.45</v>
       </c>
       <c r="T5" t="n">
-        <v>1.04</v>
+        <v>2.24</v>
       </c>
       <c r="U5" t="n">
-        <v>1.04</v>
+        <v>1.64</v>
       </c>
       <c r="V5" t="n">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="W5" t="n">
-        <v>1.62</v>
+        <v>1.68</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="G6" t="n">
-        <v>1.71</v>
+        <v>1.66</v>
       </c>
       <c r="H6" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="I6" t="n">
         <v>1000</v>
@@ -1222,7 +1222,7 @@
         <v>3.6</v>
       </c>
       <c r="K6" t="n">
-        <v>980</v>
+        <v>6.6</v>
       </c>
       <c r="L6" t="n">
         <v>1.39</v>
@@ -1231,7 +1231,7 @@
         <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="O6" t="n">
         <v>1.01</v>
@@ -1258,7 +1258,7 @@
         <v>1.08</v>
       </c>
       <c r="W6" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1387,7 +1387,7 @@
         <v>1.04</v>
       </c>
       <c r="U7" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="V7" t="n">
         <v>1.02</v>
@@ -1477,19 +1477,19 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="G8" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I8" t="n">
         <v>13.5</v>
       </c>
       <c r="J8" t="n">
-        <v>1.09</v>
+        <v>1.2</v>
       </c>
       <c r="K8" t="n">
         <v>8.199999999999999</v>
@@ -1501,7 +1501,7 @@
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>1.1</v>
+        <v>5.7</v>
       </c>
       <c r="O8" t="n">
         <v>1.14</v>
@@ -1528,7 +1528,7 @@
         <v>1.08</v>
       </c>
       <c r="W8" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1612,10 +1612,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="G9" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="H9" t="n">
         <v>2.2</v>
@@ -1627,7 +1627,7 @@
         <v>3.45</v>
       </c>
       <c r="K9" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L9" t="n">
         <v>1.01</v>
@@ -1636,37 +1636,37 @@
         <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="O9" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="P9" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="R9" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="W9" t="n">
         <v>1.38</v>
       </c>
-      <c r="S9" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="W9" t="n">
-        <v>1.37</v>
-      </c>
       <c r="X9" t="n">
-        <v>990</v>
+        <v>20</v>
       </c>
       <c r="Y9" t="n">
         <v>990</v>
@@ -1681,7 +1681,7 @@
         <v>990</v>
       </c>
       <c r="AC9" t="n">
-        <v>990</v>
+        <v>10</v>
       </c>
       <c r="AD9" t="n">
         <v>990</v>
@@ -1702,16 +1702,16 @@
         <v>980</v>
       </c>
       <c r="AJ9" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AK9" t="n">
         <v>980</v>
       </c>
       <c r="AL9" t="n">
-        <v>65</v>
+        <v>980</v>
       </c>
       <c r="AM9" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AN9" t="n">
         <v>980</v>
@@ -1777,16 +1777,16 @@
         <v>1.25</v>
       </c>
       <c r="P10" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="R10" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="S10" t="n">
-        <v>2.66</v>
+        <v>2.58</v>
       </c>
       <c r="T10" t="n">
         <v>1.04</v>
@@ -1801,7 +1801,7 @@
         <v>1.69</v>
       </c>
       <c r="X10" t="n">
-        <v>990</v>
+        <v>26</v>
       </c>
       <c r="Y10" t="n">
         <v>990</v>
@@ -1894,7 +1894,7 @@
         <v>3.9</v>
       </c>
       <c r="J11" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="K11" t="n">
         <v>4.7</v>
@@ -2041,7 +2041,7 @@
         <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>2.82</v>
+        <v>2.98</v>
       </c>
       <c r="O12" t="n">
         <v>1.32</v>
@@ -2086,7 +2086,7 @@
         <v>990</v>
       </c>
       <c r="AC12" t="n">
-        <v>990</v>
+        <v>11</v>
       </c>
       <c r="AD12" t="n">
         <v>990</v>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="G13" t="n">
         <v>8.800000000000001</v>
@@ -2164,13 +2164,13 @@
         <v>1.5</v>
       </c>
       <c r="J13" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="K13" t="n">
         <v>5.7</v>
       </c>
       <c r="L13" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M13" t="n">
         <v>1.01</v>
@@ -2188,10 +2188,10 @@
         <v>1.55</v>
       </c>
       <c r="R13" t="n">
-        <v>1.55</v>
+        <v>1.49</v>
       </c>
       <c r="S13" t="n">
-        <v>1.97</v>
+        <v>2.16</v>
       </c>
       <c r="T13" t="n">
         <v>1.04</v>
@@ -2293,7 +2293,7 @@
         <v>2.38</v>
       </c>
       <c r="H14" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="I14" t="n">
         <v>3.65</v>
@@ -2338,7 +2338,7 @@
         <v>1.38</v>
       </c>
       <c r="W14" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="X14" t="n">
         <v>19.5</v>
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="G15" t="n">
         <v>1.26</v>
       </c>
       <c r="H15" t="n">
-        <v>9.6</v>
+        <v>12</v>
       </c>
       <c r="I15" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="J15" t="n">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="K15" t="n">
-        <v>950</v>
+        <v>8</v>
       </c>
       <c r="L15" t="n">
         <v>1.01</v>
@@ -2446,16 +2446,16 @@
         <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>2.68</v>
+        <v>3.1</v>
       </c>
       <c r="O15" t="n">
         <v>1.12</v>
       </c>
       <c r="P15" t="n">
-        <v>2.68</v>
+        <v>3.1</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="R15" t="n">
         <v>1.75</v>
@@ -2464,10 +2464,10 @@
         <v>1.89</v>
       </c>
       <c r="T15" t="n">
-        <v>1.04</v>
+        <v>1.65</v>
       </c>
       <c r="U15" t="n">
-        <v>1.04</v>
+        <v>1.75</v>
       </c>
       <c r="V15" t="n">
         <v>1.08</v>
@@ -2500,7 +2500,7 @@
         <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AG15" t="n">
         <v>990</v>
@@ -2512,19 +2512,19 @@
         <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK15" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL15" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM15" t="n">
         <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>1000</v>
+        <v>4.6</v>
       </c>
       <c r="AO15" t="n">
         <v>1000</v>
@@ -2572,7 +2572,7 @@
         <v>3.75</v>
       </c>
       <c r="K16" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L16" t="n">
         <v>1.3</v>
@@ -2590,7 +2590,7 @@
         <v>2.06</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="R16" t="n">
         <v>1.42</v>
@@ -2599,7 +2599,7 @@
         <v>2.9</v>
       </c>
       <c r="T16" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="U16" t="n">
         <v>2.1</v>
@@ -2617,7 +2617,7 @@
         <v>21</v>
       </c>
       <c r="Z16" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AA16" t="n">
         <v>90</v>
@@ -2635,31 +2635,31 @@
         <v>980</v>
       </c>
       <c r="AF16" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AG16" t="n">
         <v>13</v>
       </c>
       <c r="AH16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI16" t="n">
         <v>60</v>
       </c>
       <c r="AJ16" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AK16" t="n">
         <v>25</v>
       </c>
       <c r="AL16" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AM16" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AN16" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AO16" t="n">
         <v>980</v>
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="G17" t="n">
         <v>6.6</v>
@@ -2701,7 +2701,7 @@
         <v>1.63</v>
       </c>
       <c r="I17" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="J17" t="n">
         <v>3.9</v>
@@ -2839,13 +2839,13 @@
         <v>3.2</v>
       </c>
       <c r="J18" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K18" t="n">
         <v>3.7</v>
       </c>
       <c r="L18" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M18" t="n">
         <v>1.07</v>
@@ -2854,13 +2854,13 @@
         <v>3.25</v>
       </c>
       <c r="O18" t="n">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="P18" t="n">
         <v>1.78</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="R18" t="n">
         <v>1.29</v>
@@ -2872,7 +2872,7 @@
         <v>1.78</v>
       </c>
       <c r="U18" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="V18" t="n">
         <v>1.46</v>
@@ -2890,7 +2890,7 @@
         <v>24</v>
       </c>
       <c r="AA18" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AB18" t="n">
         <v>12.5</v>
@@ -2902,7 +2902,7 @@
         <v>16</v>
       </c>
       <c r="AE18" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AF18" t="n">
         <v>21</v>
@@ -2920,7 +2920,7 @@
         <v>50</v>
       </c>
       <c r="AK18" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AL18" t="n">
         <v>55</v>
@@ -2932,7 +2932,7 @@
         <v>34</v>
       </c>
       <c r="AO18" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19">
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="G21" t="n">
         <v>6</v>
@@ -3289,7 +3289,7 @@
         <v>19</v>
       </c>
       <c r="Y21" t="n">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="Z21" t="n">
         <v>13</v>
@@ -3322,7 +3322,7 @@
         <v>44</v>
       </c>
       <c r="AJ21" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AK21" t="n">
         <v>95</v>
@@ -3331,10 +3331,10 @@
         <v>95</v>
       </c>
       <c r="AM21" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN21" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AO21" t="n">
         <v>13.5</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="G22" t="n">
         <v>2.46</v>
@@ -3400,7 +3400,7 @@
         <v>1.59</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="G23" t="n">
         <v>2.48</v>
@@ -3511,13 +3511,13 @@
         <v>2.9</v>
       </c>
       <c r="I23" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="J23" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="K23" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="L23" t="n">
         <v>1.01</v>
@@ -3526,16 +3526,16 @@
         <v>1.01</v>
       </c>
       <c r="N23" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="O23" t="n">
         <v>1.18</v>
       </c>
       <c r="P23" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R23" t="n">
         <v>1.47</v>
@@ -3550,7 +3550,7 @@
         <v>1.04</v>
       </c>
       <c r="V23" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="W23" t="n">
         <v>1.67</v>
@@ -3643,70 +3643,70 @@
         <v>1.24</v>
       </c>
       <c r="H24" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I24" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="J24" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="K24" t="n">
         <v>9.6</v>
       </c>
       <c r="L24" t="n">
-        <v>1.13</v>
+        <v>1.01</v>
       </c>
       <c r="M24" t="n">
         <v>1.01</v>
       </c>
       <c r="N24" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="O24" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="P24" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="R24" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="S24" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="T24" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="U24" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="V24" t="n">
         <v>1.06</v>
       </c>
       <c r="W24" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="X24" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="Y24" t="n">
         <v>80</v>
       </c>
       <c r="Z24" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AA24" t="n">
-        <v>820</v>
+        <v>550</v>
       </c>
       <c r="AB24" t="n">
         <v>16.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AD24" t="n">
         <v>55</v>
@@ -3718,19 +3718,19 @@
         <v>11.5</v>
       </c>
       <c r="AG24" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH24" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AI24" t="n">
         <v>130</v>
       </c>
       <c r="AJ24" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AK24" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AL24" t="n">
         <v>29</v>
@@ -3739,10 +3739,10 @@
         <v>130</v>
       </c>
       <c r="AN24" t="n">
-        <v>3.05</v>
+        <v>2.94</v>
       </c>
       <c r="AO24" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="25">
@@ -3790,7 +3790,7 @@
         <v>3.8</v>
       </c>
       <c r="L25" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M25" t="n">
         <v>1.05</v>
@@ -3799,7 +3799,7 @@
         <v>5</v>
       </c>
       <c r="O25" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P25" t="n">
         <v>2.4</v>
@@ -3814,10 +3814,10 @@
         <v>2.7</v>
       </c>
       <c r="T25" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="U25" t="n">
-        <v>2.64</v>
+        <v>2.7</v>
       </c>
       <c r="V25" t="n">
         <v>1.55</v>
@@ -3832,7 +3832,7 @@
         <v>15</v>
       </c>
       <c r="Z25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AA25" t="n">
         <v>42</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-26.xlsx
@@ -700,7 +700,7 @@
         <v>2.88</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="R2" t="n">
         <v>1.77</v>
@@ -943,7 +943,7 @@
         <v>5.6</v>
       </c>
       <c r="H4" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="I4" t="n">
         <v>1.75</v>
@@ -952,7 +952,7 @@
         <v>4.4</v>
       </c>
       <c r="K4" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>2.16</v>
       </c>
       <c r="G5" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="H5" t="n">
         <v>3.7</v>
@@ -1111,7 +1111,7 @@
         <v>1.15</v>
       </c>
       <c r="S5" t="n">
-        <v>3.45</v>
+        <v>5.5</v>
       </c>
       <c r="T5" t="n">
         <v>2.24</v>
@@ -1207,58 +1207,58 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="G6" t="n">
-        <v>1.66</v>
+        <v>1.52</v>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>8.6</v>
       </c>
       <c r="I6" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="J6" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="K6" t="n">
-        <v>6.6</v>
+        <v>5.5</v>
       </c>
       <c r="L6" t="n">
         <v>1.39</v>
       </c>
       <c r="M6" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N6" t="n">
-        <v>2.46</v>
+        <v>2.9</v>
       </c>
       <c r="O6" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="P6" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.12</v>
+        <v>2.04</v>
       </c>
       <c r="R6" t="n">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="S6" t="n">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="T6" t="n">
-        <v>1.04</v>
+        <v>2.44</v>
       </c>
       <c r="U6" t="n">
-        <v>1.04</v>
+        <v>1.56</v>
       </c>
       <c r="V6" t="n">
         <v>1.08</v>
       </c>
       <c r="W6" t="n">
-        <v>2.5</v>
+        <v>2.86</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1345,16 +1345,16 @@
         <v>1.09</v>
       </c>
       <c r="G7" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="H7" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I7" t="n">
         <v>1000</v>
       </c>
       <c r="J7" t="n">
-        <v>1.09</v>
+        <v>7.8</v>
       </c>
       <c r="K7" t="n">
         <v>1000</v>
@@ -1366,34 +1366,34 @@
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>1.1</v>
+        <v>3.5</v>
       </c>
       <c r="O7" t="n">
         <v>1.07</v>
       </c>
       <c r="P7" t="n">
-        <v>2.36</v>
+        <v>3.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="R7" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="S7" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="T7" t="n">
         <v>1.04</v>
       </c>
       <c r="U7" t="n">
-        <v>1.45</v>
+        <v>1.04</v>
       </c>
       <c r="V7" t="n">
         <v>1.02</v>
       </c>
       <c r="W7" t="n">
-        <v>1.01</v>
+        <v>8.6</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1444,7 +1444,7 @@
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>2.76</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="G8" t="n">
         <v>1.39</v>
@@ -1486,13 +1486,13 @@
         <v>8</v>
       </c>
       <c r="I8" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="J8" t="n">
-        <v>1.2</v>
+        <v>4.6</v>
       </c>
       <c r="K8" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
@@ -1507,7 +1507,7 @@
         <v>1.14</v>
       </c>
       <c r="P8" t="n">
-        <v>2.58</v>
+        <v>2.86</v>
       </c>
       <c r="Q8" t="n">
         <v>1.43</v>
@@ -1522,10 +1522,10 @@
         <v>1.79</v>
       </c>
       <c r="U8" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V8" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="W8" t="n">
         <v>3.55</v>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="G9" t="n">
         <v>3.6</v>
@@ -1621,43 +1621,43 @@
         <v>2.2</v>
       </c>
       <c r="I9" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="J9" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K9" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L9" t="n">
         <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="O9" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P9" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="R9" t="n">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="S9" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="T9" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="U9" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="V9" t="n">
         <v>1.69</v>
@@ -1666,7 +1666,7 @@
         <v>1.38</v>
       </c>
       <c r="X9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y9" t="n">
         <v>990</v>
@@ -1681,7 +1681,7 @@
         <v>990</v>
       </c>
       <c r="AC9" t="n">
-        <v>10</v>
+        <v>990</v>
       </c>
       <c r="AD9" t="n">
         <v>990</v>
@@ -1789,7 +1789,7 @@
         <v>2.58</v>
       </c>
       <c r="T10" t="n">
-        <v>1.04</v>
+        <v>1.66</v>
       </c>
       <c r="U10" t="n">
         <v>1.04</v>
@@ -1924,7 +1924,7 @@
         <v>2.3</v>
       </c>
       <c r="T11" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="U11" t="n">
         <v>2.66</v>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="G12" t="n">
         <v>2.68</v>
@@ -2026,7 +2026,7 @@
         <v>3.15</v>
       </c>
       <c r="I12" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="J12" t="n">
         <v>3.15</v>
@@ -2041,10 +2041,10 @@
         <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>2.98</v>
+        <v>3.15</v>
       </c>
       <c r="O12" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="P12" t="n">
         <v>1.73</v>
@@ -2053,19 +2053,19 @@
         <v>1.96</v>
       </c>
       <c r="R12" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="S12" t="n">
         <v>3.55</v>
       </c>
       <c r="T12" t="n">
-        <v>1.04</v>
+        <v>1.81</v>
       </c>
       <c r="U12" t="n">
-        <v>1.04</v>
+        <v>1.96</v>
       </c>
       <c r="V12" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="W12" t="n">
         <v>1.6</v>
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="G14" t="n">
         <v>2.38</v>
@@ -2311,28 +2311,28 @@
         <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="O14" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="P14" t="n">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="R14" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S14" t="n">
         <v>3.2</v>
       </c>
       <c r="T14" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="U14" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="V14" t="n">
         <v>1.38</v>
@@ -2344,7 +2344,7 @@
         <v>19.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>16</v>
+        <v>990</v>
       </c>
       <c r="Z14" t="n">
         <v>980</v>
@@ -2356,7 +2356,7 @@
         <v>990</v>
       </c>
       <c r="AC14" t="n">
-        <v>990</v>
+        <v>9</v>
       </c>
       <c r="AD14" t="n">
         <v>990</v>
@@ -2446,19 +2446,19 @@
         <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="O15" t="n">
         <v>1.12</v>
       </c>
       <c r="P15" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="Q15" t="n">
         <v>1.37</v>
       </c>
       <c r="R15" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="S15" t="n">
         <v>1.89</v>
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.02</v>
+        <v>2.16</v>
       </c>
       <c r="G16" t="n">
-        <v>2.16</v>
+        <v>2.38</v>
       </c>
       <c r="H16" t="n">
-        <v>3.55</v>
+        <v>3.15</v>
       </c>
       <c r="I16" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="J16" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="K16" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="L16" t="n">
         <v>1.3</v>
@@ -2584,7 +2584,7 @@
         <v>4.1</v>
       </c>
       <c r="O16" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P16" t="n">
         <v>2.06</v>
@@ -2599,16 +2599,16 @@
         <v>2.9</v>
       </c>
       <c r="T16" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="U16" t="n">
-        <v>2.1</v>
+        <v>2.26</v>
       </c>
       <c r="V16" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="W16" t="n">
-        <v>1.87</v>
+        <v>1.73</v>
       </c>
       <c r="X16" t="n">
         <v>22</v>
@@ -2617,40 +2617,40 @@
         <v>21</v>
       </c>
       <c r="Z16" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AA16" t="n">
         <v>90</v>
       </c>
       <c r="AB16" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AE16" t="n">
         <v>980</v>
       </c>
       <c r="AF16" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI16" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AJ16" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AK16" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL16" t="n">
         <v>980</v>
@@ -2659,7 +2659,7 @@
         <v>100</v>
       </c>
       <c r="AN16" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AO16" t="n">
         <v>980</v>
@@ -2704,7 +2704,7 @@
         <v>1.76</v>
       </c>
       <c r="J17" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K17" t="n">
         <v>4.6</v>
@@ -2845,7 +2845,7 @@
         <v>3.7</v>
       </c>
       <c r="L18" t="n">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="M18" t="n">
         <v>1.07</v>
@@ -2854,7 +2854,7 @@
         <v>3.25</v>
       </c>
       <c r="O18" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="P18" t="n">
         <v>1.78</v>
@@ -2920,7 +2920,7 @@
         <v>50</v>
       </c>
       <c r="AK18" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AL18" t="n">
         <v>55</v>
@@ -3100,64 +3100,64 @@
         <v>5.8</v>
       </c>
       <c r="G20" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="H20" t="n">
         <v>1.49</v>
       </c>
       <c r="I20" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="J20" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="K20" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="L20" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="M20" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N20" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="O20" t="n">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="P20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V20" t="n">
         <v>2.72</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S20" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="U20" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="V20" t="n">
-        <v>2.64</v>
       </c>
       <c r="W20" t="n">
         <v>1.17</v>
       </c>
       <c r="X20" t="n">
-        <v>990</v>
+        <v>42</v>
       </c>
       <c r="Y20" t="n">
-        <v>990</v>
+        <v>17.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="AA20" t="n">
         <v>980</v>
@@ -3166,7 +3166,7 @@
         <v>990</v>
       </c>
       <c r="AC20" t="n">
-        <v>990</v>
+        <v>16.5</v>
       </c>
       <c r="AD20" t="n">
         <v>990</v>
@@ -3199,10 +3199,10 @@
         <v>75</v>
       </c>
       <c r="AN20" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AO20" t="n">
-        <v>5.6</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="21">
@@ -3235,7 +3235,7 @@
         <v>5.1</v>
       </c>
       <c r="G21" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="H21" t="n">
         <v>1.71</v>
@@ -3400,7 +3400,7 @@
         <v>1.59</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="G23" t="n">
         <v>2.48</v>
@@ -3517,7 +3517,7 @@
         <v>3.55</v>
       </c>
       <c r="K23" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="L23" t="n">
         <v>1.01</v>
@@ -3526,7 +3526,7 @@
         <v>1.01</v>
       </c>
       <c r="N23" t="n">
-        <v>2.28</v>
+        <v>1.1</v>
       </c>
       <c r="O23" t="n">
         <v>1.18</v>
@@ -3544,7 +3544,7 @@
         <v>2.38</v>
       </c>
       <c r="T23" t="n">
-        <v>1.04</v>
+        <v>1.55</v>
       </c>
       <c r="U23" t="n">
         <v>1.04</v>
@@ -3643,16 +3643,16 @@
         <v>1.24</v>
       </c>
       <c r="H24" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I24" t="n">
         <v>17</v>
       </c>
       <c r="J24" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="K24" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="L24" t="n">
         <v>1.01</v>
@@ -3667,22 +3667,22 @@
         <v>1.09</v>
       </c>
       <c r="P24" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="R24" t="n">
         <v>2.12</v>
       </c>
       <c r="S24" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="T24" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="U24" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="V24" t="n">
         <v>1.06</v>
@@ -3694,16 +3694,16 @@
         <v>65</v>
       </c>
       <c r="Y24" t="n">
-        <v>80</v>
+        <v>990</v>
       </c>
       <c r="Z24" t="n">
         <v>180</v>
       </c>
       <c r="AA24" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AC24" t="n">
         <v>22</v>
@@ -3715,19 +3715,19 @@
         <v>190</v>
       </c>
       <c r="AF24" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG24" t="n">
         <v>13</v>
       </c>
       <c r="AH24" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AI24" t="n">
         <v>130</v>
       </c>
       <c r="AJ24" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="AK24" t="n">
         <v>13</v>
@@ -3784,10 +3784,10 @@
         <v>2.8</v>
       </c>
       <c r="J25" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K25" t="n">
         <v>3.75</v>
-      </c>
-      <c r="K25" t="n">
-        <v>3.8</v>
       </c>
       <c r="L25" t="n">
         <v>1.31</v>
@@ -3796,13 +3796,13 @@
         <v>1.05</v>
       </c>
       <c r="N25" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="O25" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P25" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="Q25" t="n">
         <v>1.69</v>
@@ -3811,7 +3811,7 @@
         <v>1.57</v>
       </c>
       <c r="S25" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="T25" t="n">
         <v>1.56</v>
@@ -3838,7 +3838,7 @@
         <v>42</v>
       </c>
       <c r="AB25" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC25" t="n">
         <v>8.6</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-26.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="G2" t="n">
         <v>1.97</v>
@@ -679,10 +679,10 @@
         <v>3.85</v>
       </c>
       <c r="J2" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K2" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L2" t="n">
         <v>1.24</v>
@@ -697,7 +697,7 @@
         <v>1.16</v>
       </c>
       <c r="P2" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="Q2" t="n">
         <v>1.49</v>
@@ -805,16 +805,16 @@
         <v>1.01</v>
       </c>
       <c r="G3" t="n">
-        <v>1000</v>
+        <v>1.96</v>
       </c>
       <c r="H3" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="I3" t="n">
         <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>1.09</v>
+        <v>2.08</v>
       </c>
       <c r="K3" t="n">
         <v>1000</v>
@@ -850,10 +850,10 @@
         <v>1.04</v>
       </c>
       <c r="V3" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W3" t="n">
-        <v>1.01</v>
+        <v>1.65</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -943,13 +943,13 @@
         <v>5.6</v>
       </c>
       <c r="H4" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="I4" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="J4" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="K4" t="n">
         <v>5.1</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="O4" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>2.16</v>
       </c>
       <c r="G5" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="H5" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="I5" t="n">
         <v>5</v>
@@ -1087,7 +1087,7 @@
         <v>2.62</v>
       </c>
       <c r="K5" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L5" t="n">
         <v>1.62</v>
@@ -1210,7 +1210,7 @@
         <v>1.41</v>
       </c>
       <c r="G6" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="H6" t="n">
         <v>8.6</v>
@@ -1219,10 +1219,10 @@
         <v>13.5</v>
       </c>
       <c r="J6" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="K6" t="n">
-        <v>5.5</v>
+        <v>4.9</v>
       </c>
       <c r="L6" t="n">
         <v>1.39</v>
@@ -1231,7 +1231,7 @@
         <v>1.09</v>
       </c>
       <c r="N6" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="O6" t="n">
         <v>1.41</v>
@@ -1258,7 +1258,7 @@
         <v>1.08</v>
       </c>
       <c r="W6" t="n">
-        <v>2.86</v>
+        <v>2.96</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1345,7 +1345,7 @@
         <v>1.09</v>
       </c>
       <c r="G7" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="H7" t="n">
         <v>26</v>
@@ -1393,7 +1393,7 @@
         <v>1.02</v>
       </c>
       <c r="W7" t="n">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1486,7 +1486,7 @@
         <v>8</v>
       </c>
       <c r="I8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J8" t="n">
         <v>4.6</v>
@@ -1513,7 +1513,7 @@
         <v>1.43</v>
       </c>
       <c r="R8" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="S8" t="n">
         <v>1.91</v>
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="G9" t="n">
         <v>3.6</v>
       </c>
       <c r="H9" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="I9" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="J9" t="n">
         <v>3.5</v>
@@ -1642,10 +1642,10 @@
         <v>1.28</v>
       </c>
       <c r="P9" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="R9" t="n">
         <v>1.38</v>
@@ -1660,7 +1660,7 @@
         <v>2.2</v>
       </c>
       <c r="V9" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="W9" t="n">
         <v>1.38</v>
@@ -2020,7 +2020,7 @@
         <v>2.32</v>
       </c>
       <c r="G12" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="H12" t="n">
         <v>3.15</v>
@@ -2068,13 +2068,13 @@
         <v>1.42</v>
       </c>
       <c r="W12" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="X12" t="n">
-        <v>990</v>
+        <v>14.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>990</v>
+        <v>14</v>
       </c>
       <c r="Z12" t="n">
         <v>980</v>
@@ -2083,10 +2083,10 @@
         <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>990</v>
+        <v>11.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>11</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD12" t="n">
         <v>990</v>
@@ -2098,7 +2098,7 @@
         <v>980</v>
       </c>
       <c r="AG12" t="n">
-        <v>990</v>
+        <v>14.5</v>
       </c>
       <c r="AH12" t="n">
         <v>990</v>
@@ -2158,7 +2158,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="H13" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="I13" t="n">
         <v>1.5</v>
@@ -2173,10 +2173,10 @@
         <v>1.2</v>
       </c>
       <c r="M13" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N13" t="n">
-        <v>2.46</v>
+        <v>5.3</v>
       </c>
       <c r="O13" t="n">
         <v>1.18</v>
@@ -2188,10 +2188,10 @@
         <v>1.55</v>
       </c>
       <c r="R13" t="n">
-        <v>1.49</v>
+        <v>1.58</v>
       </c>
       <c r="S13" t="n">
-        <v>2.16</v>
+        <v>2.38</v>
       </c>
       <c r="T13" t="n">
         <v>1.04</v>
@@ -2203,43 +2203,43 @@
         <v>3</v>
       </c>
       <c r="W13" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="X13" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Y13" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AC13" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AE13" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AF13" t="n">
         <v>1000</v>
       </c>
       <c r="AG13" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AH13" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AI13" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AJ13" t="n">
         <v>1000</v>
@@ -2257,7 +2257,7 @@
         <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="14">
@@ -2302,7 +2302,7 @@
         <v>3.55</v>
       </c>
       <c r="K14" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L14" t="n">
         <v>1.01</v>
@@ -2458,16 +2458,16 @@
         <v>1.37</v>
       </c>
       <c r="R15" t="n">
-        <v>1.76</v>
+        <v>1.85</v>
       </c>
       <c r="S15" t="n">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="T15" t="n">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="U15" t="n">
-        <v>1.75</v>
+        <v>1.98</v>
       </c>
       <c r="V15" t="n">
         <v>1.08</v>
@@ -2482,7 +2482,7 @@
         <v>990</v>
       </c>
       <c r="Z15" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AA15" t="n">
         <v>1000</v>
@@ -2497,10 +2497,10 @@
         <v>990</v>
       </c>
       <c r="AE15" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AF15" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AG15" t="n">
         <v>990</v>
@@ -2509,10 +2509,10 @@
         <v>990</v>
       </c>
       <c r="AI15" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AJ15" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="AK15" t="n">
         <v>980</v>
@@ -2521,13 +2521,13 @@
         <v>980</v>
       </c>
       <c r="AM15" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN15" t="n">
-        <v>4.6</v>
+        <v>3.65</v>
       </c>
       <c r="AO15" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16">
@@ -2557,19 +2557,19 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="G16" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="H16" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="I16" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="J16" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="K16" t="n">
         <v>4</v>
@@ -2584,13 +2584,13 @@
         <v>4.1</v>
       </c>
       <c r="O16" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P16" t="n">
         <v>2.06</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="R16" t="n">
         <v>1.42</v>
@@ -2599,19 +2599,19 @@
         <v>2.9</v>
       </c>
       <c r="T16" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="U16" t="n">
         <v>2.26</v>
       </c>
       <c r="V16" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="W16" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="X16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y16" t="n">
         <v>21</v>
@@ -2620,7 +2620,7 @@
         <v>34</v>
       </c>
       <c r="AA16" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AB16" t="n">
         <v>13.5</v>
@@ -2854,7 +2854,7 @@
         <v>3.25</v>
       </c>
       <c r="O18" t="n">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="P18" t="n">
         <v>1.78</v>
@@ -2920,7 +2920,7 @@
         <v>50</v>
       </c>
       <c r="AK18" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AL18" t="n">
         <v>55</v>
@@ -3004,7 +3004,7 @@
         <v>2.38</v>
       </c>
       <c r="T19" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="U19" t="n">
         <v>1.86</v>
@@ -3100,10 +3100,10 @@
         <v>5.8</v>
       </c>
       <c r="G20" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="H20" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="I20" t="n">
         <v>1.58</v>
@@ -3130,13 +3130,13 @@
         <v>3</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="R20" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="S20" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="T20" t="n">
         <v>1.57</v>
@@ -3145,7 +3145,7 @@
         <v>2.4</v>
       </c>
       <c r="V20" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="W20" t="n">
         <v>1.17</v>
@@ -3259,7 +3259,7 @@
         <v>3.65</v>
       </c>
       <c r="O21" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="P21" t="n">
         <v>1.92</v>
@@ -3370,13 +3370,13 @@
         <v>2.4</v>
       </c>
       <c r="G22" t="n">
-        <v>2.46</v>
+        <v>2.58</v>
       </c>
       <c r="H22" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="I22" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J22" t="n">
         <v>3.1</v>
@@ -3400,7 +3400,7 @@
         <v>1.59</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>3.55</v>
       </c>
       <c r="K23" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="L23" t="n">
         <v>1.01</v>
@@ -3526,16 +3526,16 @@
         <v>1.01</v>
       </c>
       <c r="N23" t="n">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="O23" t="n">
         <v>1.18</v>
       </c>
       <c r="P23" t="n">
-        <v>2.26</v>
+        <v>2.4</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R23" t="n">
         <v>1.47</v>
@@ -3652,7 +3652,7 @@
         <v>7.8</v>
       </c>
       <c r="K24" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L24" t="n">
         <v>1.01</v>
@@ -3670,10 +3670,10 @@
         <v>3.8</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="R24" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="S24" t="n">
         <v>1.76</v>
@@ -3772,10 +3772,10 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="G25" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="H25" t="n">
         <v>2.78</v>
@@ -3799,13 +3799,13 @@
         <v>5.1</v>
       </c>
       <c r="O25" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P25" t="n">
         <v>2.42</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="R25" t="n">
         <v>1.57</v>
@@ -3823,7 +3823,7 @@
         <v>1.55</v>
       </c>
       <c r="W25" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="X25" t="n">
         <v>20</v>
@@ -3859,7 +3859,7 @@
         <v>14.5</v>
       </c>
       <c r="AI25" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AJ25" t="n">
         <v>38</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-26.xlsx
@@ -676,13 +676,13 @@
         <v>3.75</v>
       </c>
       <c r="I2" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="J2" t="n">
         <v>4.4</v>
       </c>
       <c r="K2" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L2" t="n">
         <v>1.24</v>
@@ -697,22 +697,22 @@
         <v>1.16</v>
       </c>
       <c r="P2" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="Q2" t="n">
         <v>1.49</v>
       </c>
       <c r="R2" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="S2" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="T2" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="U2" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="V2" t="n">
         <v>1.35</v>
@@ -721,7 +721,7 @@
         <v>2.02</v>
       </c>
       <c r="X2" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Y2" t="n">
         <v>25</v>
@@ -730,40 +730,40 @@
         <v>36</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AB2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AC2" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AF2" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH2" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AJ2" t="n">
         <v>25</v>
       </c>
       <c r="AK2" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AL2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AM2" t="n">
         <v>55</v>
@@ -772,7 +772,7 @@
         <v>7.8</v>
       </c>
       <c r="AO2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
@@ -805,7 +805,7 @@
         <v>1.01</v>
       </c>
       <c r="G3" t="n">
-        <v>1.96</v>
+        <v>2.6</v>
       </c>
       <c r="H3" t="n">
         <v>1.09</v>
@@ -814,7 +814,7 @@
         <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>2.08</v>
+        <v>1.2</v>
       </c>
       <c r="K3" t="n">
         <v>1000</v>
@@ -829,7 +829,7 @@
         <v>1.32</v>
       </c>
       <c r="O3" t="n">
-        <v>1.24</v>
+        <v>1.01</v>
       </c>
       <c r="P3" t="n">
         <v>1.32</v>
@@ -841,10 +841,10 @@
         <v>1.18</v>
       </c>
       <c r="S3" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="T3" t="n">
-        <v>1.04</v>
+        <v>1.79</v>
       </c>
       <c r="U3" t="n">
         <v>1.04</v>
@@ -853,7 +853,7 @@
         <v>1.21</v>
       </c>
       <c r="W3" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.17</v>
@@ -1078,7 +1078,7 @@
         <v>2.46</v>
       </c>
       <c r="H5" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="I5" t="n">
         <v>5</v>
@@ -1087,7 +1087,7 @@
         <v>2.62</v>
       </c>
       <c r="K5" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L5" t="n">
         <v>1.62</v>
@@ -1105,7 +1105,7 @@
         <v>1.43</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.6</v>
+        <v>2.84</v>
       </c>
       <c r="R5" t="n">
         <v>1.15</v>
@@ -1210,7 +1210,7 @@
         <v>1.41</v>
       </c>
       <c r="G6" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="H6" t="n">
         <v>8.6</v>
@@ -1222,13 +1222,13 @@
         <v>3.95</v>
       </c>
       <c r="K6" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="L6" t="n">
         <v>1.39</v>
       </c>
       <c r="M6" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
         <v>3</v>
@@ -1237,7 +1237,7 @@
         <v>1.41</v>
       </c>
       <c r="P6" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="Q6" t="n">
         <v>2.04</v>
@@ -1249,7 +1249,7 @@
         <v>3.75</v>
       </c>
       <c r="T6" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="U6" t="n">
         <v>1.56</v>
@@ -1258,7 +1258,7 @@
         <v>1.08</v>
       </c>
       <c r="W6" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1378,10 +1378,10 @@
         <v>1.27</v>
       </c>
       <c r="R7" t="n">
-        <v>2.08</v>
+        <v>1.98</v>
       </c>
       <c r="S7" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="T7" t="n">
         <v>1.04</v>
@@ -1489,10 +1489,10 @@
         <v>12</v>
       </c>
       <c r="J8" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="K8" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
@@ -1504,19 +1504,19 @@
         <v>5.7</v>
       </c>
       <c r="O8" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="P8" t="n">
-        <v>2.86</v>
+        <v>2.76</v>
       </c>
       <c r="Q8" t="n">
         <v>1.43</v>
       </c>
       <c r="R8" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="S8" t="n">
-        <v>1.91</v>
+        <v>2.04</v>
       </c>
       <c r="T8" t="n">
         <v>1.79</v>
@@ -1525,10 +1525,10 @@
         <v>2.02</v>
       </c>
       <c r="V8" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="W8" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1579,7 +1579,7 @@
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1615,13 +1615,13 @@
         <v>3.2</v>
       </c>
       <c r="G9" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="H9" t="n">
         <v>2.16</v>
       </c>
       <c r="I9" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="J9" t="n">
         <v>3.5</v>
@@ -1660,10 +1660,10 @@
         <v>2.2</v>
       </c>
       <c r="V9" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="W9" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="X9" t="n">
         <v>19</v>
@@ -2089,13 +2089,13 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AD12" t="n">
-        <v>990</v>
+        <v>17.5</v>
       </c>
       <c r="AE12" t="n">
         <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG12" t="n">
         <v>14.5</v>
@@ -2155,10 +2155,10 @@
         <v>6.8</v>
       </c>
       <c r="G13" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="H13" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="I13" t="n">
         <v>1.5</v>
@@ -2173,10 +2173,10 @@
         <v>1.2</v>
       </c>
       <c r="M13" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="O13" t="n">
         <v>1.18</v>
@@ -2188,16 +2188,16 @@
         <v>1.55</v>
       </c>
       <c r="R13" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="S13" t="n">
         <v>2.38</v>
       </c>
       <c r="T13" t="n">
-        <v>1.04</v>
+        <v>1.75</v>
       </c>
       <c r="U13" t="n">
-        <v>1.04</v>
+        <v>2.06</v>
       </c>
       <c r="V13" t="n">
         <v>3</v>
@@ -2209,22 +2209,22 @@
         <v>32</v>
       </c>
       <c r="Y13" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z13" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AA13" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AB13" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AC13" t="n">
         <v>14.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE13" t="n">
         <v>17.5</v>
@@ -2236,7 +2236,7 @@
         <v>34</v>
       </c>
       <c r="AH13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI13" t="n">
         <v>38</v>
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="G15" t="n">
         <v>1.26</v>
       </c>
       <c r="H15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I15" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="J15" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="K15" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="L15" t="n">
         <v>1.01</v>
@@ -2446,7 +2446,7 @@
         <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>1.1</v>
+        <v>6.4</v>
       </c>
       <c r="O15" t="n">
         <v>1.12</v>
@@ -2458,10 +2458,10 @@
         <v>1.37</v>
       </c>
       <c r="R15" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="S15" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="T15" t="n">
         <v>1.8</v>
@@ -2587,7 +2587,7 @@
         <v>1.26</v>
       </c>
       <c r="P16" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q16" t="n">
         <v>1.76</v>
@@ -2704,7 +2704,7 @@
         <v>1.76</v>
       </c>
       <c r="J17" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K17" t="n">
         <v>4.6</v>
@@ -2842,7 +2842,7 @@
         <v>3.15</v>
       </c>
       <c r="K18" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="L18" t="n">
         <v>1.43</v>
@@ -2854,7 +2854,7 @@
         <v>3.25</v>
       </c>
       <c r="O18" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="P18" t="n">
         <v>1.78</v>
@@ -2866,7 +2866,7 @@
         <v>1.29</v>
       </c>
       <c r="S18" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="T18" t="n">
         <v>1.78</v>
@@ -2905,7 +2905,7 @@
         <v>44</v>
       </c>
       <c r="AF18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG18" t="n">
         <v>15</v>
@@ -2920,7 +2920,7 @@
         <v>50</v>
       </c>
       <c r="AK18" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AL18" t="n">
         <v>55</v>
@@ -2980,7 +2980,7 @@
         <v>5.1</v>
       </c>
       <c r="L19" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="M19" t="n">
         <v>1.01</v>
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="G20" t="n">
         <v>7</v>
@@ -3127,22 +3127,22 @@
         <v>1.13</v>
       </c>
       <c r="P20" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="R20" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="S20" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="T20" t="n">
         <v>1.57</v>
       </c>
       <c r="U20" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="V20" t="n">
         <v>2.7</v>
@@ -3166,7 +3166,7 @@
         <v>990</v>
       </c>
       <c r="AC20" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AD20" t="n">
         <v>990</v>
@@ -3370,13 +3370,13 @@
         <v>2.4</v>
       </c>
       <c r="G22" t="n">
-        <v>2.58</v>
+        <v>2.48</v>
       </c>
       <c r="H22" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="I22" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J22" t="n">
         <v>3.1</v>
@@ -3514,7 +3514,7 @@
         <v>3.75</v>
       </c>
       <c r="J23" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K23" t="n">
         <v>5.4</v>
@@ -3640,16 +3640,16 @@
         <v>1.2</v>
       </c>
       <c r="G24" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="H24" t="n">
         <v>14</v>
       </c>
       <c r="I24" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="J24" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K24" t="n">
         <v>9.199999999999999</v>
@@ -3661,28 +3661,28 @@
         <v>1.01</v>
       </c>
       <c r="N24" t="n">
-        <v>9.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="O24" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="P24" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="R24" t="n">
-        <v>2.14</v>
+        <v>2.3</v>
       </c>
       <c r="S24" t="n">
-        <v>1.76</v>
+        <v>1.62</v>
       </c>
       <c r="T24" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="U24" t="n">
-        <v>2.16</v>
+        <v>2.26</v>
       </c>
       <c r="V24" t="n">
         <v>1.06</v>
@@ -3691,22 +3691,22 @@
         <v>5.1</v>
       </c>
       <c r="X24" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="Y24" t="n">
-        <v>990</v>
+        <v>110</v>
       </c>
       <c r="Z24" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="AA24" t="n">
-        <v>1000</v>
+        <v>640</v>
       </c>
       <c r="AB24" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AC24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AD24" t="n">
         <v>55</v>
@@ -3715,10 +3715,10 @@
         <v>190</v>
       </c>
       <c r="AF24" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG24" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH24" t="n">
         <v>32</v>
@@ -3727,19 +3727,19 @@
         <v>130</v>
       </c>
       <c r="AJ24" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AK24" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AL24" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AM24" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN24" t="n">
-        <v>2.94</v>
+        <v>2.74</v>
       </c>
       <c r="AO24" t="n">
         <v>1000</v>
@@ -3802,19 +3802,19 @@
         <v>1.22</v>
       </c>
       <c r="P25" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="R25" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="S25" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="T25" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="U25" t="n">
         <v>2.7</v>
@@ -3826,7 +3826,7 @@
         <v>1.59</v>
       </c>
       <c r="X25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y25" t="n">
         <v>15</v>
@@ -3850,13 +3850,13 @@
         <v>25</v>
       </c>
       <c r="AF25" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AG25" t="n">
         <v>12</v>
       </c>
       <c r="AH25" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AI25" t="n">
         <v>32</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-26.xlsx
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="G2" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="H2" t="n">
         <v>3.75</v>
@@ -697,22 +697,22 @@
         <v>1.16</v>
       </c>
       <c r="P2" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="Q2" t="n">
         <v>1.49</v>
       </c>
       <c r="R2" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="S2" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="T2" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="U2" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="V2" t="n">
         <v>1.35</v>
@@ -724,10 +724,10 @@
         <v>28</v>
       </c>
       <c r="Y2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z2" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA2" t="n">
         <v>75</v>
@@ -757,7 +757,7 @@
         <v>36</v>
       </c>
       <c r="AJ2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK2" t="n">
         <v>17.5</v>
@@ -769,7 +769,7 @@
         <v>55</v>
       </c>
       <c r="AN2" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AO2" t="n">
         <v>22</v>
@@ -802,19 +802,19 @@
         </is>
       </c>
       <c r="F3" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H3" t="n">
         <v>1.01</v>
       </c>
-      <c r="G3" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J3" t="n">
         <v>1.09</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1.2</v>
       </c>
       <c r="K3" t="n">
         <v>1000</v>
@@ -850,10 +850,10 @@
         <v>1.04</v>
       </c>
       <c r="V3" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="W3" t="n">
-        <v>1.64</v>
+        <v>1.01</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -940,19 +940,19 @@
         <v>4.7</v>
       </c>
       <c r="G4" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="H4" t="n">
         <v>1.63</v>
       </c>
       <c r="I4" t="n">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="J4" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K4" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="G5" t="n">
         <v>2.46</v>
@@ -1081,16 +1081,16 @@
         <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="J5" t="n">
         <v>2.62</v>
       </c>
       <c r="K5" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L5" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="M5" t="n">
         <v>1.14</v>
@@ -1138,7 +1138,7 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AC5" t="n">
         <v>1000</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="G6" t="n">
         <v>1.49</v>
@@ -1216,19 +1216,19 @@
         <v>8.6</v>
       </c>
       <c r="I6" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="J6" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K6" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="L6" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
         <v>3</v>
@@ -1246,10 +1246,10 @@
         <v>1.25</v>
       </c>
       <c r="S6" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="T6" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="U6" t="n">
         <v>1.56</v>
@@ -1273,7 +1273,7 @@
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="AC6" t="n">
         <v>1000</v>
@@ -1378,7 +1378,7 @@
         <v>1.27</v>
       </c>
       <c r="R7" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S7" t="n">
         <v>1.55</v>
@@ -1480,19 +1480,19 @@
         <v>1.32</v>
       </c>
       <c r="G8" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="H8" t="n">
         <v>8</v>
       </c>
       <c r="I8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J8" t="n">
-        <v>4.9</v>
+        <v>5.5</v>
       </c>
       <c r="K8" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
@@ -1501,25 +1501,25 @@
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="O8" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P8" t="n">
         <v>2.76</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="R8" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="S8" t="n">
-        <v>2.04</v>
+        <v>2.16</v>
       </c>
       <c r="T8" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="U8" t="n">
         <v>2.02</v>
@@ -1528,7 +1528,7 @@
         <v>1.1</v>
       </c>
       <c r="W8" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1621,13 +1621,13 @@
         <v>2.16</v>
       </c>
       <c r="I9" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="J9" t="n">
         <v>3.5</v>
       </c>
       <c r="K9" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L9" t="n">
         <v>1.01</v>
@@ -1642,10 +1642,10 @@
         <v>1.28</v>
       </c>
       <c r="P9" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="R9" t="n">
         <v>1.38</v>
@@ -1657,10 +1657,10 @@
         <v>1.69</v>
       </c>
       <c r="U9" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="V9" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="W9" t="n">
         <v>1.37</v>
@@ -1759,7 +1759,7 @@
         <v>3.2</v>
       </c>
       <c r="J10" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K10" t="n">
         <v>3.95</v>
@@ -1777,16 +1777,16 @@
         <v>1.25</v>
       </c>
       <c r="P10" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="R10" t="n">
         <v>1.35</v>
       </c>
       <c r="S10" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="T10" t="n">
         <v>1.66</v>
@@ -1885,7 +1885,7 @@
         <v>1.98</v>
       </c>
       <c r="G11" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="H11" t="n">
         <v>3.35</v>
@@ -1912,7 +1912,7 @@
         <v>1.17</v>
       </c>
       <c r="P11" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="Q11" t="n">
         <v>1.52</v>
@@ -1933,7 +1933,7 @@
         <v>1.35</v>
       </c>
       <c r="W11" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="X11" t="n">
         <v>990</v>
@@ -2023,7 +2023,7 @@
         <v>2.64</v>
       </c>
       <c r="H12" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I12" t="n">
         <v>3.35</v>
@@ -2032,7 +2032,7 @@
         <v>3.15</v>
       </c>
       <c r="K12" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L12" t="n">
         <v>1.01</v>
@@ -2044,13 +2044,13 @@
         <v>3.15</v>
       </c>
       <c r="O12" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P12" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="R12" t="n">
         <v>1.27</v>
@@ -2062,7 +2062,7 @@
         <v>1.81</v>
       </c>
       <c r="U12" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="V12" t="n">
         <v>1.42</v>
@@ -2071,7 +2071,7 @@
         <v>1.61</v>
       </c>
       <c r="X12" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Y12" t="n">
         <v>14</v>
@@ -2086,7 +2086,7 @@
         <v>11.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD12" t="n">
         <v>17.5</v>
@@ -2098,7 +2098,7 @@
         <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AH12" t="n">
         <v>990</v>
@@ -2158,7 +2158,7 @@
         <v>8.4</v>
       </c>
       <c r="H13" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="I13" t="n">
         <v>1.5</v>
@@ -2167,7 +2167,7 @@
         <v>4.8</v>
       </c>
       <c r="K13" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="L13" t="n">
         <v>1.2</v>
@@ -2176,16 +2176,16 @@
         <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="O13" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P13" t="n">
         <v>2.46</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="R13" t="n">
         <v>1.59</v>
@@ -2194,10 +2194,10 @@
         <v>2.38</v>
       </c>
       <c r="T13" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U13" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V13" t="n">
         <v>3</v>
@@ -2293,7 +2293,7 @@
         <v>2.38</v>
       </c>
       <c r="H14" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I14" t="n">
         <v>3.65</v>
@@ -2305,7 +2305,7 @@
         <v>4.1</v>
       </c>
       <c r="L14" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M14" t="n">
         <v>1.06</v>
@@ -2317,10 +2317,10 @@
         <v>1.27</v>
       </c>
       <c r="P14" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="R14" t="n">
         <v>1.37</v>
@@ -2338,13 +2338,13 @@
         <v>1.38</v>
       </c>
       <c r="W14" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="X14" t="n">
-        <v>19.5</v>
+        <v>990</v>
       </c>
       <c r="Y14" t="n">
-        <v>990</v>
+        <v>17.5</v>
       </c>
       <c r="Z14" t="n">
         <v>980</v>
@@ -2353,13 +2353,13 @@
         <v>65</v>
       </c>
       <c r="AB14" t="n">
-        <v>990</v>
+        <v>13.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>990</v>
+        <v>17</v>
       </c>
       <c r="AE14" t="n">
         <v>980</v>
@@ -2368,7 +2368,7 @@
         <v>980</v>
       </c>
       <c r="AG14" t="n">
-        <v>990</v>
+        <v>13</v>
       </c>
       <c r="AH14" t="n">
         <v>990</v>
@@ -2428,16 +2428,16 @@
         <v>1.26</v>
       </c>
       <c r="H15" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="I15" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="J15" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="K15" t="n">
-        <v>8.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L15" t="n">
         <v>1.01</v>
@@ -2452,22 +2452,22 @@
         <v>1.12</v>
       </c>
       <c r="P15" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="Q15" t="n">
         <v>1.37</v>
       </c>
       <c r="R15" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="S15" t="n">
         <v>1.93</v>
       </c>
       <c r="T15" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="U15" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V15" t="n">
         <v>1.08</v>
@@ -2491,7 +2491,7 @@
         <v>990</v>
       </c>
       <c r="AC15" t="n">
-        <v>990</v>
+        <v>22</v>
       </c>
       <c r="AD15" t="n">
         <v>990</v>
@@ -2623,7 +2623,7 @@
         <v>65</v>
       </c>
       <c r="AB16" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AC16" t="n">
         <v>10.5</v>
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="G17" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="H17" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="I17" t="n">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="J17" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K17" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -2833,19 +2833,19 @@
         <v>2.8</v>
       </c>
       <c r="H18" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="I18" t="n">
         <v>3.2</v>
       </c>
       <c r="J18" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K18" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L18" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="M18" t="n">
         <v>1.07</v>
@@ -2860,7 +2860,7 @@
         <v>1.78</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R18" t="n">
         <v>1.29</v>
@@ -2878,7 +2878,7 @@
         <v>1.46</v>
       </c>
       <c r="W18" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="X18" t="n">
         <v>15.5</v>
@@ -2920,10 +2920,10 @@
         <v>50</v>
       </c>
       <c r="AK18" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AL18" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AM18" t="n">
         <v>130</v>
@@ -2992,7 +2992,7 @@
         <v>1.21</v>
       </c>
       <c r="P19" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="Q19" t="n">
         <v>1.65</v>
@@ -3013,10 +3013,10 @@
         <v>2.04</v>
       </c>
       <c r="W19" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="X19" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Y19" t="n">
         <v>990</v>
@@ -3097,64 +3097,64 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="G20" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="H20" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="I20" t="n">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="J20" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="K20" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="L20" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="M20" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N20" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="O20" t="n">
         <v>1.13</v>
       </c>
       <c r="P20" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="Q20" t="n">
         <v>1.4</v>
       </c>
       <c r="R20" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="S20" t="n">
         <v>2</v>
       </c>
       <c r="T20" t="n">
-        <v>1.57</v>
+        <v>1.49</v>
       </c>
       <c r="U20" t="n">
         <v>2.38</v>
       </c>
       <c r="V20" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="W20" t="n">
         <v>1.17</v>
       </c>
       <c r="X20" t="n">
-        <v>42</v>
+        <v>990</v>
       </c>
       <c r="Y20" t="n">
-        <v>17.5</v>
+        <v>990</v>
       </c>
       <c r="Z20" t="n">
         <v>15.5</v>
@@ -3166,7 +3166,7 @@
         <v>990</v>
       </c>
       <c r="AC20" t="n">
-        <v>16</v>
+        <v>990</v>
       </c>
       <c r="AD20" t="n">
         <v>990</v>
@@ -3175,7 +3175,7 @@
         <v>980</v>
       </c>
       <c r="AF20" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AG20" t="n">
         <v>990</v>
@@ -3187,22 +3187,22 @@
         <v>980</v>
       </c>
       <c r="AJ20" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="AK20" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AL20" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AM20" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN20" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AO20" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -3235,10 +3235,10 @@
         <v>5.1</v>
       </c>
       <c r="G21" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="H21" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="I21" t="n">
         <v>1.81</v>
@@ -3256,10 +3256,10 @@
         <v>1.06</v>
       </c>
       <c r="N21" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="O21" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="P21" t="n">
         <v>1.92</v>
@@ -3283,10 +3283,10 @@
         <v>2.22</v>
       </c>
       <c r="W21" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="X21" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Y21" t="n">
         <v>10.5</v>
@@ -3400,7 +3400,7 @@
         <v>1.59</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -3502,34 +3502,34 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="G23" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="H23" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="I23" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="J23" t="n">
         <v>3.75</v>
       </c>
-      <c r="J23" t="n">
-        <v>3.5</v>
-      </c>
       <c r="K23" t="n">
-        <v>5.4</v>
+        <v>4.5</v>
       </c>
       <c r="L23" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="M23" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N23" t="n">
-        <v>2.4</v>
+        <v>5.1</v>
       </c>
       <c r="O23" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P23" t="n">
         <v>2.4</v>
@@ -3538,76 +3538,76 @@
         <v>1.57</v>
       </c>
       <c r="R23" t="n">
-        <v>1.47</v>
+        <v>1.57</v>
       </c>
       <c r="S23" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="T23" t="n">
         <v>1.55</v>
       </c>
       <c r="U23" t="n">
-        <v>1.04</v>
+        <v>2.5</v>
       </c>
       <c r="V23" t="n">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="W23" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="X23" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="Y23" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Z23" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AA23" t="n">
         <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AF23" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AG23" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AI23" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AJ23" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AK23" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AL23" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM23" t="n">
         <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AO23" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24">
@@ -3637,10 +3637,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="G24" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="H24" t="n">
         <v>14</v>
@@ -3649,7 +3649,7 @@
         <v>16.5</v>
       </c>
       <c r="J24" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="K24" t="n">
         <v>9.199999999999999</v>
@@ -3661,49 +3661,49 @@
         <v>1.01</v>
       </c>
       <c r="N24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O24" t="n">
         <v>1.08</v>
       </c>
       <c r="P24" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="R24" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="S24" t="n">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="T24" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="U24" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="V24" t="n">
         <v>1.06</v>
       </c>
       <c r="W24" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="X24" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="Y24" t="n">
         <v>110</v>
       </c>
       <c r="Z24" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AA24" t="n">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="AB24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AC24" t="n">
         <v>23</v>
@@ -3712,34 +3712,34 @@
         <v>55</v>
       </c>
       <c r="AE24" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AF24" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG24" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH24" t="n">
         <v>32</v>
       </c>
       <c r="AI24" t="n">
+        <v>140</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM24" t="n">
         <v>130</v>
       </c>
-      <c r="AJ24" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>27</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>120</v>
-      </c>
       <c r="AN24" t="n">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="AO24" t="n">
         <v>1000</v>
@@ -3796,16 +3796,16 @@
         <v>1.05</v>
       </c>
       <c r="N25" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O25" t="n">
         <v>1.22</v>
       </c>
       <c r="P25" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="R25" t="n">
         <v>1.58</v>
@@ -3817,7 +3817,7 @@
         <v>1.55</v>
       </c>
       <c r="U25" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="V25" t="n">
         <v>1.55</v>
@@ -3859,25 +3859,25 @@
         <v>14</v>
       </c>
       <c r="AI25" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ25" t="n">
         <v>38</v>
       </c>
       <c r="AK25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL25" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM25" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AN25" t="n">
         <v>16</v>
       </c>
       <c r="AO25" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-26.xlsx
@@ -670,7 +670,7 @@
         <v>1.96</v>
       </c>
       <c r="G2" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="H2" t="n">
         <v>3.75</v>
@@ -685,7 +685,7 @@
         <v>4.5</v>
       </c>
       <c r="L2" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
@@ -724,7 +724,7 @@
         <v>28</v>
       </c>
       <c r="Y2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z2" t="n">
         <v>34</v>
@@ -745,7 +745,7 @@
         <v>36</v>
       </c>
       <c r="AF2" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AG2" t="n">
         <v>11</v>
@@ -757,7 +757,7 @@
         <v>36</v>
       </c>
       <c r="AJ2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK2" t="n">
         <v>17.5</v>
@@ -769,7 +769,7 @@
         <v>55</v>
       </c>
       <c r="AN2" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="AO2" t="n">
         <v>22</v>
@@ -826,7 +826,7 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>1.32</v>
+        <v>1.1</v>
       </c>
       <c r="O3" t="n">
         <v>1.01</v>
@@ -850,7 +850,7 @@
         <v>1.04</v>
       </c>
       <c r="V3" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W3" t="n">
         <v>1.01</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="G4" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="H4" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="I4" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="J4" t="n">
         <v>4.4</v>
       </c>
       <c r="K4" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="O4" t="n">
         <v>1.17</v>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="G5" t="n">
         <v>2.46</v>
@@ -1081,13 +1081,13 @@
         <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="J5" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="K5" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="L5" t="n">
         <v>1.53</v>
@@ -1096,10 +1096,10 @@
         <v>1.14</v>
       </c>
       <c r="N5" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="O5" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="P5" t="n">
         <v>1.43</v>
@@ -1111,7 +1111,7 @@
         <v>1.15</v>
       </c>
       <c r="S5" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="T5" t="n">
         <v>2.24</v>
@@ -1126,7 +1126,7 @@
         <v>1.68</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y5" t="n">
         <v>1000</v>
@@ -1138,7 +1138,7 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC5" t="n">
         <v>1000</v>
@@ -1210,10 +1210,10 @@
         <v>1.4</v>
       </c>
       <c r="G6" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="H6" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I6" t="n">
         <v>14.5</v>
@@ -1225,7 +1225,7 @@
         <v>4.9</v>
       </c>
       <c r="L6" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="M6" t="n">
         <v>1.08</v>
@@ -1237,10 +1237,10 @@
         <v>1.41</v>
       </c>
       <c r="P6" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.04</v>
+        <v>2.16</v>
       </c>
       <c r="R6" t="n">
         <v>1.25</v>
@@ -1249,7 +1249,7 @@
         <v>4.2</v>
       </c>
       <c r="T6" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="U6" t="n">
         <v>1.56</v>
@@ -1258,10 +1258,10 @@
         <v>1.08</v>
       </c>
       <c r="W6" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="Y6" t="n">
         <v>1000</v>
@@ -1309,7 +1309,7 @@
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1345,7 +1345,7 @@
         <v>1.09</v>
       </c>
       <c r="G7" t="n">
-        <v>1.13</v>
+        <v>1.5</v>
       </c>
       <c r="H7" t="n">
         <v>26</v>
@@ -1354,7 +1354,7 @@
         <v>1000</v>
       </c>
       <c r="J7" t="n">
-        <v>7.8</v>
+        <v>1.09</v>
       </c>
       <c r="K7" t="n">
         <v>1000</v>
@@ -1366,16 +1366,16 @@
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>3.5</v>
+        <v>1.1</v>
       </c>
       <c r="O7" t="n">
         <v>1.07</v>
       </c>
       <c r="P7" t="n">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.27</v>
+        <v>1.07</v>
       </c>
       <c r="R7" t="n">
         <v>2</v>
@@ -1393,7 +1393,7 @@
         <v>1.02</v>
       </c>
       <c r="W7" t="n">
-        <v>7.6</v>
+        <v>1.01</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1480,7 +1480,7 @@
         <v>1.32</v>
       </c>
       <c r="G8" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="H8" t="n">
         <v>8</v>
@@ -1519,7 +1519,7 @@
         <v>2.16</v>
       </c>
       <c r="T8" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="U8" t="n">
         <v>2.02</v>
@@ -1528,7 +1528,7 @@
         <v>1.1</v>
       </c>
       <c r="W8" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1642,10 +1642,10 @@
         <v>1.28</v>
       </c>
       <c r="P9" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="R9" t="n">
         <v>1.38</v>
@@ -1753,7 +1753,7 @@
         <v>2.44</v>
       </c>
       <c r="H10" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="I10" t="n">
         <v>3.2</v>
@@ -1882,19 +1882,19 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="G11" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="H11" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I11" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="J11" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="K11" t="n">
         <v>4.7</v>
@@ -1909,31 +1909,31 @@
         <v>5.5</v>
       </c>
       <c r="O11" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P11" t="n">
         <v>2.54</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="R11" t="n">
         <v>1.62</v>
       </c>
       <c r="S11" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="T11" t="n">
         <v>1.53</v>
       </c>
       <c r="U11" t="n">
-        <v>2.66</v>
+        <v>2.52</v>
       </c>
       <c r="V11" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="W11" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="X11" t="n">
         <v>990</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="G12" t="n">
-        <v>2.64</v>
+        <v>2.48</v>
       </c>
       <c r="H12" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I12" t="n">
         <v>3.35</v>
       </c>
       <c r="J12" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="K12" t="n">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="L12" t="n">
         <v>1.01</v>
@@ -2047,10 +2047,10 @@
         <v>1.38</v>
       </c>
       <c r="P12" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="R12" t="n">
         <v>1.27</v>
@@ -2068,10 +2068,10 @@
         <v>1.42</v>
       </c>
       <c r="W12" t="n">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="X12" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Y12" t="n">
         <v>14</v>
@@ -2086,7 +2086,7 @@
         <v>11.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD12" t="n">
         <v>17.5</v>
@@ -2098,7 +2098,7 @@
         <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH12" t="n">
         <v>990</v>
@@ -2158,7 +2158,7 @@
         <v>8.4</v>
       </c>
       <c r="H13" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="I13" t="n">
         <v>1.5</v>
@@ -2185,7 +2185,7 @@
         <v>2.46</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="R13" t="n">
         <v>1.59</v>
@@ -2206,7 +2206,7 @@
         <v>1.13</v>
       </c>
       <c r="X13" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Y13" t="n">
         <v>13</v>
@@ -2257,7 +2257,7 @@
         <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="14">
@@ -2287,13 +2287,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="G14" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="H14" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="I14" t="n">
         <v>3.65</v>
@@ -2317,10 +2317,10 @@
         <v>1.27</v>
       </c>
       <c r="P14" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="R14" t="n">
         <v>1.37</v>
@@ -2338,7 +2338,7 @@
         <v>1.38</v>
       </c>
       <c r="W14" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="X14" t="n">
         <v>990</v>
@@ -2353,10 +2353,10 @@
         <v>65</v>
       </c>
       <c r="AB14" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC14" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD14" t="n">
         <v>17</v>
@@ -2431,10 +2431,10 @@
         <v>10.5</v>
       </c>
       <c r="I15" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="J15" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="K15" t="n">
         <v>9.199999999999999</v>
@@ -2446,7 +2446,7 @@
         <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="O15" t="n">
         <v>1.12</v>
@@ -2500,7 +2500,7 @@
         <v>190</v>
       </c>
       <c r="AF15" t="n">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="AG15" t="n">
         <v>990</v>
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="G16" t="n">
         <v>2.34</v>
@@ -2566,7 +2566,7 @@
         <v>3.25</v>
       </c>
       <c r="I16" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="J16" t="n">
         <v>3.75</v>
@@ -2590,10 +2590,10 @@
         <v>2.08</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="R16" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S16" t="n">
         <v>2.9</v>
@@ -2629,13 +2629,13 @@
         <v>10.5</v>
       </c>
       <c r="AD16" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF16" t="n">
         <v>18.5</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>18</v>
       </c>
       <c r="AG16" t="n">
         <v>13.5</v>
@@ -2647,19 +2647,19 @@
         <v>980</v>
       </c>
       <c r="AJ16" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AK16" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL16" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AM16" t="n">
         <v>100</v>
       </c>
       <c r="AN16" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AO16" t="n">
         <v>980</v>
@@ -2695,10 +2695,10 @@
         <v>5.3</v>
       </c>
       <c r="G17" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="H17" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="I17" t="n">
         <v>1.73</v>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="G18" t="n">
         <v>2.8</v>
@@ -2836,13 +2836,13 @@
         <v>2.82</v>
       </c>
       <c r="I18" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J18" t="n">
         <v>3.2</v>
       </c>
       <c r="K18" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L18" t="n">
         <v>1.42</v>
@@ -2857,7 +2857,7 @@
         <v>1.35</v>
       </c>
       <c r="P18" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="Q18" t="n">
         <v>2.04</v>
@@ -2875,10 +2875,10 @@
         <v>2.04</v>
       </c>
       <c r="V18" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="W18" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="X18" t="n">
         <v>15.5</v>
@@ -2962,13 +2962,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="G19" t="n">
         <v>5.8</v>
       </c>
       <c r="H19" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="I19" t="n">
         <v>1.96</v>
@@ -2995,19 +2995,19 @@
         <v>2.24</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="R19" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="S19" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="T19" t="n">
         <v>1.51</v>
       </c>
       <c r="U19" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="V19" t="n">
         <v>2.04</v>
@@ -3100,46 +3100,46 @@
         <v>5.8</v>
       </c>
       <c r="G20" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="H20" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="I20" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="J20" t="n">
         <v>5</v>
       </c>
       <c r="K20" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="L20" t="n">
         <v>1.16</v>
       </c>
       <c r="M20" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N20" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="O20" t="n">
         <v>1.13</v>
       </c>
       <c r="P20" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="Q20" t="n">
         <v>1.4</v>
       </c>
       <c r="R20" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="S20" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="T20" t="n">
-        <v>1.49</v>
+        <v>1.61</v>
       </c>
       <c r="U20" t="n">
         <v>2.38</v>
@@ -3157,7 +3157,7 @@
         <v>990</v>
       </c>
       <c r="Z20" t="n">
-        <v>15.5</v>
+        <v>980</v>
       </c>
       <c r="AA20" t="n">
         <v>980</v>
@@ -3193,7 +3193,7 @@
         <v>70</v>
       </c>
       <c r="AL20" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM20" t="n">
         <v>70</v>
@@ -3238,7 +3238,7 @@
         <v>5.8</v>
       </c>
       <c r="H21" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="I21" t="n">
         <v>1.81</v>
@@ -3262,10 +3262,10 @@
         <v>1.3</v>
       </c>
       <c r="P21" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="R21" t="n">
         <v>1.35</v>
@@ -3283,7 +3283,7 @@
         <v>2.22</v>
       </c>
       <c r="W21" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="X21" t="n">
         <v>18.5</v>
@@ -3376,7 +3376,7 @@
         <v>3.55</v>
       </c>
       <c r="I22" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J22" t="n">
         <v>3.1</v>
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="G23" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="H23" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="I23" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="J23" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="K23" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L23" t="n">
         <v>1.2</v>
       </c>
       <c r="M23" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N23" t="n">
         <v>5.1</v>
@@ -3535,25 +3535,25 @@
         <v>2.4</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="R23" t="n">
         <v>1.57</v>
       </c>
       <c r="S23" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="T23" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="U23" t="n">
         <v>2.5</v>
       </c>
       <c r="V23" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="W23" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="X23" t="n">
         <v>29</v>
@@ -3565,13 +3565,13 @@
         <v>32</v>
       </c>
       <c r="AA23" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AB23" t="n">
         <v>17.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AD23" t="n">
         <v>17.5</v>
@@ -3583,7 +3583,7 @@
         <v>22</v>
       </c>
       <c r="AG23" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH23" t="n">
         <v>18.5</v>
@@ -3595,7 +3595,7 @@
         <v>32</v>
       </c>
       <c r="AK23" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL23" t="n">
         <v>36</v>
@@ -3637,7 +3637,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="G24" t="n">
         <v>1.23</v>
@@ -3676,10 +3676,10 @@
         <v>2.28</v>
       </c>
       <c r="S24" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="T24" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="U24" t="n">
         <v>2.24</v>
@@ -3688,19 +3688,19 @@
         <v>1.06</v>
       </c>
       <c r="W24" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="X24" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="Y24" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="Z24" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AA24" t="n">
-        <v>630</v>
+        <v>610</v>
       </c>
       <c r="AB24" t="n">
         <v>22</v>
@@ -3709,19 +3709,19 @@
         <v>23</v>
       </c>
       <c r="AD24" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AE24" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AF24" t="n">
         <v>13</v>
       </c>
       <c r="AG24" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AI24" t="n">
         <v>140</v>
@@ -3739,7 +3739,7 @@
         <v>130</v>
       </c>
       <c r="AN24" t="n">
-        <v>2.8</v>
+        <v>2.86</v>
       </c>
       <c r="AO24" t="n">
         <v>1000</v>
@@ -3778,7 +3778,7 @@
         <v>2.68</v>
       </c>
       <c r="H25" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="I25" t="n">
         <v>2.8</v>
@@ -3802,10 +3802,10 @@
         <v>1.22</v>
       </c>
       <c r="P25" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="R25" t="n">
         <v>1.58</v>
@@ -3814,10 +3814,10 @@
         <v>2.66</v>
       </c>
       <c r="T25" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="U25" t="n">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="V25" t="n">
         <v>1.55</v>
@@ -3826,7 +3826,7 @@
         <v>1.59</v>
       </c>
       <c r="X25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y25" t="n">
         <v>15</v>
@@ -3877,7 +3877,7 @@
         <v>16</v>
       </c>
       <c r="AO25" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-26.xlsx
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="G2" t="n">
         <v>1.96</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1.97</v>
       </c>
       <c r="H2" t="n">
         <v>3.75</v>
       </c>
       <c r="I2" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="J2" t="n">
         <v>4.4</v>
@@ -691,22 +691,22 @@
         <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="O2" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P2" t="n">
-        <v>2.86</v>
+        <v>2.92</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="R2" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="S2" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="T2" t="n">
         <v>1.51</v>
@@ -718,13 +718,13 @@
         <v>1.35</v>
       </c>
       <c r="W2" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="X2" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Y2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z2" t="n">
         <v>34</v>
@@ -733,7 +733,7 @@
         <v>75</v>
       </c>
       <c r="AB2" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AC2" t="n">
         <v>10.5</v>
@@ -745,7 +745,7 @@
         <v>36</v>
       </c>
       <c r="AF2" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AG2" t="n">
         <v>11</v>
@@ -769,7 +769,7 @@
         <v>55</v>
       </c>
       <c r="AN2" t="n">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="AO2" t="n">
         <v>22</v>
@@ -826,10 +826,10 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>1.1</v>
+        <v>5.1</v>
       </c>
       <c r="O3" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="P3" t="n">
         <v>1.32</v>
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="G4" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="H4" t="n">
         <v>1.65</v>
       </c>
       <c r="I4" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="J4" t="n">
         <v>4.4</v>
@@ -1078,13 +1078,13 @@
         <v>2.46</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I5" t="n">
         <v>4.9</v>
       </c>
       <c r="J5" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="K5" t="n">
         <v>3.2</v>
@@ -1207,19 +1207,19 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="G6" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="H6" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I6" t="n">
         <v>14.5</v>
       </c>
       <c r="J6" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K6" t="n">
         <v>4.9</v>
@@ -1231,13 +1231,13 @@
         <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O6" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="P6" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="Q6" t="n">
         <v>2.16</v>
@@ -1258,7 +1258,7 @@
         <v>1.08</v>
       </c>
       <c r="W6" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="X6" t="n">
         <v>990</v>
@@ -1273,7 +1273,7 @@
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
         <v>1000</v>
@@ -1309,7 +1309,7 @@
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1486,7 +1486,7 @@
         <v>8</v>
       </c>
       <c r="I8" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="J8" t="n">
         <v>5.5</v>
@@ -1501,19 +1501,19 @@
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="O8" t="n">
         <v>1.16</v>
       </c>
       <c r="P8" t="n">
-        <v>2.76</v>
+        <v>2.66</v>
       </c>
       <c r="Q8" t="n">
         <v>1.46</v>
       </c>
       <c r="R8" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="S8" t="n">
         <v>2.16</v>
@@ -1522,13 +1522,13 @@
         <v>1.81</v>
       </c>
       <c r="U8" t="n">
-        <v>2.02</v>
+        <v>1.96</v>
       </c>
       <c r="V8" t="n">
         <v>1.1</v>
       </c>
       <c r="W8" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1618,7 +1618,7 @@
         <v>3.7</v>
       </c>
       <c r="H9" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="I9" t="n">
         <v>2.4</v>
@@ -1627,7 +1627,7 @@
         <v>3.5</v>
       </c>
       <c r="K9" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L9" t="n">
         <v>1.01</v>
@@ -1636,28 +1636,28 @@
         <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="O9" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P9" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="R9" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="S9" t="n">
         <v>3.1</v>
       </c>
       <c r="T9" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="U9" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="V9" t="n">
         <v>1.71</v>
@@ -1702,7 +1702,7 @@
         <v>980</v>
       </c>
       <c r="AJ9" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AK9" t="n">
         <v>980</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="G10" t="n">
         <v>2.44</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="I10" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="J10" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K10" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
@@ -1771,22 +1771,22 @@
         <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>2.22</v>
+        <v>4.1</v>
       </c>
       <c r="O10" t="n">
         <v>1.25</v>
       </c>
       <c r="P10" t="n">
-        <v>1.92</v>
+        <v>2.1</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.47</v>
+        <v>1.75</v>
       </c>
       <c r="R10" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="S10" t="n">
-        <v>2.56</v>
+        <v>2.66</v>
       </c>
       <c r="T10" t="n">
         <v>1.66</v>
@@ -1801,58 +1801,58 @@
         <v>1.69</v>
       </c>
       <c r="X10" t="n">
-        <v>26</v>
+        <v>18.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>990</v>
+        <v>17.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AA10" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AB10" t="n">
-        <v>990</v>
+        <v>14.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>990</v>
+        <v>10.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>990</v>
+        <v>16.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AF10" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AG10" t="n">
-        <v>990</v>
+        <v>14</v>
       </c>
       <c r="AH10" t="n">
-        <v>990</v>
+        <v>20</v>
       </c>
       <c r="AI10" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AK10" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11">
@@ -1882,70 +1882,70 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="G11" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="H11" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="I11" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="J11" t="n">
         <v>4</v>
       </c>
       <c r="K11" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L11" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="M11" t="n">
         <v>1.02</v>
       </c>
       <c r="N11" t="n">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="O11" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="P11" t="n">
-        <v>2.54</v>
+        <v>2.7</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="R11" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="S11" t="n">
-        <v>2.32</v>
+        <v>2.16</v>
       </c>
       <c r="T11" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="U11" t="n">
-        <v>2.52</v>
+        <v>2.68</v>
       </c>
       <c r="V11" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="W11" t="n">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="X11" t="n">
-        <v>990</v>
+        <v>32</v>
       </c>
       <c r="Y11" t="n">
         <v>22</v>
       </c>
       <c r="Z11" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AA11" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB11" t="n">
         <v>17.5</v>
@@ -1960,7 +1960,7 @@
         <v>980</v>
       </c>
       <c r="AF11" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AG11" t="n">
         <v>12</v>
@@ -1969,7 +1969,7 @@
         <v>16</v>
       </c>
       <c r="AI11" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AJ11" t="n">
         <v>980</v>
@@ -1981,13 +1981,13 @@
         <v>980</v>
       </c>
       <c r="AM11" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AN11" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AO11" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12">
@@ -2056,7 +2056,7 @@
         <v>1.27</v>
       </c>
       <c r="S12" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="T12" t="n">
         <v>1.81</v>
@@ -2089,7 +2089,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AD12" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AE12" t="n">
         <v>1000</v>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="G13" t="n">
         <v>8.4</v>
@@ -2161,13 +2161,13 @@
         <v>1.44</v>
       </c>
       <c r="I13" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="J13" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="K13" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="L13" t="n">
         <v>1.2</v>
@@ -2176,28 +2176,28 @@
         <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="O13" t="n">
         <v>1.19</v>
       </c>
       <c r="P13" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="R13" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="S13" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="T13" t="n">
         <v>1.76</v>
       </c>
       <c r="U13" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V13" t="n">
         <v>3</v>
@@ -2239,7 +2239,7 @@
         <v>26</v>
       </c>
       <c r="AI13" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AJ13" t="n">
         <v>1000</v>
@@ -2287,61 +2287,61 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="G14" t="n">
         <v>2.36</v>
       </c>
       <c r="H14" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="I14" t="n">
         <v>3.65</v>
       </c>
       <c r="J14" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K14" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L14" t="n">
         <v>1.29</v>
       </c>
       <c r="M14" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="O14" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="P14" t="n">
-        <v>1.99</v>
+        <v>2.08</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="R14" t="n">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="S14" t="n">
-        <v>3.2</v>
+        <v>2.96</v>
       </c>
       <c r="T14" t="n">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="U14" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="V14" t="n">
         <v>1.38</v>
       </c>
       <c r="W14" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="X14" t="n">
-        <v>990</v>
+        <v>22</v>
       </c>
       <c r="Y14" t="n">
         <v>17.5</v>
@@ -2386,7 +2386,7 @@
         <v>980</v>
       </c>
       <c r="AM14" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN14" t="n">
         <v>980</v>
@@ -2428,7 +2428,7 @@
         <v>1.26</v>
       </c>
       <c r="H15" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="I15" t="n">
         <v>14.5</v>
@@ -2455,7 +2455,7 @@
         <v>3.2</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="R15" t="n">
         <v>1.88</v>
@@ -2467,7 +2467,7 @@
         <v>1.81</v>
       </c>
       <c r="U15" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="V15" t="n">
         <v>1.08</v>
@@ -2560,16 +2560,16 @@
         <v>2.16</v>
       </c>
       <c r="G16" t="n">
-        <v>2.34</v>
+        <v>2.28</v>
       </c>
       <c r="H16" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I16" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="J16" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="K16" t="n">
         <v>4</v>
@@ -2590,16 +2590,16 @@
         <v>2.08</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="R16" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="S16" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="T16" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="U16" t="n">
         <v>2.26</v>
@@ -2608,7 +2608,7 @@
         <v>1.37</v>
       </c>
       <c r="W16" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="X16" t="n">
         <v>21</v>
@@ -2629,13 +2629,13 @@
         <v>10.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>17.5</v>
+        <v>990</v>
       </c>
       <c r="AE16" t="n">
         <v>980</v>
       </c>
       <c r="AF16" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AG16" t="n">
         <v>13.5</v>
@@ -2644,10 +2644,10 @@
         <v>20</v>
       </c>
       <c r="AI16" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AJ16" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AK16" t="n">
         <v>27</v>
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="G17" t="n">
         <v>6.4</v>
       </c>
       <c r="H17" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="I17" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="J17" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K17" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -3106,7 +3106,7 @@
         <v>1.48</v>
       </c>
       <c r="I20" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="J20" t="n">
         <v>5</v>
@@ -3139,13 +3139,13 @@
         <v>2.02</v>
       </c>
       <c r="T20" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="U20" t="n">
         <v>2.38</v>
       </c>
       <c r="V20" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="W20" t="n">
         <v>1.17</v>
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="G21" t="n">
         <v>5.8</v>
@@ -3241,7 +3241,7 @@
         <v>1.72</v>
       </c>
       <c r="I21" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="J21" t="n">
         <v>3.85</v>
@@ -3250,28 +3250,28 @@
         <v>4.2</v>
       </c>
       <c r="L21" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M21" t="n">
         <v>1.06</v>
       </c>
       <c r="N21" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="O21" t="n">
         <v>1.3</v>
       </c>
       <c r="P21" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="R21" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="S21" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="T21" t="n">
         <v>1.04</v>
@@ -3280,7 +3280,7 @@
         <v>1.04</v>
       </c>
       <c r="V21" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="W21" t="n">
         <v>1.21</v>
@@ -3307,7 +3307,7 @@
         <v>12.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF21" t="n">
         <v>55</v>
@@ -3316,19 +3316,19 @@
         <v>26</v>
       </c>
       <c r="AH21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI21" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ21" t="n">
         <v>170</v>
       </c>
       <c r="AK21" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AL21" t="n">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AM21" t="n">
         <v>140</v>
@@ -3337,7 +3337,7 @@
         <v>110</v>
       </c>
       <c r="AO21" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22">
@@ -3367,16 +3367,16 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="G22" t="n">
-        <v>2.48</v>
+        <v>2.56</v>
       </c>
       <c r="H22" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="I22" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J22" t="n">
         <v>3.1</v>
@@ -3397,10 +3397,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>1.2</v>
       </c>
       <c r="M23" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N23" t="n">
         <v>5.1</v>
@@ -3532,7 +3532,7 @@
         <v>1.19</v>
       </c>
       <c r="P23" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="Q23" t="n">
         <v>1.58</v>
@@ -3541,13 +3541,13 @@
         <v>1.57</v>
       </c>
       <c r="S23" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="T23" t="n">
         <v>1.6</v>
       </c>
       <c r="U23" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="V23" t="n">
         <v>1.42</v>
@@ -3592,10 +3592,10 @@
         <v>42</v>
       </c>
       <c r="AJ23" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AK23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL23" t="n">
         <v>36</v>
@@ -3607,7 +3607,7 @@
         <v>14.5</v>
       </c>
       <c r="AO23" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24">
@@ -3640,19 +3640,19 @@
         <v>1.2</v>
       </c>
       <c r="G24" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="H24" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="I24" t="n">
         <v>16.5</v>
       </c>
       <c r="J24" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K24" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="L24" t="n">
         <v>1.01</v>
@@ -3661,7 +3661,7 @@
         <v>1.01</v>
       </c>
       <c r="N24" t="n">
-        <v>10</v>
+        <v>1.1</v>
       </c>
       <c r="O24" t="n">
         <v>1.08</v>
@@ -3670,7 +3670,7 @@
         <v>4</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="R24" t="n">
         <v>2.28</v>
@@ -3679,10 +3679,10 @@
         <v>1.69</v>
       </c>
       <c r="T24" t="n">
-        <v>1.64</v>
+        <v>1.04</v>
       </c>
       <c r="U24" t="n">
-        <v>2.24</v>
+        <v>1.04</v>
       </c>
       <c r="V24" t="n">
         <v>1.06</v>
@@ -3715,7 +3715,7 @@
         <v>190</v>
       </c>
       <c r="AF24" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG24" t="n">
         <v>13.5</v>
@@ -3727,10 +3727,10 @@
         <v>140</v>
       </c>
       <c r="AJ24" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AK24" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AL24" t="n">
         <v>28</v>
@@ -3739,7 +3739,7 @@
         <v>130</v>
       </c>
       <c r="AN24" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="AO24" t="n">
         <v>1000</v>
@@ -3778,7 +3778,7 @@
         <v>2.68</v>
       </c>
       <c r="H25" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="I25" t="n">
         <v>2.8</v>
@@ -3790,34 +3790,34 @@
         <v>3.75</v>
       </c>
       <c r="L25" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M25" t="n">
         <v>1.05</v>
       </c>
       <c r="N25" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="O25" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P25" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="R25" t="n">
         <v>1.58</v>
       </c>
       <c r="S25" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="T25" t="n">
         <v>1.56</v>
       </c>
       <c r="U25" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="V25" t="n">
         <v>1.55</v>
@@ -3829,7 +3829,7 @@
         <v>20</v>
       </c>
       <c r="Y25" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z25" t="n">
         <v>22</v>
@@ -3838,7 +3838,7 @@
         <v>42</v>
       </c>
       <c r="AB25" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC25" t="n">
         <v>8.6</v>
@@ -3850,7 +3850,7 @@
         <v>25</v>
       </c>
       <c r="AF25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG25" t="n">
         <v>12</v>
@@ -3874,10 +3874,10 @@
         <v>50</v>
       </c>
       <c r="AN25" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AO25" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-26.xlsx
@@ -667,19 +667,19 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>1.96</v>
+        <v>2.04</v>
       </c>
       <c r="H2" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="I2" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="J2" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="K2" t="n">
         <v>4.5</v>
@@ -691,58 +691,58 @@
         <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="O2" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="P2" t="n">
-        <v>2.92</v>
+        <v>2.8</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="R2" t="n">
-        <v>1.79</v>
+        <v>1.74</v>
       </c>
       <c r="S2" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="T2" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="U2" t="n">
-        <v>2.86</v>
+        <v>2.82</v>
       </c>
       <c r="V2" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="W2" t="n">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="X2" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Y2" t="n">
         <v>24</v>
       </c>
       <c r="Z2" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA2" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AB2" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AC2" t="n">
         <v>10.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AF2" t="n">
         <v>16.5</v>
@@ -754,7 +754,7 @@
         <v>14.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AJ2" t="n">
         <v>25</v>
@@ -763,16 +763,16 @@
         <v>17.5</v>
       </c>
       <c r="AL2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM2" t="n">
         <v>55</v>
       </c>
       <c r="AN2" t="n">
-        <v>7.6</v>
+        <v>8.6</v>
       </c>
       <c r="AO2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="G3" t="n">
         <v>1000</v>
@@ -814,7 +814,7 @@
         <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>1.09</v>
+        <v>1.2</v>
       </c>
       <c r="K3" t="n">
         <v>1000</v>
@@ -826,7 +826,7 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>5.1</v>
+        <v>1.1</v>
       </c>
       <c r="O3" t="n">
         <v>1.08</v>
@@ -835,7 +835,7 @@
         <v>1.32</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.24</v>
+        <v>1.08</v>
       </c>
       <c r="R3" t="n">
         <v>1.18</v>
@@ -850,7 +850,7 @@
         <v>1.04</v>
       </c>
       <c r="V3" t="n">
-        <v>1.14</v>
+        <v>1.22</v>
       </c>
       <c r="W3" t="n">
         <v>1.01</v>
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="G4" t="n">
-        <v>5.3</v>
+        <v>6.4</v>
       </c>
       <c r="H4" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="I4" t="n">
-        <v>1.76</v>
+        <v>1.69</v>
       </c>
       <c r="J4" t="n">
         <v>4.4</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="O4" t="n">
         <v>1.17</v>
@@ -1081,7 +1081,7 @@
         <v>4.1</v>
       </c>
       <c r="I5" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="J5" t="n">
         <v>2.68</v>
@@ -1090,13 +1090,13 @@
         <v>3.2</v>
       </c>
       <c r="L5" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="M5" t="n">
         <v>1.14</v>
       </c>
       <c r="N5" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="O5" t="n">
         <v>1.62</v>
@@ -1105,7 +1105,7 @@
         <v>1.43</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="R5" t="n">
         <v>1.15</v>
@@ -1207,10 +1207,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="G6" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="H6" t="n">
         <v>9.199999999999999</v>
@@ -1219,10 +1219,10 @@
         <v>14.5</v>
       </c>
       <c r="J6" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K6" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="L6" t="n">
         <v>1.37</v>
@@ -1237,43 +1237,43 @@
         <v>1.39</v>
       </c>
       <c r="P6" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="Q6" t="n">
         <v>2.16</v>
       </c>
       <c r="R6" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S6" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="T6" t="n">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="U6" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="V6" t="n">
         <v>1.08</v>
       </c>
       <c r="W6" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="X6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB6" t="n">
         <v>990</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>1000</v>
       </c>
       <c r="AC6" t="n">
         <v>1000</v>
@@ -1345,16 +1345,16 @@
         <v>1.09</v>
       </c>
       <c r="G7" t="n">
-        <v>1.5</v>
+        <v>1.16</v>
       </c>
       <c r="H7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I7" t="n">
         <v>1000</v>
       </c>
       <c r="J7" t="n">
-        <v>1.09</v>
+        <v>1.2</v>
       </c>
       <c r="K7" t="n">
         <v>1000</v>
@@ -1387,13 +1387,13 @@
         <v>1.04</v>
       </c>
       <c r="U7" t="n">
-        <v>1.04</v>
+        <v>1.45</v>
       </c>
       <c r="V7" t="n">
         <v>1.02</v>
       </c>
       <c r="W7" t="n">
-        <v>1.01</v>
+        <v>3</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1480,19 +1480,19 @@
         <v>1.32</v>
       </c>
       <c r="G8" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="I8" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="J8" t="n">
         <v>5.5</v>
       </c>
       <c r="K8" t="n">
-        <v>7.4</v>
+        <v>6.6</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
@@ -1501,19 +1501,19 @@
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="O8" t="n">
         <v>1.16</v>
       </c>
       <c r="P8" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="Q8" t="n">
         <v>1.46</v>
       </c>
       <c r="R8" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="S8" t="n">
         <v>2.16</v>
@@ -1525,10 +1525,10 @@
         <v>1.96</v>
       </c>
       <c r="V8" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="W8" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1612,19 +1612,19 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="G9" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="H9" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="I9" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="J9" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K9" t="n">
         <v>3.95</v>
@@ -1660,7 +1660,7 @@
         <v>2.12</v>
       </c>
       <c r="V9" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="W9" t="n">
         <v>1.37</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="G10" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="H10" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="I10" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="J10" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K10" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
@@ -1792,13 +1792,13 @@
         <v>1.66</v>
       </c>
       <c r="U10" t="n">
-        <v>1.04</v>
+        <v>2.02</v>
       </c>
       <c r="V10" t="n">
         <v>1.46</v>
       </c>
       <c r="W10" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="X10" t="n">
         <v>18.5</v>
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="G11" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="H11" t="n">
         <v>3.15</v>
@@ -1897,10 +1897,10 @@
         <v>4</v>
       </c>
       <c r="K11" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="L11" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="M11" t="n">
         <v>1.02</v>
@@ -1918,22 +1918,22 @@
         <v>1.48</v>
       </c>
       <c r="R11" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="S11" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="T11" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="U11" t="n">
         <v>2.68</v>
       </c>
       <c r="V11" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="W11" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="X11" t="n">
         <v>32</v>
@@ -1987,7 +1987,7 @@
         <v>9.4</v>
       </c>
       <c r="AO11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
@@ -2017,10 +2017,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="G12" t="n">
-        <v>2.48</v>
+        <v>2.58</v>
       </c>
       <c r="H12" t="n">
         <v>3.15</v>
@@ -2029,7 +2029,7 @@
         <v>3.35</v>
       </c>
       <c r="J12" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="K12" t="n">
         <v>3.6</v>
@@ -2053,7 +2053,7 @@
         <v>1.96</v>
       </c>
       <c r="R12" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S12" t="n">
         <v>3.65</v>
@@ -2068,7 +2068,7 @@
         <v>1.42</v>
       </c>
       <c r="W12" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="X12" t="n">
         <v>14.5</v>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="G13" t="n">
         <v>8.4</v>
@@ -2161,7 +2161,7 @@
         <v>1.44</v>
       </c>
       <c r="I13" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="J13" t="n">
         <v>4.9</v>
@@ -2170,7 +2170,7 @@
         <v>5.8</v>
       </c>
       <c r="L13" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M13" t="n">
         <v>1.03</v>
@@ -2191,7 +2191,7 @@
         <v>1.61</v>
       </c>
       <c r="S13" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="T13" t="n">
         <v>1.76</v>
@@ -2200,7 +2200,7 @@
         <v>2.1</v>
       </c>
       <c r="V13" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="W13" t="n">
         <v>1.13</v>
@@ -2302,7 +2302,7 @@
         <v>3.6</v>
       </c>
       <c r="K14" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L14" t="n">
         <v>1.29</v>
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="G15" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="H15" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="I15" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="J15" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="K15" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="L15" t="n">
         <v>1.01</v>
@@ -2452,25 +2452,25 @@
         <v>1.12</v>
       </c>
       <c r="P15" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="R15" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S15" t="n">
         <v>1.93</v>
       </c>
       <c r="T15" t="n">
-        <v>1.81</v>
+        <v>1.89</v>
       </c>
       <c r="U15" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="V15" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="W15" t="n">
         <v>4.8</v>
@@ -2491,7 +2491,7 @@
         <v>990</v>
       </c>
       <c r="AC15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AD15" t="n">
         <v>990</v>
@@ -2500,7 +2500,7 @@
         <v>190</v>
       </c>
       <c r="AF15" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AG15" t="n">
         <v>990</v>
@@ -2512,7 +2512,7 @@
         <v>140</v>
       </c>
       <c r="AJ15" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AK15" t="n">
         <v>980</v>
@@ -2521,10 +2521,10 @@
         <v>980</v>
       </c>
       <c r="AM15" t="n">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="AN15" t="n">
-        <v>3.65</v>
+        <v>3.35</v>
       </c>
       <c r="AO15" t="n">
         <v>190</v>
@@ -2608,7 +2608,7 @@
         <v>1.37</v>
       </c>
       <c r="W16" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="X16" t="n">
         <v>21</v>
@@ -2617,7 +2617,7 @@
         <v>21</v>
       </c>
       <c r="Z16" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AA16" t="n">
         <v>65</v>
@@ -2638,7 +2638,7 @@
         <v>18</v>
       </c>
       <c r="AG16" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH16" t="n">
         <v>20</v>
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="G17" t="n">
         <v>6.4</v>
       </c>
       <c r="H17" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="I17" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="J17" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K17" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -2827,25 +2827,25 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="G18" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="H18" t="n">
         <v>2.82</v>
       </c>
       <c r="I18" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J18" t="n">
         <v>3.2</v>
       </c>
       <c r="K18" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L18" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M18" t="n">
         <v>1.07</v>
@@ -2863,10 +2863,10 @@
         <v>2.04</v>
       </c>
       <c r="R18" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S18" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="T18" t="n">
         <v>1.78</v>
@@ -2875,10 +2875,10 @@
         <v>2.04</v>
       </c>
       <c r="V18" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="W18" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="X18" t="n">
         <v>15.5</v>
@@ -3106,7 +3106,7 @@
         <v>1.48</v>
       </c>
       <c r="I20" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="J20" t="n">
         <v>5</v>
@@ -3118,7 +3118,7 @@
         <v>1.16</v>
       </c>
       <c r="M20" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N20" t="n">
         <v>7</v>
@@ -3133,13 +3133,13 @@
         <v>1.4</v>
       </c>
       <c r="R20" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="S20" t="n">
         <v>2.02</v>
       </c>
       <c r="T20" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="U20" t="n">
         <v>2.38</v>
@@ -3238,7 +3238,7 @@
         <v>5.8</v>
       </c>
       <c r="H21" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="I21" t="n">
         <v>1.8</v>
@@ -3247,7 +3247,7 @@
         <v>3.85</v>
       </c>
       <c r="K21" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L21" t="n">
         <v>1.32</v>
@@ -3370,19 +3370,19 @@
         <v>2.42</v>
       </c>
       <c r="G22" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="H22" t="n">
         <v>3.45</v>
       </c>
       <c r="I22" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="J22" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K22" t="n">
         <v>3.1</v>
-      </c>
-      <c r="K22" t="n">
-        <v>3.15</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -3400,7 +3400,7 @@
         <v>1.62</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -3514,10 +3514,10 @@
         <v>3.35</v>
       </c>
       <c r="J23" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K23" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L23" t="n">
         <v>1.2</v>
@@ -3568,10 +3568,10 @@
         <v>60</v>
       </c>
       <c r="AB23" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AC23" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AD23" t="n">
         <v>17.5</v>
@@ -3595,7 +3595,7 @@
         <v>34</v>
       </c>
       <c r="AK23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL23" t="n">
         <v>36</v>
@@ -3607,7 +3607,7 @@
         <v>14.5</v>
       </c>
       <c r="AO23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24">
@@ -3637,22 +3637,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="G24" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="H24" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="I24" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="J24" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="K24" t="n">
-        <v>9.4</v>
+        <v>12.5</v>
       </c>
       <c r="L24" t="n">
         <v>1.01</v>
@@ -3661,7 +3661,7 @@
         <v>1.01</v>
       </c>
       <c r="N24" t="n">
-        <v>1.1</v>
+        <v>10.5</v>
       </c>
       <c r="O24" t="n">
         <v>1.08</v>
@@ -3670,49 +3670,49 @@
         <v>4</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="R24" t="n">
         <v>2.28</v>
       </c>
       <c r="S24" t="n">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="T24" t="n">
-        <v>1.04</v>
+        <v>1.68</v>
       </c>
       <c r="U24" t="n">
-        <v>1.04</v>
+        <v>2.2</v>
       </c>
       <c r="V24" t="n">
         <v>1.06</v>
       </c>
       <c r="W24" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="X24" t="n">
         <v>1000</v>
       </c>
       <c r="Y24" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="Z24" t="n">
+        <v>220</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE24" t="n">
         <v>210</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>610</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>50</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>190</v>
       </c>
       <c r="AF24" t="n">
         <v>12.5</v>
@@ -3721,25 +3721,25 @@
         <v>13.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AI24" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AJ24" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AK24" t="n">
         <v>13.5</v>
       </c>
       <c r="AL24" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AM24" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AN24" t="n">
-        <v>2.84</v>
+        <v>2.78</v>
       </c>
       <c r="AO24" t="n">
         <v>1000</v>
@@ -3784,10 +3784,10 @@
         <v>2.8</v>
       </c>
       <c r="J25" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K25" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L25" t="n">
         <v>1.32</v>
@@ -3802,22 +3802,22 @@
         <v>1.23</v>
       </c>
       <c r="P25" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="Q25" t="n">
         <v>1.7</v>
       </c>
       <c r="R25" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="S25" t="n">
         <v>2.68</v>
       </c>
       <c r="T25" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="U25" t="n">
-        <v>2.72</v>
+        <v>2.66</v>
       </c>
       <c r="V25" t="n">
         <v>1.55</v>
@@ -3850,7 +3850,7 @@
         <v>25</v>
       </c>
       <c r="AF25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG25" t="n">
         <v>12</v>
@@ -3859,7 +3859,7 @@
         <v>14</v>
       </c>
       <c r="AI25" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ25" t="n">
         <v>38</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-26.xlsx
@@ -670,19 +670,19 @@
         <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="H2" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="I2" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J2" t="n">
         <v>4.3</v>
       </c>
       <c r="K2" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L2" t="n">
         <v>1.25</v>
@@ -697,34 +697,34 @@
         <v>1.17</v>
       </c>
       <c r="P2" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="R2" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="S2" t="n">
         <v>2.28</v>
       </c>
       <c r="T2" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="U2" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="V2" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="W2" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="X2" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Y2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Z2" t="n">
         <v>32</v>
@@ -745,7 +745,7 @@
         <v>34</v>
       </c>
       <c r="AF2" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AG2" t="n">
         <v>11</v>
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="AJ2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK2" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AL2" t="n">
         <v>24</v>
@@ -769,7 +769,7 @@
         <v>55</v>
       </c>
       <c r="AN2" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AO2" t="n">
         <v>21</v>
@@ -850,7 +850,7 @@
         <v>1.04</v>
       </c>
       <c r="V3" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="W3" t="n">
         <v>1.01</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="G4" t="n">
         <v>6.4</v>
       </c>
       <c r="H4" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="I4" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="J4" t="n">
         <v>4.4</v>
       </c>
       <c r="K4" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="O4" t="n">
         <v>1.17</v>
@@ -1075,10 +1075,10 @@
         <v>2.2</v>
       </c>
       <c r="G5" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="H5" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I5" t="n">
         <v>4.7</v>
@@ -1123,7 +1123,7 @@
         <v>1.27</v>
       </c>
       <c r="W5" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="X5" t="n">
         <v>8.800000000000001</v>
@@ -1138,7 +1138,7 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC5" t="n">
         <v>1000</v>
@@ -1207,10 +1207,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="G6" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="H6" t="n">
         <v>9.199999999999999</v>
@@ -1231,13 +1231,13 @@
         <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="O6" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="P6" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="Q6" t="n">
         <v>2.16</v>
@@ -1246,10 +1246,10 @@
         <v>1.24</v>
       </c>
       <c r="S6" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="T6" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="U6" t="n">
         <v>1.57</v>
@@ -1297,7 +1297,7 @@
         <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AK6" t="n">
         <v>1000</v>
@@ -1354,7 +1354,7 @@
         <v>1000</v>
       </c>
       <c r="J7" t="n">
-        <v>1.2</v>
+        <v>8</v>
       </c>
       <c r="K7" t="n">
         <v>1000</v>
@@ -1381,7 +1381,7 @@
         <v>2</v>
       </c>
       <c r="S7" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="T7" t="n">
         <v>1.04</v>
@@ -1393,7 +1393,7 @@
         <v>1.02</v>
       </c>
       <c r="W7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="G8" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="H8" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I8" t="n">
         <v>12.5</v>
       </c>
       <c r="J8" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="K8" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
@@ -1507,7 +1507,7 @@
         <v>1.16</v>
       </c>
       <c r="P8" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="Q8" t="n">
         <v>1.46</v>
@@ -1519,7 +1519,7 @@
         <v>2.16</v>
       </c>
       <c r="T8" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="U8" t="n">
         <v>1.96</v>
@@ -1528,7 +1528,7 @@
         <v>1.09</v>
       </c>
       <c r="W8" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="G9" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="H9" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="I9" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="J9" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K9" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L9" t="n">
         <v>1.01</v>
@@ -1639,31 +1639,31 @@
         <v>3.75</v>
       </c>
       <c r="O9" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P9" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="Q9" t="n">
         <v>1.91</v>
       </c>
-      <c r="Q9" t="n">
-        <v>1.9</v>
-      </c>
       <c r="R9" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S9" t="n">
         <v>3.1</v>
       </c>
       <c r="T9" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="U9" t="n">
         <v>2.12</v>
       </c>
       <c r="V9" t="n">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="W9" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="X9" t="n">
         <v>19</v>
@@ -1702,7 +1702,7 @@
         <v>980</v>
       </c>
       <c r="AJ9" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AK9" t="n">
         <v>980</v>
@@ -1753,13 +1753,13 @@
         <v>2.5</v>
       </c>
       <c r="H10" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="I10" t="n">
         <v>3.2</v>
       </c>
       <c r="J10" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K10" t="n">
         <v>3.95</v>
@@ -1882,16 +1882,16 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="G11" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="H11" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I11" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="J11" t="n">
         <v>4</v>
@@ -1900,7 +1900,7 @@
         <v>4.4</v>
       </c>
       <c r="L11" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="M11" t="n">
         <v>1.02</v>
@@ -1918,13 +1918,13 @@
         <v>1.48</v>
       </c>
       <c r="R11" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="S11" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="T11" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="U11" t="n">
         <v>2.68</v>
@@ -1933,10 +1933,10 @@
         <v>1.38</v>
       </c>
       <c r="W11" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="X11" t="n">
-        <v>32</v>
+        <v>990</v>
       </c>
       <c r="Y11" t="n">
         <v>22</v>
@@ -2020,10 +2020,10 @@
         <v>2.36</v>
       </c>
       <c r="G12" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="H12" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I12" t="n">
         <v>3.35</v>
@@ -2035,7 +2035,7 @@
         <v>3.6</v>
       </c>
       <c r="L12" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="M12" t="n">
         <v>1.07</v>
@@ -2044,13 +2044,13 @@
         <v>3.15</v>
       </c>
       <c r="O12" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="P12" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="R12" t="n">
         <v>1.28</v>
@@ -2068,7 +2068,7 @@
         <v>1.42</v>
       </c>
       <c r="W12" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="X12" t="n">
         <v>14.5</v>
@@ -2152,25 +2152,25 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="G13" t="n">
         <v>8.4</v>
       </c>
       <c r="H13" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="I13" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="J13" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="K13" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="L13" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M13" t="n">
         <v>1.03</v>
@@ -2179,10 +2179,10 @@
         <v>5.4</v>
       </c>
       <c r="O13" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P13" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="Q13" t="n">
         <v>1.55</v>
@@ -2191,16 +2191,16 @@
         <v>1.61</v>
       </c>
       <c r="S13" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="T13" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="U13" t="n">
         <v>2.1</v>
       </c>
       <c r="V13" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="W13" t="n">
         <v>1.13</v>
@@ -2209,16 +2209,16 @@
         <v>30</v>
       </c>
       <c r="Y13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z13" t="n">
         <v>11</v>
       </c>
       <c r="AA13" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AC13" t="n">
         <v>14.5</v>
@@ -2287,19 +2287,19 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="G14" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="H14" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I14" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J14" t="n">
         <v>3.65</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3.6</v>
       </c>
       <c r="K14" t="n">
         <v>4.1</v>
@@ -2314,7 +2314,7 @@
         <v>4.1</v>
       </c>
       <c r="O14" t="n">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="P14" t="n">
         <v>2.08</v>
@@ -2329,13 +2329,13 @@
         <v>2.96</v>
       </c>
       <c r="T14" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="U14" t="n">
         <v>2.24</v>
       </c>
       <c r="V14" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="W14" t="n">
         <v>1.73</v>
@@ -2386,7 +2386,7 @@
         <v>980</v>
       </c>
       <c r="AM14" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AN14" t="n">
         <v>980</v>
@@ -2425,13 +2425,13 @@
         <v>1.2</v>
       </c>
       <c r="G15" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="H15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I15" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="J15" t="n">
         <v>7.6</v>
@@ -2446,7 +2446,7 @@
         <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="O15" t="n">
         <v>1.12</v>
@@ -2455,13 +2455,13 @@
         <v>3.3</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="R15" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="S15" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="T15" t="n">
         <v>1.89</v>
@@ -2512,7 +2512,7 @@
         <v>140</v>
       </c>
       <c r="AJ15" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AK15" t="n">
         <v>980</v>
@@ -2527,7 +2527,7 @@
         <v>3.35</v>
       </c>
       <c r="AO15" t="n">
-        <v>190</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16">
@@ -2560,7 +2560,7 @@
         <v>2.16</v>
       </c>
       <c r="G16" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="H16" t="n">
         <v>3.3</v>
@@ -2620,7 +2620,7 @@
         <v>30</v>
       </c>
       <c r="AA16" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AB16" t="n">
         <v>12</v>
@@ -2632,7 +2632,7 @@
         <v>990</v>
       </c>
       <c r="AE16" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AF16" t="n">
         <v>18</v>
@@ -2662,7 +2662,7 @@
         <v>17</v>
       </c>
       <c r="AO16" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17">
@@ -2695,19 +2695,19 @@
         <v>5.6</v>
       </c>
       <c r="G17" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="H17" t="n">
-        <v>1.59</v>
+        <v>1.64</v>
       </c>
       <c r="I17" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="J17" t="n">
         <v>4.1</v>
       </c>
       <c r="K17" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>1.81</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="R18" t="n">
         <v>1.3</v>
@@ -2869,7 +2869,7 @@
         <v>3.7</v>
       </c>
       <c r="T18" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U18" t="n">
         <v>2.04</v>
@@ -2926,7 +2926,7 @@
         <v>980</v>
       </c>
       <c r="AM18" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN18" t="n">
         <v>34</v>
@@ -3004,7 +3004,7 @@
         <v>2.42</v>
       </c>
       <c r="T19" t="n">
-        <v>1.51</v>
+        <v>1.46</v>
       </c>
       <c r="U19" t="n">
         <v>1.89</v>
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="G20" t="n">
         <v>7</v>
@@ -3106,13 +3106,13 @@
         <v>1.48</v>
       </c>
       <c r="I20" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="J20" t="n">
         <v>5</v>
       </c>
       <c r="K20" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="L20" t="n">
         <v>1.16</v>
@@ -3145,7 +3145,7 @@
         <v>2.38</v>
       </c>
       <c r="V20" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="W20" t="n">
         <v>1.17</v>
@@ -3202,7 +3202,7 @@
         <v>60</v>
       </c>
       <c r="AO20" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="21">
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="G21" t="n">
         <v>5.8</v>
@@ -3250,7 +3250,7 @@
         <v>4.3</v>
       </c>
       <c r="L21" t="n">
-        <v>1.32</v>
+        <v>1.44</v>
       </c>
       <c r="M21" t="n">
         <v>1.06</v>
@@ -3274,7 +3274,7 @@
         <v>3.1</v>
       </c>
       <c r="T21" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="U21" t="n">
         <v>1.04</v>
@@ -3367,22 +3367,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="G22" t="n">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="H22" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="I22" t="n">
         <v>3.75</v>
       </c>
       <c r="J22" t="n">
+        <v>3</v>
+      </c>
+      <c r="K22" t="n">
         <v>3.05</v>
-      </c>
-      <c r="K22" t="n">
-        <v>3.1</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="G23" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="H23" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="I23" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="J23" t="n">
         <v>3.8</v>
@@ -3541,7 +3541,7 @@
         <v>1.57</v>
       </c>
       <c r="S23" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="T23" t="n">
         <v>1.6</v>
@@ -3553,7 +3553,7 @@
         <v>1.42</v>
       </c>
       <c r="W23" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="X23" t="n">
         <v>29</v>
@@ -3565,13 +3565,13 @@
         <v>32</v>
       </c>
       <c r="AA23" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AB23" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AD23" t="n">
         <v>17.5</v>
@@ -3580,10 +3580,10 @@
         <v>38</v>
       </c>
       <c r="AF23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG23" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH23" t="n">
         <v>18.5</v>
@@ -3592,7 +3592,7 @@
         <v>42</v>
       </c>
       <c r="AJ23" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AK23" t="n">
         <v>26</v>
@@ -3604,10 +3604,10 @@
         <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AO23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24">
@@ -3640,19 +3640,19 @@
         <v>1.19</v>
       </c>
       <c r="G24" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="H24" t="n">
         <v>14</v>
       </c>
       <c r="I24" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="J24" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="K24" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="L24" t="n">
         <v>1.01</v>
@@ -3670,31 +3670,31 @@
         <v>4</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="R24" t="n">
         <v>2.28</v>
       </c>
       <c r="S24" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="T24" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="U24" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V24" t="n">
         <v>1.06</v>
       </c>
       <c r="W24" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="X24" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="Y24" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="Z24" t="n">
         <v>220</v>
@@ -3703,7 +3703,7 @@
         <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AC24" t="n">
         <v>24</v>
@@ -3715,7 +3715,7 @@
         <v>210</v>
       </c>
       <c r="AF24" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG24" t="n">
         <v>13.5</v>
@@ -3727,7 +3727,7 @@
         <v>150</v>
       </c>
       <c r="AJ24" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AK24" t="n">
         <v>13.5</v>
@@ -3739,7 +3739,7 @@
         <v>140</v>
       </c>
       <c r="AN24" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AO24" t="n">
         <v>1000</v>
@@ -3772,16 +3772,16 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="G25" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="H25" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="I25" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="J25" t="n">
         <v>3.75</v>
@@ -3790,7 +3790,7 @@
         <v>3.8</v>
       </c>
       <c r="L25" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M25" t="n">
         <v>1.05</v>
@@ -3808,7 +3808,7 @@
         <v>1.7</v>
       </c>
       <c r="R25" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="S25" t="n">
         <v>2.68</v>
@@ -3817,13 +3817,13 @@
         <v>1.57</v>
       </c>
       <c r="U25" t="n">
-        <v>2.66</v>
+        <v>2.72</v>
       </c>
       <c r="V25" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="W25" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="X25" t="n">
         <v>20</v>
@@ -3838,7 +3838,7 @@
         <v>42</v>
       </c>
       <c r="AB25" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC25" t="n">
         <v>8.6</v>
@@ -3865,7 +3865,7 @@
         <v>38</v>
       </c>
       <c r="AK25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL25" t="n">
         <v>29</v>
@@ -3874,10 +3874,10 @@
         <v>50</v>
       </c>
       <c r="AN25" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AO25" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-26.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="G2" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="H2" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I2" t="n">
         <v>3.65</v>
-      </c>
-      <c r="I2" t="n">
-        <v>3.7</v>
       </c>
       <c r="J2" t="n">
         <v>4.3</v>
       </c>
       <c r="K2" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L2" t="n">
         <v>1.25</v>
@@ -691,49 +691,49 @@
         <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="O2" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="P2" t="n">
-        <v>2.82</v>
+        <v>2.94</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R2" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="S2" t="n">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="T2" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="U2" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="V2" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W2" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="X2" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Y2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z2" t="n">
         <v>32</v>
       </c>
       <c r="AA2" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AB2" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AC2" t="n">
         <v>10.5</v>
@@ -745,7 +745,7 @@
         <v>34</v>
       </c>
       <c r="AF2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG2" t="n">
         <v>11</v>
@@ -766,13 +766,13 @@
         <v>24</v>
       </c>
       <c r="AM2" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AN2" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO2" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="3">
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.01</v>
+        <v>1.89</v>
       </c>
       <c r="G3" t="n">
-        <v>1000</v>
+        <v>2.22</v>
       </c>
       <c r="H3" t="n">
-        <v>1.01</v>
+        <v>3.45</v>
       </c>
       <c r="I3" t="n">
-        <v>1000</v>
+        <v>4.7</v>
       </c>
       <c r="J3" t="n">
-        <v>1.2</v>
+        <v>3.45</v>
       </c>
       <c r="K3" t="n">
-        <v>1000</v>
+        <v>4.4</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>1.1</v>
+        <v>3.6</v>
       </c>
       <c r="O3" t="n">
-        <v>1.08</v>
+        <v>1.25</v>
       </c>
       <c r="P3" t="n">
-        <v>1.32</v>
+        <v>2</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.08</v>
+        <v>1.71</v>
       </c>
       <c r="R3" t="n">
-        <v>1.18</v>
+        <v>1.39</v>
       </c>
       <c r="S3" t="n">
-        <v>1.25</v>
+        <v>2.62</v>
       </c>
       <c r="T3" t="n">
         <v>1.79</v>
       </c>
       <c r="U3" t="n">
-        <v>1.04</v>
+        <v>2.12</v>
       </c>
       <c r="V3" t="n">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="W3" t="n">
-        <v>1.01</v>
+        <v>1.82</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4">
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="G4" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="H4" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="I4" t="n">
         <v>1.68</v>
       </c>
       <c r="J4" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K4" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="O4" t="n">
         <v>1.17</v>
@@ -1072,10 +1072,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="G5" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="H5" t="n">
         <v>4</v>
@@ -1084,10 +1084,10 @@
         <v>4.7</v>
       </c>
       <c r="J5" t="n">
-        <v>2.68</v>
+        <v>2.84</v>
       </c>
       <c r="K5" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="L5" t="n">
         <v>1.54</v>
@@ -1114,7 +1114,7 @@
         <v>5.6</v>
       </c>
       <c r="T5" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="U5" t="n">
         <v>1.64</v>
@@ -1123,7 +1123,7 @@
         <v>1.27</v>
       </c>
       <c r="W5" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="X5" t="n">
         <v>8.800000000000001</v>
@@ -1138,7 +1138,7 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>15.5</v>
+        <v>7.6</v>
       </c>
       <c r="AC5" t="n">
         <v>1000</v>
@@ -1213,7 +1213,7 @@
         <v>1.49</v>
       </c>
       <c r="H6" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="I6" t="n">
         <v>14.5</v>
@@ -1231,10 +1231,10 @@
         <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O6" t="n">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="P6" t="n">
         <v>1.69</v>
@@ -1243,10 +1243,10 @@
         <v>2.16</v>
       </c>
       <c r="R6" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S6" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T6" t="n">
         <v>2.42</v>
@@ -1345,7 +1345,7 @@
         <v>1.09</v>
       </c>
       <c r="G7" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="H7" t="n">
         <v>27</v>
@@ -1354,7 +1354,7 @@
         <v>1000</v>
       </c>
       <c r="J7" t="n">
-        <v>8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="K7" t="n">
         <v>1000</v>
@@ -1366,13 +1366,13 @@
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>1.1</v>
+        <v>2.82</v>
       </c>
       <c r="O7" t="n">
         <v>1.07</v>
       </c>
       <c r="P7" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="Q7" t="n">
         <v>1.07</v>
@@ -1393,7 +1393,7 @@
         <v>1.02</v>
       </c>
       <c r="W7" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1483,13 +1483,13 @@
         <v>1.37</v>
       </c>
       <c r="H8" t="n">
-        <v>8.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="I8" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="J8" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="K8" t="n">
         <v>6.8</v>
@@ -1513,7 +1513,7 @@
         <v>1.46</v>
       </c>
       <c r="R8" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="S8" t="n">
         <v>2.16</v>
@@ -1522,10 +1522,10 @@
         <v>1.83</v>
       </c>
       <c r="U8" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="V8" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="W8" t="n">
         <v>3.7</v>
@@ -1615,7 +1615,7 @@
         <v>3.35</v>
       </c>
       <c r="G9" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="H9" t="n">
         <v>2.14</v>
@@ -1636,16 +1636,16 @@
         <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O9" t="n">
         <v>1.3</v>
       </c>
       <c r="P9" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="R9" t="n">
         <v>1.37</v>
@@ -1657,7 +1657,7 @@
         <v>1.73</v>
       </c>
       <c r="U9" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V9" t="n">
         <v>1.76</v>
@@ -1747,13 +1747,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="G10" t="n">
         <v>2.5</v>
       </c>
       <c r="H10" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="I10" t="n">
         <v>3.2</v>
@@ -1795,7 +1795,7 @@
         <v>2.02</v>
       </c>
       <c r="V10" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="W10" t="n">
         <v>1.67</v>
@@ -1885,13 +1885,13 @@
         <v>2.08</v>
       </c>
       <c r="G11" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="H11" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I11" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="J11" t="n">
         <v>4</v>
@@ -1930,10 +1930,10 @@
         <v>2.68</v>
       </c>
       <c r="V11" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="W11" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="X11" t="n">
         <v>990</v>
@@ -1942,7 +1942,7 @@
         <v>22</v>
       </c>
       <c r="Z11" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AA11" t="n">
         <v>60</v>
@@ -2020,7 +2020,7 @@
         <v>2.36</v>
       </c>
       <c r="G12" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="H12" t="n">
         <v>3.1</v>
@@ -2068,7 +2068,7 @@
         <v>1.42</v>
       </c>
       <c r="W12" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="X12" t="n">
         <v>14.5</v>
@@ -2155,13 +2155,13 @@
         <v>7</v>
       </c>
       <c r="G13" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="H13" t="n">
         <v>1.43</v>
       </c>
       <c r="I13" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="J13" t="n">
         <v>5</v>
@@ -2170,7 +2170,7 @@
         <v>5.9</v>
       </c>
       <c r="L13" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="M13" t="n">
         <v>1.03</v>
@@ -2191,7 +2191,7 @@
         <v>1.61</v>
       </c>
       <c r="S13" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="T13" t="n">
         <v>1.77</v>
@@ -2203,10 +2203,10 @@
         <v>3</v>
       </c>
       <c r="W13" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="X13" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Y13" t="n">
         <v>12</v>
@@ -2233,7 +2233,7 @@
         <v>1000</v>
       </c>
       <c r="AG13" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH13" t="n">
         <v>26</v>
@@ -2290,7 +2290,7 @@
         <v>2.2</v>
       </c>
       <c r="G14" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="H14" t="n">
         <v>3.2</v>
@@ -2299,7 +2299,7 @@
         <v>3.5</v>
       </c>
       <c r="J14" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K14" t="n">
         <v>4.1</v>
@@ -2320,7 +2320,7 @@
         <v>2.08</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="R14" t="n">
         <v>1.42</v>
@@ -2338,7 +2338,7 @@
         <v>1.4</v>
       </c>
       <c r="W14" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="X14" t="n">
         <v>22</v>
@@ -2422,10 +2422,10 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="G15" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="H15" t="n">
         <v>12</v>
@@ -2455,13 +2455,13 @@
         <v>3.3</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="R15" t="n">
         <v>1.89</v>
       </c>
       <c r="S15" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="T15" t="n">
         <v>1.89</v>
@@ -2470,7 +2470,7 @@
         <v>1.9</v>
       </c>
       <c r="V15" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="W15" t="n">
         <v>4.8</v>
@@ -2524,7 +2524,7 @@
         <v>190</v>
       </c>
       <c r="AN15" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="AO15" t="n">
         <v>220</v>
@@ -2560,49 +2560,49 @@
         <v>2.16</v>
       </c>
       <c r="G16" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="H16" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I16" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="J16" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K16" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L16" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M16" t="n">
         <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O16" t="n">
         <v>1.26</v>
       </c>
       <c r="P16" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="R16" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S16" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="T16" t="n">
         <v>1.66</v>
       </c>
       <c r="U16" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="V16" t="n">
         <v>1.37</v>
@@ -2614,7 +2614,7 @@
         <v>21</v>
       </c>
       <c r="Y16" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="Z16" t="n">
         <v>30</v>
@@ -2650,16 +2650,16 @@
         <v>34</v>
       </c>
       <c r="AK16" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AL16" t="n">
         <v>40</v>
       </c>
       <c r="AM16" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AN16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO16" t="n">
         <v>42</v>
@@ -2707,7 +2707,7 @@
         <v>4.1</v>
       </c>
       <c r="K17" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -2833,7 +2833,7 @@
         <v>2.84</v>
       </c>
       <c r="H18" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="I18" t="n">
         <v>3.2</v>
@@ -2845,7 +2845,7 @@
         <v>3.65</v>
       </c>
       <c r="L18" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="M18" t="n">
         <v>1.07</v>
@@ -2878,7 +2878,7 @@
         <v>1.46</v>
       </c>
       <c r="W18" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="X18" t="n">
         <v>15.5</v>
@@ -2977,10 +2977,10 @@
         <v>3.9</v>
       </c>
       <c r="K19" t="n">
-        <v>5.1</v>
+        <v>4.6</v>
       </c>
       <c r="L19" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="M19" t="n">
         <v>1.01</v>
@@ -3013,7 +3013,7 @@
         <v>2.04</v>
       </c>
       <c r="W19" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="X19" t="n">
         <v>28</v>
@@ -3049,7 +3049,7 @@
         <v>990</v>
       </c>
       <c r="AI19" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ19" t="n">
         <v>1000</v>
@@ -3097,28 +3097,28 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="G20" t="n">
         <v>7</v>
       </c>
       <c r="H20" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="I20" t="n">
-        <v>1.57</v>
+        <v>1.51</v>
       </c>
       <c r="J20" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="K20" t="n">
         <v>5.9</v>
       </c>
       <c r="L20" t="n">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="M20" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N20" t="n">
         <v>7</v>
@@ -3130,13 +3130,13 @@
         <v>3</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="R20" t="n">
         <v>1.89</v>
       </c>
       <c r="S20" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="T20" t="n">
         <v>1.63</v>
@@ -3145,7 +3145,7 @@
         <v>2.38</v>
       </c>
       <c r="V20" t="n">
-        <v>2.78</v>
+        <v>2.96</v>
       </c>
       <c r="W20" t="n">
         <v>1.17</v>
@@ -3166,7 +3166,7 @@
         <v>990</v>
       </c>
       <c r="AC20" t="n">
-        <v>990</v>
+        <v>16</v>
       </c>
       <c r="AD20" t="n">
         <v>990</v>
@@ -3238,7 +3238,7 @@
         <v>5.8</v>
       </c>
       <c r="H21" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="I21" t="n">
         <v>1.8</v>
@@ -3286,13 +3286,13 @@
         <v>1.21</v>
       </c>
       <c r="X21" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="Y21" t="n">
         <v>10.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AA21" t="n">
         <v>22</v>
@@ -3367,13 +3367,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="G22" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="H22" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="I22" t="n">
         <v>3.75</v>
@@ -3400,7 +3400,7 @@
         <v>1.62</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -3637,94 +3637,94 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="G24" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="H24" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="I24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J24" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K24" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="L24" t="n">
-        <v>1.01</v>
+        <v>1.16</v>
       </c>
       <c r="M24" t="n">
         <v>1.01</v>
       </c>
       <c r="N24" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="O24" t="n">
         <v>1.08</v>
       </c>
       <c r="P24" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Q24" t="n">
         <v>1.27</v>
       </c>
       <c r="R24" t="n">
-        <v>2.28</v>
+        <v>2.14</v>
       </c>
       <c r="S24" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="T24" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="U24" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="V24" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="W24" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="X24" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="Y24" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="Z24" t="n">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="AA24" t="n">
-        <v>1000</v>
+        <v>540</v>
       </c>
       <c r="AB24" t="n">
         <v>19</v>
       </c>
       <c r="AC24" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AD24" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AE24" t="n">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="AF24" t="n">
         <v>12</v>
       </c>
       <c r="AG24" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH24" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AI24" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AJ24" t="n">
         <v>12</v>
@@ -3736,10 +3736,10 @@
         <v>29</v>
       </c>
       <c r="AM24" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN24" t="n">
-        <v>2.8</v>
+        <v>2.92</v>
       </c>
       <c r="AO24" t="n">
         <v>1000</v>
@@ -3772,16 +3772,16 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="G25" t="n">
         <v>2.64</v>
       </c>
       <c r="H25" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="I25" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="J25" t="n">
         <v>3.75</v>
@@ -3802,22 +3802,22 @@
         <v>1.23</v>
       </c>
       <c r="P25" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="Q25" t="n">
         <v>1.7</v>
       </c>
       <c r="R25" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="S25" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="T25" t="n">
         <v>1.57</v>
       </c>
       <c r="U25" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="V25" t="n">
         <v>1.54</v>
@@ -3829,7 +3829,7 @@
         <v>20</v>
       </c>
       <c r="Y25" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Z25" t="n">
         <v>22</v>
@@ -3844,13 +3844,13 @@
         <v>8.6</v>
       </c>
       <c r="AD25" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AF25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AG25" t="n">
         <v>12</v>
@@ -3859,7 +3859,7 @@
         <v>14</v>
       </c>
       <c r="AI25" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AJ25" t="n">
         <v>38</v>
@@ -3874,7 +3874,7 @@
         <v>50</v>
       </c>
       <c r="AN25" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AO25" t="n">
         <v>18.5</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-26.xlsx
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="G2" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I2" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="J2" t="n">
         <v>4.3</v>
@@ -685,58 +685,58 @@
         <v>4.5</v>
       </c>
       <c r="L2" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="O2" t="n">
         <v>1.15</v>
       </c>
       <c r="P2" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="R2" t="n">
         <v>1.82</v>
       </c>
       <c r="S2" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="T2" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="U2" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="V2" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="W2" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="X2" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Y2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z2" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AA2" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AB2" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AC2" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD2" t="n">
         <v>15.5</v>
@@ -757,7 +757,7 @@
         <v>34</v>
       </c>
       <c r="AJ2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK2" t="n">
         <v>17</v>
@@ -769,7 +769,7 @@
         <v>50</v>
       </c>
       <c r="AN2" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AO2" t="n">
         <v>19.5</v>
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="G3" t="n">
-        <v>2.22</v>
+        <v>1.98</v>
       </c>
       <c r="H3" t="n">
-        <v>3.45</v>
+        <v>4.2</v>
       </c>
       <c r="I3" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="J3" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="K3" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="L3" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="O3" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P3" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="R3" t="n">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="S3" t="n">
-        <v>2.62</v>
+        <v>2.92</v>
       </c>
       <c r="T3" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="U3" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="V3" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="W3" t="n">
-        <v>1.82</v>
+        <v>2.02</v>
       </c>
       <c r="X3" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="Y3" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Z3" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AA3" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AB3" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD3" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AE3" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
         <v>15.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI3" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ3" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AK3" t="n">
         <v>23</v>
       </c>
       <c r="AL3" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM3" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AN3" t="n">
         <v>14</v>
       </c>
       <c r="AO3" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4">
@@ -937,19 +937,19 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="G4" t="n">
         <v>6.2</v>
       </c>
       <c r="H4" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="I4" t="n">
         <v>1.68</v>
       </c>
       <c r="J4" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="K4" t="n">
         <v>5</v>
@@ -1072,10 +1072,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="G5" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="H5" t="n">
         <v>4</v>
@@ -1087,10 +1087,10 @@
         <v>2.84</v>
       </c>
       <c r="K5" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="L5" t="n">
-        <v>1.54</v>
+        <v>1.63</v>
       </c>
       <c r="M5" t="n">
         <v>1.14</v>
@@ -1111,7 +1111,7 @@
         <v>1.15</v>
       </c>
       <c r="S5" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="T5" t="n">
         <v>2.26</v>
@@ -1123,7 +1123,7 @@
         <v>1.27</v>
       </c>
       <c r="W5" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="X5" t="n">
         <v>8.800000000000001</v>
@@ -1207,10 +1207,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="G6" t="n">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="H6" t="n">
         <v>9.4</v>
@@ -1225,7 +1225,7 @@
         <v>4.7</v>
       </c>
       <c r="L6" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="M6" t="n">
         <v>1.08</v>
@@ -1234,7 +1234,7 @@
         <v>3.05</v>
       </c>
       <c r="O6" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P6" t="n">
         <v>1.69</v>
@@ -1246,19 +1246,19 @@
         <v>1.25</v>
       </c>
       <c r="S6" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="T6" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="U6" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="V6" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="W6" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1273,7 +1273,7 @@
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
         <v>1000</v>
@@ -1285,7 +1285,7 @@
         <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AG6" t="n">
         <v>1000</v>
@@ -1297,7 +1297,7 @@
         <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
         <v>1000</v>
@@ -1345,55 +1345,55 @@
         <v>1.09</v>
       </c>
       <c r="G7" t="n">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="H7" t="n">
         <v>27</v>
       </c>
       <c r="I7" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="J7" t="n">
-        <v>8.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="K7" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>1.17</v>
       </c>
       <c r="M7" t="n">
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>2.82</v>
+        <v>8.6</v>
       </c>
       <c r="O7" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="P7" t="n">
-        <v>2.82</v>
+        <v>3.85</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.07</v>
+        <v>1.27</v>
       </c>
       <c r="R7" t="n">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="S7" t="n">
-        <v>1.56</v>
+        <v>1.67</v>
       </c>
       <c r="T7" t="n">
-        <v>1.04</v>
+        <v>2.3</v>
       </c>
       <c r="U7" t="n">
-        <v>1.45</v>
+        <v>1.61</v>
       </c>
       <c r="V7" t="n">
         <v>1.02</v>
       </c>
       <c r="W7" t="n">
-        <v>6.6</v>
+        <v>8.4</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1444,7 +1444,7 @@
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>2.56</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1480,25 +1480,25 @@
         <v>1.3</v>
       </c>
       <c r="G8" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="I8" t="n">
         <v>13.5</v>
       </c>
       <c r="J8" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="K8" t="n">
         <v>6.8</v>
       </c>
       <c r="L8" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="M8" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
         <v>6</v>
@@ -1513,7 +1513,7 @@
         <v>1.46</v>
       </c>
       <c r="R8" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="S8" t="n">
         <v>2.16</v>
@@ -1522,13 +1522,13 @@
         <v>1.83</v>
       </c>
       <c r="U8" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="V8" t="n">
         <v>1.08</v>
       </c>
       <c r="W8" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1570,7 +1570,7 @@
         <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AL8" t="n">
         <v>1000</v>
@@ -1579,7 +1579,7 @@
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1612,34 +1612,34 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="G9" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="H9" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="I9" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="J9" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K9" t="n">
         <v>3.9</v>
       </c>
       <c r="L9" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M9" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="O9" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P9" t="n">
         <v>2</v>
@@ -1648,31 +1648,31 @@
         <v>1.88</v>
       </c>
       <c r="R9" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="S9" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="T9" t="n">
         <v>1.73</v>
       </c>
       <c r="U9" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V9" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="W9" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="X9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Y9" t="n">
         <v>990</v>
       </c>
       <c r="Z9" t="n">
-        <v>980</v>
+        <v>16</v>
       </c>
       <c r="AA9" t="n">
         <v>980</v>
@@ -1681,7 +1681,7 @@
         <v>990</v>
       </c>
       <c r="AC9" t="n">
-        <v>990</v>
+        <v>8.4</v>
       </c>
       <c r="AD9" t="n">
         <v>990</v>
@@ -1702,7 +1702,7 @@
         <v>980</v>
       </c>
       <c r="AJ9" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AK9" t="n">
         <v>980</v>
@@ -1711,7 +1711,7 @@
         <v>980</v>
       </c>
       <c r="AM9" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AN9" t="n">
         <v>980</v>
@@ -1750,52 +1750,52 @@
         <v>2.36</v>
       </c>
       <c r="G10" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="H10" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="I10" t="n">
         <v>3.2</v>
       </c>
       <c r="J10" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K10" t="n">
         <v>3.95</v>
       </c>
       <c r="L10" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="M10" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O10" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P10" t="n">
         <v>2.1</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="R10" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="S10" t="n">
-        <v>2.66</v>
+        <v>2.96</v>
       </c>
       <c r="T10" t="n">
         <v>1.66</v>
       </c>
       <c r="U10" t="n">
-        <v>2.02</v>
+        <v>2.3</v>
       </c>
       <c r="V10" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="W10" t="n">
         <v>1.67</v>
@@ -1804,55 +1804,55 @@
         <v>18.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z10" t="n">
         <v>28</v>
       </c>
       <c r="AA10" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AB10" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD10" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AE10" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AF10" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH10" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI10" t="n">
         <v>48</v>
       </c>
       <c r="AJ10" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AK10" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL10" t="n">
         <v>42</v>
       </c>
       <c r="AM10" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN10" t="n">
         <v>19.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11">
@@ -1885,7 +1885,7 @@
         <v>2.08</v>
       </c>
       <c r="G11" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="H11" t="n">
         <v>3.25</v>
@@ -1900,7 +1900,7 @@
         <v>4.4</v>
       </c>
       <c r="L11" t="n">
-        <v>1.19</v>
+        <v>1.26</v>
       </c>
       <c r="M11" t="n">
         <v>1.02</v>
@@ -1912,10 +1912,10 @@
         <v>1.16</v>
       </c>
       <c r="P11" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="R11" t="n">
         <v>1.69</v>
@@ -1924,7 +1924,7 @@
         <v>2.2</v>
       </c>
       <c r="T11" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="U11" t="n">
         <v>2.68</v>
@@ -1936,22 +1936,22 @@
         <v>1.84</v>
       </c>
       <c r="X11" t="n">
-        <v>990</v>
+        <v>30</v>
       </c>
       <c r="Y11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z11" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AA11" t="n">
         <v>60</v>
       </c>
       <c r="AB11" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AD11" t="n">
         <v>16.5</v>
@@ -1960,34 +1960,34 @@
         <v>980</v>
       </c>
       <c r="AF11" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AJ11" t="n">
         <v>980</v>
       </c>
       <c r="AK11" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AL11" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AM11" t="n">
         <v>55</v>
       </c>
       <c r="AN11" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12">
@@ -2020,7 +2020,7 @@
         <v>2.36</v>
       </c>
       <c r="G12" t="n">
-        <v>2.64</v>
+        <v>2.58</v>
       </c>
       <c r="H12" t="n">
         <v>3.1</v>
@@ -2035,13 +2035,13 @@
         <v>3.6</v>
       </c>
       <c r="L12" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M12" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O12" t="n">
         <v>1.37</v>
@@ -2050,13 +2050,13 @@
         <v>1.75</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R12" t="n">
         <v>1.28</v>
       </c>
       <c r="S12" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="T12" t="n">
         <v>1.81</v>
@@ -2068,7 +2068,7 @@
         <v>1.42</v>
       </c>
       <c r="W12" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="X12" t="n">
         <v>14.5</v>
@@ -2098,7 +2098,7 @@
         <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AH12" t="n">
         <v>990</v>
@@ -2119,7 +2119,7 @@
         <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="G13" t="n">
         <v>8</v>
@@ -2164,13 +2164,13 @@
         <v>1.5</v>
       </c>
       <c r="J13" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="K13" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="L13" t="n">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="M13" t="n">
         <v>1.03</v>
@@ -2182,19 +2182,19 @@
         <v>1.18</v>
       </c>
       <c r="P13" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="R13" t="n">
         <v>1.61</v>
       </c>
       <c r="S13" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="T13" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="U13" t="n">
         <v>2.1</v>
@@ -2206,10 +2206,10 @@
         <v>1.14</v>
       </c>
       <c r="X13" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Y13" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z13" t="n">
         <v>11</v>
@@ -2287,25 +2287,25 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="G14" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="H14" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I14" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="J14" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K14" t="n">
         <v>4.1</v>
       </c>
       <c r="L14" t="n">
-        <v>1.29</v>
+        <v>1.37</v>
       </c>
       <c r="M14" t="n">
         <v>1.05</v>
@@ -2314,13 +2314,13 @@
         <v>4.1</v>
       </c>
       <c r="O14" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P14" t="n">
         <v>2.08</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="R14" t="n">
         <v>1.42</v>
@@ -2329,7 +2329,7 @@
         <v>2.96</v>
       </c>
       <c r="T14" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="U14" t="n">
         <v>2.24</v>
@@ -2353,13 +2353,13 @@
         <v>65</v>
       </c>
       <c r="AB14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AC14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AD14" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AE14" t="n">
         <v>980</v>
@@ -2368,7 +2368,7 @@
         <v>980</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH14" t="n">
         <v>990</v>
@@ -2386,7 +2386,7 @@
         <v>980</v>
       </c>
       <c r="AM14" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN14" t="n">
         <v>980</v>
@@ -2422,10 +2422,10 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="G15" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="H15" t="n">
         <v>12</v>
@@ -2437,10 +2437,10 @@
         <v>7.6</v>
       </c>
       <c r="K15" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="L15" t="n">
-        <v>1.01</v>
+        <v>1.22</v>
       </c>
       <c r="M15" t="n">
         <v>1.01</v>
@@ -2455,22 +2455,22 @@
         <v>3.3</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="R15" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="S15" t="n">
         <v>1.92</v>
       </c>
       <c r="T15" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U15" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="V15" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="W15" t="n">
         <v>4.8</v>
@@ -2521,10 +2521,10 @@
         <v>980</v>
       </c>
       <c r="AM15" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AN15" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="AO15" t="n">
         <v>220</v>
@@ -2557,31 +2557,31 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="G16" t="n">
-        <v>2.28</v>
+        <v>2.18</v>
       </c>
       <c r="H16" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I16" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="J16" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K16" t="n">
         <v>4.1</v>
       </c>
       <c r="L16" t="n">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="M16" t="n">
         <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O16" t="n">
         <v>1.26</v>
@@ -2593,10 +2593,10 @@
         <v>1.73</v>
       </c>
       <c r="R16" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="S16" t="n">
-        <v>2.92</v>
+        <v>2.86</v>
       </c>
       <c r="T16" t="n">
         <v>1.66</v>
@@ -2608,61 +2608,61 @@
         <v>1.37</v>
       </c>
       <c r="W16" t="n">
-        <v>1.79</v>
+        <v>1.84</v>
       </c>
       <c r="X16" t="n">
-        <v>21</v>
+        <v>990</v>
       </c>
       <c r="Y16" t="n">
-        <v>18.5</v>
+        <v>990</v>
       </c>
       <c r="Z16" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AA16" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AB16" t="n">
         <v>12</v>
       </c>
       <c r="AC16" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD16" t="n">
         <v>990</v>
       </c>
       <c r="AE16" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AF16" t="n">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="AG16" t="n">
-        <v>11.5</v>
+        <v>990</v>
       </c>
       <c r="AH16" t="n">
-        <v>20</v>
+        <v>990</v>
       </c>
       <c r="AI16" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AJ16" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AK16" t="n">
         <v>980</v>
       </c>
       <c r="AL16" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AM16" t="n">
         <v>80</v>
       </c>
       <c r="AN16" t="n">
-        <v>16</v>
+        <v>980</v>
       </c>
       <c r="AO16" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
     </row>
     <row r="17">
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="G17" t="n">
         <v>6.6</v>
@@ -2827,25 +2827,25 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="G18" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="H18" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="I18" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="J18" t="n">
         <v>3.2</v>
       </c>
       <c r="K18" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L18" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M18" t="n">
         <v>1.07</v>
@@ -2860,7 +2860,7 @@
         <v>1.81</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R18" t="n">
         <v>1.3</v>
@@ -2872,37 +2872,37 @@
         <v>1.79</v>
       </c>
       <c r="U18" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V18" t="n">
         <v>1.46</v>
       </c>
       <c r="W18" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="X18" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y18" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z18" t="n">
         <v>24</v>
       </c>
       <c r="AA18" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AB18" t="n">
         <v>12.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD18" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AF18" t="n">
         <v>20</v>
@@ -2911,7 +2911,7 @@
         <v>15</v>
       </c>
       <c r="AH18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI18" t="n">
         <v>60</v>
@@ -2932,7 +2932,7 @@
         <v>34</v>
       </c>
       <c r="AO18" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19">
@@ -2962,61 +2962,61 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="G19" t="n">
-        <v>5.8</v>
+        <v>5</v>
       </c>
       <c r="H19" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="I19" t="n">
-        <v>1.96</v>
+        <v>1.89</v>
       </c>
       <c r="J19" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="K19" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L19" t="n">
-        <v>1.24</v>
+        <v>1.31</v>
       </c>
       <c r="M19" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>2.4</v>
+        <v>4.8</v>
       </c>
       <c r="O19" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P19" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="R19" t="n">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="S19" t="n">
-        <v>2.42</v>
+        <v>2.6</v>
       </c>
       <c r="T19" t="n">
-        <v>1.46</v>
+        <v>1.66</v>
       </c>
       <c r="U19" t="n">
-        <v>1.89</v>
+        <v>2.28</v>
       </c>
       <c r="V19" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="W19" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="X19" t="n">
-        <v>28</v>
+        <v>990</v>
       </c>
       <c r="Y19" t="n">
         <v>990</v>
@@ -3040,7 +3040,7 @@
         <v>980</v>
       </c>
       <c r="AF19" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG19" t="n">
         <v>990</v>
@@ -3049,22 +3049,22 @@
         <v>990</v>
       </c>
       <c r="AI19" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AK19" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL19" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM19" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AN19" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO19" t="n">
         <v>980</v>
@@ -3112,13 +3112,13 @@
         <v>5.2</v>
       </c>
       <c r="K20" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="L20" t="n">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="M20" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N20" t="n">
         <v>7</v>
@@ -3130,19 +3130,19 @@
         <v>3</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="R20" t="n">
         <v>1.89</v>
       </c>
       <c r="S20" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="T20" t="n">
         <v>1.63</v>
       </c>
       <c r="U20" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="V20" t="n">
         <v>2.96</v>
@@ -3193,13 +3193,13 @@
         <v>70</v>
       </c>
       <c r="AL20" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM20" t="n">
         <v>70</v>
       </c>
       <c r="AN20" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AO20" t="n">
         <v>4.9</v>
@@ -3232,13 +3232,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="G21" t="n">
         <v>5.8</v>
       </c>
       <c r="H21" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="I21" t="n">
         <v>1.8</v>
@@ -3262,22 +3262,22 @@
         <v>1.3</v>
       </c>
       <c r="P21" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="R21" t="n">
         <v>1.38</v>
       </c>
       <c r="S21" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T21" t="n">
-        <v>1.05</v>
+        <v>1.84</v>
       </c>
       <c r="U21" t="n">
-        <v>1.04</v>
+        <v>2.02</v>
       </c>
       <c r="V21" t="n">
         <v>2.24</v>
@@ -3295,31 +3295,31 @@
         <v>11.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AB21" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD21" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE21" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AF21" t="n">
         <v>55</v>
       </c>
       <c r="AG21" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH21" t="n">
         <v>24</v>
       </c>
       <c r="AI21" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AJ21" t="n">
         <v>170</v>
@@ -3337,7 +3337,7 @@
         <v>110</v>
       </c>
       <c r="AO21" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="22">
@@ -3367,22 +3367,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="G22" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="H22" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="I22" t="n">
         <v>3.75</v>
       </c>
       <c r="J22" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K22" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="G23" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="H23" t="n">
         <v>3</v>
@@ -3520,7 +3520,7 @@
         <v>4.3</v>
       </c>
       <c r="L23" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="M23" t="n">
         <v>1.03</v>
@@ -3553,22 +3553,22 @@
         <v>1.42</v>
       </c>
       <c r="W23" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="X23" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Y23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z23" t="n">
         <v>32</v>
       </c>
       <c r="AA23" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AC23" t="n">
         <v>10.5</v>
@@ -3577,7 +3577,7 @@
         <v>17.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AF23" t="n">
         <v>21</v>
@@ -3589,7 +3589,7 @@
         <v>18.5</v>
       </c>
       <c r="AI23" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AJ23" t="n">
         <v>36</v>
@@ -3601,13 +3601,13 @@
         <v>36</v>
       </c>
       <c r="AM23" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AN23" t="n">
         <v>14</v>
       </c>
       <c r="AO23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24">
@@ -3640,13 +3640,13 @@
         <v>1.2</v>
       </c>
       <c r="G24" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="H24" t="n">
         <v>12.5</v>
       </c>
       <c r="I24" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="J24" t="n">
         <v>8.199999999999999</v>
@@ -3667,22 +3667,22 @@
         <v>1.08</v>
       </c>
       <c r="P24" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="R24" t="n">
         <v>2.14</v>
       </c>
       <c r="S24" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="T24" t="n">
         <v>1.69</v>
       </c>
       <c r="U24" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="V24" t="n">
         <v>1.07</v>
@@ -3691,19 +3691,19 @@
         <v>5.1</v>
       </c>
       <c r="X24" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="Y24" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="Z24" t="n">
         <v>190</v>
       </c>
       <c r="AA24" t="n">
-        <v>540</v>
+        <v>560</v>
       </c>
       <c r="AB24" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AC24" t="n">
         <v>22</v>
@@ -3712,10 +3712,10 @@
         <v>50</v>
       </c>
       <c r="AE24" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AF24" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AG24" t="n">
         <v>13</v>
@@ -3727,19 +3727,19 @@
         <v>140</v>
       </c>
       <c r="AJ24" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AK24" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AL24" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM24" t="n">
         <v>130</v>
       </c>
       <c r="AN24" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="AO24" t="n">
         <v>1000</v>
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="G25" t="n">
         <v>2.64</v>
@@ -3790,7 +3790,7 @@
         <v>3.8</v>
       </c>
       <c r="L25" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M25" t="n">
         <v>1.05</v>
@@ -3799,25 +3799,25 @@
         <v>5.1</v>
       </c>
       <c r="O25" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P25" t="n">
         <v>2.4</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="R25" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="S25" t="n">
         <v>2.7</v>
       </c>
       <c r="T25" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="U25" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="V25" t="n">
         <v>1.54</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-26.xlsx
@@ -667,82 +667,82 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.99</v>
+        <v>1.91</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H2" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="I2" t="n">
-        <v>3.7</v>
+        <v>3.95</v>
       </c>
       <c r="J2" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K2" t="n">
         <v>4.5</v>
       </c>
       <c r="L2" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="O2" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="P2" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="R2" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="S2" t="n">
-        <v>2.18</v>
+        <v>2.02</v>
       </c>
       <c r="T2" t="n">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="U2" t="n">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="V2" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="W2" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="X2" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="Y2" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="Z2" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AA2" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AB2" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD2" t="n">
         <v>17</v>
       </c>
-      <c r="AC2" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AE2" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AF2" t="n">
         <v>17</v>
@@ -757,19 +757,19 @@
         <v>34</v>
       </c>
       <c r="AJ2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL2" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AM2" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AN2" t="n">
-        <v>7.8</v>
+        <v>6.6</v>
       </c>
       <c r="AO2" t="n">
         <v>19.5</v>
@@ -802,109 +802,109 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="G3" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="H3" t="n">
         <v>4.2</v>
       </c>
       <c r="I3" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="J3" t="n">
         <v>3.6</v>
       </c>
       <c r="K3" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="L3" t="n">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
         <v>4.1</v>
       </c>
       <c r="O3" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="P3" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="R3" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="S3" t="n">
-        <v>2.92</v>
+        <v>3.1</v>
       </c>
       <c r="T3" t="n">
         <v>1.78</v>
       </c>
       <c r="U3" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="V3" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="W3" t="n">
-        <v>2.02</v>
+        <v>1.96</v>
       </c>
       <c r="X3" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA3" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AB3" t="n">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD3" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF3" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AG3" t="n">
         <v>11</v>
       </c>
       <c r="AH3" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AI3" t="n">
         <v>60</v>
       </c>
       <c r="AJ3" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AK3" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AL3" t="n">
         <v>34</v>
       </c>
       <c r="AM3" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AO3" t="n">
         <v>55</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="G4" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="H4" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="I4" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="J4" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K4" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="O4" t="n">
         <v>1.17</v>
@@ -1072,10 +1072,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="G5" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="H5" t="n">
         <v>4</v>
@@ -1090,31 +1090,31 @@
         <v>3.2</v>
       </c>
       <c r="L5" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="M5" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="N5" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="O5" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="P5" t="n">
         <v>1.43</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.88</v>
+        <v>2.98</v>
       </c>
       <c r="R5" t="n">
         <v>1.15</v>
       </c>
       <c r="S5" t="n">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="T5" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="U5" t="n">
         <v>1.64</v>
@@ -1123,7 +1123,7 @@
         <v>1.27</v>
       </c>
       <c r="W5" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="X5" t="n">
         <v>8.800000000000001</v>
@@ -1207,52 +1207,52 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="G6" t="n">
         <v>1.46</v>
       </c>
       <c r="H6" t="n">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="I6" t="n">
         <v>14.5</v>
       </c>
       <c r="J6" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K6" t="n">
         <v>4.7</v>
       </c>
       <c r="L6" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N6" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O6" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P6" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="R6" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S6" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T6" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="U6" t="n">
-        <v>1.59</v>
+        <v>1.54</v>
       </c>
       <c r="V6" t="n">
         <v>1.07</v>
@@ -1276,7 +1276,7 @@
         <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AD6" t="n">
         <v>1000</v>
@@ -1285,7 +1285,7 @@
         <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
         <v>1000</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="G7" t="n">
         <v>1.12</v>
@@ -1354,46 +1354,46 @@
         <v>55</v>
       </c>
       <c r="J7" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="K7" t="n">
         <v>22</v>
       </c>
       <c r="L7" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="M7" t="n">
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="O7" t="n">
         <v>1.09</v>
       </c>
       <c r="P7" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="R7" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="S7" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="T7" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="U7" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="V7" t="n">
         <v>1.02</v>
       </c>
       <c r="W7" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="G8" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="H8" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="I8" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="J8" t="n">
         <v>5.7</v>
@@ -1495,10 +1495,10 @@
         <v>6.8</v>
       </c>
       <c r="L8" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N8" t="n">
         <v>6</v>
@@ -1507,28 +1507,28 @@
         <v>1.16</v>
       </c>
       <c r="P8" t="n">
-        <v>2.7</v>
+        <v>2.78</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="R8" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="S8" t="n">
-        <v>2.16</v>
+        <v>2.24</v>
       </c>
       <c r="T8" t="n">
         <v>1.83</v>
       </c>
       <c r="U8" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V8" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="W8" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1543,10 +1543,10 @@
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AC8" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AD8" t="n">
         <v>1000</v>
@@ -1570,16 +1570,16 @@
         <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM8" t="n">
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1612,67 +1612,67 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="G9" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="H9" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="I9" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="J9" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K9" t="n">
         <v>3.9</v>
       </c>
       <c r="L9" t="n">
-        <v>1.31</v>
+        <v>1.4</v>
       </c>
       <c r="M9" t="n">
         <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="O9" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P9" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R9" t="n">
         <v>1.39</v>
       </c>
       <c r="S9" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="T9" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="U9" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="V9" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="W9" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="X9" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Y9" t="n">
         <v>990</v>
       </c>
       <c r="Z9" t="n">
-        <v>16</v>
+        <v>980</v>
       </c>
       <c r="AA9" t="n">
         <v>980</v>
@@ -1681,7 +1681,7 @@
         <v>990</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.4</v>
+        <v>990</v>
       </c>
       <c r="AD9" t="n">
         <v>990</v>
@@ -1762,10 +1762,10 @@
         <v>3.6</v>
       </c>
       <c r="K10" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L10" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="M10" t="n">
         <v>1.05</v>
@@ -1774,19 +1774,19 @@
         <v>4.2</v>
       </c>
       <c r="O10" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P10" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="R10" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="S10" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="T10" t="n">
         <v>1.66</v>
@@ -1798,22 +1798,22 @@
         <v>1.45</v>
       </c>
       <c r="W10" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="X10" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="Y10" t="n">
         <v>15.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AA10" t="n">
         <v>55</v>
       </c>
       <c r="AB10" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC10" t="n">
         <v>9.800000000000001</v>
@@ -1822,7 +1822,7 @@
         <v>16</v>
       </c>
       <c r="AE10" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AF10" t="n">
         <v>19.5</v>
@@ -1846,7 +1846,7 @@
         <v>42</v>
       </c>
       <c r="AM10" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN10" t="n">
         <v>19.5</v>
@@ -1885,13 +1885,13 @@
         <v>2.08</v>
       </c>
       <c r="G11" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="H11" t="n">
         <v>3.25</v>
       </c>
       <c r="I11" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="J11" t="n">
         <v>4</v>
@@ -1900,31 +1900,31 @@
         <v>4.4</v>
       </c>
       <c r="L11" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="M11" t="n">
         <v>1.02</v>
       </c>
       <c r="N11" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="O11" t="n">
         <v>1.16</v>
       </c>
       <c r="P11" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="Q11" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="T11" t="n">
         <v>1.5</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="S11" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.51</v>
       </c>
       <c r="U11" t="n">
         <v>2.68</v>
@@ -1975,7 +1975,7 @@
         <v>980</v>
       </c>
       <c r="AK11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL11" t="n">
         <v>27</v>
@@ -1987,7 +1987,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AO11" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12">
@@ -2020,43 +2020,43 @@
         <v>2.36</v>
       </c>
       <c r="G12" t="n">
-        <v>2.58</v>
+        <v>2.52</v>
       </c>
       <c r="H12" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I12" t="n">
         <v>3.35</v>
       </c>
       <c r="J12" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="K12" t="n">
         <v>3.6</v>
       </c>
       <c r="L12" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="M12" t="n">
         <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O12" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P12" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.95</v>
+        <v>2.14</v>
       </c>
       <c r="R12" t="n">
         <v>1.28</v>
       </c>
       <c r="S12" t="n">
-        <v>3.45</v>
+        <v>3.9</v>
       </c>
       <c r="T12" t="n">
         <v>1.81</v>
@@ -2074,7 +2074,7 @@
         <v>14.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Z12" t="n">
         <v>980</v>
@@ -2086,7 +2086,7 @@
         <v>11.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD12" t="n">
         <v>1000</v>
@@ -2152,61 +2152,61 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="G13" t="n">
         <v>8</v>
       </c>
       <c r="H13" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="I13" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="J13" t="n">
         <v>5.1</v>
       </c>
       <c r="K13" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="L13" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M13" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="O13" t="n">
         <v>1.18</v>
       </c>
       <c r="P13" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="R13" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="S13" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="T13" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="U13" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="V13" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="W13" t="n">
         <v>1.14</v>
       </c>
       <c r="X13" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Y13" t="n">
         <v>11.5</v>
@@ -2218,16 +2218,16 @@
         <v>15.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>32</v>
+        <v>990</v>
       </c>
       <c r="AC13" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AD13" t="n">
         <v>12.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AF13" t="n">
         <v>1000</v>
@@ -2236,7 +2236,7 @@
         <v>32</v>
       </c>
       <c r="AH13" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI13" t="n">
         <v>1000</v>
@@ -2257,7 +2257,7 @@
         <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="14">
@@ -2287,52 +2287,52 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="G14" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="H14" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="I14" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="J14" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="K14" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="L14" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="M14" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="O14" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P14" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.79</v>
+        <v>1.93</v>
       </c>
       <c r="R14" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="S14" t="n">
-        <v>2.96</v>
+        <v>3.25</v>
       </c>
       <c r="T14" t="n">
-        <v>1.66</v>
+        <v>1.74</v>
       </c>
       <c r="U14" t="n">
-        <v>2.24</v>
+        <v>2.16</v>
       </c>
       <c r="V14" t="n">
         <v>1.4</v>
@@ -2341,38 +2341,38 @@
         <v>1.74</v>
       </c>
       <c r="X14" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>990</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>48</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH14" t="n">
         <v>22</v>
       </c>
-      <c r="Y14" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>65</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>990</v>
-      </c>
       <c r="AI14" t="n">
         <v>980</v>
       </c>
@@ -2386,10 +2386,10 @@
         <v>980</v>
       </c>
       <c r="AM14" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="AN14" t="n">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="AO14" t="n">
         <v>980</v>
@@ -2428,7 +2428,7 @@
         <v>1.26</v>
       </c>
       <c r="H15" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="I15" t="n">
         <v>16</v>
@@ -2437,7 +2437,7 @@
         <v>7.6</v>
       </c>
       <c r="K15" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="L15" t="n">
         <v>1.22</v>
@@ -2446,7 +2446,7 @@
         <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="O15" t="n">
         <v>1.12</v>
@@ -2455,19 +2455,19 @@
         <v>3.3</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="R15" t="n">
         <v>1.9</v>
       </c>
       <c r="S15" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="T15" t="n">
         <v>1.9</v>
       </c>
       <c r="U15" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="V15" t="n">
         <v>1.07</v>
@@ -2491,7 +2491,7 @@
         <v>990</v>
       </c>
       <c r="AC15" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AD15" t="n">
         <v>990</v>
@@ -2512,7 +2512,7 @@
         <v>140</v>
       </c>
       <c r="AJ15" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="AK15" t="n">
         <v>980</v>
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="G16" t="n">
         <v>2.18</v>
@@ -2566,10 +2566,10 @@
         <v>3.4</v>
       </c>
       <c r="I16" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J16" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K16" t="n">
         <v>4.1</v>
@@ -2581,37 +2581,37 @@
         <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="O16" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="P16" t="n">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="R16" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="S16" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="T16" t="n">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="U16" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="V16" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="W16" t="n">
         <v>1.84</v>
       </c>
       <c r="X16" t="n">
-        <v>990</v>
+        <v>21</v>
       </c>
       <c r="Y16" t="n">
         <v>990</v>
@@ -2656,7 +2656,7 @@
         <v>980</v>
       </c>
       <c r="AM16" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN16" t="n">
         <v>980</v>
@@ -2695,19 +2695,19 @@
         <v>5.7</v>
       </c>
       <c r="G17" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="H17" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="I17" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="J17" t="n">
         <v>4.1</v>
       </c>
       <c r="K17" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -2830,7 +2830,7 @@
         <v>2.54</v>
       </c>
       <c r="G18" t="n">
-        <v>2.82</v>
+        <v>2.76</v>
       </c>
       <c r="H18" t="n">
         <v>2.92</v>
@@ -2839,31 +2839,31 @@
         <v>3.15</v>
       </c>
       <c r="J18" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="K18" t="n">
         <v>3.6</v>
       </c>
       <c r="L18" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="M18" t="n">
         <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="O18" t="n">
         <v>1.35</v>
       </c>
       <c r="P18" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R18" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S18" t="n">
         <v>3.7</v>
@@ -2872,13 +2872,13 @@
         <v>1.79</v>
       </c>
       <c r="U18" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V18" t="n">
         <v>1.46</v>
       </c>
       <c r="W18" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="X18" t="n">
         <v>15</v>
@@ -2908,7 +2908,7 @@
         <v>20</v>
       </c>
       <c r="AG18" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH18" t="n">
         <v>20</v>
@@ -2917,7 +2917,7 @@
         <v>60</v>
       </c>
       <c r="AJ18" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AK18" t="n">
         <v>980</v>
@@ -2929,7 +2929,7 @@
         <v>120</v>
       </c>
       <c r="AN18" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AO18" t="n">
         <v>40</v>
@@ -2962,58 +2962,58 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="G19" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="H19" t="n">
-        <v>1.78</v>
+        <v>1.71</v>
       </c>
       <c r="I19" t="n">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="J19" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K19" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="L19" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M19" t="n">
         <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O19" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P19" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="R19" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S19" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="T19" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="U19" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="V19" t="n">
-        <v>2.12</v>
+        <v>2.26</v>
       </c>
       <c r="W19" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="X19" t="n">
         <v>990</v>
@@ -3052,16 +3052,16 @@
         <v>980</v>
       </c>
       <c r="AJ19" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="AK19" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AL19" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM19" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AN19" t="n">
         <v>980</v>
@@ -3115,10 +3115,10 @@
         <v>5.8</v>
       </c>
       <c r="L20" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="M20" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N20" t="n">
         <v>7</v>
@@ -3127,16 +3127,16 @@
         <v>1.13</v>
       </c>
       <c r="P20" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="R20" t="n">
         <v>1.89</v>
       </c>
       <c r="S20" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="T20" t="n">
         <v>1.63</v>
@@ -3166,13 +3166,13 @@
         <v>990</v>
       </c>
       <c r="AC20" t="n">
-        <v>16</v>
+        <v>990</v>
       </c>
       <c r="AD20" t="n">
-        <v>990</v>
+        <v>12</v>
       </c>
       <c r="AE20" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="AF20" t="n">
         <v>65</v>
@@ -3181,7 +3181,7 @@
         <v>990</v>
       </c>
       <c r="AH20" t="n">
-        <v>990</v>
+        <v>22</v>
       </c>
       <c r="AI20" t="n">
         <v>980</v>
@@ -3232,31 +3232,31 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="G21" t="n">
         <v>5.8</v>
       </c>
       <c r="H21" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="I21" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="J21" t="n">
         <v>3.85</v>
       </c>
       <c r="K21" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L21" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M21" t="n">
         <v>1.06</v>
       </c>
       <c r="N21" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="O21" t="n">
         <v>1.3</v>
@@ -3265,49 +3265,49 @@
         <v>2</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="R21" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="S21" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="T21" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="U21" t="n">
         <v>2.02</v>
       </c>
       <c r="V21" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="W21" t="n">
         <v>1.21</v>
       </c>
       <c r="X21" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Y21" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD21" t="n">
         <v>10.5</v>
       </c>
-      <c r="Z21" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>12</v>
-      </c>
       <c r="AE21" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AF21" t="n">
         <v>55</v>
@@ -3316,7 +3316,7 @@
         <v>23</v>
       </c>
       <c r="AH21" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AI21" t="n">
         <v>38</v>
@@ -3328,7 +3328,7 @@
         <v>90</v>
       </c>
       <c r="AL21" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AM21" t="n">
         <v>140</v>
@@ -3337,7 +3337,7 @@
         <v>110</v>
       </c>
       <c r="AO21" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22">
@@ -3367,22 +3367,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="G22" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="H22" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="I22" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="J22" t="n">
         <v>3.05</v>
       </c>
       <c r="K22" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -3400,7 +3400,7 @@
         <v>1.62</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -3502,112 +3502,112 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="G23" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I23" t="n">
         <v>3.4</v>
       </c>
       <c r="J23" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K23" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L23" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="M23" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="O23" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P23" t="n">
-        <v>2.42</v>
+        <v>2.36</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="R23" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S23" t="n">
-        <v>2.44</v>
+        <v>2.72</v>
       </c>
       <c r="T23" t="n">
         <v>1.6</v>
       </c>
       <c r="U23" t="n">
-        <v>2.48</v>
+        <v>2.4</v>
       </c>
       <c r="V23" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="W23" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="X23" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Y23" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Z23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ23" t="n">
         <v>32</v>
       </c>
-      <c r="AA23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>36</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>36</v>
-      </c>
       <c r="AK23" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AL23" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AM23" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AO23" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
     </row>
     <row r="24">
@@ -3637,7 +3637,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="G24" t="n">
         <v>1.24</v>
@@ -3646,16 +3646,16 @@
         <v>12.5</v>
       </c>
       <c r="I24" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="J24" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="K24" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="L24" t="n">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="M24" t="n">
         <v>1.01</v>
@@ -3664,25 +3664,25 @@
         <v>10</v>
       </c>
       <c r="O24" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="P24" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="R24" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="S24" t="n">
-        <v>1.72</v>
+        <v>1.77</v>
       </c>
       <c r="T24" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="U24" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="V24" t="n">
         <v>1.07</v>
@@ -3691,16 +3691,16 @@
         <v>5.1</v>
       </c>
       <c r="X24" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="Y24" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="Z24" t="n">
         <v>190</v>
       </c>
       <c r="AA24" t="n">
-        <v>560</v>
+        <v>520</v>
       </c>
       <c r="AB24" t="n">
         <v>18</v>
@@ -3709,10 +3709,10 @@
         <v>22</v>
       </c>
       <c r="AD24" t="n">
-        <v>50</v>
+        <v>990</v>
       </c>
       <c r="AE24" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="AF24" t="n">
         <v>12.5</v>
@@ -3721,22 +3721,22 @@
         <v>13</v>
       </c>
       <c r="AH24" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AI24" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AJ24" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AK24" t="n">
         <v>14</v>
       </c>
       <c r="AL24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM24" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN24" t="n">
         <v>2.94</v>
@@ -3796,13 +3796,13 @@
         <v>1.05</v>
       </c>
       <c r="N25" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O25" t="n">
         <v>1.22</v>
       </c>
       <c r="P25" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="Q25" t="n">
         <v>1.69</v>
@@ -3832,13 +3832,13 @@
         <v>15</v>
       </c>
       <c r="Z25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA25" t="n">
         <v>42</v>
       </c>
       <c r="AB25" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC25" t="n">
         <v>8.6</v>
@@ -3874,7 +3874,7 @@
         <v>50</v>
       </c>
       <c r="AN25" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AO25" t="n">
         <v>18.5</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-26.xlsx
@@ -667,19 +667,19 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="G2" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="H2" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="I2" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="J2" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="K2" t="n">
         <v>4.5</v>
@@ -688,7 +688,7 @@
         <v>1.24</v>
       </c>
       <c r="M2" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N2" t="n">
         <v>7.8</v>
@@ -700,13 +700,13 @@
         <v>3.25</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="R2" t="n">
         <v>1.92</v>
       </c>
       <c r="S2" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="T2" t="n">
         <v>1.46</v>
@@ -715,64 +715,64 @@
         <v>3.05</v>
       </c>
       <c r="V2" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="W2" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="X2" t="n">
         <v>38</v>
       </c>
       <c r="Y2" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z2" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AA2" t="n">
         <v>80</v>
       </c>
       <c r="AB2" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD2" t="n">
         <v>17</v>
       </c>
       <c r="AE2" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AF2" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AG2" t="n">
         <v>11</v>
       </c>
       <c r="AH2" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AJ2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK2" t="n">
         <v>16</v>
       </c>
       <c r="AL2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM2" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AN2" t="n">
         <v>6.6</v>
       </c>
       <c r="AO2" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -802,40 +802,40 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.93</v>
+        <v>2.14</v>
       </c>
       <c r="G3" t="n">
-        <v>2.04</v>
+        <v>2.3</v>
       </c>
       <c r="H3" t="n">
-        <v>4.2</v>
+        <v>3.35</v>
       </c>
       <c r="I3" t="n">
-        <v>4.7</v>
+        <v>3.75</v>
       </c>
       <c r="J3" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K3" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N3" t="n">
         <v>4</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N3" t="n">
-        <v>4.1</v>
       </c>
       <c r="O3" t="n">
         <v>1.28</v>
       </c>
       <c r="P3" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="R3" t="n">
         <v>1.42</v>
@@ -844,70 +844,70 @@
         <v>3.1</v>
       </c>
       <c r="T3" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="W3" t="n">
         <v>1.78</v>
       </c>
-      <c r="U3" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1.96</v>
-      </c>
       <c r="X3" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="Z3" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="AA3" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AE3" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="AF3" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AG3" t="n">
         <v>11</v>
       </c>
       <c r="AH3" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI3" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AJ3" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AK3" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AL3" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>13.5</v>
+        <v>17</v>
       </c>
       <c r="AO3" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4">
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>5.1</v>
+        <v>5.7</v>
       </c>
       <c r="G4" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="H4" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="I4" t="n">
         <v>1.65</v>
       </c>
-      <c r="I4" t="n">
-        <v>1.69</v>
-      </c>
       <c r="J4" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K4" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="O4" t="n">
         <v>1.17</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="G5" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="H5" t="n">
         <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J5" t="n">
         <v>2.84</v>
       </c>
       <c r="K5" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="L5" t="n">
         <v>1.67</v>
@@ -1105,13 +1105,13 @@
         <v>1.43</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="R5" t="n">
         <v>1.15</v>
       </c>
       <c r="S5" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="T5" t="n">
         <v>2.28</v>
@@ -1123,7 +1123,7 @@
         <v>1.27</v>
       </c>
       <c r="W5" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="X5" t="n">
         <v>8.800000000000001</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="G6" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="I6" t="n">
         <v>14.5</v>
       </c>
       <c r="J6" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="K6" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="L6" t="n">
         <v>1.48</v>
@@ -1231,13 +1231,13 @@
         <v>1.09</v>
       </c>
       <c r="N6" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="O6" t="n">
         <v>1.4</v>
       </c>
       <c r="P6" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="Q6" t="n">
         <v>2.22</v>
@@ -1249,16 +1249,16 @@
         <v>4.1</v>
       </c>
       <c r="T6" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="U6" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="V6" t="n">
         <v>1.07</v>
       </c>
       <c r="W6" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1273,10 +1273,10 @@
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>6.2</v>
       </c>
       <c r="AC6" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AD6" t="n">
         <v>1000</v>
@@ -1297,7 +1297,7 @@
         <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AK6" t="n">
         <v>1000</v>
@@ -1309,7 +1309,7 @@
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="G7" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="H7" t="n">
         <v>27</v>
@@ -1357,37 +1357,37 @@
         <v>10.5</v>
       </c>
       <c r="K7" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="L7" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M7" t="n">
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="O7" t="n">
         <v>1.09</v>
       </c>
       <c r="P7" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="R7" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="S7" t="n">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="T7" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="U7" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="V7" t="n">
         <v>1.02</v>
@@ -1477,76 +1477,76 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="G8" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="H8" t="n">
         <v>10</v>
       </c>
       <c r="I8" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="J8" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="K8" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N8" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="W8" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="X8" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB8" t="n">
         <v>12</v>
       </c>
-      <c r="J8" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="K8" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N8" t="n">
-        <v>6</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="S8" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="W8" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="X8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>13</v>
-      </c>
       <c r="AC8" t="n">
-        <v>17.5</v>
+        <v>13.5</v>
       </c>
       <c r="AD8" t="n">
         <v>1000</v>
@@ -1555,7 +1555,7 @@
         <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AG8" t="n">
         <v>1000</v>
@@ -1567,19 +1567,19 @@
         <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AK8" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AM8" t="n">
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.3</v>
+        <v>6.4</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1612,85 +1612,85 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="G9" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="H9" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="I9" t="n">
-        <v>2.24</v>
+        <v>2.16</v>
       </c>
       <c r="J9" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="K9" t="n">
         <v>3.9</v>
       </c>
       <c r="L9" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="M9" t="n">
         <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="O9" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P9" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="R9" t="n">
         <v>1.39</v>
       </c>
       <c r="S9" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="T9" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="U9" t="n">
-        <v>2.14</v>
+        <v>2.24</v>
       </c>
       <c r="V9" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W9" t="n">
         <v>1.36</v>
       </c>
       <c r="X9" t="n">
-        <v>19.5</v>
+        <v>990</v>
       </c>
       <c r="Y9" t="n">
-        <v>990</v>
+        <v>14.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AA9" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AB9" t="n">
-        <v>990</v>
+        <v>22</v>
       </c>
       <c r="AC9" t="n">
-        <v>990</v>
+        <v>15</v>
       </c>
       <c r="AD9" t="n">
-        <v>990</v>
+        <v>15</v>
       </c>
       <c r="AE9" t="n">
         <v>980</v>
       </c>
       <c r="AF9" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AG9" t="n">
         <v>990</v>
@@ -1702,7 +1702,7 @@
         <v>980</v>
       </c>
       <c r="AJ9" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="AK9" t="n">
         <v>980</v>
@@ -1711,7 +1711,7 @@
         <v>980</v>
       </c>
       <c r="AM9" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
         <v>980</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="G10" t="n">
         <v>2.48</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="I10" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="J10" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K10" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="L10" t="n">
         <v>1.36</v>
@@ -1771,7 +1771,7 @@
         <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O10" t="n">
         <v>1.27</v>
@@ -1783,22 +1783,22 @@
         <v>1.79</v>
       </c>
       <c r="R10" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="S10" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="T10" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="U10" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="V10" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="W10" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="X10" t="n">
         <v>22</v>
@@ -1807,7 +1807,7 @@
         <v>15.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA10" t="n">
         <v>55</v>
@@ -1831,19 +1831,19 @@
         <v>13</v>
       </c>
       <c r="AH10" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AJ10" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="AK10" t="n">
         <v>28</v>
       </c>
       <c r="AL10" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM10" t="n">
         <v>80</v>
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="G11" t="n">
         <v>2.18</v>
@@ -1903,7 +1903,7 @@
         <v>1.27</v>
       </c>
       <c r="M11" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N11" t="n">
         <v>6</v>
@@ -1912,16 +1912,16 @@
         <v>1.16</v>
       </c>
       <c r="P11" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="R11" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="S11" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="T11" t="n">
         <v>1.5</v>
@@ -1930,34 +1930,34 @@
         <v>2.68</v>
       </c>
       <c r="V11" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W11" t="n">
         <v>1.84</v>
       </c>
       <c r="X11" t="n">
-        <v>30</v>
+        <v>990</v>
       </c>
       <c r="Y11" t="n">
-        <v>23</v>
+        <v>990</v>
       </c>
       <c r="Z11" t="n">
         <v>980</v>
       </c>
       <c r="AA11" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AB11" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="AC11" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD11" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AE11" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AF11" t="n">
         <v>18</v>
@@ -1969,16 +1969,16 @@
         <v>15.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AJ11" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AK11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL11" t="n">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="AM11" t="n">
         <v>55</v>
@@ -1987,7 +1987,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AO11" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="G12" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="H12" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I12" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="J12" t="n">
         <v>3.3</v>
@@ -2035,7 +2035,7 @@
         <v>3.6</v>
       </c>
       <c r="L12" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="M12" t="n">
         <v>1.08</v>
@@ -2050,7 +2050,7 @@
         <v>1.76</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R12" t="n">
         <v>1.28</v>
@@ -2059,19 +2059,19 @@
         <v>3.9</v>
       </c>
       <c r="T12" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="U12" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="V12" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="W12" t="n">
         <v>1.67</v>
       </c>
       <c r="X12" t="n">
-        <v>14.5</v>
+        <v>20</v>
       </c>
       <c r="Y12" t="n">
         <v>1000</v>
@@ -2083,13 +2083,13 @@
         <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AC12" t="n">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="AD12" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AE12" t="n">
         <v>1000</v>
@@ -2098,7 +2098,7 @@
         <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AH12" t="n">
         <v>990</v>
@@ -2119,7 +2119,7 @@
         <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2176,7 +2176,7 @@
         <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="O13" t="n">
         <v>1.18</v>
@@ -2185,7 +2185,7 @@
         <v>2.56</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="R13" t="n">
         <v>1.63</v>
@@ -2194,10 +2194,10 @@
         <v>2.44</v>
       </c>
       <c r="T13" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="U13" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V13" t="n">
         <v>3.05</v>
@@ -2206,19 +2206,19 @@
         <v>1.14</v>
       </c>
       <c r="X13" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Y13" t="n">
         <v>11.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AA13" t="n">
         <v>15.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>990</v>
+        <v>50</v>
       </c>
       <c r="AC13" t="n">
         <v>15</v>
@@ -2236,10 +2236,10 @@
         <v>32</v>
       </c>
       <c r="AH13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI13" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AJ13" t="n">
         <v>1000</v>
@@ -2287,10 +2287,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="G14" t="n">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="H14" t="n">
         <v>3.3</v>
@@ -2302,7 +2302,7 @@
         <v>3.55</v>
       </c>
       <c r="K14" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L14" t="n">
         <v>1.39</v>
@@ -2320,31 +2320,31 @@
         <v>2.02</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="R14" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="S14" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="T14" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="U14" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="V14" t="n">
         <v>1.4</v>
       </c>
       <c r="W14" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="X14" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="Y14" t="n">
-        <v>990</v>
+        <v>14.5</v>
       </c>
       <c r="Z14" t="n">
         <v>980</v>
@@ -2359,19 +2359,19 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD14" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AE14" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AF14" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AG14" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="AH14" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AI14" t="n">
         <v>980</v>
@@ -2386,10 +2386,10 @@
         <v>980</v>
       </c>
       <c r="AM14" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AN14" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AO14" t="n">
         <v>980</v>
@@ -2422,76 +2422,76 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="G15" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="H15" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="I15" t="n">
         <v>16</v>
       </c>
       <c r="J15" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="K15" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L15" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="M15" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N15" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="O15" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="P15" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="R15" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="U15" t="n">
         <v>1.9</v>
       </c>
-      <c r="S15" t="n">
-        <v>2</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.94</v>
-      </c>
       <c r="V15" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="W15" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="X15" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="Y15" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="Z15" t="n">
         <v>150</v>
       </c>
       <c r="AA15" t="n">
-        <v>1000</v>
+        <v>590</v>
       </c>
       <c r="AB15" t="n">
-        <v>990</v>
+        <v>13</v>
       </c>
       <c r="AC15" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AD15" t="n">
         <v>990</v>
@@ -2500,34 +2500,34 @@
         <v>190</v>
       </c>
       <c r="AF15" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AG15" t="n">
-        <v>990</v>
+        <v>11.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AI15" t="n">
         <v>140</v>
       </c>
       <c r="AJ15" t="n">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="AK15" t="n">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="AL15" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AM15" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="AN15" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="AO15" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16">
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="G16" t="n">
         <v>2.18</v>
@@ -2569,40 +2569,40 @@
         <v>3.8</v>
       </c>
       <c r="J16" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="K16" t="n">
         <v>4.1</v>
       </c>
       <c r="L16" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="M16" t="n">
         <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="O16" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P16" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="R16" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="S16" t="n">
-        <v>2.84</v>
+        <v>2.78</v>
       </c>
       <c r="T16" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="U16" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="V16" t="n">
         <v>1.36</v>
@@ -2611,7 +2611,7 @@
         <v>1.84</v>
       </c>
       <c r="X16" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Y16" t="n">
         <v>990</v>
@@ -2623,10 +2623,10 @@
         <v>65</v>
       </c>
       <c r="AB16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC16" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AD16" t="n">
         <v>990</v>
@@ -2659,7 +2659,7 @@
         <v>75</v>
       </c>
       <c r="AN16" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="AO16" t="n">
         <v>980</v>
@@ -2698,13 +2698,13 @@
         <v>6.4</v>
       </c>
       <c r="H17" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="I17" t="n">
         <v>1.68</v>
       </c>
       <c r="J17" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K17" t="n">
         <v>4.5</v>
@@ -2827,13 +2827,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="G18" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="H18" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="I18" t="n">
         <v>3.15</v>
@@ -2845,22 +2845,22 @@
         <v>3.6</v>
       </c>
       <c r="L18" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="M18" t="n">
         <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="O18" t="n">
         <v>1.35</v>
       </c>
       <c r="P18" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R18" t="n">
         <v>1.31</v>
@@ -2878,7 +2878,7 @@
         <v>1.46</v>
       </c>
       <c r="W18" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="X18" t="n">
         <v>15</v>
@@ -2929,10 +2929,10 @@
         <v>120</v>
       </c>
       <c r="AN18" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AO18" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19">
@@ -2962,22 +2962,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="G19" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="H19" t="n">
         <v>1.71</v>
       </c>
       <c r="I19" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="J19" t="n">
         <v>4.1</v>
       </c>
       <c r="K19" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L19" t="n">
         <v>1.32</v>
@@ -2986,28 +2986,28 @@
         <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="O19" t="n">
         <v>1.21</v>
       </c>
       <c r="P19" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="Q19" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="T19" t="n">
         <v>1.64</v>
       </c>
-      <c r="R19" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S19" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1.67</v>
-      </c>
       <c r="U19" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="V19" t="n">
         <v>2.26</v>
@@ -3031,7 +3031,7 @@
         <v>990</v>
       </c>
       <c r="AC19" t="n">
-        <v>990</v>
+        <v>10.5</v>
       </c>
       <c r="AD19" t="n">
         <v>990</v>
@@ -3052,7 +3052,7 @@
         <v>980</v>
       </c>
       <c r="AJ19" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AK19" t="n">
         <v>60</v>
@@ -3061,13 +3061,13 @@
         <v>60</v>
       </c>
       <c r="AM19" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AN19" t="n">
         <v>980</v>
       </c>
       <c r="AO19" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20">
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="G20" t="n">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="H20" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="I20" t="n">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="J20" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="K20" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="L20" t="n">
         <v>1.24</v>
@@ -3139,34 +3139,34 @@
         <v>2.08</v>
       </c>
       <c r="T20" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="U20" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="V20" t="n">
-        <v>2.96</v>
+        <v>2.76</v>
       </c>
       <c r="W20" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="X20" t="n">
         <v>990</v>
       </c>
       <c r="Y20" t="n">
-        <v>990</v>
+        <v>15.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AA20" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AB20" t="n">
         <v>990</v>
       </c>
       <c r="AC20" t="n">
-        <v>990</v>
+        <v>19.5</v>
       </c>
       <c r="AD20" t="n">
         <v>12</v>
@@ -3178,28 +3178,28 @@
         <v>65</v>
       </c>
       <c r="AG20" t="n">
-        <v>990</v>
+        <v>40</v>
       </c>
       <c r="AH20" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AI20" t="n">
         <v>980</v>
       </c>
       <c r="AJ20" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AK20" t="n">
         <v>70</v>
       </c>
       <c r="AL20" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="AM20" t="n">
         <v>70</v>
       </c>
       <c r="AN20" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AO20" t="n">
         <v>4.9</v>
@@ -3232,112 +3232,112 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="G21" t="n">
         <v>5.8</v>
       </c>
       <c r="H21" t="n">
-        <v>1.74</v>
+        <v>1.68</v>
       </c>
       <c r="I21" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="J21" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="K21" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="L21" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="M21" t="n">
         <v>1.06</v>
       </c>
       <c r="N21" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="O21" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P21" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="R21" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="S21" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="T21" t="n">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="U21" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V21" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="W21" t="n">
         <v>1.21</v>
       </c>
       <c r="X21" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z21" t="n">
         <v>11</v>
       </c>
       <c r="AA21" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AC21" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD21" t="n">
         <v>10.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AF21" t="n">
         <v>55</v>
       </c>
       <c r="AG21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH21" t="n">
         <v>21</v>
       </c>
       <c r="AI21" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AJ21" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AK21" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AL21" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AM21" t="n">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="AN21" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AO21" t="n">
-        <v>13</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="22">
@@ -3367,22 +3367,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.48</v>
+        <v>2.62</v>
       </c>
       <c r="G22" t="n">
-        <v>2.58</v>
+        <v>2.68</v>
       </c>
       <c r="H22" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="I22" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="J22" t="n">
         <v>3.05</v>
       </c>
       <c r="K22" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -3400,7 +3400,7 @@
         <v>1.62</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="G23" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H23" t="n">
         <v>3.05</v>
       </c>
       <c r="I23" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="J23" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K23" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L23" t="n">
         <v>1.33</v>
@@ -3535,28 +3535,28 @@
         <v>2.36</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="R23" t="n">
         <v>1.53</v>
       </c>
       <c r="S23" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="T23" t="n">
         <v>1.6</v>
       </c>
       <c r="U23" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="V23" t="n">
         <v>1.43</v>
       </c>
       <c r="W23" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="X23" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Y23" t="n">
         <v>17</v>
@@ -3637,112 +3637,112 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
       <c r="G24" t="n">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="H24" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="I24" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J24" t="n">
-        <v>8.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="K24" t="n">
-        <v>9.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L24" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="M24" t="n">
         <v>1.01</v>
       </c>
       <c r="N24" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="O24" t="n">
         <v>1.09</v>
       </c>
       <c r="P24" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="R24" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="S24" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="T24" t="n">
-        <v>1.71</v>
+        <v>1.65</v>
       </c>
       <c r="U24" t="n">
-        <v>2.22</v>
+        <v>2.34</v>
       </c>
       <c r="V24" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="W24" t="n">
-        <v>5.1</v>
+        <v>4.4</v>
       </c>
       <c r="X24" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="Y24" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="Z24" t="n">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="AA24" t="n">
-        <v>520</v>
+        <v>560</v>
       </c>
       <c r="AB24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AC24" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AD24" t="n">
-        <v>990</v>
+        <v>42</v>
       </c>
       <c r="AE24" t="n">
         <v>170</v>
       </c>
       <c r="AF24" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ24" t="n">
         <v>12.5</v>
       </c>
-      <c r="AG24" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>130</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>12</v>
-      </c>
       <c r="AK24" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AL24" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AM24" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="AN24" t="n">
-        <v>2.94</v>
+        <v>3.2</v>
       </c>
       <c r="AO24" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25">
@@ -3772,13 +3772,13 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="G25" t="n">
         <v>2.64</v>
       </c>
       <c r="H25" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="I25" t="n">
         <v>2.84</v>
@@ -3805,19 +3805,19 @@
         <v>2.42</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="R25" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="S25" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="T25" t="n">
         <v>1.56</v>
       </c>
       <c r="U25" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="V25" t="n">
         <v>1.54</v>
@@ -3838,7 +3838,7 @@
         <v>42</v>
       </c>
       <c r="AB25" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC25" t="n">
         <v>8.6</v>
@@ -3847,10 +3847,10 @@
         <v>12.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF25" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AG25" t="n">
         <v>12</v>
@@ -3874,10 +3874,10 @@
         <v>50</v>
       </c>
       <c r="AN25" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AO25" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-26.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.88</v>
+        <v>17</v>
       </c>
       <c r="G2" t="n">
-        <v>1.9</v>
+        <v>18</v>
       </c>
       <c r="H2" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K2" t="n">
         <v>3.95</v>
       </c>
-      <c r="I2" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K2" t="n">
-        <v>4.5</v>
-      </c>
       <c r="L2" t="n">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.92</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>2.04</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>3.05</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>1.32</v>
+        <v>3.35</v>
       </c>
       <c r="W2" t="n">
-        <v>2.08</v>
+        <v>1.06</v>
       </c>
       <c r="X2" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>6.6</v>
+        <v>21</v>
       </c>
       <c r="AO2" t="n">
-        <v>21</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="3">
@@ -802,31 +802,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="G3" t="n">
         <v>2.3</v>
       </c>
       <c r="H3" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="I3" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J3" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="K3" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L3" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O3" t="n">
         <v>1.28</v>
@@ -835,43 +835,43 @@
         <v>2.04</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="R3" t="n">
         <v>1.42</v>
       </c>
       <c r="S3" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="T3" t="n">
         <v>1.79</v>
       </c>
       <c r="U3" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V3" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W3" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="X3" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Y3" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Z3" t="n">
         <v>27</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AB3" t="n">
         <v>11</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD3" t="n">
         <v>16</v>
@@ -880,31 +880,31 @@
         <v>42</v>
       </c>
       <c r="AF3" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AG3" t="n">
         <v>11</v>
       </c>
       <c r="AH3" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="AJ3" t="n">
         <v>30</v>
       </c>
       <c r="AK3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL3" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AO3" t="n">
         <v>46</v>
@@ -937,112 +937,112 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>5.7</v>
+        <v>5.2</v>
       </c>
       <c r="G4" t="n">
-        <v>6.2</v>
+        <v>5.5</v>
       </c>
       <c r="H4" t="n">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="I4" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="J4" t="n">
         <v>4.5</v>
       </c>
       <c r="K4" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N4" t="n">
         <v>6</v>
       </c>
       <c r="O4" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="5">
@@ -1072,25 +1072,25 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.26</v>
+        <v>2.6</v>
       </c>
       <c r="G5" t="n">
-        <v>2.44</v>
+        <v>2.82</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>3.35</v>
       </c>
       <c r="I5" t="n">
-        <v>4.6</v>
+        <v>3.85</v>
       </c>
       <c r="J5" t="n">
-        <v>2.84</v>
+        <v>2.72</v>
       </c>
       <c r="K5" t="n">
-        <v>3.15</v>
+        <v>2.96</v>
       </c>
       <c r="L5" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="M5" t="n">
         <v>1.16</v>
@@ -1099,49 +1099,49 @@
         <v>2.34</v>
       </c>
       <c r="O5" t="n">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="P5" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="Q5" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="R5" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="S5" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="T5" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="U5" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="V5" t="n">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
       <c r="W5" t="n">
-        <v>1.69</v>
+        <v>1.54</v>
       </c>
       <c r="X5" t="n">
-        <v>8.800000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AA5" t="n">
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="AD5" t="n">
         <v>1000</v>
@@ -1150,7 +1150,7 @@
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AG5" t="n">
         <v>1000</v>
@@ -1207,109 +1207,109 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="G6" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="H6" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="I6" t="n">
         <v>14.5</v>
       </c>
       <c r="J6" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="K6" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S6" t="n">
         <v>4.9</v>
       </c>
-      <c r="L6" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N6" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S6" t="n">
-        <v>4.1</v>
-      </c>
       <c r="T6" t="n">
-        <v>2.52</v>
+        <v>2.74</v>
       </c>
       <c r="U6" t="n">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="V6" t="n">
         <v>1.07</v>
       </c>
       <c r="W6" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AA6" t="n">
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>6.2</v>
+        <v>5.6</v>
       </c>
       <c r="AC6" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>390</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AI6" t="n">
         <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1342,49 +1342,49 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="G7" t="n">
         <v>1.13</v>
       </c>
       <c r="H7" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I7" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="J7" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="K7" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="L7" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="M7" t="n">
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="O7" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="P7" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="Q7" t="n">
         <v>1.33</v>
       </c>
       <c r="R7" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="S7" t="n">
-        <v>1.79</v>
+        <v>1.84</v>
       </c>
       <c r="T7" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="U7" t="n">
         <v>1.66</v>
@@ -1393,7 +1393,7 @@
         <v>1.02</v>
       </c>
       <c r="W7" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1408,7 +1408,7 @@
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AC7" t="n">
         <v>1000</v>
@@ -1444,7 +1444,7 @@
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1477,46 +1477,46 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="G8" t="n">
-        <v>1.39</v>
+        <v>1.45</v>
       </c>
       <c r="H8" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="I8" t="n">
         <v>10</v>
       </c>
-      <c r="I8" t="n">
-        <v>10.5</v>
-      </c>
       <c r="J8" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="K8" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="L8" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="O8" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P8" t="n">
-        <v>2.6</v>
+        <v>2.48</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R8" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="S8" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="T8" t="n">
         <v>1.8</v>
@@ -1525,13 +1525,13 @@
         <v>2.02</v>
       </c>
       <c r="V8" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="W8" t="n">
-        <v>3.45</v>
+        <v>3.15</v>
       </c>
       <c r="X8" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="Y8" t="n">
         <v>1000</v>
@@ -1543,10 +1543,10 @@
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC8" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AD8" t="n">
         <v>1000</v>
@@ -1558,7 +1558,7 @@
         <v>11</v>
       </c>
       <c r="AG8" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AH8" t="n">
         <v>1000</v>
@@ -1567,19 +1567,19 @@
         <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AL8" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>6.4</v>
+        <v>5.7</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="G9" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="H9" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="I9" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="J9" t="n">
         <v>3.7</v>
@@ -1633,64 +1633,64 @@
         <v>1.39</v>
       </c>
       <c r="M9" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O9" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P9" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="R9" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="S9" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T9" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="U9" t="n">
         <v>2.24</v>
       </c>
       <c r="V9" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="W9" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="X9" t="n">
         <v>990</v>
       </c>
       <c r="Y9" t="n">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="Z9" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AA9" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>22</v>
+        <v>990</v>
       </c>
       <c r="AC9" t="n">
-        <v>15</v>
+        <v>8.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AE9" t="n">
         <v>980</v>
       </c>
       <c r="AF9" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AG9" t="n">
         <v>990</v>
@@ -1702,7 +1702,7 @@
         <v>980</v>
       </c>
       <c r="AJ9" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AK9" t="n">
         <v>980</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="G10" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="H10" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="I10" t="n">
         <v>3.05</v>
       </c>
       <c r="J10" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K10" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L10" t="n">
         <v>1.36</v>
@@ -1789,7 +1789,7 @@
         <v>3</v>
       </c>
       <c r="T10" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="U10" t="n">
         <v>2.28</v>
@@ -1798,7 +1798,7 @@
         <v>1.48</v>
       </c>
       <c r="W10" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="X10" t="n">
         <v>22</v>
@@ -1807,10 +1807,10 @@
         <v>15.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA10" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AB10" t="n">
         <v>14.5</v>
@@ -1822,10 +1822,10 @@
         <v>16</v>
       </c>
       <c r="AE10" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AF10" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AG10" t="n">
         <v>13</v>
@@ -1834,13 +1834,13 @@
         <v>18.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="AJ10" t="n">
         <v>44</v>
       </c>
       <c r="AK10" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL10" t="n">
         <v>40</v>
@@ -1849,7 +1849,7 @@
         <v>80</v>
       </c>
       <c r="AN10" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AO10" t="n">
         <v>32</v>
@@ -1891,7 +1891,7 @@
         <v>3.25</v>
       </c>
       <c r="I11" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="J11" t="n">
         <v>4</v>
@@ -1900,67 +1900,67 @@
         <v>4.4</v>
       </c>
       <c r="L11" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="M11" t="n">
         <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="O11" t="n">
         <v>1.16</v>
       </c>
       <c r="P11" t="n">
-        <v>2.76</v>
+        <v>2.82</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="R11" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="S11" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="T11" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="U11" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="V11" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="W11" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="X11" t="n">
-        <v>990</v>
+        <v>44</v>
       </c>
       <c r="Y11" t="n">
-        <v>990</v>
+        <v>23</v>
       </c>
       <c r="Z11" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AA11" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AB11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC11" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AE11" t="n">
         <v>55</v>
       </c>
       <c r="AF11" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AG11" t="n">
         <v>12.5</v>
@@ -1978,7 +1978,7 @@
         <v>21</v>
       </c>
       <c r="AL11" t="n">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="AM11" t="n">
         <v>55</v>
@@ -2017,37 +2017,37 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.38</v>
+        <v>2.28</v>
       </c>
       <c r="G12" t="n">
-        <v>2.54</v>
+        <v>2.42</v>
       </c>
       <c r="H12" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="I12" t="n">
         <v>3.5</v>
       </c>
       <c r="J12" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K12" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L12" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="M12" t="n">
         <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O12" t="n">
         <v>1.38</v>
       </c>
       <c r="P12" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="Q12" t="n">
         <v>2.16</v>
@@ -2059,25 +2059,25 @@
         <v>3.9</v>
       </c>
       <c r="T12" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="U12" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V12" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="W12" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="X12" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Y12" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AA12" t="n">
         <v>1000</v>
@@ -2089,16 +2089,16 @@
         <v>7.8</v>
       </c>
       <c r="AD12" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AE12" t="n">
         <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AG12" t="n">
-        <v>990</v>
+        <v>20</v>
       </c>
       <c r="AH12" t="n">
         <v>990</v>
@@ -2155,25 +2155,25 @@
         <v>7.4</v>
       </c>
       <c r="G13" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="H13" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="I13" t="n">
         <v>1.48</v>
       </c>
       <c r="J13" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="K13" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="L13" t="n">
         <v>1.29</v>
       </c>
       <c r="M13" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N13" t="n">
         <v>5.5</v>
@@ -2185,7 +2185,7 @@
         <v>2.56</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="R13" t="n">
         <v>1.63</v>
@@ -2203,10 +2203,10 @@
         <v>3.05</v>
       </c>
       <c r="W13" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="X13" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="Y13" t="n">
         <v>11.5</v>
@@ -2215,49 +2215,49 @@
         <v>10.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AB13" t="n">
         <v>50</v>
       </c>
       <c r="AC13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD13" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AE13" t="n">
-        <v>16.5</v>
+        <v>13.5</v>
       </c>
       <c r="AF13" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AG13" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AH13" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI13" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ13" t="n">
         <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AL13" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AM13" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN13" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AO13" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="G14" t="n">
-        <v>2.3</v>
+        <v>2.24</v>
       </c>
       <c r="H14" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I14" t="n">
         <v>3.5</v>
       </c>
       <c r="J14" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="K14" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L14" t="n">
         <v>1.39</v>
@@ -2314,7 +2314,7 @@
         <v>4</v>
       </c>
       <c r="O14" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P14" t="n">
         <v>2.02</v>
@@ -2332,13 +2332,13 @@
         <v>1.73</v>
       </c>
       <c r="U14" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="V14" t="n">
         <v>1.4</v>
       </c>
       <c r="W14" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="X14" t="n">
         <v>17</v>
@@ -2371,7 +2371,7 @@
         <v>12</v>
       </c>
       <c r="AH14" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AI14" t="n">
         <v>980</v>
@@ -2380,7 +2380,7 @@
         <v>980</v>
       </c>
       <c r="AK14" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AL14" t="n">
         <v>980</v>
@@ -2392,7 +2392,7 @@
         <v>17</v>
       </c>
       <c r="AO14" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15">
@@ -2422,25 +2422,25 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="G15" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="H15" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="I15" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="J15" t="n">
         <v>7.4</v>
       </c>
       <c r="K15" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L15" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="M15" t="n">
         <v>1.02</v>
@@ -2449,31 +2449,31 @@
         <v>7</v>
       </c>
       <c r="O15" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P15" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="R15" t="n">
-        <v>1.91</v>
+        <v>1.84</v>
       </c>
       <c r="S15" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="T15" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U15" t="n">
         <v>1.92</v>
       </c>
-      <c r="U15" t="n">
-        <v>1.9</v>
-      </c>
       <c r="V15" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="W15" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="X15" t="n">
         <v>1000</v>
@@ -2485,22 +2485,22 @@
         <v>150</v>
       </c>
       <c r="AA15" t="n">
-        <v>590</v>
+        <v>630</v>
       </c>
       <c r="AB15" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AD15" t="n">
         <v>990</v>
       </c>
       <c r="AE15" t="n">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="AF15" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AG15" t="n">
         <v>11.5</v>
@@ -2509,7 +2509,7 @@
         <v>1000</v>
       </c>
       <c r="AI15" t="n">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="AJ15" t="n">
         <v>11</v>
@@ -2518,7 +2518,7 @@
         <v>13.5</v>
       </c>
       <c r="AL15" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AM15" t="n">
         <v>160</v>
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="G16" t="n">
         <v>2.18</v>
@@ -2569,7 +2569,7 @@
         <v>3.8</v>
       </c>
       <c r="J16" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K16" t="n">
         <v>4.1</v>
@@ -2578,31 +2578,31 @@
         <v>1.34</v>
       </c>
       <c r="M16" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="O16" t="n">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="P16" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.71</v>
+        <v>1.66</v>
       </c>
       <c r="R16" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="S16" t="n">
-        <v>2.78</v>
+        <v>2.68</v>
       </c>
       <c r="T16" t="n">
-        <v>1.64</v>
+        <v>1.59</v>
       </c>
       <c r="U16" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="V16" t="n">
         <v>1.36</v>
@@ -2611,10 +2611,10 @@
         <v>1.84</v>
       </c>
       <c r="X16" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Y16" t="n">
-        <v>990</v>
+        <v>26</v>
       </c>
       <c r="Z16" t="n">
         <v>980</v>
@@ -2623,22 +2623,22 @@
         <v>65</v>
       </c>
       <c r="AB16" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>990</v>
+        <v>26</v>
       </c>
       <c r="AE16" t="n">
         <v>980</v>
       </c>
       <c r="AF16" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AG16" t="n">
-        <v>990</v>
+        <v>10.5</v>
       </c>
       <c r="AH16" t="n">
         <v>990</v>
@@ -2650,7 +2650,7 @@
         <v>980</v>
       </c>
       <c r="AK16" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AL16" t="n">
         <v>980</v>
@@ -2695,19 +2695,19 @@
         <v>5.7</v>
       </c>
       <c r="G17" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="H17" t="n">
         <v>1.65</v>
       </c>
       <c r="I17" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="J17" t="n">
         <v>4.2</v>
       </c>
       <c r="K17" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -2827,22 +2827,22 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="G18" t="n">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="H18" t="n">
         <v>2.9</v>
       </c>
       <c r="I18" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="J18" t="n">
         <v>3.35</v>
       </c>
       <c r="K18" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L18" t="n">
         <v>1.44</v>
@@ -2851,31 +2851,31 @@
         <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O18" t="n">
         <v>1.35</v>
       </c>
       <c r="P18" t="n">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="R18" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S18" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="T18" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="U18" t="n">
         <v>2.08</v>
       </c>
       <c r="V18" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="W18" t="n">
         <v>1.58</v>
@@ -2890,7 +2890,7 @@
         <v>24</v>
       </c>
       <c r="AA18" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="AB18" t="n">
         <v>12.5</v>
@@ -2962,13 +2962,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="G19" t="n">
         <v>5.3</v>
       </c>
       <c r="H19" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="I19" t="n">
         <v>1.78</v>
@@ -2977,7 +2977,7 @@
         <v>4.1</v>
       </c>
       <c r="K19" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L19" t="n">
         <v>1.32</v>
@@ -2992,19 +2992,19 @@
         <v>1.21</v>
       </c>
       <c r="P19" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="R19" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="S19" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="T19" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="U19" t="n">
         <v>2.28</v>
@@ -3019,10 +3019,10 @@
         <v>990</v>
       </c>
       <c r="Y19" t="n">
-        <v>990</v>
+        <v>22</v>
       </c>
       <c r="Z19" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AA19" t="n">
         <v>980</v>
@@ -3031,10 +3031,10 @@
         <v>990</v>
       </c>
       <c r="AC19" t="n">
-        <v>10.5</v>
+        <v>17.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>990</v>
+        <v>150</v>
       </c>
       <c r="AE19" t="n">
         <v>980</v>
@@ -3058,7 +3058,7 @@
         <v>60</v>
       </c>
       <c r="AL19" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM19" t="n">
         <v>80</v>
@@ -3067,7 +3067,7 @@
         <v>980</v>
       </c>
       <c r="AO19" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -3100,10 +3100,10 @@
         <v>5.9</v>
       </c>
       <c r="G20" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="H20" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="I20" t="n">
         <v>1.56</v>
@@ -3112,7 +3112,7 @@
         <v>5</v>
       </c>
       <c r="K20" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="L20" t="n">
         <v>1.24</v>
@@ -3127,7 +3127,7 @@
         <v>1.13</v>
       </c>
       <c r="P20" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="Q20" t="n">
         <v>1.44</v>
@@ -3139,13 +3139,13 @@
         <v>2.08</v>
       </c>
       <c r="T20" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="U20" t="n">
         <v>2.44</v>
       </c>
       <c r="V20" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="W20" t="n">
         <v>1.19</v>
@@ -3166,7 +3166,7 @@
         <v>990</v>
       </c>
       <c r="AC20" t="n">
-        <v>19.5</v>
+        <v>13.5</v>
       </c>
       <c r="AD20" t="n">
         <v>12</v>
@@ -3175,7 +3175,7 @@
         <v>15</v>
       </c>
       <c r="AF20" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="AG20" t="n">
         <v>40</v>
@@ -3184,25 +3184,25 @@
         <v>28</v>
       </c>
       <c r="AI20" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AJ20" t="n">
         <v>170</v>
       </c>
       <c r="AK20" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="AL20" t="n">
         <v>85</v>
       </c>
       <c r="AM20" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="AN20" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AO20" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -3238,22 +3238,22 @@
         <v>5.8</v>
       </c>
       <c r="H21" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="I21" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="J21" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K21" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L21" t="n">
         <v>1.39</v>
       </c>
       <c r="M21" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N21" t="n">
         <v>4</v>
@@ -3262,28 +3262,28 @@
         <v>1.29</v>
       </c>
       <c r="P21" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q21" t="n">
         <v>1.89</v>
       </c>
       <c r="R21" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S21" t="n">
         <v>3.25</v>
       </c>
       <c r="T21" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="U21" t="n">
         <v>2.04</v>
       </c>
       <c r="V21" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="W21" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="X21" t="n">
         <v>19.5</v>
@@ -3298,7 +3298,7 @@
         <v>17.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC21" t="n">
         <v>9.800000000000001</v>
@@ -3307,13 +3307,13 @@
         <v>10.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF21" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AG21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH21" t="n">
         <v>21</v>
@@ -3325,13 +3325,13 @@
         <v>160</v>
       </c>
       <c r="AK21" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AL21" t="n">
         <v>75</v>
       </c>
       <c r="AM21" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AN21" t="n">
         <v>95</v>
@@ -3367,23 +3367,23 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="G22" t="n">
-        <v>2.68</v>
+        <v>2.74</v>
       </c>
       <c r="H22" t="n">
         <v>3.3</v>
       </c>
       <c r="I22" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="J22" t="n">
+        <v>3</v>
+      </c>
+      <c r="K22" t="n">
         <v>3.05</v>
       </c>
-      <c r="K22" t="n">
-        <v>3.1</v>
-      </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
@@ -3397,10 +3397,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1.62</v>
+        <v>1.56</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.6</v>
+        <v>2.68</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="G23" t="n">
-        <v>2.38</v>
+        <v>2.28</v>
       </c>
       <c r="H23" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="I23" t="n">
         <v>3.35</v>
       </c>
       <c r="J23" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="K23" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L23" t="n">
         <v>1.33</v>
@@ -3526,7 +3526,7 @@
         <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="O23" t="n">
         <v>1.22</v>
@@ -3535,52 +3535,52 @@
         <v>2.36</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="R23" t="n">
         <v>1.53</v>
       </c>
       <c r="S23" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="T23" t="n">
-        <v>1.6</v>
+        <v>1.66</v>
       </c>
       <c r="U23" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="V23" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="W23" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="X23" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="Y23" t="n">
         <v>17</v>
       </c>
       <c r="Z23" t="n">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="AA23" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AB23" t="n">
         <v>13.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD23" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AF23" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AG23" t="n">
         <v>12</v>
@@ -3592,22 +3592,22 @@
         <v>1000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="AK23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL23" t="n">
         <v>1000</v>
       </c>
       <c r="AM23" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN23" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AO23" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24">
@@ -3637,64 +3637,64 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="G24" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="H24" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="I24" t="n">
         <v>12</v>
       </c>
       <c r="J24" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="K24" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="L24" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="M24" t="n">
         <v>1.01</v>
       </c>
       <c r="N24" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="O24" t="n">
         <v>1.09</v>
       </c>
       <c r="P24" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="R24" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="S24" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="T24" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="U24" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="V24" t="n">
         <v>1.09</v>
       </c>
       <c r="W24" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="X24" t="n">
         <v>70</v>
       </c>
       <c r="Y24" t="n">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="Z24" t="n">
         <v>150</v>
@@ -3703,7 +3703,7 @@
         <v>560</v>
       </c>
       <c r="AB24" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AC24" t="n">
         <v>20</v>
@@ -3715,7 +3715,7 @@
         <v>170</v>
       </c>
       <c r="AF24" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AG24" t="n">
         <v>12</v>
@@ -3736,10 +3736,10 @@
         <v>24</v>
       </c>
       <c r="AM24" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AN24" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AO24" t="n">
         <v>90</v>
@@ -3772,13 +3772,13 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="G25" t="n">
         <v>2.64</v>
       </c>
       <c r="H25" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="I25" t="n">
         <v>2.84</v>
@@ -3790,7 +3790,7 @@
         <v>3.8</v>
       </c>
       <c r="L25" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="M25" t="n">
         <v>1.05</v>
@@ -3802,10 +3802,10 @@
         <v>1.22</v>
       </c>
       <c r="P25" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="R25" t="n">
         <v>1.58</v>
@@ -3826,7 +3826,7 @@
         <v>1.6</v>
       </c>
       <c r="X25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y25" t="n">
         <v>15</v>
@@ -3838,7 +3838,7 @@
         <v>42</v>
       </c>
       <c r="AB25" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC25" t="n">
         <v>8.6</v>
@@ -3850,7 +3850,7 @@
         <v>25</v>
       </c>
       <c r="AF25" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AG25" t="n">
         <v>12</v>
@@ -3868,7 +3868,7 @@
         <v>24</v>
       </c>
       <c r="AL25" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AM25" t="n">
         <v>50</v>
@@ -3877,7 +3877,7 @@
         <v>16.5</v>
       </c>
       <c r="AO25" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO25"/>
+  <dimension ref="A1:AO26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Australian A-League Men</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,132 +653,132 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>05:35:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Newcastle Jets</t>
+          <t>Barry Town Utd</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Macarthur FC</t>
+          <t>Cardiff Metropolitan</t>
         </is>
       </c>
       <c r="F2" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="H2" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="I2" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K2" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="S2" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="W2" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="X2" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>280</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>38</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>230</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG2" t="n">
         <v>17</v>
       </c>
-      <c r="G2" t="n">
-        <v>18</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="J2" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>1000</v>
-      </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>410</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="AO2" t="n">
-        <v>1.49</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>10:05:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Barry Town Utd</t>
+          <t>Al-Fateh (KSA)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Al Ahli</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.18</v>
+        <v>6</v>
       </c>
       <c r="G3" t="n">
-        <v>2.3</v>
+        <v>6.6</v>
       </c>
       <c r="H3" t="n">
-        <v>3.45</v>
+        <v>1.56</v>
       </c>
       <c r="I3" t="n">
-        <v>3.7</v>
+        <v>1.58</v>
       </c>
       <c r="J3" t="n">
-        <v>3.55</v>
+        <v>4.9</v>
       </c>
       <c r="K3" t="n">
-        <v>3.85</v>
+        <v>5</v>
       </c>
       <c r="L3" t="n">
-        <v>1.39</v>
+        <v>1.27</v>
       </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>4.1</v>
+        <v>6.4</v>
       </c>
       <c r="O3" t="n">
-        <v>1.28</v>
+        <v>1.17</v>
       </c>
       <c r="P3" t="n">
-        <v>2.04</v>
+        <v>2.78</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.86</v>
+        <v>1.52</v>
       </c>
       <c r="R3" t="n">
-        <v>1.42</v>
+        <v>1.71</v>
       </c>
       <c r="S3" t="n">
-        <v>3.2</v>
+        <v>2.32</v>
       </c>
       <c r="T3" t="n">
-        <v>1.79</v>
+        <v>1.66</v>
       </c>
       <c r="U3" t="n">
-        <v>2.22</v>
+        <v>2.34</v>
       </c>
       <c r="V3" t="n">
-        <v>1.38</v>
+        <v>2.72</v>
       </c>
       <c r="W3" t="n">
-        <v>1.77</v>
+        <v>1.17</v>
       </c>
       <c r="X3" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="Z3" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="AA3" t="n">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="AB3" t="n">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.4</v>
+        <v>12.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>16</v>
+        <v>10.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="AF3" t="n">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="AH3" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="AJ3" t="n">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="AK3" t="n">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="AL3" t="n">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AN3" t="n">
-        <v>16.5</v>
+        <v>80</v>
       </c>
       <c r="AO3" t="n">
-        <v>46</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,126 +923,126 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>10:05:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Al-Fateh (KSA)</t>
+          <t>USM Khenchela</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Al Ahli</t>
+          <t>CS Constantine</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>5.2</v>
+        <v>2.46</v>
       </c>
       <c r="G4" t="n">
-        <v>5.5</v>
+        <v>2.62</v>
       </c>
       <c r="H4" t="n">
-        <v>1.67</v>
+        <v>3.65</v>
       </c>
       <c r="I4" t="n">
-        <v>1.7</v>
+        <v>4.1</v>
       </c>
       <c r="J4" t="n">
-        <v>4.5</v>
+        <v>2.78</v>
       </c>
       <c r="K4" t="n">
-        <v>4.7</v>
+        <v>3</v>
       </c>
       <c r="L4" t="n">
-        <v>1.29</v>
+        <v>1.68</v>
       </c>
       <c r="M4" t="n">
-        <v>1.03</v>
+        <v>1.16</v>
       </c>
       <c r="N4" t="n">
-        <v>6</v>
+        <v>2.36</v>
       </c>
       <c r="O4" t="n">
-        <v>1.18</v>
+        <v>1.69</v>
       </c>
       <c r="P4" t="n">
-        <v>2.66</v>
+        <v>1.42</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.56</v>
+        <v>3.1</v>
       </c>
       <c r="R4" t="n">
-        <v>1.68</v>
+        <v>1.14</v>
       </c>
       <c r="S4" t="n">
-        <v>2.4</v>
+        <v>6.8</v>
       </c>
       <c r="T4" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="W4" t="n">
         <v>1.61</v>
       </c>
-      <c r="U4" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="V4" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1.22</v>
-      </c>
       <c r="X4" t="n">
-        <v>28</v>
+        <v>7.4</v>
       </c>
       <c r="Y4" t="n">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="AA4" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="AC4" t="n">
-        <v>11</v>
+        <v>7.2</v>
       </c>
       <c r="AD4" t="n">
-        <v>10.5</v>
+        <v>19.5</v>
       </c>
       <c r="AE4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG4" t="n">
         <v>15</v>
       </c>
-      <c r="AF4" t="n">
-        <v>50</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>23</v>
-      </c>
       <c r="AH4" t="n">
-        <v>17.5</v>
+        <v>32</v>
       </c>
       <c r="AI4" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>130</v>
+        <v>48</v>
       </c>
       <c r="AK4" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="AL4" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -1063,127 +1063,127 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>USM Khenchela</t>
+          <t>JS Saoura</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CS Constantine</t>
+          <t>MC El Bayadh</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.6</v>
+        <v>1.41</v>
       </c>
       <c r="G5" t="n">
-        <v>2.82</v>
+        <v>1.44</v>
       </c>
       <c r="H5" t="n">
-        <v>3.35</v>
+        <v>11</v>
       </c>
       <c r="I5" t="n">
-        <v>3.85</v>
+        <v>13</v>
       </c>
       <c r="J5" t="n">
-        <v>2.72</v>
+        <v>4.4</v>
       </c>
       <c r="K5" t="n">
-        <v>2.96</v>
+        <v>4.9</v>
       </c>
       <c r="L5" t="n">
-        <v>1.68</v>
+        <v>1.52</v>
       </c>
       <c r="M5" t="n">
-        <v>1.16</v>
+        <v>1.09</v>
       </c>
       <c r="N5" t="n">
-        <v>2.34</v>
+        <v>2.98</v>
       </c>
       <c r="O5" t="n">
-        <v>1.69</v>
+        <v>1.46</v>
       </c>
       <c r="P5" t="n">
-        <v>1.41</v>
+        <v>1.66</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="R5" t="n">
-        <v>1.14</v>
+        <v>1.23</v>
       </c>
       <c r="S5" t="n">
-        <v>6.8</v>
+        <v>4.7</v>
       </c>
       <c r="T5" t="n">
-        <v>2.26</v>
+        <v>2.68</v>
       </c>
       <c r="U5" t="n">
-        <v>1.65</v>
+        <v>1.51</v>
       </c>
       <c r="V5" t="n">
-        <v>1.35</v>
+        <v>1.08</v>
       </c>
       <c r="W5" t="n">
-        <v>1.54</v>
+        <v>3.25</v>
       </c>
       <c r="X5" t="n">
-        <v>7.4</v>
+        <v>11.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="Z5" t="n">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="AA5" t="n">
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>7.4</v>
+        <v>5.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.2</v>
+        <v>11.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="AF5" t="n">
-        <v>18.5</v>
+        <v>6.6</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,123 +1193,123 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>11:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>JS Saoura</t>
+          <t>The New Saints</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>MC El Bayadh</t>
+          <t>Bala Town</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.43</v>
+        <v>1.1</v>
       </c>
       <c r="G6" t="n">
-        <v>1.46</v>
+        <v>1.12</v>
       </c>
       <c r="H6" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="I6" t="n">
-        <v>14.5</v>
+        <v>870</v>
       </c>
       <c r="J6" t="n">
-        <v>4.2</v>
+        <v>12</v>
       </c>
       <c r="K6" t="n">
-        <v>4.7</v>
+        <v>18.5</v>
       </c>
       <c r="L6" t="n">
-        <v>1.53</v>
+        <v>1.19</v>
       </c>
       <c r="M6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N6" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="O6" t="n">
         <v>1.1</v>
       </c>
-      <c r="N6" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.48</v>
-      </c>
       <c r="P6" t="n">
-        <v>1.64</v>
+        <v>3.6</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.44</v>
+        <v>1.34</v>
       </c>
       <c r="R6" t="n">
-        <v>1.23</v>
+        <v>2.06</v>
       </c>
       <c r="S6" t="n">
-        <v>4.9</v>
+        <v>1.88</v>
       </c>
       <c r="T6" t="n">
-        <v>2.74</v>
+        <v>2.5</v>
       </c>
       <c r="U6" t="n">
-        <v>1.49</v>
+        <v>1.55</v>
       </c>
       <c r="V6" t="n">
-        <v>1.07</v>
+        <v>1.02</v>
       </c>
       <c r="W6" t="n">
-        <v>3.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="X6" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>5.6</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="AD6" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>390</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.4</v>
+        <v>10.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
         <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>11.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AK6" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>11</v>
+        <v>2.54</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1333,73 +1333,73 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>The New Saints</t>
+          <t>Penybont FC</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Bala Town</t>
+          <t>Briton Ferry Llansawel</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.1</v>
+        <v>1.43</v>
       </c>
       <c r="G7" t="n">
-        <v>1.13</v>
+        <v>1.46</v>
       </c>
       <c r="H7" t="n">
-        <v>32</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="J7" t="n">
-        <v>12</v>
+        <v>4.8</v>
       </c>
       <c r="K7" t="n">
-        <v>15.5</v>
+        <v>5.6</v>
       </c>
       <c r="L7" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="M7" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>9.199999999999999</v>
+        <v>5.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="P7" t="n">
-        <v>3.7</v>
+        <v>2.48</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.33</v>
+        <v>1.6</v>
       </c>
       <c r="R7" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="S7" t="n">
-        <v>1.84</v>
+        <v>2.48</v>
       </c>
       <c r="T7" t="n">
-        <v>2.34</v>
+        <v>1.83</v>
       </c>
       <c r="U7" t="n">
-        <v>1.66</v>
+        <v>2.04</v>
       </c>
       <c r="V7" t="n">
-        <v>1.02</v>
+        <v>1.12</v>
       </c>
       <c r="W7" t="n">
-        <v>8.800000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="Z7" t="n">
         <v>1000</v>
@@ -1408,43 +1408,43 @@
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>17.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AE7" t="n">
         <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AG7" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AI7" t="n">
         <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM7" t="n">
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>2.58</v>
+        <v>5.6</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1468,127 +1468,127 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Penybont FC</t>
+          <t>Flint Town United</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Briton Ferry Llansawel</t>
+          <t>Connahs Quay</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.41</v>
+        <v>4.5</v>
       </c>
       <c r="G8" t="n">
-        <v>1.45</v>
+        <v>5.2</v>
       </c>
       <c r="H8" t="n">
-        <v>8.4</v>
+        <v>1.74</v>
       </c>
       <c r="I8" t="n">
-        <v>10</v>
+        <v>1.82</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>3.95</v>
       </c>
       <c r="K8" t="n">
-        <v>5.6</v>
+        <v>4.5</v>
       </c>
       <c r="L8" t="n">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>5.3</v>
+        <v>4.7</v>
       </c>
       <c r="O8" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="P8" t="n">
-        <v>2.48</v>
+        <v>2.26</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.6</v>
+        <v>1.71</v>
       </c>
       <c r="R8" t="n">
-        <v>1.6</v>
+        <v>1.51</v>
       </c>
       <c r="S8" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="T8" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="U8" t="n">
-        <v>2.02</v>
+        <v>2.2</v>
       </c>
       <c r="V8" t="n">
-        <v>1.11</v>
+        <v>2.2</v>
       </c>
       <c r="W8" t="n">
-        <v>3.15</v>
+        <v>1.24</v>
       </c>
       <c r="X8" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="Y8" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Z8" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AB8" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="AC8" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AF8" t="n">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="AG8" t="n">
-        <v>10.5</v>
+        <v>21</v>
       </c>
       <c r="AH8" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI8" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AJ8" t="n">
-        <v>14</v>
+        <v>200</v>
       </c>
       <c r="AK8" t="n">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AN8" t="n">
-        <v>5.7</v>
+        <v>55</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>11:30:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Al-Kholood Club</t>
+          <t>Haverfordwest County</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Al-Taawoun Buraidah</t>
+          <t>Llanelli Town</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.5</v>
+        <v>1.31</v>
       </c>
       <c r="G9" t="n">
-        <v>3.7</v>
+        <v>1.35</v>
       </c>
       <c r="H9" t="n">
-        <v>2.12</v>
+        <v>11</v>
       </c>
       <c r="I9" t="n">
-        <v>2.22</v>
+        <v>13.5</v>
       </c>
       <c r="J9" t="n">
-        <v>3.7</v>
+        <v>5.5</v>
       </c>
       <c r="K9" t="n">
-        <v>3.9</v>
+        <v>7</v>
       </c>
       <c r="L9" t="n">
-        <v>1.39</v>
+        <v>1.29</v>
       </c>
       <c r="M9" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
       <c r="P9" t="n">
-        <v>2.06</v>
+        <v>2.52</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.87</v>
+        <v>1.59</v>
       </c>
       <c r="R9" t="n">
-        <v>1.41</v>
+        <v>1.66</v>
       </c>
       <c r="S9" t="n">
-        <v>3.25</v>
+        <v>2.48</v>
       </c>
       <c r="T9" t="n">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="U9" t="n">
-        <v>2.24</v>
+        <v>1.86</v>
       </c>
       <c r="V9" t="n">
-        <v>1.82</v>
+        <v>1.08</v>
       </c>
       <c r="W9" t="n">
-        <v>1.37</v>
+        <v>3.85</v>
       </c>
       <c r="X9" t="n">
-        <v>990</v>
+        <v>32</v>
       </c>
       <c r="Y9" t="n">
+        <v>44</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>140</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>500</v>
+      </c>
+      <c r="AB9" t="n">
         <v>11</v>
       </c>
-      <c r="Z9" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>990</v>
-      </c>
       <c r="AC9" t="n">
-        <v>8.6</v>
+        <v>15</v>
       </c>
       <c r="AD9" t="n">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="AE9" t="n">
-        <v>980</v>
+        <v>210</v>
       </c>
       <c r="AF9" t="n">
-        <v>980</v>
+        <v>9.4</v>
       </c>
       <c r="AG9" t="n">
-        <v>990</v>
+        <v>11.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>990</v>
+        <v>30</v>
       </c>
       <c r="AI9" t="n">
-        <v>980</v>
+        <v>820</v>
       </c>
       <c r="AJ9" t="n">
-        <v>70</v>
+        <v>11.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="AL9" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN9" t="n">
-        <v>980</v>
+        <v>5.3</v>
       </c>
       <c r="AO9" t="n">
-        <v>980</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1738,121 +1738,121 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Hartlepool</t>
+          <t>Al-Kholood Club</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Scunthorpe</t>
+          <t>Al-Taawoun Buraidah</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.4</v>
+        <v>3.85</v>
       </c>
       <c r="G10" t="n">
-        <v>2.5</v>
+        <v>4.1</v>
       </c>
       <c r="H10" t="n">
-        <v>2.94</v>
+        <v>2.02</v>
       </c>
       <c r="I10" t="n">
-        <v>3.05</v>
+        <v>2.08</v>
       </c>
       <c r="J10" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="K10" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="L10" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M10" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="O10" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="P10" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="R10" t="n">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="S10" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T10" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="U10" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="V10" t="n">
-        <v>1.48</v>
+        <v>1.93</v>
       </c>
       <c r="W10" t="n">
-        <v>1.66</v>
+        <v>1.32</v>
       </c>
       <c r="X10" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Y10" t="n">
-        <v>15.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>22</v>
+        <v>16.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AB10" t="n">
-        <v>14.5</v>
+        <v>21</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>16</v>
+        <v>12.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AF10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG10" t="n">
         <v>18.5</v>
       </c>
-      <c r="AG10" t="n">
-        <v>13</v>
-      </c>
       <c r="AH10" t="n">
-        <v>18.5</v>
+        <v>27</v>
       </c>
       <c r="AI10" t="n">
-        <v>70</v>
+        <v>980</v>
       </c>
       <c r="AJ10" t="n">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AK10" t="n">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="AL10" t="n">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="AM10" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="AN10" t="n">
-        <v>19</v>
+        <v>980</v>
       </c>
       <c r="AO10" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
@@ -1873,121 +1873,121 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Sutton Utd</t>
+          <t>Hartlepool</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Aldershot</t>
+          <t>Scunthorpe</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.1</v>
+        <v>2.42</v>
       </c>
       <c r="G11" t="n">
-        <v>2.18</v>
+        <v>2.52</v>
       </c>
       <c r="H11" t="n">
-        <v>3.25</v>
+        <v>2.88</v>
       </c>
       <c r="I11" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="J11" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="K11" t="n">
-        <v>4.4</v>
+        <v>3.95</v>
       </c>
       <c r="L11" t="n">
-        <v>1.26</v>
+        <v>1.36</v>
       </c>
       <c r="M11" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>6.4</v>
+        <v>4.3</v>
       </c>
       <c r="O11" t="n">
-        <v>1.16</v>
+        <v>1.27</v>
       </c>
       <c r="P11" t="n">
-        <v>2.82</v>
+        <v>2.12</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.49</v>
+        <v>1.79</v>
       </c>
       <c r="R11" t="n">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="S11" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="T11" t="n">
-        <v>1.51</v>
+        <v>1.69</v>
       </c>
       <c r="U11" t="n">
-        <v>2.7</v>
+        <v>2.28</v>
       </c>
       <c r="V11" t="n">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="W11" t="n">
-        <v>1.85</v>
+        <v>1.66</v>
       </c>
       <c r="X11" t="n">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="Y11" t="n">
-        <v>23</v>
+        <v>15.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="AA11" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="AB11" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AC11" t="n">
-        <v>11.5</v>
+        <v>9.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AE11" t="n">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="AF11" t="n">
         <v>18.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>15.5</v>
+        <v>18.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="AJ11" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AK11" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AL11" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="AM11" t="n">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="AN11" t="n">
-        <v>9.199999999999999</v>
+        <v>19</v>
       </c>
       <c r="AO11" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12">
@@ -2008,121 +2008,121 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Truro City</t>
+          <t>Sutton Utd</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Yeovil</t>
+          <t>Aldershot</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.28</v>
+        <v>2.1</v>
       </c>
       <c r="G12" t="n">
-        <v>2.42</v>
+        <v>2.18</v>
       </c>
       <c r="H12" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I12" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J12" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="K12" t="n">
-        <v>3.65</v>
+        <v>4.4</v>
       </c>
       <c r="L12" t="n">
-        <v>1.47</v>
+        <v>1.26</v>
       </c>
       <c r="M12" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="N12" t="n">
-        <v>3.3</v>
+        <v>6.4</v>
       </c>
       <c r="O12" t="n">
-        <v>1.38</v>
+        <v>1.16</v>
       </c>
       <c r="P12" t="n">
-        <v>1.77</v>
+        <v>2.86</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.16</v>
+        <v>1.48</v>
       </c>
       <c r="R12" t="n">
-        <v>1.28</v>
+        <v>1.76</v>
       </c>
       <c r="S12" t="n">
-        <v>3.9</v>
+        <v>2.2</v>
       </c>
       <c r="T12" t="n">
-        <v>1.82</v>
+        <v>1.52</v>
       </c>
       <c r="U12" t="n">
-        <v>2.02</v>
+        <v>2.72</v>
       </c>
       <c r="V12" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="W12" t="n">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="X12" t="n">
+        <v>44</v>
+      </c>
+      <c r="Y12" t="n">
         <v>23</v>
       </c>
-      <c r="Y12" t="n">
-        <v>14.5</v>
-      </c>
       <c r="Z12" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AA12" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AB12" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.8</v>
+        <v>11.5</v>
       </c>
       <c r="AD12" t="n">
         <v>16.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF12" t="n">
-        <v>27</v>
+        <v>18.5</v>
       </c>
       <c r="AG12" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>50</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>46</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AO12" t="n">
         <v>20</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>990</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>980</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="13">
@@ -2143,121 +2143,121 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Morecambe</t>
+          <t>Truro City</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Yeovil</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>7.4</v>
+        <v>2.22</v>
       </c>
       <c r="G13" t="n">
-        <v>8.6</v>
+        <v>2.3</v>
       </c>
       <c r="H13" t="n">
-        <v>1.44</v>
+        <v>3.5</v>
       </c>
       <c r="I13" t="n">
-        <v>1.48</v>
+        <v>3.7</v>
       </c>
       <c r="J13" t="n">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="K13" t="n">
-        <v>5.8</v>
+        <v>3.65</v>
       </c>
       <c r="L13" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N13" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R13" t="n">
         <v>1.29</v>
       </c>
-      <c r="M13" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N13" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.63</v>
-      </c>
       <c r="S13" t="n">
-        <v>2.44</v>
+        <v>3.95</v>
       </c>
       <c r="T13" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="U13" t="n">
-        <v>2.08</v>
+        <v>1.98</v>
       </c>
       <c r="V13" t="n">
-        <v>3.05</v>
+        <v>1.37</v>
       </c>
       <c r="W13" t="n">
-        <v>1.13</v>
+        <v>1.76</v>
       </c>
       <c r="X13" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="Y13" t="n">
-        <v>11.5</v>
+        <v>22</v>
       </c>
       <c r="Z13" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="AA13" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>50</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC13" t="n">
-        <v>13</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD13" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="AE13" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>75</v>
+        <v>19.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="AH13" t="n">
-        <v>23</v>
+        <v>990</v>
       </c>
       <c r="AI13" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AK13" t="n">
-        <v>100</v>
+        <v>980</v>
       </c>
       <c r="AL13" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AM13" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>6</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
@@ -2278,121 +2278,121 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>FC Halifax Town</t>
+          <t>Morecambe</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Altrincham</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.2</v>
+        <v>7.4</v>
       </c>
       <c r="G14" t="n">
-        <v>2.24</v>
+        <v>8.4</v>
       </c>
       <c r="H14" t="n">
-        <v>3.4</v>
+        <v>1.44</v>
       </c>
       <c r="I14" t="n">
-        <v>3.5</v>
+        <v>1.47</v>
       </c>
       <c r="J14" t="n">
-        <v>3.7</v>
+        <v>5.3</v>
       </c>
       <c r="K14" t="n">
-        <v>3.85</v>
+        <v>5.7</v>
       </c>
       <c r="L14" t="n">
-        <v>1.39</v>
+        <v>1.29</v>
       </c>
       <c r="M14" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="O14" t="n">
-        <v>1.3</v>
+        <v>1.19</v>
       </c>
       <c r="P14" t="n">
-        <v>2.02</v>
+        <v>2.56</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.88</v>
+        <v>1.57</v>
       </c>
       <c r="R14" t="n">
-        <v>1.41</v>
+        <v>1.63</v>
       </c>
       <c r="S14" t="n">
-        <v>3.2</v>
+        <v>2.44</v>
       </c>
       <c r="T14" t="n">
-        <v>1.73</v>
+        <v>1.87</v>
       </c>
       <c r="U14" t="n">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="V14" t="n">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="W14" t="n">
-        <v>1.8</v>
+        <v>1.13</v>
       </c>
       <c r="X14" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="Y14" t="n">
-        <v>14.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>980</v>
+        <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>70</v>
+        <v>13.5</v>
       </c>
       <c r="AB14" t="n">
+        <v>42</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD14" t="n">
         <v>11</v>
       </c>
-      <c r="AC14" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>16</v>
-      </c>
       <c r="AE14" t="n">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="AF14" t="n">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="AG14" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="AH14" t="n">
         <v>23</v>
       </c>
       <c r="AI14" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AJ14" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK14" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AL14" t="n">
-        <v>980</v>
+        <v>85</v>
       </c>
       <c r="AM14" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AN14" t="n">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="AO14" t="n">
-        <v>42</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="15">
@@ -2413,121 +2413,121 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>York City</t>
+          <t>FC Halifax Town</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Boston Utd</t>
+          <t>Altrincham</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="G15" t="n">
-        <v>1.26</v>
+        <v>2.24</v>
       </c>
       <c r="H15" t="n">
-        <v>13</v>
+        <v>3.35</v>
       </c>
       <c r="I15" t="n">
-        <v>15.5</v>
+        <v>3.55</v>
       </c>
       <c r="J15" t="n">
-        <v>7.4</v>
+        <v>3.7</v>
       </c>
       <c r="K15" t="n">
-        <v>8.199999999999999</v>
+        <v>3.9</v>
       </c>
       <c r="L15" t="n">
-        <v>1.24</v>
+        <v>1.39</v>
       </c>
       <c r="M15" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O15" t="n">
-        <v>1.14</v>
+        <v>1.31</v>
       </c>
       <c r="P15" t="n">
-        <v>3.1</v>
+        <v>2.04</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.43</v>
+        <v>1.85</v>
       </c>
       <c r="R15" t="n">
-        <v>1.84</v>
+        <v>1.41</v>
       </c>
       <c r="S15" t="n">
-        <v>2.1</v>
+        <v>3.15</v>
       </c>
       <c r="T15" t="n">
-        <v>1.93</v>
+        <v>1.71</v>
       </c>
       <c r="U15" t="n">
-        <v>1.92</v>
+        <v>2.2</v>
       </c>
       <c r="V15" t="n">
-        <v>1.07</v>
+        <v>1.4</v>
       </c>
       <c r="W15" t="n">
-        <v>4.8</v>
+        <v>1.8</v>
       </c>
       <c r="X15" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Y15" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>150</v>
+        <v>980</v>
       </c>
       <c r="AA15" t="n">
-        <v>630</v>
+        <v>70</v>
       </c>
       <c r="AB15" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="AC15" t="n">
-        <v>21</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD15" t="n">
-        <v>990</v>
+        <v>15</v>
       </c>
       <c r="AE15" t="n">
-        <v>230</v>
+        <v>980</v>
       </c>
       <c r="AF15" t="n">
-        <v>10</v>
+        <v>17.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH15" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AI15" t="n">
-        <v>170</v>
+        <v>980</v>
       </c>
       <c r="AJ15" t="n">
-        <v>11</v>
+        <v>980</v>
       </c>
       <c r="AK15" t="n">
-        <v>13.5</v>
+        <v>38</v>
       </c>
       <c r="AL15" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AO15" t="n">
         <v>980</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>160</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>250</v>
       </c>
     </row>
     <row r="16">
@@ -2548,121 +2548,121 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Solihull Moors</t>
+          <t>York City</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Tamworth FC</t>
+          <t>Boston Utd</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.08</v>
+        <v>1.25</v>
       </c>
       <c r="G16" t="n">
-        <v>2.18</v>
+        <v>1.27</v>
       </c>
       <c r="H16" t="n">
-        <v>3.4</v>
+        <v>13</v>
       </c>
       <c r="I16" t="n">
-        <v>3.8</v>
+        <v>15.5</v>
       </c>
       <c r="J16" t="n">
-        <v>3.85</v>
+        <v>7.2</v>
       </c>
       <c r="K16" t="n">
-        <v>4.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L16" t="n">
-        <v>1.34</v>
+        <v>1.23</v>
       </c>
       <c r="M16" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N16" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="T16" t="n">
         <v>1.04</v>
       </c>
-      <c r="N16" t="n">
-        <v>5</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P16" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S16" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.59</v>
-      </c>
       <c r="U16" t="n">
-        <v>2.44</v>
+        <v>1.96</v>
       </c>
       <c r="V16" t="n">
-        <v>1.36</v>
+        <v>1.07</v>
       </c>
       <c r="W16" t="n">
-        <v>1.84</v>
+        <v>4.7</v>
       </c>
       <c r="X16" t="n">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="Y16" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="Z16" t="n">
-        <v>980</v>
+        <v>160</v>
       </c>
       <c r="AA16" t="n">
-        <v>65</v>
+        <v>630</v>
       </c>
       <c r="AB16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>230</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>36</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>150</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK16" t="n">
         <v>13.5</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>28</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>990</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>980</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>980</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>24</v>
       </c>
       <c r="AL16" t="n">
         <v>980</v>
       </c>
       <c r="AM16" t="n">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="AN16" t="n">
-        <v>12.5</v>
+        <v>3.5</v>
       </c>
       <c r="AO16" t="n">
-        <v>980</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17">
@@ -2683,121 +2683,121 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Brackley Town</t>
+          <t>Solihull Moors</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Forest Green</t>
+          <t>Tamworth FC</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>5.7</v>
+        <v>2.06</v>
       </c>
       <c r="G17" t="n">
-        <v>6.6</v>
+        <v>2.18</v>
       </c>
       <c r="H17" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K17" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N17" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="Q17" t="n">
         <v>1.65</v>
       </c>
-      <c r="I17" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="J17" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="K17" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="Z17" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AA17" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AG17" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AK17" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AL17" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AM17" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AN17" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AO17" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18">
@@ -2818,121 +2818,121 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Eastleigh</t>
+          <t>Brackley Town</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>Forest Green</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.54</v>
+        <v>5.7</v>
       </c>
       <c r="G18" t="n">
-        <v>2.7</v>
+        <v>6.4</v>
       </c>
       <c r="H18" t="n">
-        <v>2.9</v>
+        <v>1.62</v>
       </c>
       <c r="I18" t="n">
-        <v>3.1</v>
+        <v>1.68</v>
       </c>
       <c r="J18" t="n">
-        <v>3.35</v>
+        <v>4.2</v>
       </c>
       <c r="K18" t="n">
-        <v>3.65</v>
+        <v>4.7</v>
       </c>
       <c r="L18" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>1.94</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.02</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>3.65</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>1.77</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>2.08</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="Z18" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AB18" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AC18" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AD18" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="AE18" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AF18" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AG18" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AH18" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AI18" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AJ18" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AK18" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AL18" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AM18" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AN18" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AO18" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2953,121 +2953,121 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>Eastleigh</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Boreham Wood</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>4.7</v>
+        <v>2.52</v>
       </c>
       <c r="G19" t="n">
-        <v>5.3</v>
+        <v>2.7</v>
       </c>
       <c r="H19" t="n">
-        <v>1.7</v>
+        <v>2.9</v>
       </c>
       <c r="I19" t="n">
-        <v>1.78</v>
+        <v>3.1</v>
       </c>
       <c r="J19" t="n">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="K19" t="n">
-        <v>4.7</v>
+        <v>3.6</v>
       </c>
       <c r="L19" t="n">
-        <v>1.32</v>
+        <v>1.44</v>
       </c>
       <c r="M19" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="N19" t="n">
-        <v>5.1</v>
+        <v>3.6</v>
       </c>
       <c r="O19" t="n">
-        <v>1.21</v>
+        <v>1.34</v>
       </c>
       <c r="P19" t="n">
-        <v>2.36</v>
+        <v>1.91</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.65</v>
+        <v>2.02</v>
       </c>
       <c r="R19" t="n">
-        <v>1.54</v>
+        <v>1.33</v>
       </c>
       <c r="S19" t="n">
-        <v>2.64</v>
+        <v>3.55</v>
       </c>
       <c r="T19" t="n">
-        <v>1.65</v>
+        <v>1.77</v>
       </c>
       <c r="U19" t="n">
-        <v>2.28</v>
+        <v>2.12</v>
       </c>
       <c r="V19" t="n">
-        <v>2.26</v>
+        <v>1.48</v>
       </c>
       <c r="W19" t="n">
-        <v>1.23</v>
+        <v>1.58</v>
       </c>
       <c r="X19" t="n">
-        <v>990</v>
+        <v>15.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="Z19" t="n">
         <v>24</v>
       </c>
       <c r="AA19" t="n">
+        <v>85</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>48</v>
+      </c>
+      <c r="AK19" t="n">
         <v>980</v>
       </c>
-      <c r="AB19" t="n">
-        <v>990</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>150</v>
-      </c>
-      <c r="AE19" t="n">
+      <c r="AL19" t="n">
         <v>980</v>
       </c>
-      <c r="AF19" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>990</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>990</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>980</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>130</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>55</v>
-      </c>
       <c r="AM19" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AN19" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AO19" t="n">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20">
@@ -3088,121 +3088,121 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Boreham Wood</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>5.9</v>
+        <v>4.7</v>
       </c>
       <c r="G20" t="n">
-        <v>6.6</v>
+        <v>4.9</v>
       </c>
       <c r="H20" t="n">
-        <v>1.5</v>
+        <v>1.78</v>
       </c>
       <c r="I20" t="n">
-        <v>1.56</v>
+        <v>1.83</v>
       </c>
       <c r="J20" t="n">
+        <v>4</v>
+      </c>
+      <c r="K20" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N20" t="n">
         <v>5</v>
       </c>
-      <c r="K20" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N20" t="n">
-        <v>7</v>
-      </c>
       <c r="O20" t="n">
-        <v>1.13</v>
+        <v>1.21</v>
       </c>
       <c r="P20" t="n">
-        <v>3</v>
+        <v>2.38</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.44</v>
+        <v>1.65</v>
       </c>
       <c r="R20" t="n">
-        <v>1.89</v>
+        <v>1.57</v>
       </c>
       <c r="S20" t="n">
-        <v>2.08</v>
+        <v>2.62</v>
       </c>
       <c r="T20" t="n">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="U20" t="n">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="V20" t="n">
-        <v>2.78</v>
+        <v>2.2</v>
       </c>
       <c r="W20" t="n">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="X20" t="n">
         <v>990</v>
       </c>
       <c r="Y20" t="n">
-        <v>15.5</v>
+        <v>22</v>
       </c>
       <c r="Z20" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AA20" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AB20" t="n">
         <v>990</v>
       </c>
       <c r="AC20" t="n">
-        <v>13.5</v>
+        <v>10.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AE20" t="n">
-        <v>15</v>
+        <v>980</v>
       </c>
       <c r="AF20" t="n">
-        <v>110</v>
+        <v>980</v>
       </c>
       <c r="AG20" t="n">
-        <v>40</v>
+        <v>990</v>
       </c>
       <c r="AH20" t="n">
-        <v>28</v>
+        <v>990</v>
       </c>
       <c r="AI20" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AJ20" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AK20" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AL20" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="AM20" t="n">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="AN20" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AO20" t="n">
-        <v>5</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="21">
@@ -3223,127 +3223,127 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Braintree</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Southend</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>5.4</v>
+        <v>5.9</v>
       </c>
       <c r="G21" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="J21" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K21" t="n">
         <v>5.8</v>
       </c>
-      <c r="H21" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="J21" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K21" t="n">
-        <v>4.4</v>
-      </c>
       <c r="L21" t="n">
-        <v>1.39</v>
+        <v>1.24</v>
       </c>
       <c r="M21" t="n">
-        <v>1.07</v>
+        <v>1.02</v>
       </c>
       <c r="N21" t="n">
-        <v>4</v>
+        <v>6.8</v>
       </c>
       <c r="O21" t="n">
-        <v>1.29</v>
+        <v>1.14</v>
       </c>
       <c r="P21" t="n">
-        <v>2.04</v>
+        <v>3</v>
       </c>
       <c r="Q21" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="R21" t="n">
         <v>1.89</v>
       </c>
-      <c r="R21" t="n">
-        <v>1.41</v>
-      </c>
       <c r="S21" t="n">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="T21" t="n">
-        <v>1.81</v>
+        <v>1.64</v>
       </c>
       <c r="U21" t="n">
-        <v>2.04</v>
+        <v>2.52</v>
       </c>
       <c r="V21" t="n">
-        <v>2.34</v>
+        <v>2.8</v>
       </c>
       <c r="W21" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="X21" t="n">
-        <v>19.5</v>
+        <v>990</v>
       </c>
       <c r="Y21" t="n">
-        <v>9.199999999999999</v>
+        <v>15</v>
       </c>
       <c r="Z21" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AA21" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>22</v>
+        <v>990</v>
       </c>
       <c r="AC21" t="n">
-        <v>9.800000000000001</v>
+        <v>13.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AE21" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AF21" t="n">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="AG21" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="AH21" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AI21" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AJ21" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AK21" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL21" t="n">
         <v>80</v>
       </c>
-      <c r="AL21" t="n">
-        <v>75</v>
-      </c>
       <c r="AM21" t="n">
-        <v>170</v>
+        <v>60</v>
       </c>
       <c r="AN21" t="n">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="AO21" t="n">
-        <v>9.800000000000001</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,132 +3353,132 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>13:15:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Modena</t>
+          <t>Braintree</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>AC Monza</t>
+          <t>Southend</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.66</v>
+        <v>5.4</v>
       </c>
       <c r="G22" t="n">
-        <v>2.74</v>
+        <v>6</v>
       </c>
       <c r="H22" t="n">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="I22" t="n">
-        <v>3.45</v>
+        <v>1.74</v>
       </c>
       <c r="J22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K22" t="n">
-        <v>3.05</v>
+        <v>4.4</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="P22" t="n">
-        <v>1.56</v>
+        <v>2.04</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.68</v>
+        <v>1.89</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z22" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AA22" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AB22" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AC22" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD22" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AF22" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AG22" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AH22" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AJ22" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AK22" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AL22" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AM22" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AN22" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AO22" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,132 +3488,132 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>13:15:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Sakaryaspor</t>
+          <t>Modena</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Manisa FK</t>
+          <t>AC Monza</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="G23" t="n">
-        <v>2.28</v>
+        <v>2.68</v>
       </c>
       <c r="H23" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="I23" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="J23" t="n">
-        <v>3.8</v>
+        <v>3.05</v>
       </c>
       <c r="K23" t="n">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="L23" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>2.36</v>
+        <v>1.63</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.67</v>
+        <v>2.52</v>
       </c>
       <c r="R23" t="n">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>2.72</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="Z23" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AA23" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="AB23" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="AC23" t="n">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="AD23" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AE23" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AF23" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AG23" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AH23" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="AI23" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AK23" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AL23" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM23" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AN23" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="AO23" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,261 +3623,396 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Al-Hilal</t>
+          <t>Sakaryaspor</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Al-Khaleej Saihat</t>
+          <t>Manisa FK</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="G24" t="n">
-        <v>1.28</v>
+        <v>2.22</v>
       </c>
       <c r="H24" t="n">
-        <v>11</v>
+        <v>3.2</v>
       </c>
       <c r="I24" t="n">
-        <v>12</v>
+        <v>3.4</v>
       </c>
       <c r="J24" t="n">
-        <v>7.6</v>
+        <v>3.9</v>
       </c>
       <c r="K24" t="n">
-        <v>8.6</v>
+        <v>4.2</v>
       </c>
       <c r="L24" t="n">
-        <v>1.19</v>
+        <v>1.33</v>
       </c>
       <c r="M24" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N24" t="n">
-        <v>10</v>
+        <v>4.8</v>
       </c>
       <c r="O24" t="n">
-        <v>1.09</v>
+        <v>1.22</v>
       </c>
       <c r="P24" t="n">
-        <v>4</v>
+        <v>2.34</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.3</v>
+        <v>1.68</v>
       </c>
       <c r="R24" t="n">
-        <v>2.2</v>
+        <v>1.52</v>
       </c>
       <c r="S24" t="n">
-        <v>1.79</v>
+        <v>2.74</v>
       </c>
       <c r="T24" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="U24" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="V24" t="n">
-        <v>1.09</v>
+        <v>1.41</v>
       </c>
       <c r="W24" t="n">
-        <v>4.5</v>
+        <v>1.81</v>
       </c>
       <c r="X24" t="n">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="Y24" t="n">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="Z24" t="n">
-        <v>150</v>
+        <v>38</v>
       </c>
       <c r="AA24" t="n">
-        <v>560</v>
+        <v>95</v>
       </c>
       <c r="AB24" t="n">
-        <v>18</v>
+        <v>13.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>20</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD24" t="n">
-        <v>42</v>
+        <v>14.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>170</v>
+        <v>50</v>
       </c>
       <c r="AF24" t="n">
-        <v>12.5</v>
+        <v>17</v>
       </c>
       <c r="AG24" t="n">
         <v>12</v>
       </c>
       <c r="AH24" t="n">
-        <v>27</v>
+        <v>16.5</v>
       </c>
       <c r="AI24" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AJ24" t="n">
-        <v>12.5</v>
+        <v>55</v>
       </c>
       <c r="AK24" t="n">
-        <v>12.5</v>
+        <v>23</v>
       </c>
       <c r="AL24" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AM24" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>3.1</v>
+        <v>13.5</v>
       </c>
       <c r="AO24" t="n">
-        <v>90</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>Saudi Professional League</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>14:30:00</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Al-Hilal</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Al-Khaleej Saihat</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="H25" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="I25" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="J25" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="K25" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N25" t="n">
+        <v>11</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="R25" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="U25" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="W25" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="X25" t="n">
+        <v>85</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>990</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>160</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>500</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>25</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>46</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>150</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>95</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>24</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
           <t>English Premier League</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>2025-12-26</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>17:00:00</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>Man Utd</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>Newcastle</t>
         </is>
       </c>
-      <c r="F25" t="n">
+      <c r="F26" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K26" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N26" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S26" t="n">
         <v>2.62</v>
       </c>
-      <c r="G25" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="H25" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="I25" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="J25" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K25" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N25" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P25" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R25" t="n">
+      <c r="T26" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="U26" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="V26" t="n">
         <v>1.58</v>
       </c>
-      <c r="S25" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="T25" t="n">
+      <c r="W26" t="n">
         <v>1.56</v>
       </c>
-      <c r="U25" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="W25" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="X25" t="n">
+      <c r="X26" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF26" t="n">
         <v>21</v>
       </c>
-      <c r="Y25" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>42</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE25" t="n">
+      <c r="AG26" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK26" t="n">
         <v>25</v>
       </c>
-      <c r="AF25" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>14</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>30</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>38</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>30</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>50</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AO25" t="n">
+      <c r="AL26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>48</v>
+      </c>
+      <c r="AN26" t="n">
         <v>18.5</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>17.5</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO26"/>
+  <dimension ref="A1:AO25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,132 +653,132 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>10:05:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Barry Town Utd</t>
+          <t>Al-Fateh (KSA)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Cardiff Metropolitan</t>
+          <t>Al Ahli</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.86</v>
+        <v>1.78</v>
       </c>
       <c r="G2" t="n">
-        <v>1.92</v>
+        <v>1.82</v>
       </c>
       <c r="H2" t="n">
-        <v>5.6</v>
+        <v>7</v>
       </c>
       <c r="I2" t="n">
-        <v>6.2</v>
+        <v>7.8</v>
       </c>
       <c r="J2" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K2" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="L2" t="n">
-        <v>2.68</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.26</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.76</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.65</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.12</v>
+        <v>2.9</v>
       </c>
       <c r="S2" t="n">
-        <v>8.6</v>
+        <v>1.51</v>
       </c>
       <c r="T2" t="n">
-        <v>2.84</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="W2" t="n">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="X2" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>280</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>4.9</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>2.78</v>
       </c>
       <c r="AH2" t="n">
-        <v>46</v>
+        <v>3.7</v>
       </c>
       <c r="AI2" t="n">
-        <v>410</v>
+        <v>240</v>
       </c>
       <c r="AJ2" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>48</v>
+        <v>10.5</v>
       </c>
       <c r="AL2" t="n">
-        <v>190</v>
+        <v>19.5</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AN2" t="n">
         <v>55</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,126 +788,126 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>10:05:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Al-Fateh (KSA)</t>
+          <t>USM Khenchela</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Al Ahli</t>
+          <t>CS Constantine</t>
         </is>
       </c>
       <c r="F3" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+      <c r="I3" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="Q3" t="n">
         <v>6</v>
       </c>
-      <c r="G3" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="J3" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="K3" t="n">
-        <v>5</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N3" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.52</v>
-      </c>
       <c r="R3" t="n">
-        <v>1.71</v>
+        <v>1.05</v>
       </c>
       <c r="S3" t="n">
-        <v>2.32</v>
+        <v>19</v>
       </c>
       <c r="T3" t="n">
-        <v>1.66</v>
+        <v>3.55</v>
       </c>
       <c r="U3" t="n">
-        <v>2.34</v>
+        <v>1.33</v>
       </c>
       <c r="V3" t="n">
-        <v>2.72</v>
+        <v>1.3</v>
       </c>
       <c r="W3" t="n">
-        <v>1.17</v>
+        <v>1.53</v>
       </c>
       <c r="X3" t="n">
-        <v>29</v>
+        <v>4.1</v>
       </c>
       <c r="Y3" t="n">
-        <v>13</v>
+        <v>7.4</v>
       </c>
       <c r="Z3" t="n">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="AA3" t="n">
+        <v>210</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>38</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>210</v>
+      </c>
+      <c r="AF3" t="n">
         <v>16</v>
       </c>
-      <c r="AB3" t="n">
-        <v>44</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF3" t="n">
+      <c r="AG3" t="n">
+        <v>28</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>80</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>460</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>75</v>
       </c>
-      <c r="AG3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>25</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>160</v>
-      </c>
       <c r="AK3" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="AL3" t="n">
-        <v>60</v>
+        <v>350</v>
       </c>
       <c r="AM3" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>80</v>
+        <v>210</v>
       </c>
       <c r="AO3" t="n">
-        <v>5.6</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -928,118 +928,118 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>USM Khenchela</t>
+          <t>JS Saoura</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CS Constantine</t>
+          <t>MC El Bayadh</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.46</v>
+        <v>1.2</v>
       </c>
       <c r="G4" t="n">
-        <v>2.62</v>
+        <v>1.23</v>
       </c>
       <c r="H4" t="n">
-        <v>3.65</v>
+        <v>26</v>
       </c>
       <c r="I4" t="n">
-        <v>4.1</v>
+        <v>32</v>
       </c>
       <c r="J4" t="n">
-        <v>2.78</v>
+        <v>6.6</v>
       </c>
       <c r="K4" t="n">
-        <v>3</v>
+        <v>7.4</v>
       </c>
       <c r="L4" t="n">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.16</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>2.36</v>
+        <v>5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.69</v>
+        <v>1.23</v>
       </c>
       <c r="P4" t="n">
-        <v>1.42</v>
+        <v>1.95</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.1</v>
+        <v>1.98</v>
       </c>
       <c r="R4" t="n">
-        <v>1.14</v>
+        <v>1.28</v>
       </c>
       <c r="S4" t="n">
-        <v>6.8</v>
+        <v>4.2</v>
       </c>
       <c r="T4" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="U4" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="V4" t="n">
-        <v>1.33</v>
+        <v>1.03</v>
       </c>
       <c r="W4" t="n">
-        <v>1.61</v>
+        <v>5.3</v>
       </c>
       <c r="X4" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.2</v>
+        <v>10</v>
       </c>
       <c r="AD4" t="n">
-        <v>19.5</v>
+        <v>55</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>360</v>
       </c>
       <c r="AF4" t="n">
-        <v>16.5</v>
+        <v>4.9</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>8.6</v>
       </c>
       <c r="AH4" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AJ4" t="n">
-        <v>48</v>
+        <v>9.4</v>
       </c>
       <c r="AK4" t="n">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>410</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1048,7 +1048,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,126 +1058,126 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>11:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>JS Saoura</t>
+          <t>The New Saints</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>MC El Bayadh</t>
+          <t>Bala Town</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.41</v>
+        <v>1.01</v>
       </c>
       <c r="G5" t="n">
-        <v>1.44</v>
+        <v>1.13</v>
       </c>
       <c r="H5" t="n">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="I5" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="J5" t="n">
-        <v>4.4</v>
+        <v>8</v>
       </c>
       <c r="K5" t="n">
-        <v>4.9</v>
+        <v>970</v>
       </c>
       <c r="L5" t="n">
-        <v>1.52</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>1.09</v>
+        <v>1.02</v>
       </c>
       <c r="N5" t="n">
-        <v>2.98</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="O5" t="n">
-        <v>1.46</v>
+        <v>1.1</v>
       </c>
       <c r="P5" t="n">
-        <v>1.66</v>
+        <v>1.24</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.4</v>
+        <v>1.01</v>
       </c>
       <c r="R5" t="n">
-        <v>1.23</v>
+        <v>2.04</v>
       </c>
       <c r="S5" t="n">
-        <v>4.7</v>
+        <v>1.01</v>
       </c>
       <c r="T5" t="n">
-        <v>2.68</v>
+        <v>1.04</v>
       </c>
       <c r="U5" t="n">
-        <v>1.51</v>
+        <v>1.45</v>
       </c>
       <c r="V5" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="W5" t="n">
-        <v>3.25</v>
+        <v>1.01</v>
       </c>
       <c r="X5" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>5.5</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.6</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>950</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
@@ -1198,121 +1198,121 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The New Saints</t>
+          <t>Penybont FC</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Bala Town</t>
+          <t>Briton Ferry Llansawel</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.1</v>
+        <v>2.34</v>
       </c>
       <c r="G6" t="n">
-        <v>1.12</v>
+        <v>2.46</v>
       </c>
       <c r="H6" t="n">
-        <v>34</v>
+        <v>3.2</v>
       </c>
       <c r="I6" t="n">
-        <v>870</v>
+        <v>3.45</v>
       </c>
       <c r="J6" t="n">
-        <v>12</v>
+        <v>3.4</v>
       </c>
       <c r="K6" t="n">
-        <v>18.5</v>
+        <v>3.7</v>
       </c>
       <c r="L6" t="n">
-        <v>1.19</v>
+        <v>1.47</v>
       </c>
       <c r="M6" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>9.199999999999999</v>
+        <v>3.7</v>
       </c>
       <c r="O6" t="n">
-        <v>1.1</v>
+        <v>1.32</v>
       </c>
       <c r="P6" t="n">
-        <v>3.6</v>
+        <v>1.91</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.34</v>
+        <v>2.02</v>
       </c>
       <c r="R6" t="n">
-        <v>2.06</v>
+        <v>1.29</v>
       </c>
       <c r="S6" t="n">
-        <v>1.88</v>
+        <v>1.13</v>
       </c>
       <c r="T6" t="n">
-        <v>2.5</v>
+        <v>1.69</v>
       </c>
       <c r="U6" t="n">
-        <v>1.55</v>
+        <v>2.08</v>
       </c>
       <c r="V6" t="n">
-        <v>1.02</v>
+        <v>1.36</v>
       </c>
       <c r="W6" t="n">
-        <v>9.199999999999999</v>
+        <v>1.63</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>38</v>
+        <v>8.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AF6" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
         <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ6" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
         <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN6" t="n">
-        <v>2.54</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
@@ -1333,73 +1333,73 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Penybont FC</t>
+          <t>Flint Town United</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Briton Ferry Llansawel</t>
+          <t>Connahs Quay</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.43</v>
+        <v>8.4</v>
       </c>
       <c r="G7" t="n">
-        <v>1.46</v>
+        <v>65</v>
       </c>
       <c r="H7" t="n">
-        <v>8.199999999999999</v>
+        <v>1.11</v>
       </c>
       <c r="I7" t="n">
-        <v>9</v>
+        <v>1.25</v>
       </c>
       <c r="J7" t="n">
-        <v>4.8</v>
+        <v>5.4</v>
       </c>
       <c r="K7" t="n">
-        <v>5.6</v>
+        <v>18.5</v>
       </c>
       <c r="L7" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O7" t="n">
         <v>1.04</v>
       </c>
-      <c r="N7" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.2</v>
-      </c>
       <c r="P7" t="n">
-        <v>2.48</v>
+        <v>4</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.6</v>
+        <v>1.21</v>
       </c>
       <c r="R7" t="n">
-        <v>1.6</v>
+        <v>1.28</v>
       </c>
       <c r="S7" t="n">
-        <v>2.48</v>
+        <v>1.23</v>
       </c>
       <c r="T7" t="n">
-        <v>1.83</v>
+        <v>1.01</v>
       </c>
       <c r="U7" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V7" t="n">
-        <v>1.12</v>
+        <v>5</v>
       </c>
       <c r="W7" t="n">
-        <v>3.1</v>
+        <v>1.01</v>
       </c>
       <c r="X7" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>42</v>
+        <v>710</v>
       </c>
       <c r="Z7" t="n">
         <v>1000</v>
@@ -1408,43 +1408,43 @@
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AD7" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
         <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
         <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>5.6</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1468,127 +1468,127 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Flint Town United</t>
+          <t>Haverfordwest County</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Connahs Quay</t>
+          <t>Llanelli Town</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>4.5</v>
+        <v>1.4</v>
       </c>
       <c r="G8" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="H8" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="I8" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="J8" t="n">
         <v>5.2</v>
       </c>
-      <c r="H8" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3.95</v>
-      </c>
       <c r="K8" t="n">
-        <v>4.5</v>
+        <v>5.6</v>
       </c>
       <c r="L8" t="n">
-        <v>1.34</v>
+        <v>1.42</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="O8" t="n">
         <v>1.23</v>
       </c>
       <c r="P8" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="R8" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="S8" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="T8" t="n">
-        <v>1.73</v>
+        <v>2.12</v>
       </c>
       <c r="U8" t="n">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="V8" t="n">
-        <v>2.2</v>
+        <v>1.08</v>
       </c>
       <c r="W8" t="n">
-        <v>1.24</v>
+        <v>3.9</v>
       </c>
       <c r="X8" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="Y8" t="n">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="Z8" t="n">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="AA8" t="n">
-        <v>22</v>
+        <v>530</v>
       </c>
       <c r="AB8" t="n">
-        <v>24</v>
+        <v>9.4</v>
       </c>
       <c r="AC8" t="n">
+        <v>16</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>48</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>230</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>180</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>10.5</v>
       </c>
-      <c r="AD8" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>22</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>50</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>200</v>
-      </c>
       <c r="AK8" t="n">
-        <v>90</v>
+        <v>15.5</v>
       </c>
       <c r="AL8" t="n">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="AM8" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AN8" t="n">
-        <v>55</v>
+        <v>5.9</v>
       </c>
       <c r="AO8" t="n">
-        <v>9.4</v>
+        <v>370</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>11:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Haverfordwest County</t>
+          <t>Al-Kholood Club</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Llanelli Town</t>
+          <t>Al-Taawoun Buraidah</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.31</v>
+        <v>3.6</v>
       </c>
       <c r="G9" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R9" t="n">
         <v>1.35</v>
       </c>
-      <c r="H9" t="n">
+      <c r="S9" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X9" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>28</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD9" t="n">
         <v>11</v>
       </c>
-      <c r="I9" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="J9" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="K9" t="n">
-        <v>7</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N9" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="S9" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="W9" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="X9" t="n">
-        <v>32</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>44</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>140</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>500</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>44</v>
-      </c>
       <c r="AE9" t="n">
-        <v>210</v>
+        <v>24</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.4</v>
+        <v>27</v>
       </c>
       <c r="AG9" t="n">
-        <v>11.5</v>
+        <v>16</v>
       </c>
       <c r="AH9" t="n">
-        <v>30</v>
+        <v>18.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>820</v>
+        <v>40</v>
       </c>
       <c r="AJ9" t="n">
-        <v>11.5</v>
+        <v>75</v>
       </c>
       <c r="AK9" t="n">
-        <v>14.5</v>
+        <v>46</v>
       </c>
       <c r="AL9" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="AM9" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="AN9" t="n">
-        <v>5.3</v>
+        <v>46</v>
       </c>
       <c r="AO9" t="n">
-        <v>240</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1738,121 +1738,121 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Al-Kholood Club</t>
+          <t>Hartlepool</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Al-Taawoun Buraidah</t>
+          <t>Scunthorpe</t>
         </is>
       </c>
       <c r="F10" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K10" t="n">
         <v>3.85</v>
       </c>
-      <c r="G10" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K10" t="n">
-        <v>4</v>
-      </c>
       <c r="L10" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M10" t="n">
         <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O10" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="P10" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="R10" t="n">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="S10" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="T10" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="U10" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="V10" t="n">
-        <v>1.93</v>
+        <v>1.5</v>
       </c>
       <c r="W10" t="n">
-        <v>1.32</v>
+        <v>1.65</v>
       </c>
       <c r="X10" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>10.5</v>
+        <v>16.5</v>
       </c>
       <c r="Z10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>48</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH10" t="n">
         <v>16.5</v>
       </c>
-      <c r="AA10" t="n">
-        <v>980</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE10" t="n">
+      <c r="AI10" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AO10" t="n">
         <v>28</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>980</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>80</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>85</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>980</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>18</v>
       </c>
     </row>
     <row r="11">
@@ -1873,121 +1873,121 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Hartlepool</t>
+          <t>Sutton Utd</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Scunthorpe</t>
+          <t>Aldershot</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.42</v>
+        <v>2.12</v>
       </c>
       <c r="G11" t="n">
-        <v>2.52</v>
+        <v>2.18</v>
       </c>
       <c r="H11" t="n">
-        <v>2.88</v>
+        <v>3.3</v>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>3.55</v>
       </c>
       <c r="J11" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="K11" t="n">
-        <v>3.95</v>
+        <v>4.4</v>
       </c>
       <c r="L11" t="n">
-        <v>1.36</v>
+        <v>1.26</v>
       </c>
       <c r="M11" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>4.3</v>
+        <v>6.4</v>
       </c>
       <c r="O11" t="n">
-        <v>1.27</v>
+        <v>1.16</v>
       </c>
       <c r="P11" t="n">
-        <v>2.12</v>
+        <v>2.84</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.79</v>
+        <v>1.5</v>
       </c>
       <c r="R11" t="n">
-        <v>1.45</v>
+        <v>1.76</v>
       </c>
       <c r="S11" t="n">
-        <v>3</v>
+        <v>2.18</v>
       </c>
       <c r="T11" t="n">
-        <v>1.69</v>
+        <v>1.53</v>
       </c>
       <c r="U11" t="n">
-        <v>2.28</v>
+        <v>2.72</v>
       </c>
       <c r="V11" t="n">
-        <v>1.5</v>
+        <v>1.39</v>
       </c>
       <c r="W11" t="n">
-        <v>1.66</v>
+        <v>1.85</v>
       </c>
       <c r="X11" t="n">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="Y11" t="n">
-        <v>15.5</v>
+        <v>23</v>
       </c>
       <c r="Z11" t="n">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="AA11" t="n">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="AB11" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.6</v>
+        <v>11.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="AF11" t="n">
         <v>18.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>65</v>
+        <v>980</v>
       </c>
       <c r="AJ11" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AK11" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="AL11" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AM11" t="n">
-        <v>120</v>
+        <v>46</v>
       </c>
       <c r="AN11" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="AO11" t="n">
-        <v>29</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="12">
@@ -2008,121 +2008,121 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Sutton Utd</t>
+          <t>Truro City</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Aldershot</t>
+          <t>Yeovil</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.1</v>
+        <v>2.28</v>
       </c>
       <c r="G12" t="n">
-        <v>2.18</v>
+        <v>2.32</v>
       </c>
       <c r="H12" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="I12" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K12" t="n">
         <v>3.6</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N12" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S12" t="n">
         <v>4</v>
       </c>
-      <c r="K12" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N12" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="P12" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="R12" t="n">
+      <c r="T12" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="W12" t="n">
         <v>1.76</v>
       </c>
-      <c r="S12" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="U12" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="W12" t="n">
-        <v>1.85</v>
-      </c>
       <c r="X12" t="n">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="Y12" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="Z12" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AA12" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>17</v>
+        <v>9.4</v>
       </c>
       <c r="AC12" t="n">
-        <v>11.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD12" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AE12" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>18.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH12" t="n">
-        <v>15.5</v>
+        <v>27</v>
       </c>
       <c r="AI12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK12" t="n">
         <v>36</v>
       </c>
-      <c r="AJ12" t="n">
-        <v>50</v>
-      </c>
-      <c r="AK12" t="n">
+      <c r="AL12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN12" t="n">
         <v>24</v>
       </c>
-      <c r="AL12" t="n">
-        <v>42</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>46</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>9.199999999999999</v>
-      </c>
       <c r="AO12" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
@@ -2143,121 +2143,121 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Truro City</t>
+          <t>Morecambe</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Yeovil</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.22</v>
+        <v>7.2</v>
       </c>
       <c r="G13" t="n">
-        <v>2.3</v>
+        <v>7.6</v>
       </c>
       <c r="H13" t="n">
-        <v>3.5</v>
+        <v>1.46</v>
       </c>
       <c r="I13" t="n">
-        <v>3.7</v>
+        <v>1.5</v>
       </c>
       <c r="J13" t="n">
-        <v>3.4</v>
+        <v>5.1</v>
       </c>
       <c r="K13" t="n">
-        <v>3.65</v>
+        <v>5.5</v>
       </c>
       <c r="L13" t="n">
-        <v>1.47</v>
+        <v>1.29</v>
       </c>
       <c r="M13" t="n">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>3.35</v>
+        <v>5.5</v>
       </c>
       <c r="O13" t="n">
-        <v>1.4</v>
+        <v>1.18</v>
       </c>
       <c r="P13" t="n">
-        <v>1.8</v>
+        <v>2.56</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.12</v>
+        <v>1.57</v>
       </c>
       <c r="R13" t="n">
-        <v>1.29</v>
+        <v>1.63</v>
       </c>
       <c r="S13" t="n">
-        <v>3.95</v>
+        <v>2.44</v>
       </c>
       <c r="T13" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="U13" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="V13" t="n">
-        <v>1.37</v>
+        <v>3</v>
       </c>
       <c r="W13" t="n">
-        <v>1.76</v>
+        <v>1.14</v>
       </c>
       <c r="X13" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="Y13" t="n">
-        <v>22</v>
+        <v>11.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>9.199999999999999</v>
+        <v>32</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.800000000000001</v>
+        <v>12</v>
       </c>
       <c r="AD13" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>75</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AH13" t="n">
         <v>25</v>
       </c>
-      <c r="AE13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>990</v>
-      </c>
       <c r="AI13" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AJ13" t="n">
-        <v>38</v>
+        <v>230</v>
       </c>
       <c r="AK13" t="n">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="AL13" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AM13" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN13" t="n">
         <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>1000</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="14">
@@ -2278,121 +2278,121 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Morecambe</t>
+          <t>FC Halifax Town</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Altrincham</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>7.4</v>
+        <v>2.14</v>
       </c>
       <c r="G14" t="n">
-        <v>8.4</v>
+        <v>2.24</v>
       </c>
       <c r="H14" t="n">
-        <v>1.44</v>
+        <v>3.55</v>
       </c>
       <c r="I14" t="n">
-        <v>1.47</v>
+        <v>3.8</v>
       </c>
       <c r="J14" t="n">
-        <v>5.3</v>
+        <v>3.7</v>
       </c>
       <c r="K14" t="n">
-        <v>5.7</v>
+        <v>3.8</v>
       </c>
       <c r="L14" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N14" t="n">
+        <v>4</v>
+      </c>
+      <c r="O14" t="n">
         <v>1.29</v>
       </c>
-      <c r="M14" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N14" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.19</v>
-      </c>
       <c r="P14" t="n">
-        <v>2.56</v>
+        <v>2.02</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.57</v>
+        <v>1.89</v>
       </c>
       <c r="R14" t="n">
-        <v>1.63</v>
+        <v>1.41</v>
       </c>
       <c r="S14" t="n">
-        <v>2.44</v>
+        <v>3.25</v>
       </c>
       <c r="T14" t="n">
-        <v>1.87</v>
+        <v>1.73</v>
       </c>
       <c r="U14" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="V14" t="n">
-        <v>3.1</v>
+        <v>1.37</v>
       </c>
       <c r="W14" t="n">
-        <v>1.13</v>
+        <v>1.8</v>
       </c>
       <c r="X14" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="Y14" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG14" t="n">
         <v>11.5</v>
       </c>
-      <c r="Z14" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>42</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>75</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>34</v>
-      </c>
       <c r="AH14" t="n">
-        <v>23</v>
+        <v>17.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AK14" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AL14" t="n">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="AM14" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AN14" t="n">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="AO14" t="n">
-        <v>6.8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15">
@@ -2413,121 +2413,121 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>FC Halifax Town</t>
+          <t>York City</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Altrincham</t>
+          <t>Boston Utd</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.2</v>
+        <v>1.25</v>
       </c>
       <c r="G15" t="n">
-        <v>2.24</v>
+        <v>1.27</v>
       </c>
       <c r="H15" t="n">
-        <v>3.35</v>
+        <v>13.5</v>
       </c>
       <c r="I15" t="n">
-        <v>3.55</v>
+        <v>14.5</v>
       </c>
       <c r="J15" t="n">
-        <v>3.7</v>
+        <v>7</v>
       </c>
       <c r="K15" t="n">
-        <v>3.9</v>
+        <v>7.8</v>
       </c>
       <c r="L15" t="n">
-        <v>1.39</v>
+        <v>1.23</v>
       </c>
       <c r="M15" t="n">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="N15" t="n">
-        <v>4</v>
+        <v>7.2</v>
       </c>
       <c r="O15" t="n">
-        <v>1.31</v>
+        <v>1.13</v>
       </c>
       <c r="P15" t="n">
-        <v>2.04</v>
+        <v>3.1</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.85</v>
+        <v>1.42</v>
       </c>
       <c r="R15" t="n">
-        <v>1.41</v>
+        <v>1.84</v>
       </c>
       <c r="S15" t="n">
-        <v>3.15</v>
+        <v>2.08</v>
       </c>
       <c r="T15" t="n">
-        <v>1.71</v>
+        <v>1.89</v>
       </c>
       <c r="U15" t="n">
-        <v>2.2</v>
+        <v>1.96</v>
       </c>
       <c r="V15" t="n">
-        <v>1.4</v>
+        <v>1.07</v>
       </c>
       <c r="W15" t="n">
-        <v>1.8</v>
+        <v>4.7</v>
       </c>
       <c r="X15" t="n">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="Y15" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Z15" t="n">
+        <v>160</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>50</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>230</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>44</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>150</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AL15" t="n">
         <v>980</v>
       </c>
-      <c r="AA15" t="n">
-        <v>70</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>980</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>980</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>38</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>50</v>
-      </c>
       <c r="AM15" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="AN15" t="n">
-        <v>17</v>
+        <v>3.5</v>
       </c>
       <c r="AO15" t="n">
-        <v>980</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16">
@@ -2548,121 +2548,121 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>York City</t>
+          <t>Solihull Moors</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Boston Utd</t>
+          <t>Tamworth FC</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.25</v>
+        <v>2.06</v>
       </c>
       <c r="G16" t="n">
-        <v>1.27</v>
+        <v>2.1</v>
       </c>
       <c r="H16" t="n">
-        <v>13</v>
+        <v>3.6</v>
       </c>
       <c r="I16" t="n">
-        <v>15.5</v>
+        <v>3.75</v>
       </c>
       <c r="J16" t="n">
-        <v>7.2</v>
+        <v>3.9</v>
       </c>
       <c r="K16" t="n">
-        <v>8.199999999999999</v>
+        <v>4.1</v>
       </c>
       <c r="L16" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N16" t="n">
+        <v>5</v>
+      </c>
+      <c r="O16" t="n">
         <v>1.23</v>
       </c>
-      <c r="M16" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N16" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.13</v>
-      </c>
       <c r="P16" t="n">
-        <v>3.15</v>
+        <v>2.38</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.41</v>
+        <v>1.67</v>
       </c>
       <c r="R16" t="n">
-        <v>1.89</v>
+        <v>1.56</v>
       </c>
       <c r="S16" t="n">
-        <v>2.04</v>
+        <v>2.66</v>
       </c>
       <c r="T16" t="n">
-        <v>1.04</v>
+        <v>1.59</v>
       </c>
       <c r="U16" t="n">
-        <v>1.96</v>
+        <v>2.5</v>
       </c>
       <c r="V16" t="n">
-        <v>1.07</v>
+        <v>1.36</v>
       </c>
       <c r="W16" t="n">
-        <v>4.7</v>
+        <v>1.9</v>
       </c>
       <c r="X16" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="Y16" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>160</v>
+        <v>44</v>
       </c>
       <c r="AA16" t="n">
-        <v>630</v>
+        <v>110</v>
       </c>
       <c r="AB16" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF16" t="n">
         <v>15</v>
       </c>
-      <c r="AC16" t="n">
+      <c r="AG16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>990</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK16" t="n">
         <v>19.5</v>
       </c>
-      <c r="AD16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>230</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>36</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>150</v>
-      </c>
-      <c r="AJ16" t="n">
+      <c r="AL16" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>95</v>
+      </c>
+      <c r="AN16" t="n">
         <v>11</v>
       </c>
-      <c r="AK16" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>980</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>3.5</v>
-      </c>
       <c r="AO16" t="n">
-        <v>260</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17">
@@ -2683,121 +2683,121 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Solihull Moors</t>
+          <t>Brackley Town</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Tamworth FC</t>
+          <t>Forest Green</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.06</v>
+        <v>6</v>
       </c>
       <c r="G17" t="n">
-        <v>2.18</v>
+        <v>6.4</v>
       </c>
       <c r="H17" t="n">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="I17" t="n">
-        <v>3.75</v>
+        <v>1.65</v>
       </c>
       <c r="J17" t="n">
-        <v>3.85</v>
+        <v>4.4</v>
       </c>
       <c r="K17" t="n">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="L17" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M17" t="n">
         <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>5.1</v>
+        <v>4.4</v>
       </c>
       <c r="O17" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P17" t="n">
-        <v>2.36</v>
+        <v>2.16</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.65</v>
+        <v>1.78</v>
       </c>
       <c r="R17" t="n">
-        <v>1.56</v>
+        <v>1.45</v>
       </c>
       <c r="S17" t="n">
-        <v>2.62</v>
+        <v>3</v>
       </c>
       <c r="T17" t="n">
-        <v>1.59</v>
+        <v>1.81</v>
       </c>
       <c r="U17" t="n">
-        <v>2.5</v>
+        <v>2.02</v>
       </c>
       <c r="V17" t="n">
-        <v>1.37</v>
+        <v>2.54</v>
       </c>
       <c r="W17" t="n">
-        <v>1.84</v>
+        <v>1.19</v>
       </c>
       <c r="X17" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Y17" t="n">
-        <v>26</v>
+        <v>9.4</v>
       </c>
       <c r="Z17" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="AB17" t="n">
-        <v>13.5</v>
+        <v>24</v>
       </c>
       <c r="AC17" t="n">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="AD17" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AE17" t="n">
-        <v>980</v>
+        <v>16</v>
       </c>
       <c r="AF17" t="n">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="AG17" t="n">
-        <v>10.5</v>
+        <v>24</v>
       </c>
       <c r="AH17" t="n">
-        <v>990</v>
+        <v>22</v>
       </c>
       <c r="AI17" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AJ17" t="n">
-        <v>980</v>
+        <v>170</v>
       </c>
       <c r="AK17" t="n">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="AL17" t="n">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="AM17" t="n">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="AN17" t="n">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="AO17" t="n">
-        <v>48</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="18">
@@ -2818,121 +2818,121 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Brackley Town</t>
+          <t>Eastleigh</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Forest Green</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>5.7</v>
+        <v>2.68</v>
       </c>
       <c r="G18" t="n">
-        <v>6.4</v>
+        <v>2.7</v>
       </c>
       <c r="H18" t="n">
-        <v>1.62</v>
+        <v>2.9</v>
       </c>
       <c r="I18" t="n">
-        <v>1.68</v>
+        <v>3</v>
       </c>
       <c r="J18" t="n">
-        <v>4.2</v>
+        <v>3.35</v>
       </c>
       <c r="K18" t="n">
-        <v>4.7</v>
+        <v>3.6</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Z18" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AB18" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD18" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AF18" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AG18" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AK18" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AL18" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AM18" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AN18" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AO18" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
     </row>
     <row r="19">
@@ -2953,121 +2953,121 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Eastleigh</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>Boreham Wood</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.52</v>
+        <v>4.6</v>
       </c>
       <c r="G19" t="n">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="H19" t="n">
-        <v>2.9</v>
+        <v>1.78</v>
       </c>
       <c r="I19" t="n">
-        <v>3.1</v>
+        <v>1.83</v>
       </c>
       <c r="J19" t="n">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="K19" t="n">
-        <v>3.6</v>
+        <v>4.4</v>
       </c>
       <c r="L19" t="n">
-        <v>1.44</v>
+        <v>1.31</v>
       </c>
       <c r="M19" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N19" t="n">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="O19" t="n">
-        <v>1.34</v>
+        <v>1.22</v>
       </c>
       <c r="P19" t="n">
-        <v>1.91</v>
+        <v>2.34</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.02</v>
+        <v>1.65</v>
       </c>
       <c r="R19" t="n">
-        <v>1.33</v>
+        <v>1.54</v>
       </c>
       <c r="S19" t="n">
-        <v>3.55</v>
+        <v>2.62</v>
       </c>
       <c r="T19" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="U19" t="n">
-        <v>2.12</v>
+        <v>2.3</v>
       </c>
       <c r="V19" t="n">
-        <v>1.48</v>
+        <v>2.2</v>
       </c>
       <c r="W19" t="n">
-        <v>1.58</v>
+        <v>1.25</v>
       </c>
       <c r="X19" t="n">
-        <v>15.5</v>
+        <v>990</v>
       </c>
       <c r="Y19" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="Z19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA19" t="n">
-        <v>85</v>
+        <v>980</v>
       </c>
       <c r="AB19" t="n">
-        <v>12.5</v>
+        <v>990</v>
       </c>
       <c r="AC19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>990</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>120</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>55</v>
+      </c>
+      <c r="AO19" t="n">
         <v>9</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>20</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>48</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>980</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>40</v>
       </c>
     </row>
     <row r="20">
@@ -3088,121 +3088,121 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Boreham Wood</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>4.7</v>
+        <v>6</v>
       </c>
       <c r="G20" t="n">
-        <v>4.9</v>
+        <v>6.8</v>
       </c>
       <c r="H20" t="n">
-        <v>1.78</v>
+        <v>1.5</v>
       </c>
       <c r="I20" t="n">
-        <v>1.83</v>
+        <v>1.54</v>
       </c>
       <c r="J20" t="n">
-        <v>4</v>
+        <v>5.1</v>
       </c>
       <c r="K20" t="n">
-        <v>4.4</v>
+        <v>5.6</v>
       </c>
       <c r="L20" t="n">
-        <v>1.32</v>
+        <v>1.24</v>
       </c>
       <c r="M20" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N20" t="n">
-        <v>5</v>
+        <v>6.8</v>
       </c>
       <c r="O20" t="n">
-        <v>1.21</v>
+        <v>1.14</v>
       </c>
       <c r="P20" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U20" t="n">
         <v>2.38</v>
       </c>
-      <c r="Q20" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S20" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="U20" t="n">
-        <v>2.3</v>
-      </c>
       <c r="V20" t="n">
-        <v>2.2</v>
+        <v>2.84</v>
       </c>
       <c r="W20" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="X20" t="n">
         <v>990</v>
       </c>
       <c r="Y20" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="Z20" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="AA20" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="AB20" t="n">
         <v>990</v>
       </c>
       <c r="AC20" t="n">
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>19</v>
+        <v>11.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="AF20" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AG20" t="n">
-        <v>990</v>
+        <v>40</v>
       </c>
       <c r="AH20" t="n">
-        <v>990</v>
+        <v>20</v>
       </c>
       <c r="AI20" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AJ20" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="AK20" t="n">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="AL20" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="AM20" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AN20" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AO20" t="n">
-        <v>9.199999999999999</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="21">
@@ -3223,127 +3223,127 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Gateshead</t>
+          <t>Braintree</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Carlisle</t>
+          <t>Southend</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>5.9</v>
+        <v>5.3</v>
       </c>
       <c r="G21" t="n">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="H21" t="n">
-        <v>1.48</v>
+        <v>1.65</v>
       </c>
       <c r="I21" t="n">
-        <v>1.55</v>
+        <v>1.71</v>
       </c>
       <c r="J21" t="n">
-        <v>5.1</v>
+        <v>4.1</v>
       </c>
       <c r="K21" t="n">
-        <v>5.8</v>
+        <v>4.6</v>
       </c>
       <c r="L21" t="n">
-        <v>1.24</v>
+        <v>1.37</v>
       </c>
       <c r="M21" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="N21" t="n">
-        <v>6.8</v>
+        <v>4.3</v>
       </c>
       <c r="O21" t="n">
-        <v>1.14</v>
+        <v>1.29</v>
       </c>
       <c r="P21" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="S21" t="n">
         <v>3</v>
       </c>
-      <c r="Q21" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="S21" t="n">
-        <v>2.1</v>
-      </c>
       <c r="T21" t="n">
-        <v>1.64</v>
+        <v>1.79</v>
       </c>
       <c r="U21" t="n">
-        <v>2.52</v>
+        <v>2.06</v>
       </c>
       <c r="V21" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="W21" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="X21" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD21" t="n">
         <v>990</v>
       </c>
-      <c r="Y21" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>990</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>12</v>
-      </c>
       <c r="AE21" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AF21" t="n">
-        <v>100</v>
+        <v>980</v>
       </c>
       <c r="AG21" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="AH21" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="AI21" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AJ21" t="n">
         <v>170</v>
       </c>
       <c r="AK21" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AL21" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN21" t="n">
         <v>80</v>
       </c>
-      <c r="AM21" t="n">
-        <v>60</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>55</v>
-      </c>
       <c r="AO21" t="n">
-        <v>4.9</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,132 +3353,132 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>13:15:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Braintree</t>
+          <t>Modena</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Southend</t>
+          <t>AC Monza</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>5.4</v>
+        <v>2.6</v>
       </c>
       <c r="G22" t="n">
-        <v>6</v>
+        <v>2.66</v>
       </c>
       <c r="H22" t="n">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="I22" t="n">
-        <v>1.74</v>
+        <v>3.45</v>
       </c>
       <c r="J22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K22" t="n">
-        <v>4.4</v>
+        <v>3.1</v>
       </c>
       <c r="L22" t="n">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>2.04</v>
+        <v>1.62</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.89</v>
+        <v>2.58</v>
       </c>
       <c r="R22" t="n">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>1.81</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>2.02</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>2.34</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z22" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AA22" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="AB22" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AC22" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AE22" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AF22" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AG22" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AH22" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AI22" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AJ22" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="AK22" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AL22" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AM22" t="n">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="AN22" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="AO22" t="n">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,132 +3488,132 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>13:15:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Modena</t>
+          <t>Sakaryaspor</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>AC Monza</t>
+          <t>Manisa FK</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.6</v>
+        <v>2.12</v>
       </c>
       <c r="G23" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I23" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K23" t="n">
+        <v>4</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N23" t="n">
+        <v>5</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="S23" t="n">
         <v>2.68</v>
       </c>
-      <c r="H23" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I23" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="J23" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K23" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AA23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AE23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF23" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AH23" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AJ23" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AK23" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AL23" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AM23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AO23" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,132 +3623,132 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Sakaryaspor</t>
+          <t>Al-Hilal</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Manisa FK</t>
+          <t>Al-Khaleej Saihat</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.2</v>
+        <v>1.23</v>
       </c>
       <c r="G24" t="n">
-        <v>2.22</v>
+        <v>1.24</v>
       </c>
       <c r="H24" t="n">
-        <v>3.2</v>
+        <v>13</v>
       </c>
       <c r="I24" t="n">
-        <v>3.4</v>
+        <v>14</v>
       </c>
       <c r="J24" t="n">
-        <v>3.9</v>
+        <v>8.4</v>
       </c>
       <c r="K24" t="n">
-        <v>4.2</v>
+        <v>9</v>
       </c>
       <c r="L24" t="n">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="M24" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N24" t="n">
-        <v>4.8</v>
+        <v>11.5</v>
       </c>
       <c r="O24" t="n">
-        <v>1.22</v>
+        <v>1.08</v>
       </c>
       <c r="P24" t="n">
-        <v>2.34</v>
+        <v>4.4</v>
       </c>
       <c r="Q24" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="S24" t="n">
         <v>1.68</v>
       </c>
-      <c r="R24" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="S24" t="n">
-        <v>2.74</v>
-      </c>
       <c r="T24" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="U24" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="V24" t="n">
-        <v>1.41</v>
+        <v>1.07</v>
       </c>
       <c r="W24" t="n">
-        <v>1.81</v>
+        <v>5.1</v>
       </c>
       <c r="X24" t="n">
+        <v>95</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>190</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>460</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>50</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>150</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH24" t="n">
         <v>28</v>
       </c>
-      <c r="Y24" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>38</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>95</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>50</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AI24" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ24" t="n">
-        <v>55</v>
+        <v>12.5</v>
       </c>
       <c r="AK24" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AL24" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AM24" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN24" t="n">
-        <v>13.5</v>
+        <v>2.78</v>
       </c>
       <c r="AO24" t="n">
-        <v>25</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,261 +3758,126 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Al-Hilal</t>
+          <t>Man Utd</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Al-Khaleej Saihat</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.24</v>
+        <v>2.72</v>
       </c>
       <c r="G25" t="n">
-        <v>1.27</v>
+        <v>2.74</v>
       </c>
       <c r="H25" t="n">
-        <v>11.5</v>
+        <v>2.7</v>
       </c>
       <c r="I25" t="n">
-        <v>13.5</v>
+        <v>2.72</v>
       </c>
       <c r="J25" t="n">
-        <v>7.6</v>
+        <v>3.75</v>
       </c>
       <c r="K25" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N25" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="S25" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U25" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X25" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC25" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="L25" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N25" t="n">
-        <v>11</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="P25" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="R25" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="T25" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="U25" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="W25" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="X25" t="n">
-        <v>85</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>990</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>160</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>500</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>25</v>
-      </c>
       <c r="AD25" t="n">
-        <v>46</v>
+        <v>12.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>150</v>
+        <v>24</v>
       </c>
       <c r="AF25" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AG25" t="n">
         <v>12.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="AI25" t="n">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="AJ25" t="n">
-        <v>12.5</v>
+        <v>40</v>
       </c>
       <c r="AK25" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="AL25" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="AM25" t="n">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="AN25" t="n">
-        <v>2.96</v>
+        <v>17</v>
       </c>
       <c r="AO25" t="n">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>English Premier League</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>2025-12-26</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>17:00:00</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Man Utd</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Newcastle</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="G26" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="H26" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="I26" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="J26" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K26" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L26" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N26" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P26" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S26" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="T26" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="U26" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="V26" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="W26" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="X26" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>20</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>40</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>24</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>14</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>25</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>48</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO25"/>
+  <dimension ref="A1:AO19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Welsh Premiership</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,78 +653,78 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>10:05:00</t>
+          <t>11:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Al-Fateh (KSA)</t>
+          <t>The New Saints</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Al Ahli</t>
+          <t>Bala Town</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.78</v>
+        <v>1.01</v>
       </c>
       <c r="G2" t="n">
-        <v>1.82</v>
+        <v>1.13</v>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>1.03</v>
       </c>
       <c r="I2" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>3.15</v>
+        <v>3.85</v>
       </c>
       <c r="K2" t="n">
-        <v>3.25</v>
+        <v>970</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="R2" t="n">
-        <v>2.9</v>
+        <v>2.04</v>
       </c>
       <c r="S2" t="n">
-        <v>1.51</v>
+        <v>1.01</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="V2" t="n">
-        <v>1.15</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>2.22</v>
+        <v>1.01</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="Z2" t="n">
         <v>1000</v>
@@ -733,13 +733,13 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
@@ -748,37 +748,37 @@
         <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>2.78</v>
+        <v>990</v>
       </c>
       <c r="AH2" t="n">
-        <v>3.7</v>
+        <v>990</v>
       </c>
       <c r="AI2" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="AL2" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>USM Khenchela</t>
+          <t>Al-Kholood Club</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CS Constantine</t>
+          <t>Al-Taawoun Buraidah</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.66</v>
+        <v>100</v>
       </c>
       <c r="G3" t="n">
-        <v>2.9</v>
+        <v>1000</v>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>1.01</v>
       </c>
       <c r="I3" t="n">
-        <v>4.5</v>
+        <v>1.02</v>
       </c>
       <c r="J3" t="n">
-        <v>2.42</v>
+        <v>34</v>
       </c>
       <c r="K3" t="n">
-        <v>2.54</v>
+        <v>1000</v>
       </c>
       <c r="L3" t="n">
-        <v>3.65</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.18</v>
+        <v>1.34</v>
       </c>
       <c r="Q3" t="n">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="R3" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="S3" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="T3" t="n">
-        <v>3.55</v>
+        <v>4.3</v>
       </c>
       <c r="U3" t="n">
-        <v>1.33</v>
+        <v>1.15</v>
       </c>
       <c r="V3" t="n">
-        <v>1.3</v>
+        <v>26</v>
       </c>
       <c r="W3" t="n">
-        <v>1.53</v>
+        <v>1.01</v>
       </c>
       <c r="X3" t="n">
-        <v>4.1</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>36</v>
+        <v>1.52</v>
       </c>
       <c r="AA3" t="n">
-        <v>210</v>
+        <v>590</v>
       </c>
       <c r="AB3" t="n">
-        <v>5.2</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>38</v>
+        <v>590</v>
       </c>
       <c r="AE3" t="n">
-        <v>210</v>
+        <v>460</v>
       </c>
       <c r="AF3" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>80</v>
+        <v>890</v>
       </c>
       <c r="AI3" t="n">
-        <v>460</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>350</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>890</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,36 +923,36 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>JS Saoura</t>
+          <t>Hartlepool</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>MC El Bayadh</t>
+          <t>Scunthorpe</t>
         </is>
       </c>
       <c r="F4" t="n">
+        <v>38</v>
+      </c>
+      <c r="G4" t="n">
+        <v>130</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="I4" t="n">
         <v>1.2</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="H4" t="n">
-        <v>26</v>
-      </c>
-      <c r="I4" t="n">
-        <v>32</v>
       </c>
       <c r="J4" t="n">
         <v>6.6</v>
       </c>
       <c r="K4" t="n">
-        <v>7.4</v>
+        <v>8.4</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -961,34 +961,34 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="S4" t="n">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="T4" t="n">
-        <v>2.26</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>1.72</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>1.03</v>
+        <v>6.8</v>
       </c>
       <c r="W4" t="n">
-        <v>5.3</v>
+        <v>1.01</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1003,52 +1003,52 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>5.5</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>55</v>
+        <v>1.53</v>
       </c>
       <c r="AE4" t="n">
-        <v>360</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.9</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>38</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AI4" t="n">
-        <v>260</v>
+        <v>85</v>
       </c>
       <c r="AJ4" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>70</v>
+        <v>210</v>
       </c>
       <c r="AM4" t="n">
-        <v>410</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,90 +1058,90 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>11:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The New Saints</t>
+          <t>Sutton Utd</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Bala Town</t>
+          <t>Aldershot</t>
         </is>
       </c>
       <c r="F5" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="G5" t="n">
+        <v>7</v>
+      </c>
+      <c r="H5" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="O5" t="n">
+        <v>12</v>
+      </c>
+      <c r="P5" t="n">
         <v>1.01</v>
       </c>
-      <c r="G5" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="H5" t="n">
-        <v>36</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J5" t="n">
-        <v>8</v>
-      </c>
-      <c r="K5" t="n">
-        <v>970</v>
-      </c>
-      <c r="L5" t="n">
+      <c r="Q5" t="n">
+        <v>80</v>
+      </c>
+      <c r="R5" t="n">
         <v>1.01</v>
       </c>
-      <c r="M5" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N5" t="n">
+      <c r="S5" t="n">
+        <v>100</v>
+      </c>
+      <c r="T5" t="n">
+        <v>17</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="X5" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Y5" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="O5" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R5" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="W5" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="X5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>1000</v>
-      </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AA5" t="n">
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>820</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AD5" t="n">
         <v>1000</v>
@@ -1150,7 +1150,7 @@
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AG5" t="n">
         <v>1000</v>
@@ -1183,7 +1183,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,108 +1193,108 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>11:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Penybont FC</t>
+          <t>Truro City</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Briton Ferry Llansawel</t>
+          <t>Yeovil</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.34</v>
+        <v>1.12</v>
       </c>
       <c r="G6" t="n">
-        <v>2.46</v>
+        <v>1.15</v>
       </c>
       <c r="H6" t="n">
-        <v>3.2</v>
+        <v>32</v>
       </c>
       <c r="I6" t="n">
-        <v>3.45</v>
+        <v>950</v>
       </c>
       <c r="J6" t="n">
-        <v>3.4</v>
+        <v>7.8</v>
       </c>
       <c r="K6" t="n">
-        <v>3.7</v>
+        <v>10</v>
       </c>
       <c r="L6" t="n">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>3.7</v>
+        <v>1.37</v>
       </c>
       <c r="O6" t="n">
-        <v>1.32</v>
+        <v>3.6</v>
       </c>
       <c r="P6" t="n">
-        <v>1.91</v>
+        <v>1.02</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.02</v>
+        <v>42</v>
       </c>
       <c r="R6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="S6" t="n">
+        <v>240</v>
+      </c>
+      <c r="T6" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W6" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB6" t="n">
         <v>1.29</v>
       </c>
-      <c r="S6" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="W6" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="X6" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y6" t="n">
+      <c r="AC6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF6" t="n">
         <v>12.5</v>
       </c>
-      <c r="Z6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>1000</v>
-      </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>960</v>
       </c>
       <c r="AH6" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
         <v>1000</v>
@@ -1303,22 +1303,22 @@
         <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
         <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,36 +1328,36 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>11:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Flint Town United</t>
+          <t>Morecambe</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Connahs Quay</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>8.4</v>
+        <v>36</v>
       </c>
       <c r="G7" t="n">
-        <v>65</v>
+        <v>150</v>
       </c>
       <c r="H7" t="n">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="I7" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="J7" t="n">
-        <v>5.4</v>
+        <v>7</v>
       </c>
       <c r="K7" t="n">
-        <v>18.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1366,31 +1366,31 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>4</v>
+        <v>1.02</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.21</v>
+        <v>1.01</v>
       </c>
       <c r="R7" t="n">
-        <v>1.28</v>
+        <v>1.44</v>
       </c>
       <c r="S7" t="n">
-        <v>1.23</v>
+        <v>2.2</v>
       </c>
       <c r="T7" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="U7" t="n">
         <v>1.01</v>
       </c>
-      <c r="U7" t="n">
-        <v>2.02</v>
-      </c>
       <c r="V7" t="n">
-        <v>5</v>
+        <v>1.03</v>
       </c>
       <c r="W7" t="n">
         <v>1.01</v>
@@ -1399,7 +1399,7 @@
         <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>710</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
         <v>1000</v>
@@ -1429,7 +1429,7 @@
         <v>1000</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AJ7" t="n">
         <v>1000</v>
@@ -1447,13 +1447,13 @@
         <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Welsh Premiership</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>11:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Haverfordwest County</t>
+          <t>Braintree</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Llanelli Town</t>
+          <t>Southend</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.4</v>
+        <v>38</v>
       </c>
       <c r="G8" t="n">
-        <v>1.42</v>
+        <v>60</v>
       </c>
       <c r="H8" t="n">
-        <v>8.800000000000001</v>
+        <v>1.22</v>
       </c>
       <c r="I8" t="n">
-        <v>10.5</v>
+        <v>1.25</v>
       </c>
       <c r="J8" t="n">
-        <v>5.2</v>
+        <v>5.8</v>
       </c>
       <c r="K8" t="n">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="L8" t="n">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>4.9</v>
+        <v>1.58</v>
       </c>
       <c r="O8" t="n">
-        <v>1.23</v>
+        <v>2.58</v>
       </c>
       <c r="P8" t="n">
-        <v>2.24</v>
+        <v>1.08</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.75</v>
+        <v>11</v>
       </c>
       <c r="R8" t="n">
-        <v>1.5</v>
+        <v>1.01</v>
       </c>
       <c r="S8" t="n">
-        <v>2.84</v>
+        <v>70</v>
       </c>
       <c r="T8" t="n">
-        <v>2.12</v>
+        <v>3.9</v>
       </c>
       <c r="U8" t="n">
-        <v>1.75</v>
+        <v>1.24</v>
       </c>
       <c r="V8" t="n">
-        <v>1.08</v>
+        <v>5.1</v>
       </c>
       <c r="W8" t="n">
-        <v>3.9</v>
+        <v>1.01</v>
       </c>
       <c r="X8" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>46</v>
+        <v>1.78</v>
       </c>
       <c r="Z8" t="n">
-        <v>140</v>
+        <v>7.2</v>
       </c>
       <c r="AA8" t="n">
-        <v>530</v>
+        <v>65</v>
       </c>
       <c r="AB8" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>16</v>
+        <v>6.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="AE8" t="n">
-        <v>230</v>
+        <v>990</v>
       </c>
       <c r="AF8" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>11.5</v>
+        <v>55</v>
       </c>
       <c r="AH8" t="n">
-        <v>40</v>
+        <v>260</v>
       </c>
       <c r="AI8" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>5.9</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>370</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1603,121 +1603,121 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Al-Kholood Club</t>
+          <t>FC Halifax Town</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Al-Taawoun Buraidah</t>
+          <t>Altrincham</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.6</v>
+        <v>1.19</v>
       </c>
       <c r="G9" t="n">
-        <v>3.7</v>
+        <v>1.22</v>
       </c>
       <c r="H9" t="n">
-        <v>2.16</v>
+        <v>40</v>
       </c>
       <c r="I9" t="n">
-        <v>2.22</v>
+        <v>800</v>
       </c>
       <c r="J9" t="n">
-        <v>3.65</v>
+        <v>6</v>
       </c>
       <c r="K9" t="n">
-        <v>3.8</v>
+        <v>6.8</v>
       </c>
       <c r="L9" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.04</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>1.35</v>
+        <v>1.6</v>
       </c>
       <c r="S9" t="n">
-        <v>3.7</v>
+        <v>2.56</v>
       </c>
       <c r="T9" t="n">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>1.82</v>
+        <v>1.01</v>
       </c>
       <c r="W9" t="n">
-        <v>1.37</v>
+        <v>6</v>
       </c>
       <c r="X9" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AD9" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>1.69</v>
       </c>
       <c r="AH9" t="n">
-        <v>18.5</v>
+        <v>7.6</v>
       </c>
       <c r="AI9" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>46</v>
+        <v>6.6</v>
       </c>
       <c r="AL9" t="n">
-        <v>60</v>
+        <v>960</v>
       </c>
       <c r="AM9" t="n">
-        <v>200</v>
+        <v>990</v>
       </c>
       <c r="AN9" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AO9" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
@@ -1738,121 +1738,121 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Hartlepool</t>
+          <t>York City</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Scunthorpe</t>
+          <t>Boston Utd</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.46</v>
+        <v>4.7</v>
       </c>
       <c r="G10" t="n">
-        <v>2.54</v>
+        <v>5.2</v>
       </c>
       <c r="H10" t="n">
-        <v>2.9</v>
+        <v>6.4</v>
       </c>
       <c r="I10" t="n">
-        <v>2.98</v>
+        <v>7.4</v>
       </c>
       <c r="J10" t="n">
-        <v>3.7</v>
+        <v>1.51</v>
       </c>
       <c r="K10" t="n">
-        <v>3.85</v>
+        <v>1.56</v>
       </c>
       <c r="L10" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.12</v>
+        <v>1.66</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.83</v>
+        <v>2.48</v>
       </c>
       <c r="R10" t="n">
-        <v>1.45</v>
+        <v>1.07</v>
       </c>
       <c r="S10" t="n">
-        <v>3.05</v>
+        <v>14.5</v>
       </c>
       <c r="T10" t="n">
-        <v>1.69</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>2.28</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>1.5</v>
+        <v>1.15</v>
       </c>
       <c r="W10" t="n">
-        <v>1.65</v>
+        <v>1.23</v>
       </c>
       <c r="X10" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.4</v>
+        <v>1.66</v>
       </c>
       <c r="AD10" t="n">
-        <v>13</v>
+        <v>8.6</v>
       </c>
       <c r="AE10" t="n">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="AF10" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AH10" t="n">
-        <v>16.5</v>
+        <v>36</v>
       </c>
       <c r="AI10" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AL10" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
@@ -1873,121 +1873,121 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Sutton Utd</t>
+          <t>Brackley Town</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Aldershot</t>
+          <t>Forest Green</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.12</v>
+        <v>1.43</v>
       </c>
       <c r="G11" t="n">
-        <v>2.18</v>
+        <v>1.48</v>
       </c>
       <c r="H11" t="n">
-        <v>3.3</v>
+        <v>16</v>
       </c>
       <c r="I11" t="n">
-        <v>3.55</v>
+        <v>19</v>
       </c>
       <c r="J11" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K11" t="n">
         <v>4</v>
       </c>
-      <c r="K11" t="n">
-        <v>4.4</v>
-      </c>
       <c r="L11" t="n">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>6.4</v>
+        <v>1.67</v>
       </c>
       <c r="O11" t="n">
-        <v>1.16</v>
+        <v>2.4</v>
       </c>
       <c r="P11" t="n">
-        <v>2.84</v>
+        <v>1.09</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="R11" t="n">
-        <v>1.76</v>
+        <v>1.01</v>
       </c>
       <c r="S11" t="n">
-        <v>2.18</v>
+        <v>50</v>
       </c>
       <c r="T11" t="n">
-        <v>1.53</v>
+        <v>2.58</v>
       </c>
       <c r="U11" t="n">
-        <v>2.72</v>
+        <v>1.42</v>
       </c>
       <c r="V11" t="n">
-        <v>1.39</v>
+        <v>1.05</v>
       </c>
       <c r="W11" t="n">
-        <v>1.85</v>
+        <v>3.1</v>
       </c>
       <c r="X11" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>17</v>
+        <v>2.02</v>
       </c>
       <c r="AC11" t="n">
-        <v>11.5</v>
+        <v>4.1</v>
       </c>
       <c r="AD11" t="n">
-        <v>16.5</v>
+        <v>32</v>
       </c>
       <c r="AE11" t="n">
+        <v>410</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG11" t="n">
         <v>55</v>
       </c>
-      <c r="AF11" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AH11" t="n">
-        <v>15.5</v>
+        <v>360</v>
       </c>
       <c r="AI11" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
@@ -2008,109 +2008,109 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Truro City</t>
+          <t>Eastleigh</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Yeovil</t>
+          <t>Woking</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.28</v>
+        <v>7.2</v>
       </c>
       <c r="G12" t="n">
-        <v>2.32</v>
+        <v>8</v>
       </c>
       <c r="H12" t="n">
-        <v>3.55</v>
+        <v>6</v>
       </c>
       <c r="I12" t="n">
-        <v>3.7</v>
+        <v>7.2</v>
       </c>
       <c r="J12" t="n">
-        <v>3.35</v>
+        <v>1.39</v>
       </c>
       <c r="K12" t="n">
-        <v>3.6</v>
+        <v>1.43</v>
       </c>
       <c r="L12" t="n">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1.8</v>
+        <v>1.42</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.12</v>
+        <v>2.78</v>
       </c>
       <c r="R12" t="n">
-        <v>1.3</v>
+        <v>1.01</v>
       </c>
       <c r="S12" t="n">
-        <v>4</v>
+        <v>2.56</v>
       </c>
       <c r="T12" t="n">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>2.04</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>1.37</v>
+        <v>1.15</v>
       </c>
       <c r="W12" t="n">
-        <v>1.76</v>
+        <v>1.13</v>
       </c>
       <c r="X12" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Y12" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Z12" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AA12" t="n">
         <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.199999999999999</v>
+        <v>1.65</v>
       </c>
       <c r="AD12" t="n">
-        <v>16</v>
+        <v>960</v>
       </c>
       <c r="AE12" t="n">
         <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH12" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AI12" t="n">
         <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AL12" t="n">
         <v>1000</v>
@@ -2119,7 +2119,7 @@
         <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2143,121 +2143,121 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Morecambe</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Boreham Wood</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>7.2</v>
+        <v>110</v>
       </c>
       <c r="G13" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="H13" t="n">
-        <v>1.46</v>
+        <v>1.01</v>
       </c>
       <c r="I13" t="n">
-        <v>1.5</v>
+        <v>1.01</v>
       </c>
       <c r="J13" t="n">
-        <v>5.1</v>
+        <v>100</v>
       </c>
       <c r="K13" t="n">
-        <v>5.5</v>
+        <v>1000</v>
       </c>
       <c r="L13" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.56</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>1.63</v>
+        <v>1.84</v>
       </c>
       <c r="S13" t="n">
-        <v>2.44</v>
+        <v>2.08</v>
       </c>
       <c r="T13" t="n">
-        <v>1.87</v>
+        <v>1.43</v>
       </c>
       <c r="U13" t="n">
-        <v>2.1</v>
+        <v>1.11</v>
       </c>
       <c r="V13" t="n">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="W13" t="n">
-        <v>1.14</v>
+        <v>1.01</v>
       </c>
       <c r="X13" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="Y13" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Z13" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AA13" t="n">
-        <v>15.5</v>
+        <v>1.93</v>
       </c>
       <c r="AB13" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AC13" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AD13" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AE13" t="n">
-        <v>17.5</v>
+        <v>850</v>
       </c>
       <c r="AF13" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AG13" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AH13" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AI13" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AL13" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AM13" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
         <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>5.6</v>
+        <v>980</v>
       </c>
     </row>
     <row r="14">
@@ -2278,121 +2278,121 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>FC Halifax Town</t>
+          <t>Gateshead</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Altrincham</t>
+          <t>Carlisle</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.14</v>
+        <v>80</v>
       </c>
       <c r="G14" t="n">
-        <v>2.24</v>
+        <v>1000</v>
       </c>
       <c r="H14" t="n">
-        <v>3.55</v>
+        <v>1.01</v>
       </c>
       <c r="I14" t="n">
-        <v>3.8</v>
+        <v>1.02</v>
       </c>
       <c r="J14" t="n">
-        <v>3.7</v>
+        <v>50</v>
       </c>
       <c r="K14" t="n">
-        <v>3.8</v>
+        <v>1000</v>
       </c>
       <c r="L14" t="n">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>2.02</v>
+        <v>1.57</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.89</v>
+        <v>2.56</v>
       </c>
       <c r="R14" t="n">
-        <v>1.41</v>
+        <v>1.08</v>
       </c>
       <c r="S14" t="n">
-        <v>3.25</v>
+        <v>11</v>
       </c>
       <c r="T14" t="n">
-        <v>1.73</v>
+        <v>5.5</v>
       </c>
       <c r="U14" t="n">
-        <v>2.16</v>
+        <v>1.18</v>
       </c>
       <c r="V14" t="n">
-        <v>1.37</v>
+        <v>34</v>
       </c>
       <c r="W14" t="n">
-        <v>1.8</v>
+        <v>1.01</v>
       </c>
       <c r="X14" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Y14" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Z14" t="n">
-        <v>27</v>
+        <v>1.72</v>
       </c>
       <c r="AA14" t="n">
-        <v>70</v>
+        <v>5.2</v>
       </c>
       <c r="AB14" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD14" t="n">
-        <v>15.5</v>
+        <v>10</v>
       </c>
       <c r="AE14" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AF14" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AG14" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AH14" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AI14" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AK14" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AL14" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AM14" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AO14" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
     </row>
     <row r="15">
@@ -2413,127 +2413,127 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>York City</t>
+          <t>Solihull Moors</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Boston Utd</t>
+          <t>Tamworth FC</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.25</v>
+        <v>1.01</v>
       </c>
       <c r="G15" t="n">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="H15" t="n">
-        <v>13.5</v>
+        <v>3.05</v>
       </c>
       <c r="I15" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="J15" t="n">
-        <v>7</v>
+        <v>3.05</v>
       </c>
       <c r="K15" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="L15" t="n">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>1.84</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>2.08</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>1.89</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>1.96</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="W15" t="n">
-        <v>4.7</v>
+        <v>34</v>
       </c>
       <c r="X15" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="Y15" t="n">
         <v>1000</v>
       </c>
       <c r="Z15" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AA15" t="n">
         <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AC15" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AD15" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AE15" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AG15" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AH15" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AI15" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AK15" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AL15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN15" t="n">
         <v>980</v>
       </c>
-      <c r="AM15" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>3.5</v>
-      </c>
       <c r="AO15" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>13:15:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Solihull Moors</t>
+          <t>Modena</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Tamworth FC</t>
+          <t>AC Monza</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.06</v>
+        <v>2.48</v>
       </c>
       <c r="G16" t="n">
-        <v>2.1</v>
+        <v>2.54</v>
       </c>
       <c r="H16" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="I16" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="J16" t="n">
-        <v>3.9</v>
+        <v>2.82</v>
       </c>
       <c r="K16" t="n">
-        <v>4.1</v>
+        <v>2.84</v>
       </c>
       <c r="L16" t="n">
-        <v>1.32</v>
+        <v>2.48</v>
       </c>
       <c r="M16" t="n">
-        <v>1.05</v>
+        <v>1.22</v>
       </c>
       <c r="N16" t="n">
-        <v>5</v>
+        <v>2.08</v>
       </c>
       <c r="O16" t="n">
-        <v>1.23</v>
+        <v>1.88</v>
       </c>
       <c r="P16" t="n">
-        <v>2.38</v>
+        <v>1.31</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.67</v>
+        <v>4</v>
       </c>
       <c r="R16" t="n">
-        <v>1.56</v>
+        <v>1.1</v>
       </c>
       <c r="S16" t="n">
-        <v>2.66</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="T16" t="n">
-        <v>1.59</v>
+        <v>2.84</v>
       </c>
       <c r="U16" t="n">
-        <v>2.5</v>
+        <v>1.52</v>
       </c>
       <c r="V16" t="n">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="W16" t="n">
-        <v>1.9</v>
+        <v>1.63</v>
       </c>
       <c r="X16" t="n">
-        <v>23</v>
+        <v>5.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>19.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z16" t="n">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="AA16" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AB16" t="n">
-        <v>13.5</v>
+        <v>5.8</v>
       </c>
       <c r="AC16" t="n">
-        <v>9.4</v>
+        <v>7</v>
       </c>
       <c r="AD16" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AE16" t="n">
+        <v>120</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>38</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>200</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>46</v>
+      </c>
+      <c r="AK16" t="n">
         <v>55</v>
       </c>
-      <c r="AF16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>990</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>980</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>25</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>19.5</v>
-      </c>
       <c r="AL16" t="n">
-        <v>44</v>
+        <v>170</v>
       </c>
       <c r="AM16" t="n">
-        <v>95</v>
+        <v>630</v>
       </c>
       <c r="AN16" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AO16" t="n">
-        <v>55</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,132 +2678,132 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Brackley Town</t>
+          <t>Sakaryaspor</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Forest Green</t>
+          <t>Manisa FK</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>6</v>
+        <v>2.22</v>
       </c>
       <c r="G17" t="n">
-        <v>6.4</v>
+        <v>2.26</v>
       </c>
       <c r="H17" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K17" t="n">
+        <v>4</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N17" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="T17" t="n">
         <v>1.6</v>
       </c>
-      <c r="I17" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="J17" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K17" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N17" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="S17" t="n">
-        <v>3</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.81</v>
-      </c>
       <c r="U17" t="n">
-        <v>2.02</v>
+        <v>2.28</v>
       </c>
       <c r="V17" t="n">
-        <v>2.54</v>
+        <v>1.42</v>
       </c>
       <c r="W17" t="n">
-        <v>1.19</v>
+        <v>1.79</v>
       </c>
       <c r="X17" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK17" t="n">
         <v>20</v>
       </c>
-      <c r="Y17" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>16</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>24</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>24</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>170</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>85</v>
-      </c>
       <c r="AL17" t="n">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="AM17" t="n">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="AN17" t="n">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="AO17" t="n">
-        <v>8.199999999999999</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,132 +2813,132 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Eastleigh</t>
+          <t>Al-Hilal</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Woking</t>
+          <t>Al-Khaleej Saihat</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.68</v>
+        <v>1.21</v>
       </c>
       <c r="G18" t="n">
-        <v>2.7</v>
+        <v>1.22</v>
       </c>
       <c r="H18" t="n">
-        <v>2.9</v>
+        <v>14.5</v>
       </c>
       <c r="I18" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="J18" t="n">
-        <v>3.35</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="K18" t="n">
-        <v>3.6</v>
+        <v>9.6</v>
       </c>
       <c r="L18" t="n">
-        <v>1.44</v>
+        <v>1.18</v>
       </c>
       <c r="M18" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>3.65</v>
+        <v>11</v>
       </c>
       <c r="O18" t="n">
-        <v>1.34</v>
+        <v>1.09</v>
       </c>
       <c r="P18" t="n">
-        <v>1.92</v>
+        <v>4.3</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.02</v>
+        <v>1.3</v>
       </c>
       <c r="R18" t="n">
-        <v>1.33</v>
+        <v>2.3</v>
       </c>
       <c r="S18" t="n">
-        <v>3.7</v>
+        <v>1.71</v>
       </c>
       <c r="T18" t="n">
-        <v>1.77</v>
+        <v>1.63</v>
       </c>
       <c r="U18" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="V18" t="n">
-        <v>1.5</v>
+        <v>1.06</v>
       </c>
       <c r="W18" t="n">
-        <v>1.58</v>
+        <v>5.4</v>
       </c>
       <c r="X18" t="n">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="Y18" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Z18" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AA18" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>12.5</v>
+        <v>27</v>
       </c>
       <c r="AC18" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AD18" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AE18" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AG18" t="n">
-        <v>14.5</v>
+        <v>990</v>
       </c>
       <c r="AH18" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AI18" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AK18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM18" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>34</v>
+        <v>2.82</v>
       </c>
       <c r="AO18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,935 +2948,125 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>Man Utd</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Boreham Wood</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>4.6</v>
+        <v>2.7</v>
       </c>
       <c r="G19" t="n">
-        <v>5</v>
+        <v>2.72</v>
       </c>
       <c r="H19" t="n">
-        <v>1.78</v>
+        <v>2.72</v>
       </c>
       <c r="I19" t="n">
-        <v>1.83</v>
+        <v>2.74</v>
       </c>
       <c r="J19" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K19" t="n">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="L19" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="M19" t="n">
         <v>1.05</v>
       </c>
       <c r="N19" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="O19" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P19" t="n">
-        <v>2.34</v>
+        <v>2.48</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="R19" t="n">
-        <v>1.54</v>
+        <v>1.61</v>
       </c>
       <c r="S19" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="T19" t="n">
-        <v>1.71</v>
+        <v>1.56</v>
       </c>
       <c r="U19" t="n">
-        <v>2.3</v>
+        <v>2.74</v>
       </c>
       <c r="V19" t="n">
-        <v>2.2</v>
+        <v>1.57</v>
       </c>
       <c r="W19" t="n">
-        <v>1.25</v>
+        <v>1.58</v>
       </c>
       <c r="X19" t="n">
-        <v>990</v>
+        <v>20</v>
       </c>
       <c r="Y19" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="Z19" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AA19" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AB19" t="n">
-        <v>990</v>
+        <v>15</v>
       </c>
       <c r="AC19" t="n">
-        <v>10</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD19" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AE19" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AF19" t="n">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="AG19" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="AH19" t="n">
-        <v>990</v>
+        <v>13.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AJ19" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="AK19" t="n">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="AL19" t="n">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="AM19" t="n">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="AN19" t="n">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="AO19" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>English National League</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>2025-12-26</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Gateshead</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Carlisle</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>6</v>
-      </c>
-      <c r="G20" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="J20" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K20" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N20" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P20" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="S20" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="U20" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V20" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="W20" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="X20" t="n">
-        <v>990</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>990</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>65</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>40</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>38</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>170</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>95</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>80</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>60</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>55</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>4.9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>English National League</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>2025-12-26</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Braintree</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Southend</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="G21" t="n">
-        <v>6</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="J21" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K21" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N21" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P21" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="S21" t="n">
-        <v>3</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="U21" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="V21" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="W21" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="X21" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>980</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>990</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>18</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>22</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>170</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>70</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>80</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>9.199999999999999</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Italian Serie B</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>2025-12-26</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>13:15:00</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Modena</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>AC Monza</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="G22" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="H22" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I22" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="J22" t="n">
-        <v>3</v>
-      </c>
-      <c r="K22" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Turkish 1 Lig</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>2025-12-26</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>14:00:00</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Sakaryaspor</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Manisa FK</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="G23" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H23" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="I23" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="J23" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K23" t="n">
-        <v>4</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N23" t="n">
-        <v>5</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P23" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="S23" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="T23" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="U23" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="W23" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="X23" t="n">
-        <v>25</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Saudi Professional League</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>2025-12-26</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>14:30:00</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Al-Hilal</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Al-Khaleej Saihat</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="G24" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="H24" t="n">
-        <v>13</v>
-      </c>
-      <c r="I24" t="n">
-        <v>14</v>
-      </c>
-      <c r="J24" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="K24" t="n">
-        <v>9</v>
-      </c>
-      <c r="L24" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N24" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="P24" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="R24" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="T24" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="U24" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="V24" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="W24" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="X24" t="n">
-        <v>95</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>190</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>460</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>50</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>150</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>English Premier League</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>2025-12-26</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>17:00:00</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Man Utd</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Newcastle</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="G25" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="H25" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="I25" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="J25" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K25" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N25" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P25" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="S25" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="T25" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="U25" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="W25" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="X25" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>20</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>40</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>24</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>20</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>14</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>28</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>25</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>30</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>48</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>17</v>
-      </c>
-      <c r="AO25" t="n">
         <v>16.5</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="A1:AO2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,36 +653,36 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Morecambe</t>
+          <t>Man Utd</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -691,358 +691,88 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="T2" t="n">
-        <v>1.05</v>
+        <v>1.63</v>
       </c>
       <c r="U2" t="n">
-        <v>1.01</v>
+        <v>2.52</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AM2" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AO2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Saudi Professional League</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2025-12-26</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>14:30:00</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Al-Hilal</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Al-Khaleej Saihat</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="H3" t="n">
-        <v>100</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J3" t="n">
-        <v>100</v>
-      </c>
-      <c r="K3" t="n">
-        <v>450</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="T3" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="W3" t="n">
-        <v>130</v>
-      </c>
-      <c r="X3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>520</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>English Premier League</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2025-12-26</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>17:00:00</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Man Utd</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Newcastle</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N4" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="S4" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="X4" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>20</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>42</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>24</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>38</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>28</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>48</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>16</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>18</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-26.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO2"/>
+  <dimension ref="A1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -640,141 +640,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>English Premier League</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2025-12-26</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>17:00:00</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Man Utd</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Newcastle</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="H2" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="I2" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="J2" t="n">
-        <v>4</v>
-      </c>
-      <c r="K2" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S2" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="W2" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>46</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>44</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>25</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>85</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
